--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -2854,10 +2854,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>by3d_kpshb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>3D捕鱼开炮送红包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -3943,6 +3939,10 @@
   </si>
   <si>
     <t>Sys_Act_CZZKManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>by3d_kpshb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4495,10 +4495,10 @@
   <dimension ref="A1:I313"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C224" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C228" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E239" sqref="E239"/>
+      <selection pane="bottomRight" activeCell="E237" sqref="E237"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -5275,7 +5275,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="C30" s="13" t="s">
         <v>90</v>
@@ -5975,7 +5975,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C57" s="13" t="s">
         <v>167</v>
@@ -6157,7 +6157,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C64" s="4" t="s">
         <v>187</v>
@@ -6183,7 +6183,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C65" s="13" t="s">
         <v>189</v>
@@ -6833,7 +6833,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="C90" s="13" t="s">
         <v>262</v>
@@ -7148,7 +7148,7 @@
         <v>297</v>
       </c>
       <c r="C102" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="D102" s="4" t="s">
         <v>298</v>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="168" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -9159,7 +9159,7 @@
         <v>179</v>
       </c>
       <c r="B180" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="C180" s="13" t="s">
         <v>515</v>
@@ -10486,25 +10486,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="C237" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="D237" s="7" t="s">
+        <v>667</v>
+      </c>
+      <c r="E237">
+        <v>0</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" s="7" t="s">
         <v>666</v>
-      </c>
-      <c r="C237" s="7" t="s">
-        <v>669</v>
-      </c>
-      <c r="D237" s="7" t="s">
-        <v>668</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" s="7" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10512,25 +10512,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="7" t="s">
+        <v>671</v>
+      </c>
+      <c r="C238" s="7" t="s">
         <v>672</v>
       </c>
-      <c r="C238" s="7" t="s">
+      <c r="D238" s="7" t="s">
         <v>673</v>
       </c>
-      <c r="D238" s="7" t="s">
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>674</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>675</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10538,25 +10538,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="C239" s="7" t="s">
         <v>676</v>
       </c>
-      <c r="C239" s="7" t="s">
+      <c r="D239" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="D239" s="7" t="s">
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>678</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10564,25 +10564,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="C240" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="C240" s="7" t="s">
+      <c r="D240" s="7" t="s">
         <v>681</v>
       </c>
-      <c r="D240" s="7" t="s">
+      <c r="E240">
+        <v>0</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240">
+        <v>0</v>
+      </c>
+      <c r="I240" t="s">
         <v>682</v>
-      </c>
-      <c r="E240">
-        <v>0</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240">
-        <v>0</v>
-      </c>
-      <c r="I240" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10590,25 +10590,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="7" t="s">
+        <v>683</v>
+      </c>
+      <c r="C241" s="7" t="s">
         <v>684</v>
       </c>
-      <c r="C241" s="7" t="s">
+      <c r="D241" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="D241" s="7" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="7" t="s">
         <v>686</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="7" t="s">
-        <v>687</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10616,25 +10616,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="7" t="s">
+        <v>687</v>
+      </c>
+      <c r="C242" s="7" t="s">
         <v>688</v>
       </c>
-      <c r="C242" s="7" t="s">
+      <c r="D242" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="D242" s="7" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="7" t="s">
         <v>690</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="7" t="s">
-        <v>691</v>
       </c>
     </row>
     <row r="243" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10642,25 +10642,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="C243" s="7" t="s">
         <v>692</v>
       </c>
-      <c r="C243" s="7" t="s">
+      <c r="D243" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="D243" s="7" t="s">
+      <c r="E243">
+        <v>0</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243">
+        <v>0</v>
+      </c>
+      <c r="I243" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="E243">
-        <v>0</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243">
-        <v>0</v>
-      </c>
-      <c r="I243" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10668,13 +10668,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="7" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="C244" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="D244" s="7" t="s">
         <v>696</v>
-      </c>
-      <c r="D244" s="7" t="s">
-        <v>697</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -10694,13 +10694,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C245" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D245" s="7" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10720,13 +10720,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C246" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D246" s="7" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10746,13 +10746,13 @@
         <v>246</v>
       </c>
       <c r="B247" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="C247" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D247" s="7" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10772,13 +10772,13 @@
         <v>247</v>
       </c>
       <c r="B248" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C248" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D248" s="7" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -10798,25 +10798,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="C249" s="7" t="s">
         <v>717</v>
       </c>
-      <c r="C249" s="7" t="s">
+      <c r="D249" s="7" t="s">
         <v>718</v>
       </c>
-      <c r="D249" s="7" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="7" t="s">
         <v>719</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10824,14 +10824,14 @@
         <v>249</v>
       </c>
       <c r="B250" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="C250" s="7" t="s">
         <v>721</v>
       </c>
-      <c r="C250" s="7" t="s">
+      <c r="D250" s="7" t="s">
         <v>722</v>
       </c>
-      <c r="D250" s="7" t="s">
-        <v>723</v>
-      </c>
       <c r="E250">
         <v>0</v>
       </c>
@@ -10842,7 +10842,7 @@
         <v>0</v>
       </c>
       <c r="I250" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="251" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10850,14 +10850,14 @@
         <v>250</v>
       </c>
       <c r="B251" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="C251" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="C251" s="7" t="s">
+      <c r="D251" s="7" t="s">
         <v>725</v>
       </c>
-      <c r="D251" s="7" t="s">
-        <v>726</v>
-      </c>
       <c r="E251">
         <v>0</v>
       </c>
@@ -10868,7 +10868,7 @@
         <v>0</v>
       </c>
       <c r="I251" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="252" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10876,14 +10876,14 @@
         <v>251</v>
       </c>
       <c r="B252" s="7" t="s">
+        <v>728</v>
+      </c>
+      <c r="C252" t="s">
         <v>729</v>
       </c>
-      <c r="C252" t="s">
+      <c r="D252" s="7" t="s">
         <v>730</v>
       </c>
-      <c r="D252" s="7" t="s">
-        <v>731</v>
-      </c>
       <c r="E252">
         <v>0</v>
       </c>
@@ -10894,7 +10894,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10902,13 +10902,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="C253" t="s">
         <v>732</v>
       </c>
-      <c r="C253" t="s">
+      <c r="D253" s="7" t="s">
         <v>733</v>
-      </c>
-      <c r="D253" s="7" t="s">
-        <v>734</v>
       </c>
       <c r="E253">
         <v>0</v>
@@ -10928,14 +10928,14 @@
         <v>253</v>
       </c>
       <c r="B254" s="7" t="s">
+        <v>734</v>
+      </c>
+      <c r="C254" s="7" t="s">
         <v>735</v>
       </c>
-      <c r="C254" s="7" t="s">
+      <c r="D254" s="7" t="s">
         <v>736</v>
       </c>
-      <c r="D254" s="7" t="s">
-        <v>737</v>
-      </c>
       <c r="E254">
         <v>0</v>
       </c>
@@ -10946,7 +10946,7 @@
         <v>0</v>
       </c>
       <c r="I254" s="7" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -10954,14 +10954,14 @@
         <v>254</v>
       </c>
       <c r="B255" s="7" t="s">
+        <v>737</v>
+      </c>
+      <c r="C255" s="7" t="s">
         <v>738</v>
       </c>
-      <c r="C255" s="7" t="s">
+      <c r="D255" s="7" t="s">
         <v>739</v>
       </c>
-      <c r="D255" s="7" t="s">
-        <v>740</v>
-      </c>
       <c r="E255">
         <v>0</v>
       </c>
@@ -10972,7 +10972,7 @@
         <v>0</v>
       </c>
       <c r="I255" s="7" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="20" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -10980,25 +10980,25 @@
         <v>255</v>
       </c>
       <c r="B256" s="19" t="s">
+        <v>740</v>
+      </c>
+      <c r="C256" s="19" t="s">
         <v>741</v>
       </c>
-      <c r="C256" s="19" t="s">
+      <c r="D256" s="19" t="s">
         <v>742</v>
       </c>
-      <c r="D256" s="19" t="s">
+      <c r="E256" s="20">
+        <v>0</v>
+      </c>
+      <c r="F256" s="20">
+        <v>0</v>
+      </c>
+      <c r="G256" s="20">
+        <v>0</v>
+      </c>
+      <c r="I256" s="21" t="s">
         <v>743</v>
-      </c>
-      <c r="E256" s="20">
-        <v>0</v>
-      </c>
-      <c r="F256" s="20">
-        <v>0</v>
-      </c>
-      <c r="G256" s="20">
-        <v>0</v>
-      </c>
-      <c r="I256" s="21" t="s">
-        <v>744</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11006,14 +11006,14 @@
         <v>256</v>
       </c>
       <c r="B257" s="22" t="s">
+        <v>744</v>
+      </c>
+      <c r="C257" s="22" t="s">
         <v>745</v>
       </c>
-      <c r="C257" s="22" t="s">
+      <c r="D257" s="22" t="s">
         <v>746</v>
       </c>
-      <c r="D257" s="22" t="s">
-        <v>747</v>
-      </c>
       <c r="E257" s="23">
         <v>0</v>
       </c>
@@ -11024,7 +11024,7 @@
         <v>0</v>
       </c>
       <c r="I257" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11032,14 +11032,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="22" t="s">
+        <v>747</v>
+      </c>
+      <c r="C258" s="22" t="s">
         <v>748</v>
       </c>
-      <c r="C258" s="22" t="s">
+      <c r="D258" s="22" t="s">
         <v>749</v>
       </c>
-      <c r="D258" s="22" t="s">
-        <v>750</v>
-      </c>
       <c r="E258" s="23">
         <v>0</v>
       </c>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="I258" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11058,14 +11058,14 @@
         <v>258</v>
       </c>
       <c r="B259" s="22" t="s">
+        <v>750</v>
+      </c>
+      <c r="C259" s="22" t="s">
         <v>751</v>
       </c>
-      <c r="C259" s="22" t="s">
+      <c r="D259" s="22" t="s">
         <v>752</v>
       </c>
-      <c r="D259" s="22" t="s">
-        <v>753</v>
-      </c>
       <c r="E259" s="23">
         <v>0</v>
       </c>
@@ -11076,7 +11076,7 @@
         <v>0</v>
       </c>
       <c r="I259" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11084,14 +11084,14 @@
         <v>259</v>
       </c>
       <c r="B260" s="22" t="s">
+        <v>753</v>
+      </c>
+      <c r="C260" s="22" t="s">
         <v>754</v>
       </c>
-      <c r="C260" s="22" t="s">
+      <c r="D260" s="22" t="s">
         <v>755</v>
       </c>
-      <c r="D260" s="22" t="s">
-        <v>756</v>
-      </c>
       <c r="E260" s="23">
         <v>0</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>1</v>
       </c>
       <c r="I260" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="261" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11110,14 +11110,14 @@
         <v>260</v>
       </c>
       <c r="B261" t="s">
+        <v>756</v>
+      </c>
+      <c r="C261" s="7" t="s">
         <v>757</v>
       </c>
-      <c r="C261" s="7" t="s">
+      <c r="D261" t="s">
         <v>758</v>
       </c>
-      <c r="D261" t="s">
-        <v>759</v>
-      </c>
       <c r="E261" s="4">
         <v>0</v>
       </c>
@@ -11128,7 +11128,7 @@
         <v>0</v>
       </c>
       <c r="I261" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="262" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11136,14 +11136,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="22" t="s">
+        <v>759</v>
+      </c>
+      <c r="C262" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="C262" s="7" t="s">
+      <c r="D262" s="22" t="s">
         <v>761</v>
       </c>
-      <c r="D262" s="22" t="s">
-        <v>762</v>
-      </c>
       <c r="E262">
         <v>0</v>
       </c>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="I262" s="10" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11162,14 +11162,14 @@
         <v>262</v>
       </c>
       <c r="B263" s="22" t="s">
+        <v>762</v>
+      </c>
+      <c r="C263" s="22" t="s">
         <v>763</v>
       </c>
-      <c r="C263" s="22" t="s">
+      <c r="D263" s="22" t="s">
         <v>764</v>
       </c>
-      <c r="D263" s="22" t="s">
-        <v>765</v>
-      </c>
       <c r="E263" s="23">
         <v>0</v>
       </c>
@@ -11180,7 +11180,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="22" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11188,14 +11188,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="22" t="s">
+        <v>765</v>
+      </c>
+      <c r="C264" s="22" t="s">
         <v>766</v>
       </c>
-      <c r="C264" s="22" t="s">
+      <c r="D264" s="22" t="s">
         <v>767</v>
       </c>
-      <c r="D264" s="22" t="s">
-        <v>768</v>
-      </c>
       <c r="E264" s="23">
         <v>0</v>
       </c>
@@ -11206,7 +11206,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11214,14 +11214,14 @@
         <v>264</v>
       </c>
       <c r="B265" s="22" t="s">
+        <v>768</v>
+      </c>
+      <c r="C265" s="22" t="s">
         <v>769</v>
       </c>
-      <c r="C265" s="22" t="s">
+      <c r="D265" s="22" t="s">
         <v>770</v>
       </c>
-      <c r="D265" s="22" t="s">
-        <v>771</v>
-      </c>
       <c r="E265" s="23">
         <v>0</v>
       </c>
@@ -11232,7 +11232,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="23" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11240,14 +11240,14 @@
         <v>265</v>
       </c>
       <c r="B266" s="22" t="s">
+        <v>771</v>
+      </c>
+      <c r="C266" s="22" t="s">
         <v>772</v>
       </c>
-      <c r="C266" s="22" t="s">
+      <c r="D266" s="24" t="s">
         <v>773</v>
       </c>
-      <c r="D266" s="24" t="s">
-        <v>774</v>
-      </c>
       <c r="E266" s="23">
         <v>0</v>
       </c>
@@ -11258,7 +11258,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11266,14 +11266,14 @@
         <v>266</v>
       </c>
       <c r="B267" s="22" t="s">
+        <v>774</v>
+      </c>
+      <c r="C267" s="22" t="s">
         <v>775</v>
       </c>
-      <c r="C267" s="22" t="s">
+      <c r="D267" s="24" t="s">
         <v>776</v>
       </c>
-      <c r="D267" s="24" t="s">
-        <v>777</v>
-      </c>
       <c r="E267" s="23">
         <v>0</v>
       </c>
@@ -11284,7 +11284,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11292,14 +11292,14 @@
         <v>267</v>
       </c>
       <c r="B268" s="22" t="s">
+        <v>777</v>
+      </c>
+      <c r="C268" s="22" t="s">
         <v>778</v>
       </c>
-      <c r="C268" s="22" t="s">
+      <c r="D268" s="24" t="s">
         <v>779</v>
       </c>
-      <c r="D268" s="24" t="s">
-        <v>780</v>
-      </c>
       <c r="E268" s="23">
         <v>0</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>0</v>
       </c>
       <c r="I268" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="269" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11318,13 +11318,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="22" t="s">
+        <v>780</v>
+      </c>
+      <c r="C269" s="22" t="s">
         <v>781</v>
       </c>
-      <c r="C269" s="22" t="s">
+      <c r="D269" s="24" t="s">
         <v>782</v>
-      </c>
-      <c r="D269" s="24" t="s">
-        <v>783</v>
       </c>
       <c r="E269" s="23">
         <v>0</v>
@@ -11337,7 +11337,7 @@
       </c>
       <c r="H269" s="23"/>
       <c r="I269" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11345,13 +11345,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="22" t="s">
+        <v>783</v>
+      </c>
+      <c r="C270" s="22" t="s">
         <v>784</v>
       </c>
-      <c r="C270" s="22" t="s">
+      <c r="D270" s="24" t="s">
         <v>785</v>
-      </c>
-      <c r="D270" s="24" t="s">
-        <v>786</v>
       </c>
       <c r="E270" s="23">
         <v>0</v>
@@ -11364,7 +11364,7 @@
       </c>
       <c r="H270" s="23"/>
       <c r="I270" s="25" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="271" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11372,13 +11372,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="22" t="s">
+        <v>786</v>
+      </c>
+      <c r="C271" s="22" t="s">
         <v>787</v>
       </c>
-      <c r="C271" s="22" t="s">
+      <c r="D271" s="24" t="s">
         <v>788</v>
-      </c>
-      <c r="D271" s="24" t="s">
-        <v>789</v>
       </c>
       <c r="E271" s="23">
         <v>0</v>
@@ -11391,7 +11391,7 @@
       </c>
       <c r="H271" s="23"/>
       <c r="I271" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="272" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11399,13 +11399,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="22" t="s">
+        <v>789</v>
+      </c>
+      <c r="C272" s="22" t="s">
         <v>790</v>
       </c>
-      <c r="C272" s="22" t="s">
+      <c r="D272" s="24" t="s">
         <v>791</v>
-      </c>
-      <c r="D272" s="24" t="s">
-        <v>792</v>
       </c>
       <c r="E272" s="23">
         <v>0</v>
@@ -11418,7 +11418,7 @@
       </c>
       <c r="H272" s="23"/>
       <c r="I272" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11426,13 +11426,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="22" t="s">
+        <v>792</v>
+      </c>
+      <c r="C273" s="22" t="s">
         <v>793</v>
       </c>
-      <c r="C273" s="22" t="s">
+      <c r="D273" s="24" t="s">
         <v>794</v>
-      </c>
-      <c r="D273" s="24" t="s">
-        <v>795</v>
       </c>
       <c r="E273" s="23">
         <v>0</v>
@@ -11445,7 +11445,7 @@
       </c>
       <c r="H273" s="23"/>
       <c r="I273" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11453,13 +11453,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="22" t="s">
+        <v>795</v>
+      </c>
+      <c r="C274" s="22" t="s">
         <v>796</v>
       </c>
-      <c r="C274" s="22" t="s">
+      <c r="D274" s="24" t="s">
         <v>797</v>
-      </c>
-      <c r="D274" s="24" t="s">
-        <v>798</v>
       </c>
       <c r="E274" s="23">
         <v>0</v>
@@ -11480,13 +11480,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="22" t="s">
+        <v>798</v>
+      </c>
+      <c r="C275" s="22" t="s">
         <v>799</v>
       </c>
-      <c r="C275" s="22" t="s">
+      <c r="D275" s="24" t="s">
         <v>800</v>
-      </c>
-      <c r="D275" s="24" t="s">
-        <v>801</v>
       </c>
       <c r="E275" s="23">
         <v>0</v>
@@ -11499,7 +11499,7 @@
       </c>
       <c r="H275" s="23"/>
       <c r="I275" s="26" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11507,11 +11507,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="22" t="s">
+        <v>802</v>
+      </c>
+      <c r="C276" s="22" t="s">
         <v>803</v>
       </c>
-      <c r="C276" s="22" t="s">
-        <v>804</v>
-      </c>
       <c r="E276">
         <v>0</v>
       </c>
@@ -11522,7 +11522,7 @@
         <v>0</v>
       </c>
       <c r="I276" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -11530,13 +11530,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="19" t="s">
+        <v>804</v>
+      </c>
+      <c r="C277" s="19" t="s">
         <v>805</v>
       </c>
-      <c r="C277" s="19" t="s">
+      <c r="D277" s="28" t="s">
         <v>806</v>
-      </c>
-      <c r="D277" s="28" t="s">
-        <v>807</v>
       </c>
       <c r="E277" s="19">
         <v>0</v>
@@ -11549,7 +11549,7 @@
       </c>
       <c r="H277" s="19"/>
       <c r="I277" s="19" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11557,14 +11557,14 @@
         <v>277</v>
       </c>
       <c r="B278" s="22" t="s">
+        <v>808</v>
+      </c>
+      <c r="C278" s="22" t="s">
         <v>809</v>
       </c>
-      <c r="C278" s="22" t="s">
+      <c r="D278" s="24" t="s">
         <v>810</v>
       </c>
-      <c r="D278" s="24" t="s">
-        <v>811</v>
-      </c>
       <c r="E278">
         <v>0</v>
       </c>
@@ -11575,7 +11575,7 @@
         <v>0</v>
       </c>
       <c r="I278" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11583,11 +11583,11 @@
         <v>278</v>
       </c>
       <c r="B279" s="22" t="s">
+        <v>811</v>
+      </c>
+      <c r="C279" s="22" t="s">
         <v>812</v>
       </c>
-      <c r="C279" s="22" t="s">
-        <v>813</v>
-      </c>
       <c r="E279">
         <v>0</v>
       </c>
@@ -11598,7 +11598,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="280" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11606,14 +11606,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="22" t="s">
+        <v>813</v>
+      </c>
+      <c r="C280" s="22" t="s">
         <v>814</v>
       </c>
-      <c r="C280" s="22" t="s">
+      <c r="D280" s="24" t="s">
         <v>815</v>
       </c>
-      <c r="D280" s="24" t="s">
-        <v>816</v>
-      </c>
       <c r="E280">
         <v>0</v>
       </c>
@@ -11624,7 +11624,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11632,14 +11632,14 @@
         <v>280</v>
       </c>
       <c r="B281" s="22" t="s">
+        <v>816</v>
+      </c>
+      <c r="C281" s="22" t="s">
         <v>817</v>
       </c>
-      <c r="C281" s="22" t="s">
+      <c r="D281" s="24" t="s">
         <v>818</v>
       </c>
-      <c r="D281" s="24" t="s">
-        <v>819</v>
-      </c>
       <c r="E281">
         <v>0</v>
       </c>
@@ -11650,7 +11650,7 @@
         <v>0</v>
       </c>
       <c r="I281" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11658,14 +11658,14 @@
         <v>281</v>
       </c>
       <c r="B282" s="22" t="s">
+        <v>819</v>
+      </c>
+      <c r="C282" s="22" t="s">
         <v>820</v>
       </c>
-      <c r="C282" s="22" t="s">
+      <c r="D282" s="24" t="s">
         <v>821</v>
       </c>
-      <c r="D282" s="24" t="s">
-        <v>822</v>
-      </c>
       <c r="E282">
         <v>0</v>
       </c>
@@ -11676,7 +11676,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="25" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -11684,14 +11684,14 @@
         <v>282</v>
       </c>
       <c r="B283" s="30" t="s">
+        <v>822</v>
+      </c>
+      <c r="C283" s="22" t="s">
         <v>823</v>
       </c>
-      <c r="C283" s="22" t="s">
+      <c r="D283" s="24" t="s">
         <v>824</v>
       </c>
-      <c r="D283" s="24" t="s">
-        <v>825</v>
-      </c>
       <c r="E283">
         <v>1</v>
       </c>
@@ -11702,7 +11702,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="23" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11710,14 +11710,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="24" t="s">
+        <v>825</v>
+      </c>
+      <c r="C284" s="22" t="s">
         <v>826</v>
       </c>
-      <c r="C284" s="22" t="s">
+      <c r="D284" s="24" t="s">
         <v>827</v>
       </c>
-      <c r="D284" s="24" t="s">
-        <v>828</v>
-      </c>
       <c r="E284" s="23">
         <v>0</v>
       </c>
@@ -11728,7 +11728,7 @@
         <v>0</v>
       </c>
       <c r="I284" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11736,14 +11736,14 @@
         <v>284</v>
       </c>
       <c r="B285" s="22" t="s">
+        <v>828</v>
+      </c>
+      <c r="C285" s="22" t="s">
         <v>829</v>
       </c>
-      <c r="C285" s="22" t="s">
+      <c r="D285" s="24" t="s">
         <v>830</v>
       </c>
-      <c r="D285" s="24" t="s">
-        <v>831</v>
-      </c>
       <c r="E285">
         <v>0</v>
       </c>
@@ -11754,7 +11754,7 @@
         <v>0</v>
       </c>
       <c r="I285" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11762,14 +11762,14 @@
         <v>285</v>
       </c>
       <c r="B286" s="22" t="s">
+        <v>831</v>
+      </c>
+      <c r="C286" s="22" t="s">
         <v>832</v>
       </c>
-      <c r="C286" s="22" t="s">
+      <c r="D286" s="24" t="s">
         <v>833</v>
       </c>
-      <c r="D286" s="24" t="s">
-        <v>834</v>
-      </c>
       <c r="E286">
         <v>0</v>
       </c>
@@ -11780,7 +11780,7 @@
         <v>0</v>
       </c>
       <c r="I286" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11788,14 +11788,14 @@
         <v>286</v>
       </c>
       <c r="B287" s="22" t="s">
+        <v>834</v>
+      </c>
+      <c r="C287" s="22" t="s">
         <v>835</v>
       </c>
-      <c r="C287" s="22" t="s">
+      <c r="D287" s="24" t="s">
         <v>836</v>
       </c>
-      <c r="D287" s="24" t="s">
-        <v>837</v>
-      </c>
       <c r="E287">
         <v>0</v>
       </c>
@@ -11806,7 +11806,7 @@
         <v>0</v>
       </c>
       <c r="I287" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -11814,13 +11814,13 @@
         <v>287</v>
       </c>
       <c r="B288" s="22" t="s">
+        <v>837</v>
+      </c>
+      <c r="C288" s="22" t="s">
         <v>838</v>
       </c>
-      <c r="C288" s="22" t="s">
+      <c r="D288" s="22" t="s">
         <v>839</v>
-      </c>
-      <c r="D288" s="22" t="s">
-        <v>840</v>
       </c>
       <c r="E288" s="23">
         <v>0</v>
@@ -11833,7 +11833,7 @@
       </c>
       <c r="H288" s="23"/>
       <c r="I288" s="22" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="289" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11841,14 +11841,14 @@
         <v>288</v>
       </c>
       <c r="B289" s="22" t="s">
+        <v>840</v>
+      </c>
+      <c r="C289" s="22" t="s">
         <v>841</v>
       </c>
-      <c r="C289" s="22" t="s">
+      <c r="D289" s="24" t="s">
         <v>842</v>
       </c>
-      <c r="D289" s="24" t="s">
-        <v>843</v>
-      </c>
       <c r="E289">
         <v>1</v>
       </c>
@@ -11859,7 +11859,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="290" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11867,14 +11867,14 @@
         <v>289</v>
       </c>
       <c r="B290" s="30" t="s">
+        <v>843</v>
+      </c>
+      <c r="C290" s="22" t="s">
         <v>844</v>
       </c>
-      <c r="C290" s="22" t="s">
+      <c r="D290" s="30" t="s">
         <v>845</v>
       </c>
-      <c r="D290" s="30" t="s">
-        <v>846</v>
-      </c>
       <c r="E290">
         <v>0</v>
       </c>
@@ -11885,7 +11885,7 @@
         <v>0</v>
       </c>
       <c r="I290" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="291" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11893,14 +11893,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="30" t="s">
+        <v>846</v>
+      </c>
+      <c r="C291" s="22" t="s">
         <v>847</v>
       </c>
-      <c r="C291" s="22" t="s">
+      <c r="D291" s="30" t="s">
         <v>848</v>
       </c>
-      <c r="D291" s="30" t="s">
-        <v>849</v>
-      </c>
       <c r="E291">
         <v>0</v>
       </c>
@@ -11911,7 +11911,7 @@
         <v>0</v>
       </c>
       <c r="I291" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="292" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11919,14 +11919,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="30" t="s">
+        <v>849</v>
+      </c>
+      <c r="C292" s="22" t="s">
         <v>850</v>
       </c>
-      <c r="C292" s="22" t="s">
+      <c r="D292" s="30" t="s">
         <v>851</v>
       </c>
-      <c r="D292" s="30" t="s">
-        <v>852</v>
-      </c>
       <c r="E292">
         <v>1</v>
       </c>
@@ -11937,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="293" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11945,14 +11945,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="30" t="s">
+        <v>852</v>
+      </c>
+      <c r="C293" s="22" t="s">
         <v>853</v>
       </c>
-      <c r="C293" s="22" t="s">
+      <c r="D293" s="30" t="s">
         <v>854</v>
       </c>
-      <c r="D293" s="30" t="s">
-        <v>855</v>
-      </c>
       <c r="E293">
         <v>1</v>
       </c>
@@ -11963,7 +11963,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="294" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11971,14 +11971,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="30" t="s">
+        <v>855</v>
+      </c>
+      <c r="C294" s="22" t="s">
         <v>856</v>
       </c>
-      <c r="C294" s="22" t="s">
+      <c r="D294" s="30" t="s">
         <v>857</v>
       </c>
-      <c r="D294" s="30" t="s">
-        <v>858</v>
-      </c>
       <c r="E294">
         <v>0</v>
       </c>
@@ -11989,7 +11989,7 @@
         <v>0</v>
       </c>
       <c r="I294" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="295" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -11997,14 +11997,14 @@
         <v>294</v>
       </c>
       <c r="B295" s="30" t="s">
+        <v>858</v>
+      </c>
+      <c r="C295" s="22" t="s">
         <v>859</v>
       </c>
-      <c r="C295" s="22" t="s">
+      <c r="D295" s="30" t="s">
         <v>860</v>
       </c>
-      <c r="D295" s="30" t="s">
-        <v>861</v>
-      </c>
       <c r="E295">
         <v>1</v>
       </c>
@@ -12015,7 +12015,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="296" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12023,25 +12023,25 @@
         <v>295</v>
       </c>
       <c r="B296" s="30" t="s">
+        <v>861</v>
+      </c>
+      <c r="C296" s="22" t="s">
         <v>862</v>
       </c>
-      <c r="C296" s="22" t="s">
+      <c r="D296" s="30" t="s">
         <v>863</v>
       </c>
-      <c r="D296" s="30" t="s">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="22" t="s">
         <v>864</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="I296" s="22" t="s">
-        <v>865</v>
       </c>
     </row>
     <row r="297" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12049,25 +12049,25 @@
         <v>296</v>
       </c>
       <c r="B297" s="30" t="s">
+        <v>865</v>
+      </c>
+      <c r="C297" s="22" t="s">
         <v>866</v>
       </c>
-      <c r="C297" s="22" t="s">
+      <c r="D297" s="30" t="s">
         <v>867</v>
       </c>
-      <c r="D297" s="30" t="s">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="22" t="s">
         <v>868</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="22" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="298" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12075,25 +12075,25 @@
         <v>297</v>
       </c>
       <c r="B298" s="30" t="s">
+        <v>869</v>
+      </c>
+      <c r="C298" s="22" t="s">
         <v>870</v>
       </c>
-      <c r="C298" s="22" t="s">
+      <c r="D298" s="30" t="s">
         <v>871</v>
       </c>
-      <c r="D298" s="30" t="s">
+      <c r="E298">
+        <v>0</v>
+      </c>
+      <c r="F298">
+        <v>0</v>
+      </c>
+      <c r="G298">
+        <v>0</v>
+      </c>
+      <c r="I298" s="22" t="s">
         <v>872</v>
-      </c>
-      <c r="E298">
-        <v>0</v>
-      </c>
-      <c r="F298">
-        <v>0</v>
-      </c>
-      <c r="G298">
-        <v>0</v>
-      </c>
-      <c r="I298" s="22" t="s">
-        <v>873</v>
       </c>
     </row>
     <row r="299" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12101,14 +12101,14 @@
         <v>298</v>
       </c>
       <c r="B299" s="30" t="s">
+        <v>873</v>
+      </c>
+      <c r="C299" s="22" t="s">
         <v>874</v>
       </c>
-      <c r="C299" s="22" t="s">
+      <c r="D299" s="30" t="s">
         <v>875</v>
       </c>
-      <c r="D299" s="30" t="s">
-        <v>876</v>
-      </c>
       <c r="E299">
         <v>1</v>
       </c>
@@ -12119,7 +12119,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12127,13 +12127,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="24" t="s">
+        <v>876</v>
+      </c>
+      <c r="C300" s="22" t="s">
         <v>877</v>
       </c>
-      <c r="C300" s="22" t="s">
+      <c r="D300" s="24" t="s">
         <v>878</v>
-      </c>
-      <c r="D300" s="24" t="s">
-        <v>879</v>
       </c>
       <c r="E300" s="23">
         <v>0</v>
@@ -12146,7 +12146,7 @@
       </c>
       <c r="H300" s="23"/>
       <c r="I300" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12154,13 +12154,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="24" t="s">
+        <v>880</v>
+      </c>
+      <c r="C301" s="22" t="s">
         <v>881</v>
       </c>
-      <c r="C301" s="22" t="s">
+      <c r="D301" s="24" t="s">
         <v>882</v>
-      </c>
-      <c r="D301" s="24" t="s">
-        <v>883</v>
       </c>
       <c r="E301" s="23">
         <v>0</v>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="H301" s="23"/>
       <c r="I301" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12181,10 +12181,10 @@
         <v>301</v>
       </c>
       <c r="B302" s="32" t="s">
+        <v>883</v>
+      </c>
+      <c r="C302" s="19" t="s">
         <v>884</v>
-      </c>
-      <c r="C302" s="19" t="s">
-        <v>885</v>
       </c>
       <c r="D302" s="20"/>
       <c r="E302" s="20">
@@ -12198,7 +12198,7 @@
       </c>
       <c r="H302" s="20"/>
       <c r="I302" s="19" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="31" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12206,13 +12206,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="24" t="s">
+        <v>886</v>
+      </c>
+      <c r="C303" s="22" t="s">
         <v>887</v>
       </c>
-      <c r="C303" s="22" t="s">
+      <c r="D303" s="24" t="s">
         <v>888</v>
-      </c>
-      <c r="D303" s="24" t="s">
-        <v>889</v>
       </c>
       <c r="E303" s="23">
         <v>0</v>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="H303" s="23"/>
       <c r="I303" s="25" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="304" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12233,13 +12233,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="24" t="s">
+        <v>889</v>
+      </c>
+      <c r="C304" s="22" t="s">
         <v>890</v>
       </c>
-      <c r="C304" s="22" t="s">
+      <c r="D304" s="24" t="s">
         <v>891</v>
-      </c>
-      <c r="D304" s="24" t="s">
-        <v>892</v>
       </c>
       <c r="E304" s="23">
         <v>0</v>
@@ -12252,7 +12252,7 @@
       </c>
       <c r="H304" s="23"/>
       <c r="I304" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="27" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
@@ -12260,13 +12260,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="32" t="s">
+        <v>892</v>
+      </c>
+      <c r="C305" s="19" t="s">
         <v>893</v>
       </c>
-      <c r="C305" s="19" t="s">
+      <c r="D305" s="32" t="s">
         <v>894</v>
-      </c>
-      <c r="D305" s="32" t="s">
-        <v>895</v>
       </c>
       <c r="E305" s="20">
         <v>0</v>
@@ -12279,7 +12279,7 @@
       </c>
       <c r="H305" s="20"/>
       <c r="I305" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="306" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12287,13 +12287,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="32" t="s">
+        <v>896</v>
+      </c>
+      <c r="C306" s="19" t="s">
         <v>897</v>
       </c>
-      <c r="C306" s="19" t="s">
+      <c r="D306" s="32" t="s">
         <v>898</v>
-      </c>
-      <c r="D306" s="32" t="s">
-        <v>899</v>
       </c>
       <c r="E306" s="20">
         <v>0</v>
@@ -12306,7 +12306,7 @@
       </c>
       <c r="H306" s="20"/>
       <c r="I306" s="19" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="307" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12314,13 +12314,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="24" t="s">
+        <v>899</v>
+      </c>
+      <c r="C307" s="24" t="s">
         <v>900</v>
       </c>
-      <c r="C307" s="24" t="s">
+      <c r="D307" s="24" t="s">
         <v>901</v>
-      </c>
-      <c r="D307" s="24" t="s">
-        <v>902</v>
       </c>
       <c r="E307" s="23">
         <v>0</v>
@@ -12333,7 +12333,7 @@
       </c>
       <c r="H307" s="23"/>
       <c r="I307" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="308" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12341,13 +12341,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="23" t="s">
+        <v>902</v>
+      </c>
+      <c r="C308" s="23" t="s">
         <v>903</v>
       </c>
-      <c r="C308" s="23" t="s">
+      <c r="D308" s="23" t="s">
         <v>904</v>
-      </c>
-      <c r="D308" s="23" t="s">
-        <v>905</v>
       </c>
       <c r="E308" s="23">
         <v>0</v>
@@ -12360,7 +12360,7 @@
       </c>
       <c r="H308" s="23"/>
       <c r="I308" s="25" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="309" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12368,13 +12368,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="24" t="s">
+        <v>905</v>
+      </c>
+      <c r="C309" s="22" t="s">
         <v>906</v>
       </c>
-      <c r="C309" s="22" t="s">
+      <c r="D309" s="24" t="s">
         <v>907</v>
-      </c>
-      <c r="D309" s="24" t="s">
-        <v>908</v>
       </c>
       <c r="E309" s="23">
         <v>0</v>
@@ -12387,7 +12387,7 @@
       </c>
       <c r="H309" s="23"/>
       <c r="I309" s="22" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="310" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12395,13 +12395,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="24" t="s">
+        <v>908</v>
+      </c>
+      <c r="C310" s="22" t="s">
         <v>909</v>
       </c>
-      <c r="C310" s="22" t="s">
+      <c r="D310" s="24" t="s">
         <v>910</v>
-      </c>
-      <c r="D310" s="24" t="s">
-        <v>911</v>
       </c>
       <c r="E310" s="23">
         <v>0</v>
@@ -12414,7 +12414,7 @@
       </c>
       <c r="H310" s="23"/>
       <c r="I310" s="22" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="311" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12422,13 +12422,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="C311" s="22" t="s">
         <v>912</v>
       </c>
-      <c r="C311" s="22" t="s">
+      <c r="D311" s="24" t="s">
         <v>913</v>
-      </c>
-      <c r="D311" s="24" t="s">
-        <v>914</v>
       </c>
       <c r="E311" s="23">
         <v>0</v>
@@ -12441,7 +12441,7 @@
       </c>
       <c r="H311" s="23"/>
       <c r="I311" s="22" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="312" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12449,25 +12449,25 @@
         <v>311</v>
       </c>
       <c r="B312" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="C312" s="19" t="s">
         <v>915</v>
       </c>
-      <c r="C312" s="19" t="s">
+      <c r="D312" s="24" t="s">
         <v>916</v>
       </c>
-      <c r="D312" s="24" t="s">
+      <c r="E312" s="23">
+        <v>0</v>
+      </c>
+      <c r="F312" s="23">
+        <v>0</v>
+      </c>
+      <c r="G312" s="23">
+        <v>0</v>
+      </c>
+      <c r="I312" s="22" t="s">
         <v>917</v>
-      </c>
-      <c r="E312" s="23">
-        <v>0</v>
-      </c>
-      <c r="F312" s="23">
-        <v>0</v>
-      </c>
-      <c r="G312" s="23">
-        <v>0</v>
-      </c>
-      <c r="I312" s="22" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="313" spans="1:9" ht="16.5" x14ac:dyDescent="0.2">
@@ -12475,13 +12475,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="24" t="s">
+        <v>918</v>
+      </c>
+      <c r="C313" s="22" t="s">
         <v>919</v>
       </c>
-      <c r="C313" s="22" t="s">
+      <c r="D313" s="24" t="s">
         <v>920</v>
-      </c>
-      <c r="D313" s="24" t="s">
-        <v>921</v>
       </c>
       <c r="E313" s="23">
         <v>0</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -127,9 +127,6 @@
     <t>sys_interactive_player</t>
   </si>
   <si>
-    <t>系统：互动</t>
-  </si>
-  <si>
     <t>SysInteractivePlayerManager</t>
   </si>
   <si>
@@ -155,9 +152,6 @@
   </si>
   <si>
     <t>系统：玩家中心</t>
-  </si>
-  <si>
-    <t>SysPersonalInfoManager</t>
   </si>
   <si>
     <t>guide</t>
@@ -4299,6 +4293,14 @@
   </si>
   <si>
     <t>act_ty_sjb_style/act_008_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统：互动</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SysPersonalInfoManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4421,7 +4423,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4464,6 +4466,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4496,7 +4504,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4649,6 +4657,21 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4930,10 +4953,10 @@
   <dimension ref="A1:I332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C220" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C235" sqref="C235"/>
+      <selection pane="bottomRight" activeCell="D291" sqref="D291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4954,7 +4977,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="37" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4963,7 +4986,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -4975,7 +4998,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5001,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5027,7 +5050,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5053,7 +5076,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5079,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5105,7 +5128,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5131,7 +5154,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5157,137 +5180,137 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="15">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="52" customFormat="1">
+      <c r="A9" s="51">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="5">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="I9" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="15">
+      <c r="E9" s="51">
+        <v>0</v>
+      </c>
+      <c r="F9" s="52">
+        <v>0</v>
+      </c>
+      <c r="G9" s="52">
+        <v>0</v>
+      </c>
+      <c r="I9" s="53" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="52" customFormat="1">
+      <c r="A10" s="51">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="51" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="5">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="15">
+      <c r="E10" s="51">
+        <v>0</v>
+      </c>
+      <c r="F10" s="52">
+        <v>0</v>
+      </c>
+      <c r="G10" s="52">
+        <v>0</v>
+      </c>
+      <c r="I10" s="53" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="52" customFormat="1">
+      <c r="A11" s="51">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="54" t="s">
+        <v>1021</v>
+      </c>
+      <c r="D11" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="D11" s="5" t="s">
+      <c r="E11" s="51">
+        <v>0</v>
+      </c>
+      <c r="F11" s="52">
+        <v>0</v>
+      </c>
+      <c r="G11" s="52">
+        <v>0</v>
+      </c>
+      <c r="I11" s="53" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" s="52" customFormat="1">
+      <c r="A12" s="51">
+        <v>11</v>
+      </c>
+      <c r="B12" s="51" t="s">
         <v>35</v>
       </c>
-      <c r="E11" s="5">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="15">
-        <v>11</v>
-      </c>
-      <c r="B12" s="5" t="s">
+      <c r="C12" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="D12" s="51" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="5" t="s">
+      <c r="E12" s="51">
+        <v>0</v>
+      </c>
+      <c r="F12" s="52">
+        <v>0</v>
+      </c>
+      <c r="G12" s="52">
+        <v>0</v>
+      </c>
+      <c r="I12" s="53" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" s="52" customFormat="1">
+      <c r="A13" s="51">
+        <v>12</v>
+      </c>
+      <c r="B13" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="E12" s="5">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="15">
-        <v>12</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="C13" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="D13" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="5">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="12" t="s">
-        <v>638</v>
+      <c r="E13" s="51">
+        <v>0</v>
+      </c>
+      <c r="F13" s="52">
+        <v>0</v>
+      </c>
+      <c r="G13" s="52">
+        <v>0</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5295,13 +5318,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>43</v>
-      </c>
       <c r="D14" s="5" t="s">
-        <v>44</v>
+        <v>1022</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -5313,7 +5336,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5321,14 +5344,14 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="5">
         <v>1</v>
       </c>
@@ -5339,7 +5362,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5347,14 +5370,14 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>50</v>
-      </c>
       <c r="E16" s="5">
         <v>1</v>
       </c>
@@ -5365,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5373,14 +5396,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>53</v>
-      </c>
       <c r="E17" s="5">
         <v>1</v>
       </c>
@@ -5391,7 +5414,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5399,14 +5422,14 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="5" t="s">
-        <v>56</v>
-      </c>
       <c r="E18" s="5">
         <v>1</v>
       </c>
@@ -5417,7 +5440,7 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -5425,14 +5448,14 @@
         <v>18</v>
       </c>
       <c r="B19" s="38" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" t="s">
         <v>57</v>
       </c>
-      <c r="C19" t="s">
-        <v>58</v>
-      </c>
-      <c r="D19" t="s">
-        <v>59</v>
-      </c>
       <c r="E19">
         <v>1</v>
       </c>
@@ -5443,7 +5466,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5451,14 +5474,14 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D20" s="5" t="s">
-        <v>62</v>
-      </c>
       <c r="E20" s="5">
         <v>1</v>
       </c>
@@ -5469,7 +5492,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5477,14 +5500,14 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D21" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="E21" s="5">
         <v>1</v>
       </c>
@@ -5495,7 +5518,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5503,14 +5526,14 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>68</v>
-      </c>
       <c r="E22" s="5">
         <v>1</v>
       </c>
@@ -5521,7 +5544,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5529,14 +5552,14 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>71</v>
-      </c>
       <c r="E23" s="5">
         <v>1</v>
       </c>
@@ -5547,7 +5570,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5555,14 +5578,14 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>74</v>
-      </c>
       <c r="E24" s="5">
         <v>1</v>
       </c>
@@ -5573,7 +5596,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5581,14 +5604,14 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>77</v>
-      </c>
       <c r="E25" s="5">
         <v>1</v>
       </c>
@@ -5599,7 +5622,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5607,14 +5630,14 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="D26" s="5" t="s">
-        <v>80</v>
-      </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
@@ -5625,7 +5648,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5633,13 +5656,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -5651,7 +5674,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5659,14 +5682,14 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>85</v>
-      </c>
       <c r="E28" s="5">
         <v>1</v>
       </c>
@@ -5677,7 +5700,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5685,51 +5708,51 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="D29" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="E29" s="5">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="I29" s="12" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="52" customFormat="1">
+      <c r="A30" s="51">
+        <v>29</v>
+      </c>
+      <c r="B30" s="51" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="5" t="s">
+      <c r="C30" s="51" t="s">
         <v>88</v>
       </c>
-      <c r="E29" s="5">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>1</v>
-      </c>
-      <c r="G29">
-        <v>1</v>
-      </c>
-      <c r="I29" s="12" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="15">
-        <v>29</v>
-      </c>
-      <c r="B30" s="5" t="s">
+      <c r="D30" s="51" t="s">
         <v>89</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="E30" s="5">
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <v>1</v>
-      </c>
-      <c r="G30">
-        <v>1</v>
-      </c>
-      <c r="I30" s="12" t="s">
-        <v>638</v>
+      <c r="E30" s="51">
+        <v>0</v>
+      </c>
+      <c r="F30" s="52">
+        <v>0</v>
+      </c>
+      <c r="G30" s="52">
+        <v>0</v>
+      </c>
+      <c r="I30" s="53" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5737,14 +5760,14 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D31" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>94</v>
-      </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
@@ -5755,7 +5778,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5763,14 +5786,14 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" s="5" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" s="5">
         <v>1</v>
       </c>
@@ -5781,7 +5804,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5789,14 +5812,14 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D33" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="D33" s="5" t="s">
-        <v>100</v>
-      </c>
       <c r="E33" s="5">
         <v>1</v>
       </c>
@@ -5807,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5815,14 +5838,14 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D34" s="5" t="s">
-        <v>103</v>
-      </c>
       <c r="E34" s="5">
         <v>1</v>
       </c>
@@ -5833,7 +5856,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5841,14 +5864,14 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="C35" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D35" s="5" t="s">
-        <v>106</v>
-      </c>
       <c r="E35" s="5">
         <v>1</v>
       </c>
@@ -5859,7 +5882,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5867,14 +5890,14 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="D36" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="C36" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="D36" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
@@ -5885,7 +5908,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5893,14 +5916,14 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="D37" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="D37" s="5" t="s">
-        <v>112</v>
-      </c>
       <c r="E37" s="5">
         <v>1</v>
       </c>
@@ -5911,7 +5934,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5919,14 +5942,14 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D38" s="5" t="s">
         <v>113</v>
       </c>
-      <c r="C38" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>115</v>
-      </c>
       <c r="E38" s="5">
         <v>1</v>
       </c>
@@ -5937,7 +5960,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5945,51 +5968,51 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="D39" s="5" t="s">
         <v>116</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="E39" s="5">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+      <c r="I39" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="52" customFormat="1">
+      <c r="A40" s="51">
+        <v>39</v>
+      </c>
+      <c r="B40" s="51" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="C40" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="E39" s="5">
-        <v>1</v>
-      </c>
-      <c r="F39">
-        <v>1</v>
-      </c>
-      <c r="G39">
-        <v>1</v>
-      </c>
-      <c r="I39" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="15">
-        <v>39</v>
-      </c>
-      <c r="B40" s="5" t="s">
+      <c r="D40" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="C40" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E40" s="5">
-        <v>1</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="G40">
-        <v>1</v>
-      </c>
-      <c r="I40" s="11" t="s">
-        <v>639</v>
+      <c r="E40" s="51">
+        <v>0</v>
+      </c>
+      <c r="F40" s="52">
+        <v>0</v>
+      </c>
+      <c r="G40" s="52">
+        <v>0</v>
+      </c>
+      <c r="I40" s="55" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -5997,14 +6020,14 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="D41" s="5" t="s">
         <v>122</v>
       </c>
-      <c r="C41" s="5" t="s">
-        <v>123</v>
-      </c>
-      <c r="D41" s="5" t="s">
-        <v>124</v>
-      </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
@@ -6015,7 +6038,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6023,14 +6046,14 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D42" s="5" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="5" t="s">
-        <v>127</v>
-      </c>
       <c r="E42" s="5">
         <v>0</v>
       </c>
@@ -6041,7 +6064,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6049,14 +6072,14 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" s="5" t="s">
         <v>128</v>
       </c>
-      <c r="C43" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D43" s="5" t="s">
-        <v>130</v>
-      </c>
       <c r="E43" s="5">
         <v>0</v>
       </c>
@@ -6067,7 +6090,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6075,14 +6098,14 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="C44" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="D44" s="5" t="s">
-        <v>133</v>
-      </c>
       <c r="E44" s="5">
         <v>1</v>
       </c>
@@ -6093,7 +6116,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6101,14 +6124,14 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D45" s="5" t="s">
-        <v>136</v>
-      </c>
       <c r="E45" s="5">
         <v>1</v>
       </c>
@@ -6119,7 +6142,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6127,14 +6150,14 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="C46" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>139</v>
-      </c>
       <c r="E46" s="5">
         <v>0</v>
       </c>
@@ -6145,7 +6168,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6153,51 +6176,51 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="E47" s="5">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47">
+        <v>1</v>
+      </c>
+      <c r="I47" s="11" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" s="52" customFormat="1">
+      <c r="A48" s="51">
+        <v>47</v>
+      </c>
+      <c r="B48" s="51" t="s">
         <v>141</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="C48" s="51" t="s">
         <v>142</v>
       </c>
-      <c r="E47" s="5">
-        <v>1</v>
-      </c>
-      <c r="F47">
-        <v>1</v>
-      </c>
-      <c r="G47">
-        <v>1</v>
-      </c>
-      <c r="I47" s="11" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
-      <c r="A48" s="15">
-        <v>47</v>
-      </c>
-      <c r="B48" s="5" t="s">
+      <c r="D48" s="51" t="s">
         <v>143</v>
       </c>
-      <c r="C48" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="E48" s="5">
-        <v>1</v>
-      </c>
-      <c r="F48">
-        <v>1</v>
-      </c>
-      <c r="G48">
-        <v>1</v>
-      </c>
-      <c r="I48" s="11" t="s">
-        <v>639</v>
+      <c r="E48" s="51">
+        <v>0</v>
+      </c>
+      <c r="F48" s="52">
+        <v>0</v>
+      </c>
+      <c r="G48" s="52">
+        <v>0</v>
+      </c>
+      <c r="I48" s="55" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6205,13 +6228,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -6223,7 +6246,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6231,14 +6254,14 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C50" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>149</v>
-      </c>
       <c r="E50" s="5">
         <v>1</v>
       </c>
@@ -6249,7 +6272,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6257,14 +6280,14 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="D51" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C51" s="5" t="s">
-        <v>151</v>
-      </c>
-      <c r="D51" s="5" t="s">
-        <v>152</v>
-      </c>
       <c r="E51" s="5">
         <v>1</v>
       </c>
@@ -6275,7 +6298,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6283,10 +6306,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5">
@@ -6299,7 +6322,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6307,14 +6330,14 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C53" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="E53" s="5">
         <v>1</v>
       </c>
@@ -6325,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6333,13 +6356,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -6351,7 +6374,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -6359,13 +6382,13 @@
         <v>54</v>
       </c>
       <c r="B55" s="38" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -6377,7 +6400,7 @@
         <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -6385,51 +6408,51 @@
         <v>55</v>
       </c>
       <c r="B56" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="D56" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="E56" s="5">
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" s="52" customFormat="1">
+      <c r="A57" s="51">
+        <v>56</v>
+      </c>
+      <c r="B57" s="51" t="s">
         <v>163</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="C57" s="51" t="s">
         <v>164</v>
       </c>
-      <c r="E56" s="5">
-        <v>0</v>
-      </c>
-      <c r="F56">
-        <v>0</v>
-      </c>
-      <c r="G56">
-        <v>0</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
-      <c r="A57" s="15">
-        <v>56</v>
-      </c>
-      <c r="B57" s="5" t="s">
+      <c r="D57" s="51" t="s">
         <v>165</v>
       </c>
-      <c r="C57" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="D57" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="E57" s="5">
-        <v>1</v>
-      </c>
-      <c r="F57">
-        <v>1</v>
-      </c>
-      <c r="G57">
-        <v>1</v>
-      </c>
-      <c r="I57" s="11" t="s">
-        <v>639</v>
+      <c r="E57" s="51">
+        <v>0</v>
+      </c>
+      <c r="F57" s="52">
+        <v>0</v>
+      </c>
+      <c r="G57" s="52">
+        <v>0</v>
+      </c>
+      <c r="I57" s="55" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6437,14 +6460,14 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C58" s="5" t="s">
-        <v>169</v>
-      </c>
-      <c r="D58" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="E58" s="5">
         <v>0</v>
       </c>
@@ -6455,7 +6478,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6463,13 +6486,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -6481,7 +6504,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="2" customFormat="1">
@@ -6489,51 +6512,51 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" s="34" t="s">
+        <v>969</v>
+      </c>
+      <c r="D60" s="6" t="s">
+        <v>172</v>
+      </c>
+      <c r="E60" s="6">
+        <v>1</v>
+      </c>
+      <c r="F60" s="2">
+        <v>1</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1</v>
+      </c>
+      <c r="I60" s="33" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" s="52" customFormat="1">
+      <c r="A61" s="51">
+        <v>60</v>
+      </c>
+      <c r="B61" s="51" t="s">
         <v>173</v>
       </c>
-      <c r="C60" s="34" t="s">
-        <v>971</v>
-      </c>
-      <c r="D60" s="6" t="s">
+      <c r="C61" s="51" t="s">
         <v>174</v>
       </c>
-      <c r="E60" s="6">
-        <v>1</v>
-      </c>
-      <c r="F60" s="2">
-        <v>1</v>
-      </c>
-      <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>972</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
-      <c r="A61" s="15">
-        <v>60</v>
-      </c>
-      <c r="B61" s="5" t="s">
+      <c r="D61" s="51" t="s">
         <v>175</v>
       </c>
-      <c r="C61" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="E61" s="5">
-        <v>1</v>
-      </c>
-      <c r="F61">
-        <v>1</v>
-      </c>
-      <c r="G61">
-        <v>1</v>
-      </c>
-      <c r="I61" s="11" t="s">
-        <v>638</v>
+      <c r="E61" s="51">
+        <v>0</v>
+      </c>
+      <c r="F61" s="52">
+        <v>0</v>
+      </c>
+      <c r="G61" s="52">
+        <v>0</v>
+      </c>
+      <c r="I61" s="55" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6541,14 +6564,14 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D62" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C62" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="5" t="s">
-        <v>180</v>
-      </c>
       <c r="E62" s="5">
         <v>1</v>
       </c>
@@ -6559,7 +6582,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6567,14 +6590,14 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="D63" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C63" s="5" t="s">
-        <v>182</v>
-      </c>
-      <c r="D63" s="5" t="s">
-        <v>183</v>
-      </c>
       <c r="E63" s="5">
         <v>0</v>
       </c>
@@ -6585,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6593,14 +6616,14 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="D64" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C64" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="D64" s="5" t="s">
-        <v>186</v>
-      </c>
       <c r="E64" s="5">
         <v>1</v>
       </c>
@@ -6611,7 +6634,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6619,14 +6642,14 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C65" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="D65" s="5" t="s">
-        <v>189</v>
-      </c>
       <c r="E65" s="5">
         <v>0</v>
       </c>
@@ -6637,7 +6660,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6645,14 +6668,14 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C66" s="5" t="s">
-        <v>191</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="E66" s="5">
         <v>1</v>
       </c>
@@ -6663,7 +6686,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6671,14 +6694,14 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
+        <v>191</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>194</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>195</v>
-      </c>
       <c r="E67" s="5">
         <v>0</v>
       </c>
@@ -6689,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6697,14 +6720,14 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>197</v>
-      </c>
-      <c r="D68" s="5" t="s">
-        <v>198</v>
-      </c>
       <c r="E68" s="5">
         <v>0</v>
       </c>
@@ -6715,7 +6738,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6723,14 +6746,14 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C69" s="5" t="s">
-        <v>200</v>
-      </c>
-      <c r="D69" s="5" t="s">
-        <v>201</v>
-      </c>
       <c r="E69" s="5">
         <v>1</v>
       </c>
@@ -6741,7 +6764,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6749,14 +6772,14 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C70" s="5" t="s">
-        <v>203</v>
-      </c>
-      <c r="D70" s="5" t="s">
-        <v>204</v>
-      </c>
       <c r="E70" s="5">
         <v>1</v>
       </c>
@@ -6767,7 +6790,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6775,14 +6798,14 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="C71" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="D71" s="5" t="s">
-        <v>207</v>
-      </c>
       <c r="E71" s="5">
         <v>1</v>
       </c>
@@ -6793,7 +6816,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6801,51 +6824,51 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C72" s="5" t="s">
+      <c r="E72" s="5">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <v>1</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" s="52" customFormat="1">
+      <c r="A73" s="51">
+        <v>72</v>
+      </c>
+      <c r="B73" s="51" t="s">
         <v>209</v>
       </c>
-      <c r="D72" s="5" t="s">
+      <c r="C73" s="51" t="s">
         <v>210</v>
       </c>
-      <c r="E72" s="5">
-        <v>1</v>
-      </c>
-      <c r="F72">
-        <v>1</v>
-      </c>
-      <c r="G72">
-        <v>1</v>
-      </c>
-      <c r="I72" s="11" t="s">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
-      <c r="A73" s="15">
-        <v>72</v>
-      </c>
-      <c r="B73" s="5" t="s">
+      <c r="D73" s="51" t="s">
         <v>211</v>
       </c>
-      <c r="C73" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="D73" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="E73" s="5">
-        <v>1</v>
-      </c>
-      <c r="F73">
-        <v>1</v>
-      </c>
-      <c r="G73">
-        <v>1</v>
-      </c>
-      <c r="I73" s="11" t="s">
-        <v>639</v>
+      <c r="E73" s="51">
+        <v>0</v>
+      </c>
+      <c r="F73" s="52">
+        <v>0</v>
+      </c>
+      <c r="G73" s="52">
+        <v>0</v>
+      </c>
+      <c r="I73" s="55" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="29" customFormat="1">
@@ -6853,13 +6876,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E74" s="28">
         <v>0</v>
@@ -6871,7 +6894,7 @@
         <v>0</v>
       </c>
       <c r="I74" s="30" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6879,14 +6902,14 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D75" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="C75" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="D75" s="5" t="s">
-        <v>218</v>
-      </c>
       <c r="E75" s="5">
         <v>1</v>
       </c>
@@ -6897,7 +6920,7 @@
         <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="22" customFormat="1">
@@ -6905,14 +6928,14 @@
         <v>75</v>
       </c>
       <c r="B76" s="31" t="s">
+        <v>217</v>
+      </c>
+      <c r="C76" s="31" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" s="31" t="s">
         <v>219</v>
       </c>
-      <c r="C76" s="31" t="s">
-        <v>220</v>
-      </c>
-      <c r="D76" s="31" t="s">
-        <v>221</v>
-      </c>
       <c r="E76" s="31">
         <v>0</v>
       </c>
@@ -6923,7 +6946,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="32" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -6931,14 +6954,14 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>221</v>
+      </c>
+      <c r="D77" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C77" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="D77" s="5" t="s">
-        <v>224</v>
-      </c>
       <c r="E77" s="5">
         <v>0</v>
       </c>
@@ -6949,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -6957,14 +6980,14 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
+        <v>223</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="D78" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>226</v>
-      </c>
-      <c r="D78" s="5" t="s">
-        <v>227</v>
-      </c>
       <c r="E78" s="5">
         <v>1</v>
       </c>
@@ -6975,7 +6998,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -6983,14 +7006,14 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="D79" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="C79" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="D79" s="5" t="s">
-        <v>230</v>
-      </c>
       <c r="E79" s="5">
         <v>0</v>
       </c>
@@ -7001,7 +7024,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7009,14 +7032,14 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>233</v>
-      </c>
       <c r="E80" s="5">
         <v>0</v>
       </c>
@@ -7027,7 +7050,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7035,14 +7058,14 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="D81" s="5" t="s">
         <v>234</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>236</v>
-      </c>
       <c r="E81" s="5">
         <v>0</v>
       </c>
@@ -7053,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7061,14 +7084,14 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>238</v>
-      </c>
-      <c r="D82" s="5" t="s">
-        <v>239</v>
-      </c>
       <c r="E82" s="5">
         <v>0</v>
       </c>
@@ -7079,7 +7102,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7087,14 +7110,14 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
+        <v>238</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="D83" s="5" t="s">
         <v>240</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="D83" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="E83" s="5">
         <v>0</v>
       </c>
@@ -7105,7 +7128,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7113,14 +7136,14 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>243</v>
       </c>
-      <c r="C84" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="D84" s="5" t="s">
-        <v>245</v>
-      </c>
       <c r="E84" s="5">
         <v>0</v>
       </c>
@@ -7131,7 +7154,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7139,14 +7162,14 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="D85" s="5" t="s">
         <v>246</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="D85" s="5" t="s">
-        <v>248</v>
-      </c>
       <c r="E85" s="5">
         <v>1</v>
       </c>
@@ -7157,7 +7180,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7165,14 +7188,14 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="D86" s="5" t="s">
         <v>249</v>
       </c>
-      <c r="C86" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="D86" s="5" t="s">
-        <v>251</v>
-      </c>
       <c r="E86" s="5">
         <v>1</v>
       </c>
@@ -7183,7 +7206,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7191,14 +7214,14 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>252</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="D87" s="5" t="s">
-        <v>254</v>
-      </c>
       <c r="E87" s="5">
         <v>1</v>
       </c>
@@ -7209,7 +7232,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7217,14 +7240,14 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="D88" s="5" t="s">
         <v>255</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>256</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>257</v>
-      </c>
       <c r="E88" s="5">
         <v>1</v>
       </c>
@@ -7235,7 +7258,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7243,14 +7266,14 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="D89" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>259</v>
-      </c>
-      <c r="D89" s="5" t="s">
-        <v>260</v>
-      </c>
       <c r="E89" s="5">
         <v>0</v>
       </c>
@@ -7261,7 +7284,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7269,14 +7292,14 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
+        <v>259</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="D90" s="5" t="s">
         <v>261</v>
       </c>
-      <c r="C90" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="D90" s="5" t="s">
-        <v>263</v>
-      </c>
       <c r="E90" s="5">
         <v>1</v>
       </c>
@@ -7287,7 +7310,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7295,14 +7318,14 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D91" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C91" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="D91" s="5" t="s">
-        <v>266</v>
-      </c>
       <c r="E91" s="5">
         <v>0</v>
       </c>
@@ -7313,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7321,14 +7344,14 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D92" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C92" s="5" t="s">
-        <v>268</v>
-      </c>
-      <c r="D92" s="5" t="s">
-        <v>269</v>
-      </c>
       <c r="E92" s="5">
         <v>1</v>
       </c>
@@ -7339,7 +7362,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -7347,14 +7370,14 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="D93" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C93" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="D93" s="5" t="s">
-        <v>272</v>
-      </c>
       <c r="E93" s="5">
         <v>0</v>
       </c>
@@ -7365,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7373,14 +7396,14 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="D94" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C94" s="5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D94" s="5" t="s">
-        <v>275</v>
-      </c>
       <c r="E94" s="5">
         <v>0</v>
       </c>
@@ -7391,7 +7414,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7399,14 +7422,14 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="D95" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C95" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="D95" s="5" t="s">
-        <v>278</v>
-      </c>
       <c r="E95" s="5">
         <v>0</v>
       </c>
@@ -7417,7 +7440,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7425,14 +7448,14 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D96" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C96" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="D96" s="5" t="s">
-        <v>281</v>
-      </c>
       <c r="E96" s="5">
         <v>0</v>
       </c>
@@ -7443,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7451,14 +7474,14 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="D97" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C97" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="D97" s="5" t="s">
-        <v>284</v>
-      </c>
       <c r="E97" s="5">
         <v>0</v>
       </c>
@@ -7469,7 +7492,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7477,14 +7500,14 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
+        <v>283</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="D98" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C98" s="5" t="s">
-        <v>286</v>
-      </c>
-      <c r="D98" s="5" t="s">
-        <v>287</v>
-      </c>
       <c r="E98" s="5">
         <v>0</v>
       </c>
@@ -7495,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7503,14 +7526,14 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="D99" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C99" s="5" t="s">
-        <v>289</v>
-      </c>
-      <c r="D99" s="5" t="s">
-        <v>290</v>
-      </c>
       <c r="E99" s="5">
         <v>0</v>
       </c>
@@ -7521,7 +7544,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7529,14 +7552,14 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="D100" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C100" s="5" t="s">
-        <v>292</v>
-      </c>
-      <c r="D100" s="5" t="s">
-        <v>293</v>
-      </c>
       <c r="E100" s="5">
         <v>1</v>
       </c>
@@ -7547,7 +7570,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7555,14 +7578,14 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="D101" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C101" s="5" t="s">
-        <v>295</v>
-      </c>
-      <c r="D101" s="5" t="s">
-        <v>296</v>
-      </c>
       <c r="E101" s="5">
         <v>0</v>
       </c>
@@ -7573,7 +7596,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7581,14 +7604,14 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="C102" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="D102" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C102" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="D102" s="5" t="s">
-        <v>299</v>
-      </c>
       <c r="E102" s="5">
         <v>0</v>
       </c>
@@ -7599,7 +7622,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7607,14 +7630,14 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="D103" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C103" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="D103" s="5" t="s">
-        <v>302</v>
-      </c>
       <c r="E103" s="5">
         <v>1</v>
       </c>
@@ -7625,7 +7648,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7633,14 +7656,14 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="D104" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C104" s="5" t="s">
-        <v>304</v>
-      </c>
-      <c r="D104" s="5" t="s">
-        <v>305</v>
-      </c>
       <c r="E104" s="5">
         <v>0</v>
       </c>
@@ -7651,7 +7674,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7659,14 +7682,14 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="D105" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="C105" s="5" t="s">
-        <v>307</v>
-      </c>
-      <c r="D105" s="5" t="s">
-        <v>308</v>
-      </c>
       <c r="E105" s="5">
         <v>0</v>
       </c>
@@ -7677,7 +7700,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7685,14 +7708,14 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="D106" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="C106" s="5" t="s">
-        <v>310</v>
-      </c>
-      <c r="D106" s="5" t="s">
-        <v>311</v>
-      </c>
       <c r="E106" s="5">
         <v>0</v>
       </c>
@@ -7703,7 +7726,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7711,14 +7734,14 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="D107" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="C107" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="D107" s="5" t="s">
-        <v>314</v>
-      </c>
       <c r="E107" s="5">
         <v>0</v>
       </c>
@@ -7729,7 +7752,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7737,14 +7760,14 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>314</v>
+      </c>
+      <c r="D108" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="C108" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="D108" s="5" t="s">
-        <v>317</v>
-      </c>
       <c r="E108" s="5">
         <v>0</v>
       </c>
@@ -7755,7 +7778,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7763,14 +7786,14 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
+        <v>316</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>317</v>
+      </c>
+      <c r="D109" s="5" t="s">
         <v>318</v>
       </c>
-      <c r="C109" s="5" t="s">
-        <v>319</v>
-      </c>
-      <c r="D109" s="5" t="s">
-        <v>320</v>
-      </c>
       <c r="E109" s="5">
         <v>0</v>
       </c>
@@ -7781,7 +7804,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7789,14 +7812,14 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
+        <v>319</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>320</v>
+      </c>
+      <c r="D110" s="5" t="s">
         <v>321</v>
       </c>
-      <c r="C110" s="5" t="s">
-        <v>322</v>
-      </c>
-      <c r="D110" s="5" t="s">
-        <v>323</v>
-      </c>
       <c r="E110" s="5">
         <v>0</v>
       </c>
@@ -7807,7 +7830,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7815,14 +7838,14 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
+        <v>322</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>323</v>
+      </c>
+      <c r="D111" s="5" t="s">
         <v>324</v>
       </c>
-      <c r="C111" s="5" t="s">
-        <v>325</v>
-      </c>
-      <c r="D111" s="5" t="s">
-        <v>326</v>
-      </c>
       <c r="E111" s="5">
         <v>0</v>
       </c>
@@ -7833,7 +7856,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7841,14 +7864,14 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
+        <v>325</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>326</v>
+      </c>
+      <c r="D112" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="C112" s="5" t="s">
-        <v>328</v>
-      </c>
-      <c r="D112" s="5" t="s">
-        <v>329</v>
-      </c>
       <c r="E112" s="5">
         <v>0</v>
       </c>
@@ -7859,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7867,14 +7890,14 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
+        <v>328</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>329</v>
+      </c>
+      <c r="D113" s="5" t="s">
         <v>330</v>
       </c>
-      <c r="C113" s="5" t="s">
-        <v>331</v>
-      </c>
-      <c r="D113" s="5" t="s">
-        <v>332</v>
-      </c>
       <c r="E113" s="5">
         <v>0</v>
       </c>
@@ -7885,7 +7908,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7893,14 +7916,14 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="D114" s="5" t="s">
         <v>333</v>
       </c>
-      <c r="C114" s="5" t="s">
-        <v>334</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>335</v>
-      </c>
       <c r="E114" s="5">
         <v>0</v>
       </c>
@@ -7911,7 +7934,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7919,14 +7942,14 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="D115" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="C115" s="5" t="s">
-        <v>337</v>
-      </c>
-      <c r="D115" s="5" t="s">
-        <v>338</v>
-      </c>
       <c r="E115" s="5">
         <v>0</v>
       </c>
@@ -7937,7 +7960,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7945,14 +7968,14 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
+        <v>337</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>338</v>
+      </c>
+      <c r="D116" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="C116" s="5" t="s">
-        <v>340</v>
-      </c>
-      <c r="D116" s="5" t="s">
-        <v>341</v>
-      </c>
       <c r="E116" s="5">
         <v>0</v>
       </c>
@@ -7963,7 +7986,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7971,14 +7994,14 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
+        <v>340</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>341</v>
+      </c>
+      <c r="D117" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="C117" s="5" t="s">
-        <v>343</v>
-      </c>
-      <c r="D117" s="5" t="s">
-        <v>344</v>
-      </c>
       <c r="E117" s="5">
         <v>0</v>
       </c>
@@ -7989,7 +8012,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -7997,14 +8020,14 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
+        <v>343</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>344</v>
+      </c>
+      <c r="D118" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="C118" s="5" t="s">
-        <v>346</v>
-      </c>
-      <c r="D118" s="5" t="s">
-        <v>347</v>
-      </c>
       <c r="E118" s="5">
         <v>0</v>
       </c>
@@ -8015,7 +8038,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1">
@@ -8023,14 +8046,14 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D119" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="C119" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="D119" s="6" t="s">
-        <v>350</v>
-      </c>
       <c r="E119" s="6">
         <v>1</v>
       </c>
@@ -8041,7 +8064,7 @@
         <v>1</v>
       </c>
       <c r="I119" s="41" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8049,14 +8072,14 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>350</v>
+      </c>
+      <c r="D120" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="C120" s="5" t="s">
-        <v>352</v>
-      </c>
-      <c r="D120" s="5" t="s">
-        <v>353</v>
-      </c>
       <c r="E120" s="5">
         <v>0</v>
       </c>
@@ -8067,7 +8090,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8075,14 +8098,14 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
+        <v>352</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>353</v>
+      </c>
+      <c r="D121" s="5" t="s">
         <v>354</v>
       </c>
-      <c r="C121" s="5" t="s">
-        <v>355</v>
-      </c>
-      <c r="D121" s="5" t="s">
-        <v>356</v>
-      </c>
       <c r="E121" s="5">
         <v>0</v>
       </c>
@@ -8093,7 +8116,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -8101,14 +8124,14 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
+        <v>355</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>356</v>
+      </c>
+      <c r="D122" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="C122" s="5" t="s">
-        <v>358</v>
-      </c>
-      <c r="D122" s="5" t="s">
-        <v>359</v>
-      </c>
       <c r="E122" s="5">
         <v>0</v>
       </c>
@@ -8119,7 +8142,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -8127,14 +8150,14 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
+        <v>358</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>359</v>
+      </c>
+      <c r="D123" s="5" t="s">
         <v>360</v>
       </c>
-      <c r="C123" s="5" t="s">
-        <v>361</v>
-      </c>
-      <c r="D123" s="5" t="s">
-        <v>362</v>
-      </c>
       <c r="E123" s="5">
         <v>0</v>
       </c>
@@ -8145,7 +8168,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -8153,14 +8176,14 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>362</v>
+      </c>
+      <c r="D124" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="C124" s="5" t="s">
-        <v>364</v>
-      </c>
-      <c r="D124" s="5" t="s">
-        <v>365</v>
-      </c>
       <c r="E124" s="5">
         <v>0</v>
       </c>
@@ -8171,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -8179,14 +8202,14 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="D125" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="C125" s="5" t="s">
-        <v>367</v>
-      </c>
-      <c r="D125" s="5" t="s">
-        <v>368</v>
-      </c>
       <c r="E125" s="5">
         <v>0</v>
       </c>
@@ -8197,7 +8220,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -8205,14 +8228,14 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="D126" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="C126" s="5" t="s">
-        <v>370</v>
-      </c>
-      <c r="D126" s="5" t="s">
-        <v>371</v>
-      </c>
       <c r="E126" s="5">
         <v>1</v>
       </c>
@@ -8223,7 +8246,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8231,14 +8254,14 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="D127" s="5" t="s">
         <v>372</v>
       </c>
-      <c r="C127" s="5" t="s">
-        <v>373</v>
-      </c>
-      <c r="D127" s="5" t="s">
-        <v>374</v>
-      </c>
       <c r="E127" s="5">
         <v>0</v>
       </c>
@@ -8249,7 +8272,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8257,14 +8280,14 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="D128" s="5" t="s">
         <v>375</v>
       </c>
-      <c r="C128" s="5" t="s">
-        <v>376</v>
-      </c>
-      <c r="D128" s="5" t="s">
-        <v>377</v>
-      </c>
       <c r="E128" s="5">
         <v>0</v>
       </c>
@@ -8275,7 +8298,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8283,14 +8306,14 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="D129" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C129" s="5" t="s">
-        <v>379</v>
-      </c>
-      <c r="D129" s="5" t="s">
-        <v>380</v>
-      </c>
       <c r="E129" s="5">
         <v>0</v>
       </c>
@@ -8301,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8309,14 +8332,14 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="D130" s="5" t="s">
         <v>381</v>
       </c>
-      <c r="C130" s="5" t="s">
-        <v>382</v>
-      </c>
-      <c r="D130" s="5" t="s">
-        <v>383</v>
-      </c>
       <c r="E130" s="5">
         <v>0</v>
       </c>
@@ -8327,7 +8350,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8335,14 +8358,14 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="D131" s="5" t="s">
         <v>384</v>
       </c>
-      <c r="C131" s="5" t="s">
-        <v>385</v>
-      </c>
-      <c r="D131" s="5" t="s">
-        <v>386</v>
-      </c>
       <c r="E131" s="5">
         <v>0</v>
       </c>
@@ -8353,7 +8376,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8361,14 +8384,14 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>386</v>
+      </c>
+      <c r="D132" s="5" t="s">
         <v>387</v>
       </c>
-      <c r="C132" s="5" t="s">
-        <v>388</v>
-      </c>
-      <c r="D132" s="5" t="s">
-        <v>389</v>
-      </c>
       <c r="E132" s="5">
         <v>0</v>
       </c>
@@ -8379,7 +8402,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8387,14 +8410,14 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D133" s="5" t="s">
         <v>390</v>
       </c>
-      <c r="C133" s="5" t="s">
-        <v>391</v>
-      </c>
-      <c r="D133" s="5" t="s">
-        <v>392</v>
-      </c>
       <c r="E133" s="5">
         <v>0</v>
       </c>
@@ -8405,7 +8428,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8413,14 +8436,14 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D134" s="5" t="s">
         <v>393</v>
       </c>
-      <c r="C134" s="5" t="s">
-        <v>394</v>
-      </c>
-      <c r="D134" s="5" t="s">
-        <v>395</v>
-      </c>
       <c r="E134" s="5">
         <v>0</v>
       </c>
@@ -8431,7 +8454,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8439,14 +8462,14 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D135" s="5" t="s">
         <v>396</v>
       </c>
-      <c r="C135" s="5" t="s">
-        <v>397</v>
-      </c>
-      <c r="D135" s="5" t="s">
-        <v>398</v>
-      </c>
       <c r="E135" s="5">
         <v>0</v>
       </c>
@@ -8457,7 +8480,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8465,14 +8488,14 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D136" s="5" t="s">
         <v>399</v>
       </c>
-      <c r="C136" s="5" t="s">
-        <v>400</v>
-      </c>
-      <c r="D136" s="5" t="s">
-        <v>401</v>
-      </c>
       <c r="E136" s="5">
         <v>0</v>
       </c>
@@ -8483,7 +8506,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8491,14 +8514,14 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="D137" s="5" t="s">
         <v>402</v>
       </c>
-      <c r="C137" s="5" t="s">
-        <v>403</v>
-      </c>
-      <c r="D137" s="5" t="s">
-        <v>404</v>
-      </c>
       <c r="E137" s="5">
         <v>0</v>
       </c>
@@ -8509,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8517,14 +8540,14 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
+        <v>403</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D138" s="5" t="s">
         <v>405</v>
       </c>
-      <c r="C138" s="5" t="s">
-        <v>406</v>
-      </c>
-      <c r="D138" s="5" t="s">
-        <v>407</v>
-      </c>
       <c r="E138" s="5">
         <v>0</v>
       </c>
@@ -8535,7 +8558,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8543,14 +8566,14 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D139" s="5" t="s">
         <v>408</v>
       </c>
-      <c r="C139" s="5" t="s">
-        <v>409</v>
-      </c>
-      <c r="D139" s="5" t="s">
-        <v>410</v>
-      </c>
       <c r="E139" s="5">
         <v>0</v>
       </c>
@@ -8561,7 +8584,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8569,14 +8592,14 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>410</v>
+      </c>
+      <c r="D140" s="5" t="s">
         <v>411</v>
       </c>
-      <c r="C140" s="5" t="s">
-        <v>412</v>
-      </c>
-      <c r="D140" s="5" t="s">
-        <v>413</v>
-      </c>
       <c r="E140" s="5">
         <v>0</v>
       </c>
@@ -8587,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8595,14 +8618,14 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>413</v>
+      </c>
+      <c r="D141" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>415</v>
-      </c>
-      <c r="D141" s="5" t="s">
-        <v>416</v>
-      </c>
       <c r="E141" s="5">
         <v>0</v>
       </c>
@@ -8613,7 +8636,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8621,14 +8644,14 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D142" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="C142" s="5" t="s">
-        <v>418</v>
-      </c>
-      <c r="D142" s="5" t="s">
-        <v>419</v>
-      </c>
       <c r="E142" s="5">
         <v>1</v>
       </c>
@@ -8639,7 +8662,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8647,13 +8670,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -8665,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8673,13 +8696,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -8691,7 +8714,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8699,13 +8722,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -8717,7 +8740,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8725,14 +8748,14 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D146" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="C146" s="5" t="s">
-        <v>427</v>
-      </c>
-      <c r="D146" s="5" t="s">
-        <v>428</v>
-      </c>
       <c r="E146" s="5">
         <v>0</v>
       </c>
@@ -8743,7 +8766,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8751,14 +8774,14 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D147" s="5" t="s">
         <v>429</v>
       </c>
-      <c r="C147" s="5" t="s">
-        <v>430</v>
-      </c>
-      <c r="D147" s="5" t="s">
-        <v>431</v>
-      </c>
       <c r="E147" s="5">
         <v>0</v>
       </c>
@@ -8769,7 +8792,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8777,14 +8800,14 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C148" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D148" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="C148" s="5" t="s">
-        <v>433</v>
-      </c>
-      <c r="D148" s="5" t="s">
-        <v>434</v>
-      </c>
       <c r="E148" s="5">
         <v>0</v>
       </c>
@@ -8795,7 +8818,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8803,14 +8826,14 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="C149" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D149" s="5" t="s">
         <v>435</v>
       </c>
-      <c r="C149" s="5" t="s">
-        <v>436</v>
-      </c>
-      <c r="D149" s="5" t="s">
-        <v>437</v>
-      </c>
       <c r="E149" s="5">
         <v>0</v>
       </c>
@@ -8821,7 +8844,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8829,14 +8852,14 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="C150" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D150" s="5" t="s">
         <v>438</v>
       </c>
-      <c r="C150" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="D150" s="5" t="s">
-        <v>440</v>
-      </c>
       <c r="E150" s="5">
         <v>0</v>
       </c>
@@ -8847,7 +8870,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8855,14 +8878,14 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="C151" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D151" s="5" t="s">
         <v>441</v>
       </c>
-      <c r="C151" s="5" t="s">
-        <v>442</v>
-      </c>
-      <c r="D151" s="5" t="s">
-        <v>443</v>
-      </c>
       <c r="E151" s="5">
         <v>0</v>
       </c>
@@ -8873,7 +8896,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8881,14 +8904,14 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="C152" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D152" s="5" t="s">
         <v>444</v>
       </c>
-      <c r="C152" s="5" t="s">
-        <v>445</v>
-      </c>
-      <c r="D152" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="E152" s="5">
         <v>0</v>
       </c>
@@ -8899,7 +8922,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8907,14 +8930,14 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="C153" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D153" s="5" t="s">
         <v>447</v>
       </c>
-      <c r="C153" s="5" t="s">
-        <v>448</v>
-      </c>
-      <c r="D153" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="E153" s="5">
         <v>0</v>
       </c>
@@ -8925,7 +8948,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8933,14 +8956,14 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="C154" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D154" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="C154" s="5" t="s">
-        <v>451</v>
-      </c>
-      <c r="D154" s="5" t="s">
-        <v>452</v>
-      </c>
       <c r="E154" s="5">
         <v>0</v>
       </c>
@@ -8951,7 +8974,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8959,14 +8982,14 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="C155" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="D155" s="5" t="s">
         <v>453</v>
       </c>
-      <c r="C155" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="D155" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="E155" s="5">
         <v>0</v>
       </c>
@@ -8977,7 +9000,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -8985,13 +9008,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -9003,7 +9026,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -9011,13 +9034,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -9029,7 +9052,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -9037,14 +9060,14 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
+        <v>458</v>
+      </c>
+      <c r="C158" s="5" t="s">
+        <v>459</v>
+      </c>
+      <c r="D158" s="5" t="s">
         <v>460</v>
       </c>
-      <c r="C158" s="5" t="s">
-        <v>461</v>
-      </c>
-      <c r="D158" s="5" t="s">
-        <v>462</v>
-      </c>
       <c r="E158" s="5">
         <v>0</v>
       </c>
@@ -9055,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -9063,14 +9086,14 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
+        <v>461</v>
+      </c>
+      <c r="C159" s="5" t="s">
+        <v>462</v>
+      </c>
+      <c r="D159" s="5" t="s">
         <v>463</v>
       </c>
-      <c r="C159" s="5" t="s">
-        <v>464</v>
-      </c>
-      <c r="D159" s="5" t="s">
-        <v>465</v>
-      </c>
       <c r="E159" s="5">
         <v>0</v>
       </c>
@@ -9081,7 +9104,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9089,14 +9112,14 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
+        <v>464</v>
+      </c>
+      <c r="C160" s="5" t="s">
+        <v>465</v>
+      </c>
+      <c r="D160" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="C160" s="5" t="s">
-        <v>467</v>
-      </c>
-      <c r="D160" s="5" t="s">
-        <v>468</v>
-      </c>
       <c r="E160" s="5">
         <v>0</v>
       </c>
@@ -9107,7 +9130,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -9115,14 +9138,14 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
+        <v>467</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>468</v>
+      </c>
+      <c r="D161" s="5" t="s">
         <v>469</v>
       </c>
-      <c r="C161" s="5" t="s">
-        <v>470</v>
-      </c>
-      <c r="D161" s="5" t="s">
-        <v>471</v>
-      </c>
       <c r="E161" s="5">
         <v>0</v>
       </c>
@@ -9133,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -9141,14 +9164,14 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
+        <v>470</v>
+      </c>
+      <c r="C162" s="5" t="s">
+        <v>471</v>
+      </c>
+      <c r="D162" s="5" t="s">
         <v>472</v>
       </c>
-      <c r="C162" s="5" t="s">
-        <v>473</v>
-      </c>
-      <c r="D162" s="5" t="s">
-        <v>474</v>
-      </c>
       <c r="E162" s="5">
         <v>1</v>
       </c>
@@ -9159,7 +9182,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9167,14 +9190,14 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
+        <v>473</v>
+      </c>
+      <c r="C163" s="5" t="s">
+        <v>474</v>
+      </c>
+      <c r="D163" s="5" t="s">
         <v>475</v>
       </c>
-      <c r="C163" s="5" t="s">
-        <v>476</v>
-      </c>
-      <c r="D163" s="5" t="s">
-        <v>477</v>
-      </c>
       <c r="E163" s="5">
         <v>0</v>
       </c>
@@ -9185,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9193,13 +9216,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9211,7 +9234,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9219,14 +9242,14 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
+        <v>478</v>
+      </c>
+      <c r="C165" s="5" t="s">
+        <v>479</v>
+      </c>
+      <c r="D165" s="5" t="s">
         <v>480</v>
       </c>
-      <c r="C165" s="5" t="s">
-        <v>481</v>
-      </c>
-      <c r="D165" s="5" t="s">
-        <v>482</v>
-      </c>
       <c r="E165" s="5">
         <v>0</v>
       </c>
@@ -9237,7 +9260,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9245,13 +9268,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -9263,7 +9286,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9271,14 +9294,14 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
+        <v>483</v>
+      </c>
+      <c r="C167" s="5" t="s">
+        <v>484</v>
+      </c>
+      <c r="D167" s="5" t="s">
         <v>485</v>
       </c>
-      <c r="C167" s="5" t="s">
-        <v>486</v>
-      </c>
-      <c r="D167" s="5" t="s">
-        <v>487</v>
-      </c>
       <c r="E167" s="5">
         <v>0</v>
       </c>
@@ -9289,7 +9312,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9297,14 +9320,14 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
+        <v>486</v>
+      </c>
+      <c r="C168" s="5" t="s">
+        <v>487</v>
+      </c>
+      <c r="D168" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="C168" s="5" t="s">
-        <v>489</v>
-      </c>
-      <c r="D168" s="5" t="s">
-        <v>490</v>
-      </c>
       <c r="E168" s="5">
         <v>0</v>
       </c>
@@ -9315,7 +9338,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9323,10 +9346,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9339,7 +9362,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9347,10 +9370,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9363,7 +9386,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9371,10 +9394,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9387,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9395,10 +9418,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9411,7 +9434,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9419,14 +9442,14 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
+        <v>495</v>
+      </c>
+      <c r="C173" s="5" t="s">
+        <v>496</v>
+      </c>
+      <c r="D173" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="C173" s="5" t="s">
-        <v>498</v>
-      </c>
-      <c r="D173" s="5" t="s">
-        <v>499</v>
-      </c>
       <c r="E173" s="5">
         <v>0</v>
       </c>
@@ -9437,7 +9460,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9445,10 +9468,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9461,7 +9484,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9469,10 +9492,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9485,7 +9508,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9493,10 +9516,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9509,7 +9532,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9517,14 +9540,14 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
+        <v>504</v>
+      </c>
+      <c r="C177" s="5" t="s">
+        <v>505</v>
+      </c>
+      <c r="D177" s="5" t="s">
         <v>506</v>
       </c>
-      <c r="C177" s="5" t="s">
-        <v>507</v>
-      </c>
-      <c r="D177" s="5" t="s">
-        <v>508</v>
-      </c>
       <c r="E177" s="5">
         <v>1</v>
       </c>
@@ -9535,7 +9558,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9543,14 +9566,14 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>508</v>
+      </c>
+      <c r="D178" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="C178" s="5" t="s">
-        <v>510</v>
-      </c>
-      <c r="D178" s="5" t="s">
-        <v>511</v>
-      </c>
       <c r="E178" s="5">
         <v>1</v>
       </c>
@@ -9561,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9569,10 +9592,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9585,7 +9608,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1">
@@ -9593,10 +9616,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6">
@@ -9609,7 +9632,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1">
@@ -9617,10 +9640,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6">
@@ -9633,7 +9656,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1">
@@ -9641,10 +9664,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6">
@@ -9657,7 +9680,7 @@
         <v>0</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -9665,10 +9688,10 @@
         <v>182</v>
       </c>
       <c r="B183" s="38" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="C183" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -9680,7 +9703,7 @@
         <v>0</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="184" spans="1:9">
@@ -9688,10 +9711,10 @@
         <v>183</v>
       </c>
       <c r="B184" s="38" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="C184" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -9703,7 +9726,7 @@
         <v>0</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="185" spans="1:9">
@@ -9711,10 +9734,10 @@
         <v>184</v>
       </c>
       <c r="B185" s="38" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="C185" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -9726,7 +9749,7 @@
         <v>0</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -9734,10 +9757,10 @@
         <v>185</v>
       </c>
       <c r="B186" s="38" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="C186" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9749,7 +9772,7 @@
         <v>0</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="187" spans="1:9">
@@ -9757,10 +9780,10 @@
         <v>186</v>
       </c>
       <c r="B187" s="38" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="C187" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9772,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -9780,10 +9803,10 @@
         <v>187</v>
       </c>
       <c r="B188" s="38" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="C188" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -9795,7 +9818,7 @@
         <v>0</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="189" spans="1:9">
@@ -9803,10 +9826,10 @@
         <v>188</v>
       </c>
       <c r="B189" s="38" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="C189" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9818,7 +9841,7 @@
         <v>0</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="190" spans="1:9">
@@ -9826,10 +9849,10 @@
         <v>189</v>
       </c>
       <c r="B190" s="38" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="C190" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -9841,7 +9864,7 @@
         <v>0</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -9849,10 +9872,10 @@
         <v>190</v>
       </c>
       <c r="B191" s="38" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="C191" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -9864,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -9872,10 +9895,10 @@
         <v>191</v>
       </c>
       <c r="B192" s="38" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="C192" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -9887,7 +9910,7 @@
         <v>0</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -9895,10 +9918,10 @@
         <v>192</v>
       </c>
       <c r="B193" s="38" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="C193" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -9910,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="194" spans="1:9">
@@ -9918,10 +9941,10 @@
         <v>193</v>
       </c>
       <c r="B194" s="38" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="C194" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -9933,7 +9956,7 @@
         <v>0</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="195" spans="1:9">
@@ -9941,10 +9964,10 @@
         <v>194</v>
       </c>
       <c r="B195" s="38" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="C195" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -9956,7 +9979,7 @@
         <v>0</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="196" spans="1:9">
@@ -9964,10 +9987,10 @@
         <v>195</v>
       </c>
       <c r="B196" s="38" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="C196" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -9979,7 +10002,7 @@
         <v>0</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="197" spans="1:9">
@@ -9987,10 +10010,10 @@
         <v>196</v>
       </c>
       <c r="B197" s="38" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="C197" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -10002,7 +10025,7 @@
         <v>0</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="198" spans="1:9">
@@ -10010,10 +10033,10 @@
         <v>197</v>
       </c>
       <c r="B198" s="38" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="C198" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -10025,7 +10048,7 @@
         <v>0</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="199" spans="1:9">
@@ -10033,10 +10056,10 @@
         <v>198</v>
       </c>
       <c r="B199" s="38" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="C199" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -10048,7 +10071,7 @@
         <v>0</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="200" spans="1:9">
@@ -10056,10 +10079,10 @@
         <v>199</v>
       </c>
       <c r="B200" s="38" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="C200" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -10071,7 +10094,7 @@
         <v>0</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="201" spans="1:9">
@@ -10079,10 +10102,10 @@
         <v>200</v>
       </c>
       <c r="B201" s="38" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="C201" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -10094,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="202" spans="1:9">
@@ -10102,10 +10125,10 @@
         <v>201</v>
       </c>
       <c r="B202" s="38" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="C202" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -10117,7 +10140,7 @@
         <v>0</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="203" spans="1:9">
@@ -10125,10 +10148,10 @@
         <v>202</v>
       </c>
       <c r="B203" s="38" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="C203" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -10140,7 +10163,7 @@
         <v>0</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="204" spans="1:9">
@@ -10148,13 +10171,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="38" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="C204" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -10166,7 +10189,7 @@
         <v>1</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="205" spans="1:9">
@@ -10174,13 +10197,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="38" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="C205" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -10192,7 +10215,7 @@
         <v>1</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="206" spans="1:9">
@@ -10200,13 +10223,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="38" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="C206" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10218,7 +10241,7 @@
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="207" spans="1:9">
@@ -10226,10 +10249,10 @@
         <v>206</v>
       </c>
       <c r="B207" s="38" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="C207" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -10241,7 +10264,7 @@
         <v>0</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="208" spans="1:9">
@@ -10249,10 +10272,10 @@
         <v>207</v>
       </c>
       <c r="B208" s="38" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="C208" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -10264,7 +10287,7 @@
         <v>0</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="209" spans="1:9">
@@ -10272,10 +10295,10 @@
         <v>208</v>
       </c>
       <c r="B209" s="38" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="C209" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -10287,7 +10310,7 @@
         <v>0</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="210" spans="1:9">
@@ -10295,10 +10318,10 @@
         <v>209</v>
       </c>
       <c r="B210" s="38" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="C210" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -10310,7 +10333,7 @@
         <v>0</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="211" spans="1:9">
@@ -10318,10 +10341,10 @@
         <v>210</v>
       </c>
       <c r="B211" s="38" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="C211" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10333,7 +10356,7 @@
         <v>1</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="212" spans="1:9">
@@ -10341,10 +10364,10 @@
         <v>211</v>
       </c>
       <c r="B212" s="38" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="C212" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -10356,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="213" spans="1:9">
@@ -10364,10 +10387,10 @@
         <v>212</v>
       </c>
       <c r="B213" s="38" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="C213" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -10379,7 +10402,7 @@
         <v>0</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -10387,10 +10410,10 @@
         <v>213</v>
       </c>
       <c r="B214" s="38" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="C214" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -10402,7 +10425,7 @@
         <v>0</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="215" spans="1:9">
@@ -10410,10 +10433,10 @@
         <v>214</v>
       </c>
       <c r="B215" s="38" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C215" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -10425,7 +10448,7 @@
         <v>0</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="216" spans="1:9">
@@ -10433,10 +10456,10 @@
         <v>215</v>
       </c>
       <c r="B216" s="38" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C216" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -10448,7 +10471,7 @@
         <v>0</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="217" spans="1:9">
@@ -10456,10 +10479,10 @@
         <v>216</v>
       </c>
       <c r="B217" s="38" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="C217" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10471,7 +10494,7 @@
         <v>0</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="218" spans="1:9">
@@ -10479,10 +10502,10 @@
         <v>217</v>
       </c>
       <c r="B218" s="38" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="C218" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -10494,7 +10517,7 @@
         <v>0</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -10502,10 +10525,10 @@
         <v>218</v>
       </c>
       <c r="B219" s="38" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="C219" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -10517,7 +10540,7 @@
         <v>0</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="220" spans="1:9">
@@ -10525,10 +10548,10 @@
         <v>219</v>
       </c>
       <c r="B220" s="38" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="C220" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -10540,7 +10563,7 @@
         <v>0</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="221" spans="1:9">
@@ -10548,10 +10571,10 @@
         <v>220</v>
       </c>
       <c r="B221" s="38" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
       <c r="C221" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10563,7 +10586,7 @@
         <v>0</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="222" spans="1:9">
@@ -10571,10 +10594,10 @@
         <v>221</v>
       </c>
       <c r="B222" s="38" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="C222" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -10586,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -10594,10 +10617,10 @@
         <v>222</v>
       </c>
       <c r="B223" s="38" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="C223" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10609,7 +10632,7 @@
         <v>0</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -10617,10 +10640,10 @@
         <v>223</v>
       </c>
       <c r="B224" s="38" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="C224" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10632,7 +10655,7 @@
         <v>0</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -10640,10 +10663,10 @@
         <v>224</v>
       </c>
       <c r="B225" s="38" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="C225" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10655,7 +10678,7 @@
         <v>0</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -10663,13 +10686,13 @@
         <v>225</v>
       </c>
       <c r="B226" s="38" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="C226" s="8" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D226" s="8" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10686,13 +10709,13 @@
         <v>226</v>
       </c>
       <c r="B227" s="38" t="s">
+        <v>612</v>
+      </c>
+      <c r="C227" s="8" t="s">
+        <v>613</v>
+      </c>
+      <c r="D227" t="s">
         <v>614</v>
-      </c>
-      <c r="C227" s="8" t="s">
-        <v>615</v>
-      </c>
-      <c r="D227" t="s">
-        <v>616</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10709,13 +10732,13 @@
         <v>227</v>
       </c>
       <c r="B228" s="38" t="s">
+        <v>615</v>
+      </c>
+      <c r="C228" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="D228" s="8" t="s">
         <v>617</v>
-      </c>
-      <c r="C228" s="8" t="s">
-        <v>618</v>
-      </c>
-      <c r="D228" s="8" t="s">
-        <v>619</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10732,13 +10755,13 @@
         <v>228</v>
       </c>
       <c r="B229" s="38" t="s">
+        <v>618</v>
+      </c>
+      <c r="C229" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="D229" s="8" t="s">
         <v>620</v>
-      </c>
-      <c r="C229" s="8" t="s">
-        <v>621</v>
-      </c>
-      <c r="D229" s="8" t="s">
-        <v>622</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10755,13 +10778,13 @@
         <v>229</v>
       </c>
       <c r="B230" s="38" t="s">
+        <v>624</v>
+      </c>
+      <c r="C230" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D230" s="8" t="s">
         <v>626</v>
-      </c>
-      <c r="C230" s="8" t="s">
-        <v>627</v>
-      </c>
-      <c r="D230" s="8" t="s">
-        <v>628</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10778,13 +10801,13 @@
         <v>230</v>
       </c>
       <c r="B231" s="38" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="C231" s="8" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D231" s="8" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10801,13 +10824,13 @@
         <v>231</v>
       </c>
       <c r="B232" s="38" t="s">
+        <v>632</v>
+      </c>
+      <c r="C232" s="8" t="s">
         <v>634</v>
       </c>
-      <c r="C232" s="8" t="s">
-        <v>636</v>
-      </c>
       <c r="D232" s="8" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10824,13 +10847,13 @@
         <v>232</v>
       </c>
       <c r="B233" s="38" t="s">
+        <v>646</v>
+      </c>
+      <c r="C233" s="8" t="s">
+        <v>647</v>
+      </c>
+      <c r="D233" s="8" t="s">
         <v>648</v>
-      </c>
-      <c r="C233" s="8" t="s">
-        <v>649</v>
-      </c>
-      <c r="D233" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10847,13 +10870,13 @@
         <v>233</v>
       </c>
       <c r="B234" s="38" t="s">
+        <v>653</v>
+      </c>
+      <c r="C234" s="8" t="s">
+        <v>654</v>
+      </c>
+      <c r="D234" s="8" t="s">
         <v>655</v>
-      </c>
-      <c r="C234" s="8" t="s">
-        <v>656</v>
-      </c>
-      <c r="D234" s="8" t="s">
-        <v>657</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10870,13 +10893,13 @@
         <v>234</v>
       </c>
       <c r="B235" s="38" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="D235" s="8" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="E235">
         <v>0</v>
@@ -10888,7 +10911,7 @@
         <v>0</v>
       </c>
       <c r="I235" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -10896,13 +10919,13 @@
         <v>235</v>
       </c>
       <c r="B236" s="38" t="s">
+        <v>659</v>
+      </c>
+      <c r="C236" s="8" t="s">
         <v>661</v>
       </c>
-      <c r="C236" s="8" t="s">
-        <v>663</v>
-      </c>
       <c r="D236" s="8" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -10914,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -10922,25 +10945,25 @@
         <v>236</v>
       </c>
       <c r="B237" s="38" t="s">
+        <v>662</v>
+      </c>
+      <c r="C237" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="D237" s="8" t="s">
         <v>664</v>
       </c>
-      <c r="C237" s="8" t="s">
+      <c r="E237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <v>1</v>
+      </c>
+      <c r="G237">
+        <v>1</v>
+      </c>
+      <c r="I237" t="s">
         <v>665</v>
-      </c>
-      <c r="D237" s="8" t="s">
-        <v>666</v>
-      </c>
-      <c r="E237">
-        <v>1</v>
-      </c>
-      <c r="F237">
-        <v>1</v>
-      </c>
-      <c r="G237">
-        <v>1</v>
-      </c>
-      <c r="I237" t="s">
-        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -10948,25 +10971,25 @@
         <v>237</v>
       </c>
       <c r="B238" s="38" t="s">
+        <v>666</v>
+      </c>
+      <c r="C238" s="8" t="s">
+        <v>669</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>667</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>1</v>
+      </c>
+      <c r="G238">
+        <v>1</v>
+      </c>
+      <c r="I238" t="s">
         <v>668</v>
-      </c>
-      <c r="C238" s="8" t="s">
-        <v>671</v>
-      </c>
-      <c r="D238" s="8" t="s">
-        <v>669</v>
-      </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>1</v>
-      </c>
-      <c r="G238">
-        <v>1</v>
-      </c>
-      <c r="I238" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -10974,25 +10997,25 @@
         <v>238</v>
       </c>
       <c r="B239" s="38" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="C239" s="8" t="s">
+        <v>672</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="E239">
+        <v>1</v>
+      </c>
+      <c r="F239">
+        <v>1</v>
+      </c>
+      <c r="G239">
+        <v>1</v>
+      </c>
+      <c r="I239" t="s">
         <v>674</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>673</v>
-      </c>
-      <c r="E239">
-        <v>1</v>
-      </c>
-      <c r="F239">
-        <v>1</v>
-      </c>
-      <c r="G239">
-        <v>1</v>
-      </c>
-      <c r="I239" t="s">
-        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -11000,25 +11023,25 @@
         <v>239</v>
       </c>
       <c r="B240" s="38" t="s">
+        <v>675</v>
+      </c>
+      <c r="C240" s="8" t="s">
+        <v>676</v>
+      </c>
+      <c r="D240" s="8" t="s">
         <v>677</v>
       </c>
-      <c r="C240" s="8" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>1</v>
+      </c>
+      <c r="G240">
+        <v>1</v>
+      </c>
+      <c r="I240" s="8" t="s">
         <v>678</v>
-      </c>
-      <c r="D240" s="8" t="s">
-        <v>679</v>
-      </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>1</v>
-      </c>
-      <c r="G240">
-        <v>1</v>
-      </c>
-      <c r="I240" s="8" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -11026,25 +11049,25 @@
         <v>240</v>
       </c>
       <c r="B241" s="38" t="s">
+        <v>679</v>
+      </c>
+      <c r="C241" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="D241" s="8" t="s">
         <v>681</v>
       </c>
-      <c r="C241" s="8" t="s">
+      <c r="E241">
+        <v>1</v>
+      </c>
+      <c r="F241">
+        <v>1</v>
+      </c>
+      <c r="G241">
+        <v>1</v>
+      </c>
+      <c r="I241" s="8" t="s">
         <v>682</v>
-      </c>
-      <c r="D241" s="8" t="s">
-        <v>683</v>
-      </c>
-      <c r="E241">
-        <v>1</v>
-      </c>
-      <c r="F241">
-        <v>1</v>
-      </c>
-      <c r="G241">
-        <v>1</v>
-      </c>
-      <c r="I241" s="8" t="s">
-        <v>684</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -11052,25 +11075,25 @@
         <v>241</v>
       </c>
       <c r="B242" s="38" t="s">
+        <v>687</v>
+      </c>
+      <c r="C242" s="8" t="s">
+        <v>688</v>
+      </c>
+      <c r="D242" s="8" t="s">
         <v>689</v>
       </c>
-      <c r="C242" s="8" t="s">
+      <c r="E242">
+        <v>1</v>
+      </c>
+      <c r="F242">
+        <v>1</v>
+      </c>
+      <c r="G242">
+        <v>1</v>
+      </c>
+      <c r="I242" s="8" t="s">
         <v>690</v>
-      </c>
-      <c r="D242" s="8" t="s">
-        <v>691</v>
-      </c>
-      <c r="E242">
-        <v>1</v>
-      </c>
-      <c r="F242">
-        <v>1</v>
-      </c>
-      <c r="G242">
-        <v>1</v>
-      </c>
-      <c r="I242" s="8" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -11078,25 +11101,25 @@
         <v>242</v>
       </c>
       <c r="B243" s="38" t="s">
+        <v>691</v>
+      </c>
+      <c r="C243" s="8" t="s">
+        <v>692</v>
+      </c>
+      <c r="D243" s="8" t="s">
         <v>693</v>
       </c>
-      <c r="C243" s="8" t="s">
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>1</v>
+      </c>
+      <c r="G243">
+        <v>1</v>
+      </c>
+      <c r="I243" s="8" t="s">
         <v>694</v>
-      </c>
-      <c r="D243" s="8" t="s">
-        <v>695</v>
-      </c>
-      <c r="E243">
-        <v>1</v>
-      </c>
-      <c r="F243">
-        <v>1</v>
-      </c>
-      <c r="G243">
-        <v>1</v>
-      </c>
-      <c r="I243" s="8" t="s">
-        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -11104,13 +11127,13 @@
         <v>243</v>
       </c>
       <c r="B244" s="38" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11122,7 +11145,7 @@
         <v>1</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -11130,13 +11153,13 @@
         <v>244</v>
       </c>
       <c r="B245" s="38" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11148,7 +11171,7 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -11156,13 +11179,13 @@
         <v>245</v>
       </c>
       <c r="B246" s="38" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11174,7 +11197,7 @@
         <v>1</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -11182,25 +11205,25 @@
         <v>246</v>
       </c>
       <c r="B247" s="38" t="s">
+        <v>708</v>
+      </c>
+      <c r="C247" s="8" t="s">
+        <v>707</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>709</v>
+      </c>
+      <c r="E247">
+        <v>1</v>
+      </c>
+      <c r="F247">
+        <v>1</v>
+      </c>
+      <c r="G247">
+        <v>1</v>
+      </c>
+      <c r="I247" s="8" t="s">
         <v>710</v>
-      </c>
-      <c r="C247" s="8" t="s">
-        <v>709</v>
-      </c>
-      <c r="D247" s="8" t="s">
-        <v>711</v>
-      </c>
-      <c r="E247">
-        <v>1</v>
-      </c>
-      <c r="F247">
-        <v>1</v>
-      </c>
-      <c r="G247">
-        <v>1</v>
-      </c>
-      <c r="I247" s="8" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -11208,25 +11231,25 @@
         <v>247</v>
       </c>
       <c r="B248" s="38" t="s">
+        <v>712</v>
+      </c>
+      <c r="C248" s="8" t="s">
+        <v>711</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>713</v>
+      </c>
+      <c r="E248">
+        <v>1</v>
+      </c>
+      <c r="F248">
+        <v>1</v>
+      </c>
+      <c r="G248">
+        <v>1</v>
+      </c>
+      <c r="I248" s="8" t="s">
         <v>714</v>
-      </c>
-      <c r="C248" s="8" t="s">
-        <v>713</v>
-      </c>
-      <c r="D248" s="8" t="s">
-        <v>715</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>1</v>
-      </c>
-      <c r="G248">
-        <v>1</v>
-      </c>
-      <c r="I248" s="8" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -11234,25 +11257,25 @@
         <v>248</v>
       </c>
       <c r="B249" s="38" t="s">
+        <v>715</v>
+      </c>
+      <c r="C249" s="8" t="s">
+        <v>716</v>
+      </c>
+      <c r="D249" s="8" t="s">
         <v>717</v>
       </c>
-      <c r="C249" s="8" t="s">
+      <c r="E249">
+        <v>1</v>
+      </c>
+      <c r="F249">
+        <v>1</v>
+      </c>
+      <c r="G249">
+        <v>1</v>
+      </c>
+      <c r="I249" s="8" t="s">
         <v>718</v>
-      </c>
-      <c r="D249" s="8" t="s">
-        <v>719</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>1</v>
-      </c>
-      <c r="G249">
-        <v>1</v>
-      </c>
-      <c r="I249" s="8" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -11260,25 +11283,25 @@
         <v>249</v>
       </c>
       <c r="B250" s="38" t="s">
+        <v>720</v>
+      </c>
+      <c r="C250" s="8" t="s">
+        <v>721</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>719</v>
+      </c>
+      <c r="E250">
+        <v>1</v>
+      </c>
+      <c r="F250">
+        <v>1</v>
+      </c>
+      <c r="G250">
+        <v>1</v>
+      </c>
+      <c r="I250" s="8" t="s">
         <v>722</v>
-      </c>
-      <c r="C250" s="8" t="s">
-        <v>723</v>
-      </c>
-      <c r="D250" s="8" t="s">
-        <v>721</v>
-      </c>
-      <c r="E250">
-        <v>1</v>
-      </c>
-      <c r="F250">
-        <v>1</v>
-      </c>
-      <c r="G250">
-        <v>1</v>
-      </c>
-      <c r="I250" s="8" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:9">
@@ -11286,25 +11309,25 @@
         <v>250</v>
       </c>
       <c r="B251" s="38" t="s">
+        <v>723</v>
+      </c>
+      <c r="C251" s="8" t="s">
+        <v>732</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>724</v>
+      </c>
+      <c r="E251">
+        <v>1</v>
+      </c>
+      <c r="F251">
+        <v>1</v>
+      </c>
+      <c r="G251">
+        <v>1</v>
+      </c>
+      <c r="I251" s="8" t="s">
         <v>725</v>
-      </c>
-      <c r="C251" s="8" t="s">
-        <v>734</v>
-      </c>
-      <c r="D251" s="8" t="s">
-        <v>726</v>
-      </c>
-      <c r="E251">
-        <v>1</v>
-      </c>
-      <c r="F251">
-        <v>1</v>
-      </c>
-      <c r="G251">
-        <v>1</v>
-      </c>
-      <c r="I251" s="8" t="s">
-        <v>727</v>
       </c>
     </row>
     <row r="252" spans="1:9">
@@ -11312,13 +11335,13 @@
         <v>251</v>
       </c>
       <c r="B252" s="38" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="C252" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="D252" s="8" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="E252">
         <v>0</v>
@@ -11330,7 +11353,7 @@
         <v>1</v>
       </c>
       <c r="I252" s="8" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="253" spans="1:9">
@@ -11338,13 +11361,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="39" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11357,7 +11380,7 @@
       </c>
       <c r="H253" s="22"/>
       <c r="I253" s="21" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
     </row>
     <row r="254" spans="1:9">
@@ -11365,25 +11388,25 @@
         <v>253</v>
       </c>
       <c r="B254" s="38" t="s">
+        <v>733</v>
+      </c>
+      <c r="C254" s="8" t="s">
+        <v>734</v>
+      </c>
+      <c r="D254" s="8" t="s">
         <v>735</v>
       </c>
-      <c r="C254" s="8" t="s">
+      <c r="E254">
+        <v>1</v>
+      </c>
+      <c r="F254">
+        <v>1</v>
+      </c>
+      <c r="G254">
+        <v>1</v>
+      </c>
+      <c r="I254" s="8" t="s">
         <v>736</v>
-      </c>
-      <c r="D254" s="8" t="s">
-        <v>737</v>
-      </c>
-      <c r="E254">
-        <v>1</v>
-      </c>
-      <c r="F254">
-        <v>1</v>
-      </c>
-      <c r="G254">
-        <v>1</v>
-      </c>
-      <c r="I254" s="8" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9">
@@ -11391,25 +11414,25 @@
         <v>254</v>
       </c>
       <c r="B255" s="38" t="s">
+        <v>737</v>
+      </c>
+      <c r="C255" s="8" t="s">
+        <v>738</v>
+      </c>
+      <c r="D255" s="8" t="s">
         <v>739</v>
       </c>
-      <c r="C255" s="8" t="s">
+      <c r="E255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <v>1</v>
+      </c>
+      <c r="G255">
+        <v>1</v>
+      </c>
+      <c r="I255" s="8" t="s">
         <v>740</v>
-      </c>
-      <c r="D255" s="8" t="s">
-        <v>741</v>
-      </c>
-      <c r="E255">
-        <v>1</v>
-      </c>
-      <c r="F255">
-        <v>1</v>
-      </c>
-      <c r="G255">
-        <v>1</v>
-      </c>
-      <c r="I255" s="8" t="s">
-        <v>742</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="16" customFormat="1">
@@ -11417,14 +11440,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C256" s="14" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D256" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C256" s="14" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D256" s="14" t="s">
-        <v>1007</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11435,7 +11458,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11443,13 +11466,13 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="C257" s="14" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="D257" s="14" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="E257" s="16">
         <v>0</v>
@@ -11461,7 +11484,7 @@
         <v>1</v>
       </c>
       <c r="I257" s="14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="16" customFormat="1">
@@ -11469,14 +11492,14 @@
         <v>257</v>
       </c>
       <c r="B258" s="23" t="s">
+        <v>745</v>
+      </c>
+      <c r="C258" s="14" t="s">
+        <v>746</v>
+      </c>
+      <c r="D258" s="14" t="s">
         <v>747</v>
       </c>
-      <c r="C258" s="14" t="s">
-        <v>748</v>
-      </c>
-      <c r="D258" s="14" t="s">
-        <v>749</v>
-      </c>
       <c r="E258" s="16">
         <v>0</v>
       </c>
@@ -11487,7 +11510,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="16" customFormat="1">
@@ -11495,25 +11518,25 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
+        <v>748</v>
+      </c>
+      <c r="C259" s="14" t="s">
+        <v>749</v>
+      </c>
+      <c r="D259" s="14" t="s">
         <v>750</v>
       </c>
-      <c r="C259" s="14" t="s">
+      <c r="E259" s="16">
+        <v>1</v>
+      </c>
+      <c r="F259" s="16">
+        <v>1</v>
+      </c>
+      <c r="G259" s="16">
+        <v>1</v>
+      </c>
+      <c r="I259" s="14" t="s">
         <v>751</v>
-      </c>
-      <c r="D259" s="14" t="s">
-        <v>752</v>
-      </c>
-      <c r="E259" s="16">
-        <v>1</v>
-      </c>
-      <c r="F259" s="16">
-        <v>1</v>
-      </c>
-      <c r="G259" s="16">
-        <v>1</v>
-      </c>
-      <c r="I259" s="14" t="s">
-        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="16" customFormat="1">
@@ -11521,25 +11544,25 @@
         <v>259</v>
       </c>
       <c r="B260" s="23" t="s">
+        <v>752</v>
+      </c>
+      <c r="C260" s="14" t="s">
+        <v>753</v>
+      </c>
+      <c r="D260" s="14" t="s">
         <v>754</v>
       </c>
-      <c r="C260" s="14" t="s">
+      <c r="E260" s="16">
+        <v>0</v>
+      </c>
+      <c r="F260" s="16">
+        <v>1</v>
+      </c>
+      <c r="G260" s="16">
+        <v>1</v>
+      </c>
+      <c r="I260" s="14" t="s">
         <v>755</v>
-      </c>
-      <c r="D260" s="14" t="s">
-        <v>756</v>
-      </c>
-      <c r="E260" s="16">
-        <v>0</v>
-      </c>
-      <c r="F260" s="16">
-        <v>1</v>
-      </c>
-      <c r="G260" s="16">
-        <v>1</v>
-      </c>
-      <c r="I260" s="14" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="261" spans="1:9">
@@ -11547,25 +11570,25 @@
         <v>260</v>
       </c>
       <c r="B261" s="38" t="s">
+        <v>756</v>
+      </c>
+      <c r="C261" s="8" t="s">
+        <v>759</v>
+      </c>
+      <c r="D261" t="s">
+        <v>757</v>
+      </c>
+      <c r="E261" s="5">
+        <v>1</v>
+      </c>
+      <c r="F261">
+        <v>1</v>
+      </c>
+      <c r="G261">
+        <v>1</v>
+      </c>
+      <c r="I261" s="11" t="s">
         <v>758</v>
-      </c>
-      <c r="C261" s="8" t="s">
-        <v>761</v>
-      </c>
-      <c r="D261" t="s">
-        <v>759</v>
-      </c>
-      <c r="E261" s="5">
-        <v>1</v>
-      </c>
-      <c r="F261">
-        <v>1</v>
-      </c>
-      <c r="G261">
-        <v>1</v>
-      </c>
-      <c r="I261" s="11" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11573,14 +11596,14 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
+        <v>760</v>
+      </c>
+      <c r="C262" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D262" s="14" t="s">
         <v>762</v>
       </c>
-      <c r="C262" s="8" t="s">
-        <v>763</v>
-      </c>
-      <c r="D262" s="14" t="s">
-        <v>764</v>
-      </c>
       <c r="E262">
         <v>1</v>
       </c>
@@ -11591,7 +11614,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="16" customFormat="1">
@@ -11599,25 +11622,25 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
+        <v>763</v>
+      </c>
+      <c r="C263" s="14" t="s">
+        <v>764</v>
+      </c>
+      <c r="D263" s="14" t="s">
         <v>765</v>
       </c>
-      <c r="C263" s="14" t="s">
+      <c r="E263" s="16">
+        <v>0</v>
+      </c>
+      <c r="F263" s="16">
+        <v>0</v>
+      </c>
+      <c r="G263" s="16">
+        <v>0</v>
+      </c>
+      <c r="I263" s="14" t="s">
         <v>766</v>
-      </c>
-      <c r="D263" s="14" t="s">
-        <v>767</v>
-      </c>
-      <c r="E263" s="16">
-        <v>0</v>
-      </c>
-      <c r="F263" s="16">
-        <v>0</v>
-      </c>
-      <c r="G263" s="16">
-        <v>0</v>
-      </c>
-      <c r="I263" s="14" t="s">
-        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="16" customFormat="1">
@@ -11625,14 +11648,14 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
+        <v>767</v>
+      </c>
+      <c r="C264" s="14" t="s">
+        <v>768</v>
+      </c>
+      <c r="D264" s="14" t="s">
         <v>769</v>
       </c>
-      <c r="C264" s="14" t="s">
-        <v>770</v>
-      </c>
-      <c r="D264" s="14" t="s">
-        <v>771</v>
-      </c>
       <c r="E264" s="16">
         <v>0</v>
       </c>
@@ -11643,7 +11666,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="14" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="16" customFormat="1">
@@ -11651,25 +11674,25 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
+        <v>770</v>
+      </c>
+      <c r="C265" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="D265" s="14" t="s">
         <v>772</v>
       </c>
-      <c r="C265" s="14" t="s">
+      <c r="E265" s="16">
+        <v>0</v>
+      </c>
+      <c r="F265" s="16">
+        <v>0</v>
+      </c>
+      <c r="G265" s="16">
+        <v>0</v>
+      </c>
+      <c r="I265" s="16" t="s">
         <v>773</v>
-      </c>
-      <c r="D265" s="14" t="s">
-        <v>774</v>
-      </c>
-      <c r="E265" s="16">
-        <v>0</v>
-      </c>
-      <c r="F265" s="16">
-        <v>0</v>
-      </c>
-      <c r="G265" s="16">
-        <v>0</v>
-      </c>
-      <c r="I265" s="16" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="16" customFormat="1">
@@ -11677,25 +11700,25 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
+        <v>774</v>
+      </c>
+      <c r="C266" s="14" t="s">
         <v>776</v>
       </c>
-      <c r="C266" s="14" t="s">
-        <v>778</v>
-      </c>
       <c r="D266" s="17" t="s">
+        <v>775</v>
+      </c>
+      <c r="E266" s="16">
+        <v>0</v>
+      </c>
+      <c r="F266" s="16">
+        <v>0</v>
+      </c>
+      <c r="G266" s="16">
+        <v>0</v>
+      </c>
+      <c r="I266" s="18" t="s">
         <v>777</v>
-      </c>
-      <c r="E266" s="16">
-        <v>0</v>
-      </c>
-      <c r="F266" s="16">
-        <v>0</v>
-      </c>
-      <c r="G266" s="16">
-        <v>0</v>
-      </c>
-      <c r="I266" s="18" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="16" customFormat="1">
@@ -11703,13 +11726,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
+        <v>778</v>
+      </c>
+      <c r="C267" s="14" t="s">
         <v>780</v>
       </c>
-      <c r="C267" s="14" t="s">
-        <v>782</v>
-      </c>
       <c r="D267" s="17" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -11721,7 +11744,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="16" customFormat="1">
@@ -11729,13 +11752,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="C268" s="14" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="D268" s="17" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="E268" s="16">
         <v>1</v>
@@ -11747,7 +11770,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11755,13 +11778,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -11774,7 +11797,7 @@
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11782,13 +11805,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
+        <v>787</v>
+      </c>
+      <c r="C270" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="D270" s="17" t="s">
         <v>789</v>
-      </c>
-      <c r="C270" s="14" t="s">
-        <v>790</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>791</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11801,7 +11824,7 @@
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="18" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11809,13 +11832,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
+        <v>791</v>
+      </c>
+      <c r="C271" s="14" t="s">
         <v>793</v>
       </c>
-      <c r="C271" s="14" t="s">
-        <v>795</v>
-      </c>
       <c r="D271" s="17" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11828,7 +11851,7 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11836,13 +11859,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
+        <v>795</v>
+      </c>
+      <c r="C272" s="14" t="s">
+        <v>796</v>
+      </c>
+      <c r="D272" s="17" t="s">
         <v>797</v>
-      </c>
-      <c r="C272" s="14" t="s">
-        <v>798</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11855,7 +11878,7 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11863,13 +11886,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
+        <v>799</v>
+      </c>
+      <c r="C273" s="14" t="s">
         <v>801</v>
       </c>
-      <c r="C273" s="14" t="s">
-        <v>803</v>
-      </c>
       <c r="D273" s="17" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11882,7 +11905,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11890,13 +11913,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -11909,7 +11932,7 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="16" customFormat="1">
@@ -11917,14 +11940,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
       <c r="C275" s="14" t="s">
+        <v>805</v>
+      </c>
+      <c r="D275" s="17" t="s">
         <v>807</v>
       </c>
-      <c r="D275" s="17" t="s">
-        <v>809</v>
-      </c>
       <c r="E275" s="16">
         <v>0</v>
       </c>
@@ -11935,7 +11958,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="45" customFormat="1">
@@ -11943,10 +11966,10 @@
         <v>275</v>
       </c>
       <c r="B276" s="46" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
       <c r="C276" s="44" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="E276" s="45">
         <v>1</v>
@@ -11958,7 +11981,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="44" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -11966,13 +11989,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -11985,7 +12008,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -11993,13 +12016,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12011,7 +12034,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12019,22 +12042,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C279" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>816</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12042,13 +12065,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12060,7 +12083,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12068,13 +12091,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="C281" s="14" t="s">
         <v>823</v>
       </c>
-      <c r="C281" s="14" t="s">
-        <v>825</v>
-      </c>
       <c r="D281" s="17" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12086,7 +12109,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12094,13 +12117,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12112,7 +12135,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
@@ -12120,25 +12143,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>827</v>
+      </c>
+      <c r="C283" s="24" t="s">
+        <v>828</v>
+      </c>
+      <c r="D283" s="25" t="s">
         <v>829</v>
       </c>
-      <c r="C283" s="24" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>830</v>
-      </c>
-      <c r="D283" s="25" t="s">
-        <v>831</v>
-      </c>
-      <c r="E283" s="26">
-        <v>1</v>
-      </c>
-      <c r="F283" s="26">
-        <v>1</v>
-      </c>
-      <c r="G283" s="26">
-        <v>1</v>
-      </c>
-      <c r="I283" s="27" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="26" customFormat="1">
@@ -12146,13 +12169,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="C284" s="24" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="D284" s="25" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="E284" s="26">
         <v>1</v>
@@ -12164,7 +12187,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -12172,25 +12195,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
+        <v>838</v>
+      </c>
+      <c r="C285" s="14" t="s">
+        <v>839</v>
+      </c>
+      <c r="D285" s="17" t="s">
         <v>840</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>841</v>
-      </c>
-      <c r="D285" s="17" t="s">
-        <v>842</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="26" customFormat="1">
@@ -12198,13 +12221,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="40" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="C286" s="24" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="D286" s="25" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="E286" s="26">
         <v>1</v>
@@ -12216,7 +12239,7 @@
         <v>1</v>
       </c>
       <c r="I286" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="26" customFormat="1">
@@ -12224,25 +12247,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="40" t="s">
+        <v>845</v>
+      </c>
+      <c r="C287" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="D287" s="25" t="s">
         <v>847</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>848</v>
-      </c>
-      <c r="D287" s="25" t="s">
-        <v>849</v>
-      </c>
-      <c r="E287" s="26">
-        <v>1</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="27" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="16" customFormat="1">
@@ -12250,14 +12273,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="23" t="s">
+        <v>849</v>
+      </c>
+      <c r="C288" s="14" t="s">
+        <v>850</v>
+      </c>
+      <c r="D288" s="14" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="14" t="s">
-        <v>852</v>
-      </c>
-      <c r="D288" s="14" t="s">
-        <v>853</v>
-      </c>
       <c r="E288" s="16">
         <v>0</v>
       </c>
@@ -12268,7 +12291,7 @@
         <v>0</v>
       </c>
       <c r="I288" s="14" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12276,25 +12299,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="40" t="s">
+        <v>852</v>
+      </c>
+      <c r="C289" s="24" t="s">
+        <v>853</v>
+      </c>
+      <c r="D289" s="25" t="s">
         <v>854</v>
       </c>
-      <c r="C289" s="24" t="s">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="26">
+        <v>1</v>
+      </c>
+      <c r="G289" s="26">
+        <v>1</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>855</v>
-      </c>
-      <c r="D289" s="25" t="s">
-        <v>856</v>
-      </c>
-      <c r="E289" s="26">
-        <v>1</v>
-      </c>
-      <c r="F289" s="26">
-        <v>1</v>
-      </c>
-      <c r="G289" s="26">
-        <v>1</v>
-      </c>
-      <c r="I289" s="27" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="26" customFormat="1">
@@ -12302,25 +12325,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="25" t="s">
+        <v>856</v>
+      </c>
+      <c r="C290" s="24" t="s">
+        <v>857</v>
+      </c>
+      <c r="D290" s="25" t="s">
         <v>858</v>
       </c>
-      <c r="C290" s="24" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>859</v>
-      </c>
-      <c r="D290" s="25" t="s">
-        <v>860</v>
-      </c>
-      <c r="E290" s="26">
-        <v>1</v>
-      </c>
-      <c r="F290" s="26">
-        <v>1</v>
-      </c>
-      <c r="G290" s="26">
-        <v>1</v>
-      </c>
-      <c r="I290" s="27" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="26" customFormat="1">
@@ -12328,14 +12351,14 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
+        <v>860</v>
+      </c>
+      <c r="C291" s="24" t="s">
+        <v>861</v>
+      </c>
+      <c r="D291" s="25" t="s">
         <v>862</v>
       </c>
-      <c r="C291" s="24" t="s">
-        <v>863</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>864</v>
-      </c>
       <c r="E291" s="26">
         <v>1</v>
       </c>
@@ -12346,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="26" customFormat="1">
@@ -12354,14 +12377,14 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
+        <v>863</v>
+      </c>
+      <c r="C292" s="24" t="s">
+        <v>868</v>
+      </c>
+      <c r="D292" s="25" t="s">
         <v>865</v>
       </c>
-      <c r="C292" s="24" t="s">
-        <v>870</v>
-      </c>
-      <c r="D292" s="25" t="s">
-        <v>867</v>
-      </c>
       <c r="E292" s="26">
         <v>1</v>
       </c>
@@ -12372,7 +12395,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="26" customFormat="1">
@@ -12380,14 +12403,14 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
+        <v>864</v>
+      </c>
+      <c r="C293" s="24" t="s">
+        <v>869</v>
+      </c>
+      <c r="D293" s="25" t="s">
         <v>866</v>
       </c>
-      <c r="C293" s="24" t="s">
-        <v>871</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>868</v>
-      </c>
       <c r="E293" s="26">
         <v>1</v>
       </c>
@@ -12398,7 +12421,7 @@
         <v>1</v>
       </c>
       <c r="I293" s="27" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="26" customFormat="1">
@@ -12406,14 +12429,14 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>870</v>
+      </c>
+      <c r="C294" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D294" s="25" t="s">
         <v>872</v>
       </c>
-      <c r="C294" s="24" t="s">
-        <v>873</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>874</v>
-      </c>
       <c r="E294" s="26">
         <v>1</v>
       </c>
@@ -12424,7 +12447,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="26" customFormat="1">
@@ -12432,14 +12455,14 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>873</v>
+      </c>
+      <c r="C295" s="24" t="s">
+        <v>874</v>
+      </c>
+      <c r="D295" s="25" t="s">
         <v>875</v>
       </c>
-      <c r="C295" s="24" t="s">
-        <v>876</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>877</v>
-      </c>
       <c r="E295" s="26">
         <v>1</v>
       </c>
@@ -12450,7 +12473,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="27" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12458,14 +12481,14 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="C296" s="14" t="s">
+        <v>877</v>
+      </c>
+      <c r="D296" s="19" t="s">
         <v>879</v>
       </c>
-      <c r="D296" s="19" t="s">
-        <v>881</v>
-      </c>
       <c r="E296">
         <v>0</v>
       </c>
@@ -12476,7 +12499,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12484,14 +12507,14 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="C297" s="14" t="s">
+        <v>878</v>
+      </c>
+      <c r="D297" s="19" t="s">
         <v>880</v>
       </c>
-      <c r="D297" s="19" t="s">
-        <v>882</v>
-      </c>
       <c r="E297">
         <v>0</v>
       </c>
@@ -12502,7 +12525,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12510,14 +12533,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>882</v>
+      </c>
+      <c r="C298" s="14" t="s">
+        <v>883</v>
+      </c>
+      <c r="D298" s="19" t="s">
         <v>884</v>
       </c>
-      <c r="C298" s="14" t="s">
-        <v>885</v>
-      </c>
-      <c r="D298" s="19" t="s">
-        <v>886</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12528,7 +12551,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12536,25 +12559,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>885</v>
+      </c>
+      <c r="C299" s="14" t="s">
+        <v>886</v>
+      </c>
+      <c r="D299" s="17" t="s">
         <v>887</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>888</v>
-      </c>
-      <c r="D299" s="17" t="s">
-        <v>889</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12562,25 +12585,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>891</v>
+      </c>
+      <c r="C300" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="D300" s="17" t="s">
         <v>893</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>894</v>
-      </c>
-      <c r="D300" s="17" t="s">
-        <v>895</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12588,13 +12611,13 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="C301" s="14" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="E301" s="16">
         <v>0</v>
@@ -12606,7 +12629,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12614,14 +12637,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="C302" s="14" t="s">
+        <v>898</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>900</v>
       </c>
-      <c r="D302" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12632,7 +12655,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12640,25 +12663,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>901</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>904</v>
+      </c>
+      <c r="D303" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>903</v>
-      </c>
-      <c r="C303" s="14" t="s">
-        <v>906</v>
-      </c>
-      <c r="D303" s="17" t="s">
-        <v>904</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12666,25 +12689,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="C304" s="14" t="s">
+        <v>923</v>
+      </c>
+      <c r="D304" s="17" t="s">
+        <v>950</v>
+      </c>
+      <c r="E304" s="16">
+        <v>1</v>
+      </c>
+      <c r="F304" s="16">
+        <v>1</v>
+      </c>
+      <c r="G304" s="16">
+        <v>1</v>
+      </c>
+      <c r="I304" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="D304" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="E304" s="16">
-        <v>1</v>
-      </c>
-      <c r="F304" s="16">
-        <v>1</v>
-      </c>
-      <c r="G304" s="16">
-        <v>1</v>
-      </c>
-      <c r="I304" s="14" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12692,14 +12715,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
+        <v>949</v>
+      </c>
+      <c r="C305" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D305" s="17" t="s">
         <v>951</v>
       </c>
-      <c r="C305" s="14" t="s">
-        <v>926</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>953</v>
-      </c>
       <c r="E305" s="16">
         <v>1</v>
       </c>
@@ -12710,7 +12733,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12718,13 +12741,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12736,7 +12759,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="18" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="16" customFormat="1">
@@ -12744,25 +12767,25 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="C307" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>905</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>908</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12770,13 +12793,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12788,7 +12811,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12796,25 +12819,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="C309" s="14" t="s">
+        <v>916</v>
+      </c>
+      <c r="D309" s="17" t="s">
+        <v>914</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>917</v>
-      </c>
-      <c r="C309" s="14" t="s">
-        <v>918</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="45" customFormat="1">
@@ -12822,13 +12845,13 @@
         <v>309</v>
       </c>
       <c r="B310" s="43" t="s">
+        <v>918</v>
+      </c>
+      <c r="C310" s="44" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="44" t="s">
-        <v>922</v>
-      </c>
       <c r="D310" s="43" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="E310" s="45">
         <v>1</v>
@@ -12840,7 +12863,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="44" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12848,13 +12871,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="E311" s="16">
         <v>0</v>
@@ -12866,7 +12889,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12874,13 +12897,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="14" t="s">
+        <v>928</v>
+      </c>
+      <c r="D312" s="17" t="s">
         <v>929</v>
-      </c>
-      <c r="C312" s="14" t="s">
-        <v>930</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12897,25 +12920,25 @@
         <v>312</v>
       </c>
       <c r="B313" s="36" t="s">
+        <v>931</v>
+      </c>
+      <c r="C313" s="14" t="s">
         <v>933</v>
       </c>
-      <c r="C313" s="14" t="s">
+      <c r="D313" s="17" t="s">
+        <v>936</v>
+      </c>
+      <c r="E313" s="16">
+        <v>0</v>
+      </c>
+      <c r="F313" s="16">
+        <v>0</v>
+      </c>
+      <c r="G313" s="16">
+        <v>0</v>
+      </c>
+      <c r="I313" s="14" t="s">
         <v>935</v>
-      </c>
-      <c r="D313" s="17" t="s">
-        <v>938</v>
-      </c>
-      <c r="E313" s="16">
-        <v>0</v>
-      </c>
-      <c r="F313" s="16">
-        <v>0</v>
-      </c>
-      <c r="G313" s="16">
-        <v>0</v>
-      </c>
-      <c r="I313" s="14" t="s">
-        <v>937</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -12923,13 +12946,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="36" t="s">
+        <v>932</v>
+      </c>
+      <c r="C314" s="14" t="s">
         <v>934</v>
       </c>
-      <c r="C314" s="14" t="s">
-        <v>936</v>
-      </c>
       <c r="D314" s="35" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -12941,7 +12964,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="16" customFormat="1">
@@ -12949,13 +12972,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -12967,7 +12990,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -12975,13 +12998,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="36" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="D316" s="35" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -12993,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="317" spans="1:9" s="45" customFormat="1">
@@ -13001,13 +13024,13 @@
         <v>316</v>
       </c>
       <c r="B317" s="43" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="C317" s="44" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="E317" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F317" s="45">
         <v>1</v>
@@ -13016,7 +13039,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="45" customFormat="1">
@@ -13024,13 +13047,13 @@
         <v>317</v>
       </c>
       <c r="B318" s="43" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C318" s="44" t="s">
         <v>1016</v>
       </c>
-      <c r="C318" s="44" t="s">
-        <v>1018</v>
-      </c>
       <c r="E318" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F318" s="45">
         <v>1</v>
@@ -13039,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="44" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="45" customFormat="1">
@@ -13047,22 +13070,22 @@
         <v>318</v>
       </c>
       <c r="B319" s="43" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C319" s="44" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E319" s="45">
+        <v>0</v>
+      </c>
+      <c r="F319" s="45">
+        <v>1</v>
+      </c>
+      <c r="G319" s="45">
+        <v>1</v>
+      </c>
+      <c r="I319" s="44" t="s">
         <v>1019</v>
-      </c>
-      <c r="C319" s="44" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E319" s="45">
-        <v>1</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="I319" s="44" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="45" customFormat="1">
@@ -13070,10 +13093,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="47" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="C320" s="44" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="E320" s="45">
         <v>1</v>
@@ -13085,7 +13108,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="48" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="45" customFormat="1">
@@ -13093,10 +13116,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="49" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="C321" s="44" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E321" s="45">
         <v>1</v>
@@ -13108,7 +13131,7 @@
         <v>1</v>
       </c>
       <c r="I321" s="48" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="322" spans="1:9" s="45" customFormat="1">
@@ -13116,16 +13139,16 @@
         <v>321</v>
       </c>
       <c r="B322" s="43" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="C322" s="44" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D322" s="43" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="E322" s="45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F322" s="45">
         <v>1</v>
@@ -13134,7 +13157,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="44" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13142,10 +13165,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="50" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13158,7 +13181,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13166,14 +13189,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="C324" s="14" t="s">
+        <v>958</v>
+      </c>
+      <c r="D324" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="C324" s="14" t="s">
-        <v>960</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>961</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13184,7 +13207,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13192,10 +13215,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -13207,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13215,14 +13238,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="C326" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="D326" s="17" t="s">
-        <v>968</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13233,10 +13256,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13244,13 +13267,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="C327" s="18" t="s">
         <v>983</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>985</v>
-      </c>
       <c r="D327" s="17" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="E327" s="16">
         <v>0</v>
@@ -13262,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13270,25 +13293,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D328" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>980</v>
-      </c>
-      <c r="C328" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="D328" s="17" t="s">
-        <v>981</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13296,25 +13319,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="D329" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>986</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>987</v>
-      </c>
-      <c r="E329" s="16">
-        <v>1</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13322,25 +13345,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C330" s="18" t="s">
+        <v>990</v>
+      </c>
+      <c r="D330" s="16" t="s">
         <v>991</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="E330" s="16">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>992</v>
-      </c>
-      <c r="D330" s="16" t="s">
-        <v>993</v>
-      </c>
-      <c r="E330" s="16">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13348,25 +13371,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="38" t="s">
+        <v>995</v>
+      </c>
+      <c r="C331" s="18" t="s">
+        <v>996</v>
+      </c>
+      <c r="D331" t="s">
         <v>997</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="E331" s="16">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="D331" t="s">
-        <v>999</v>
-      </c>
-      <c r="E331" s="16">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13374,25 +13397,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="38" t="s">
+        <v>999</v>
+      </c>
+      <c r="C332" s="18" t="s">
         <v>1001</v>
       </c>
-      <c r="C332" s="18" t="s">
-        <v>1003</v>
-      </c>
       <c r="D332" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E332" s="16">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1002</v>
-      </c>
-      <c r="E332" s="16">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16">
-        <v>1</v>
-      </c>
-      <c r="G332" s="16">
-        <v>1</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1004</v>
       </c>
     </row>
   </sheetData>
@@ -13419,7 +13442,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1264" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1040">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -127,6 +127,9 @@
     <t>sys_interactive_player</t>
   </si>
   <si>
+    <t>系统：互动</t>
+  </si>
+  <si>
     <t>SysInteractivePlayerManager</t>
   </si>
   <si>
@@ -152,6 +155,9 @@
   </si>
   <si>
     <t>系统：玩家中心</t>
+  </si>
+  <si>
+    <t>SysPersonalInfoManager</t>
   </si>
   <si>
     <t>guide</t>
@@ -4249,58 +4255,119 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>周常活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展活动皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3月29日23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_lb1_style/act_003_tylb1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>周常活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_009</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_lb1_style/act_002_tylb1</t>
-  </si>
-  <si>
-    <t>通用礼包皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_010_taohua</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（桃花）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_006_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展活动皮肤</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>3月22日23:59:59</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_008_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统：互动</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>SysPersonalInfoManager</t>
+    <t>act_052_qfhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_052_QFHLManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙腾祈福</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021年4月16日 23:59:59</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_Ty_GiftsManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包模板，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用礼包皮肤配置</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_012_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_014_caiqiu</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（彩球）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_013</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_ltlb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_lwgp</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙王贡品</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSLWGPManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_053_xcns</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>消除达人</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_053_XCNSManager</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4423,7 +4490,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4466,12 +4533,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4504,7 +4565,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4595,9 +4656,6 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4658,19 +4716,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -4950,19 +4996,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I332"/>
+  <dimension ref="A1:I337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D291" sqref="D291"/>
+      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="16" customWidth="1"/>
-    <col min="2" max="2" width="39.5" style="38" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.5" style="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="57" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
@@ -4976,8 +5022,8 @@
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>972</v>
+      <c r="B1" s="36" t="s">
+        <v>974</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4986,7 +5032,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>3</v>
@@ -4998,7 +5044,7 @@
         <v>5</v>
       </c>
       <c r="I1" s="4" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
@@ -5024,7 +5070,7 @@
         <v>1</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -5050,7 +5096,7 @@
         <v>1</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -5076,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5102,7 +5148,7 @@
         <v>1</v>
       </c>
       <c r="I5" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -5128,7 +5174,7 @@
         <v>1</v>
       </c>
       <c r="I6" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5154,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5180,137 +5226,137 @@
         <v>1</v>
       </c>
       <c r="I8" s="12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="52" customFormat="1">
-      <c r="A9" s="51">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="51" t="s">
+      <c r="B9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C9" s="51" t="s">
+      <c r="C9" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="51" t="s">
+      <c r="D9" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="51">
-        <v>0</v>
-      </c>
-      <c r="F9" s="52">
-        <v>0</v>
-      </c>
-      <c r="G9" s="52">
-        <v>0</v>
-      </c>
-      <c r="I9" s="53" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="52" customFormat="1">
-      <c r="A10" s="51">
+      <c r="E9" s="5">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="I9" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="15">
         <v>9</v>
       </c>
-      <c r="B10" s="51" t="s">
+      <c r="B10" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="51" t="s">
+      <c r="C10" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="51" t="s">
+      <c r="D10" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="51">
-        <v>0</v>
-      </c>
-      <c r="F10" s="52">
-        <v>0</v>
-      </c>
-      <c r="G10" s="52">
-        <v>0</v>
-      </c>
-      <c r="I10" s="53" t="s">
+      <c r="E10" s="5">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="I10" s="12" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="15">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="I11" s="12" t="s">
         <v>638</v>
       </c>
     </row>
-    <row r="11" spans="1:9" s="52" customFormat="1">
-      <c r="A11" s="51">
-        <v>10</v>
-      </c>
-      <c r="B11" s="51" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="54" t="s">
-        <v>1021</v>
-      </c>
-      <c r="D11" s="51" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="51">
-        <v>0</v>
-      </c>
-      <c r="F11" s="52">
-        <v>0</v>
-      </c>
-      <c r="G11" s="52">
-        <v>0</v>
-      </c>
-      <c r="I11" s="53" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="52" customFormat="1">
-      <c r="A12" s="51">
+    <row r="12" spans="1:9">
+      <c r="A12" s="15">
         <v>11</v>
       </c>
-      <c r="B12" s="51" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="51" t="s">
+      <c r="C12" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="51">
-        <v>0</v>
-      </c>
-      <c r="F12" s="52">
-        <v>0</v>
-      </c>
-      <c r="G12" s="52">
-        <v>0</v>
-      </c>
-      <c r="I12" s="53" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" s="52" customFormat="1">
-      <c r="A13" s="51">
+      <c r="D12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="15">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="D13" s="51" t="s">
+      <c r="C13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="51">
-        <v>0</v>
-      </c>
-      <c r="F13" s="52">
-        <v>0</v>
-      </c>
-      <c r="G13" s="52">
-        <v>0</v>
-      </c>
-      <c r="I13" s="53" t="s">
-        <v>636</v>
+      <c r="D13" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5318,13 +5364,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>1022</v>
+        <v>44</v>
       </c>
       <c r="E14" s="5">
         <v>1</v>
@@ -5336,7 +5382,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5344,13 +5390,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -5362,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -5370,13 +5416,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E16" s="5">
         <v>1</v>
@@ -5388,7 +5434,7 @@
         <v>1</v>
       </c>
       <c r="I16" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -5396,13 +5442,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E17" s="5">
         <v>1</v>
@@ -5414,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="I17" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -5422,13 +5468,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E18" s="5">
         <v>1</v>
@@ -5440,21 +5486,21 @@
         <v>1</v>
       </c>
       <c r="I18" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="15">
         <v>18</v>
       </c>
-      <c r="B19" s="38" t="s">
-        <v>55</v>
+      <c r="B19" s="37" t="s">
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D19" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -5466,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -5474,13 +5520,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5">
         <v>1</v>
@@ -5492,7 +5538,7 @@
         <v>1</v>
       </c>
       <c r="I20" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -5500,13 +5546,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E21" s="5">
         <v>1</v>
@@ -5518,7 +5564,7 @@
         <v>1</v>
       </c>
       <c r="I21" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -5526,13 +5572,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E22" s="5">
         <v>1</v>
@@ -5544,7 +5590,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -5552,13 +5598,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5">
         <v>1</v>
@@ -5570,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="I23" s="12" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -5578,13 +5624,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E24" s="5">
         <v>1</v>
@@ -5596,7 +5642,7 @@
         <v>1</v>
       </c>
       <c r="I24" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -5604,13 +5650,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E25" s="5">
         <v>1</v>
@@ -5622,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="I25" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -5630,13 +5676,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -5648,7 +5694,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -5656,13 +5702,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E27" s="5">
         <v>1</v>
@@ -5674,7 +5720,7 @@
         <v>1</v>
       </c>
       <c r="I27" s="12" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -5682,13 +5728,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E28" s="5">
         <v>1</v>
@@ -5700,7 +5746,7 @@
         <v>1</v>
       </c>
       <c r="I28" s="12" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -5708,51 +5754,51 @@
         <v>28</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E29" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" s="12" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="52" customFormat="1">
-      <c r="A30" s="51">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30" s="15">
         <v>29</v>
       </c>
-      <c r="B30" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="C30" s="51" t="s">
-        <v>88</v>
-      </c>
-      <c r="D30" s="51" t="s">
+      <c r="B30" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="E30" s="51">
-        <v>0</v>
-      </c>
-      <c r="F30" s="52">
-        <v>0</v>
-      </c>
-      <c r="G30" s="52">
-        <v>0</v>
-      </c>
-      <c r="I30" s="53" t="s">
-        <v>636</v>
+      <c r="C30" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E30" s="5">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="I30" s="12" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -5760,13 +5806,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -5778,7 +5824,7 @@
         <v>0</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -5786,13 +5832,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E32" s="5">
         <v>1</v>
@@ -5804,7 +5850,7 @@
         <v>1</v>
       </c>
       <c r="I32" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -5812,13 +5858,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E33" s="5">
         <v>1</v>
@@ -5830,7 +5876,7 @@
         <v>1</v>
       </c>
       <c r="I33" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -5838,13 +5884,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="E34" s="5">
         <v>1</v>
@@ -5856,7 +5902,7 @@
         <v>1</v>
       </c>
       <c r="I34" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -5864,13 +5910,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E35" s="5">
         <v>1</v>
@@ -5882,7 +5928,7 @@
         <v>1</v>
       </c>
       <c r="I35" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -5890,13 +5936,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -5908,7 +5954,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -5916,13 +5962,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E37" s="5">
         <v>1</v>
@@ -5934,7 +5980,7 @@
         <v>1</v>
       </c>
       <c r="I37" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -5942,13 +5988,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="E38" s="5">
         <v>1</v>
@@ -5960,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -5968,13 +6014,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E39" s="5">
         <v>1</v>
@@ -5986,33 +6032,33 @@
         <v>1</v>
       </c>
       <c r="I39" s="11" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="52" customFormat="1">
-      <c r="A40" s="51">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
+      <c r="A40" s="15">
         <v>39</v>
       </c>
-      <c r="B40" s="51" t="s">
-        <v>117</v>
-      </c>
-      <c r="C40" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D40" s="51" t="s">
+      <c r="B40" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E40" s="51">
-        <v>0</v>
-      </c>
-      <c r="F40" s="52">
-        <v>0</v>
-      </c>
-      <c r="G40" s="52">
-        <v>0</v>
-      </c>
-      <c r="I40" s="55" t="s">
-        <v>637</v>
+      <c r="C40" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0</v>
+      </c>
+      <c r="F40">
+        <v>0</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="I40" s="11" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -6020,13 +6066,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -6038,7 +6084,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -6046,13 +6092,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -6064,7 +6110,7 @@
         <v>0</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -6072,13 +6118,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -6090,7 +6136,7 @@
         <v>0</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -6098,13 +6144,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E44" s="5">
         <v>1</v>
@@ -6116,7 +6162,7 @@
         <v>1</v>
       </c>
       <c r="I44" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -6124,13 +6170,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E45" s="5">
         <v>1</v>
@@ -6142,7 +6188,7 @@
         <v>1</v>
       </c>
       <c r="I45" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -6150,13 +6196,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -6168,7 +6214,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -6176,13 +6222,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E47" s="5">
         <v>1</v>
@@ -6194,33 +6240,33 @@
         <v>1</v>
       </c>
       <c r="I47" s="11" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" s="52" customFormat="1">
-      <c r="A48" s="51">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
+      <c r="A48" s="15">
         <v>47</v>
       </c>
-      <c r="B48" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="51" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="E48" s="51">
-        <v>0</v>
-      </c>
-      <c r="F48" s="52">
-        <v>0</v>
-      </c>
-      <c r="G48" s="52">
-        <v>0</v>
-      </c>
-      <c r="I48" s="55" t="s">
-        <v>637</v>
+      <c r="C48" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="E48" s="5">
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <v>0</v>
+      </c>
+      <c r="I48" s="11" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -6228,13 +6274,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>973</v>
+        <v>975</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E49" s="5">
         <v>1</v>
@@ -6246,7 +6292,7 @@
         <v>1</v>
       </c>
       <c r="I49" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -6254,13 +6300,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="E50" s="5">
         <v>1</v>
@@ -6272,7 +6318,7 @@
         <v>1</v>
       </c>
       <c r="I50" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -6280,13 +6326,13 @@
         <v>50</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E51" s="5">
         <v>1</v>
@@ -6298,7 +6344,7 @@
         <v>1</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -6306,10 +6352,10 @@
         <v>51</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D52" s="5"/>
       <c r="E52" s="5">
@@ -6322,7 +6368,7 @@
         <v>1</v>
       </c>
       <c r="I52" s="11" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="53" spans="1:9" ht="24.75" customHeight="1">
@@ -6330,13 +6376,13 @@
         <v>52</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E53" s="5">
         <v>1</v>
@@ -6348,7 +6394,7 @@
         <v>1</v>
       </c>
       <c r="I53" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -6356,13 +6402,13 @@
         <v>53</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E54" s="5">
         <v>0</v>
@@ -6374,21 +6420,21 @@
         <v>0</v>
       </c>
       <c r="I54" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" s="15">
         <v>54</v>
       </c>
-      <c r="B55" s="38" t="s">
-        <v>971</v>
+      <c r="B55" s="37" t="s">
+        <v>973</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="E55" s="5">
         <v>1</v>
@@ -6400,21 +6446,21 @@
         <v>1</v>
       </c>
       <c r="I55" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" s="15">
         <v>55</v>
       </c>
-      <c r="B56" s="38" t="s">
-        <v>160</v>
+      <c r="B56" s="37" t="s">
+        <v>162</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E56" s="5">
         <v>0</v>
@@ -6426,33 +6472,33 @@
         <v>0</v>
       </c>
       <c r="I56" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" s="15">
+        <v>56</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="E57" s="5">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="I57" s="11" t="s">
         <v>639</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" s="52" customFormat="1">
-      <c r="A57" s="51">
-        <v>56</v>
-      </c>
-      <c r="B57" s="51" t="s">
-        <v>163</v>
-      </c>
-      <c r="C57" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="D57" s="51" t="s">
-        <v>165</v>
-      </c>
-      <c r="E57" s="51">
-        <v>0</v>
-      </c>
-      <c r="F57" s="52">
-        <v>0</v>
-      </c>
-      <c r="G57" s="52">
-        <v>0</v>
-      </c>
-      <c r="I57" s="55" t="s">
-        <v>637</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -6460,13 +6506,13 @@
         <v>57</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E58" s="5">
         <v>0</v>
@@ -6478,7 +6524,7 @@
         <v>0</v>
       </c>
       <c r="I58" s="11" t="s">
-        <v>649</v>
+        <v>651</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -6486,13 +6532,13 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>974</v>
+        <v>976</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E59" s="5">
         <v>1</v>
@@ -6504,7 +6550,7 @@
         <v>1</v>
       </c>
       <c r="I59" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="2" customFormat="1">
@@ -6512,51 +6558,51 @@
         <v>59</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>171</v>
-      </c>
-      <c r="C60" s="34" t="s">
-        <v>969</v>
+        <v>173</v>
+      </c>
+      <c r="C60" s="33" t="s">
+        <v>971</v>
       </c>
       <c r="D60" s="6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="E60" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F60" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G60" s="2">
-        <v>1</v>
-      </c>
-      <c r="I60" s="33" t="s">
-        <v>970</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" s="52" customFormat="1">
-      <c r="A61" s="51">
+        <v>0</v>
+      </c>
+      <c r="I60" s="32" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" s="15">
         <v>60</v>
       </c>
-      <c r="B61" s="51" t="s">
-        <v>173</v>
-      </c>
-      <c r="C61" s="51" t="s">
-        <v>174</v>
-      </c>
-      <c r="D61" s="51" t="s">
+      <c r="B61" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="E61" s="51">
-        <v>0</v>
-      </c>
-      <c r="F61" s="52">
-        <v>0</v>
-      </c>
-      <c r="G61" s="52">
-        <v>0</v>
-      </c>
-      <c r="I61" s="55" t="s">
-        <v>636</v>
+      <c r="C61" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E61" s="5">
+        <v>0</v>
+      </c>
+      <c r="F61">
+        <v>0</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="I61" s="11" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -6564,13 +6610,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E62" s="5">
         <v>1</v>
@@ -6582,7 +6628,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -6590,13 +6636,13 @@
         <v>62</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E63" s="5">
         <v>0</v>
@@ -6608,7 +6654,7 @@
         <v>0</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -6616,13 +6662,13 @@
         <v>63</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E64" s="5">
         <v>1</v>
@@ -6634,7 +6680,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -6642,13 +6688,13 @@
         <v>64</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="E65" s="5">
         <v>0</v>
@@ -6660,7 +6706,7 @@
         <v>0</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -6668,13 +6714,13 @@
         <v>65</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E66" s="5">
         <v>1</v>
@@ -6686,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="I66" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -6694,13 +6740,13 @@
         <v>66</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="E67" s="5">
         <v>0</v>
@@ -6712,7 +6758,7 @@
         <v>0</v>
       </c>
       <c r="I67" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -6720,13 +6766,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E68" s="5">
         <v>0</v>
@@ -6738,7 +6784,7 @@
         <v>0</v>
       </c>
       <c r="I68" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -6746,13 +6792,13 @@
         <v>68</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="E69" s="5">
         <v>1</v>
@@ -6764,7 +6810,7 @@
         <v>1</v>
       </c>
       <c r="I69" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -6772,13 +6818,13 @@
         <v>69</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E70" s="5">
         <v>1</v>
@@ -6790,7 +6836,7 @@
         <v>1</v>
       </c>
       <c r="I70" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -6798,13 +6844,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="E71" s="5">
         <v>1</v>
@@ -6816,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="I71" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -6824,13 +6870,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E72" s="5">
         <v>1</v>
@@ -6842,33 +6888,33 @@
         <v>1</v>
       </c>
       <c r="I72" s="11" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" s="52" customFormat="1">
-      <c r="A73" s="51">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
+      <c r="A73" s="15">
         <v>72</v>
       </c>
-      <c r="B73" s="51" t="s">
-        <v>209</v>
-      </c>
-      <c r="C73" s="51" t="s">
-        <v>210</v>
-      </c>
-      <c r="D73" s="51" t="s">
+      <c r="B73" s="5" t="s">
         <v>211</v>
       </c>
-      <c r="E73" s="51">
-        <v>0</v>
-      </c>
-      <c r="F73" s="52">
-        <v>0</v>
-      </c>
-      <c r="G73" s="52">
-        <v>0</v>
-      </c>
-      <c r="I73" s="55" t="s">
-        <v>637</v>
+      <c r="C73" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="E73" s="5">
+        <v>0</v>
+      </c>
+      <c r="F73">
+        <v>0</v>
+      </c>
+      <c r="G73">
+        <v>0</v>
+      </c>
+      <c r="I73" s="11" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="29" customFormat="1">
@@ -6876,13 +6922,13 @@
         <v>73</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>650</v>
+        <v>652</v>
       </c>
       <c r="C74" s="28" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="D74" s="28" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="E74" s="28">
         <v>0</v>
@@ -6893,8 +6939,8 @@
       <c r="G74" s="29">
         <v>0</v>
       </c>
-      <c r="I74" s="30" t="s">
-        <v>639</v>
+      <c r="I74" s="50">
+        <v>44298</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -6902,13 +6948,13 @@
         <v>74</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E75" s="5">
         <v>1</v>
@@ -6920,23 +6966,23 @@
         <v>1</v>
       </c>
       <c r="I75" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="22" customFormat="1">
       <c r="A76" s="15">
         <v>75</v>
       </c>
-      <c r="B76" s="31" t="s">
-        <v>217</v>
-      </c>
-      <c r="C76" s="31" t="s">
-        <v>218</v>
-      </c>
-      <c r="D76" s="31" t="s">
+      <c r="B76" s="30" t="s">
         <v>219</v>
       </c>
-      <c r="E76" s="31">
+      <c r="C76" s="30" t="s">
+        <v>220</v>
+      </c>
+      <c r="D76" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="E76" s="30">
         <v>0</v>
       </c>
       <c r="F76" s="22">
@@ -6945,8 +6991,8 @@
       <c r="G76" s="22">
         <v>1</v>
       </c>
-      <c r="I76" s="32" t="s">
-        <v>953</v>
+      <c r="I76" s="31" t="s">
+        <v>955</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -6954,13 +7000,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="E77" s="5">
         <v>0</v>
@@ -6972,7 +7018,7 @@
         <v>0</v>
       </c>
       <c r="I77" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -6980,13 +7026,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E78" s="5">
         <v>1</v>
@@ -6998,7 +7044,7 @@
         <v>1</v>
       </c>
       <c r="I78" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -7006,13 +7052,13 @@
         <v>78</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="E79" s="5">
         <v>0</v>
@@ -7024,7 +7070,7 @@
         <v>0</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -7032,13 +7078,13 @@
         <v>79</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="E80" s="5">
         <v>0</v>
@@ -7050,7 +7096,7 @@
         <v>0</v>
       </c>
       <c r="I80" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -7058,13 +7104,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="E81" s="5">
         <v>0</v>
@@ -7076,7 +7122,7 @@
         <v>0</v>
       </c>
       <c r="I81" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -7084,13 +7130,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="E82" s="5">
         <v>0</v>
@@ -7102,7 +7148,7 @@
         <v>0</v>
       </c>
       <c r="I82" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -7110,13 +7156,13 @@
         <v>82</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E83" s="5">
         <v>0</v>
@@ -7128,7 +7174,7 @@
         <v>0</v>
       </c>
       <c r="I83" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -7136,13 +7182,13 @@
         <v>83</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="E84" s="5">
         <v>0</v>
@@ -7154,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="I84" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -7162,13 +7208,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="E85" s="5">
         <v>1</v>
@@ -7180,7 +7226,7 @@
         <v>1</v>
       </c>
       <c r="I85" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -7188,13 +7234,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="E86" s="5">
         <v>1</v>
@@ -7206,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="I86" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -7214,13 +7260,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E87" s="5">
         <v>1</v>
@@ -7232,7 +7278,7 @@
         <v>1</v>
       </c>
       <c r="I87" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -7240,13 +7286,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E88" s="5">
         <v>1</v>
@@ -7258,7 +7304,7 @@
         <v>1</v>
       </c>
       <c r="I88" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -7266,13 +7312,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="E89" s="5">
         <v>0</v>
@@ -7284,7 +7330,7 @@
         <v>0</v>
       </c>
       <c r="I89" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -7292,13 +7338,13 @@
         <v>89</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="E90" s="5">
         <v>1</v>
@@ -7310,7 +7356,7 @@
         <v>1</v>
       </c>
       <c r="I90" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -7318,13 +7364,13 @@
         <v>90</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E91" s="5">
         <v>0</v>
@@ -7336,7 +7382,7 @@
         <v>0</v>
       </c>
       <c r="I91" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="92" spans="1:9">
@@ -7344,13 +7390,13 @@
         <v>91</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="E92" s="5">
         <v>1</v>
@@ -7362,7 +7408,7 @@
         <v>1</v>
       </c>
       <c r="I92" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="93" spans="1:9">
@@ -7370,13 +7416,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E93" s="5">
         <v>0</v>
@@ -7388,7 +7434,7 @@
         <v>1</v>
       </c>
       <c r="I93" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="94" spans="1:9">
@@ -7396,13 +7442,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="E94" s="5">
         <v>0</v>
@@ -7414,7 +7460,7 @@
         <v>0</v>
       </c>
       <c r="I94" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -7422,13 +7468,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E95" s="5">
         <v>0</v>
@@ -7440,7 +7486,7 @@
         <v>0</v>
       </c>
       <c r="I95" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -7448,13 +7494,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E96" s="5">
         <v>0</v>
@@ -7466,7 +7512,7 @@
         <v>0</v>
       </c>
       <c r="I96" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -7474,13 +7520,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E97" s="5">
         <v>0</v>
@@ -7492,7 +7538,7 @@
         <v>0</v>
       </c>
       <c r="I97" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -7500,13 +7546,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="E98" s="5">
         <v>0</v>
@@ -7518,7 +7564,7 @@
         <v>0</v>
       </c>
       <c r="I98" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -7526,13 +7572,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E99" s="5">
         <v>0</v>
@@ -7544,7 +7590,7 @@
         <v>0</v>
       </c>
       <c r="I99" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -7552,13 +7598,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="E100" s="5">
         <v>1</v>
@@ -7570,7 +7616,7 @@
         <v>1</v>
       </c>
       <c r="I100" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -7578,13 +7624,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E101" s="5">
         <v>0</v>
@@ -7596,7 +7642,7 @@
         <v>0</v>
       </c>
       <c r="I101" s="11" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -7604,13 +7650,13 @@
         <v>101</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E102" s="5">
         <v>0</v>
@@ -7622,7 +7668,7 @@
         <v>0</v>
       </c>
       <c r="I102" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -7630,13 +7676,13 @@
         <v>102</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="E103" s="5">
         <v>1</v>
@@ -7648,7 +7694,7 @@
         <v>1</v>
       </c>
       <c r="I103" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -7656,13 +7702,13 @@
         <v>103</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C104" s="5" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D104" s="5" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="E104" s="5">
         <v>0</v>
@@ -7674,7 +7720,7 @@
         <v>0</v>
       </c>
       <c r="I104" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -7682,13 +7728,13 @@
         <v>104</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C105" s="5" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D105" s="5" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="E105" s="5">
         <v>0</v>
@@ -7700,7 +7746,7 @@
         <v>0</v>
       </c>
       <c r="I105" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -7708,13 +7754,13 @@
         <v>105</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C106" s="5" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="D106" s="5" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E106" s="5">
         <v>0</v>
@@ -7726,7 +7772,7 @@
         <v>0</v>
       </c>
       <c r="I106" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -7734,13 +7780,13 @@
         <v>106</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C107" s="5" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D107" s="5" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="E107" s="5">
         <v>0</v>
@@ -7752,7 +7798,7 @@
         <v>0</v>
       </c>
       <c r="I107" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="108" spans="1:9">
@@ -7760,13 +7806,13 @@
         <v>107</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C108" s="5" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="D108" s="5" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E108" s="5">
         <v>0</v>
@@ -7778,7 +7824,7 @@
         <v>0</v>
       </c>
       <c r="I108" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="109" spans="1:9">
@@ -7786,13 +7832,13 @@
         <v>108</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D109" s="5" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="E109" s="5">
         <v>0</v>
@@ -7804,7 +7850,7 @@
         <v>0</v>
       </c>
       <c r="I109" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="110" spans="1:9">
@@ -7812,13 +7858,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D110" s="5" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E110" s="5">
         <v>0</v>
@@ -7830,7 +7876,7 @@
         <v>0</v>
       </c>
       <c r="I110" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="111" spans="1:9">
@@ -7838,13 +7884,13 @@
         <v>110</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C111" s="5" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="D111" s="5" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="E111" s="5">
         <v>0</v>
@@ -7856,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="I111" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:9">
@@ -7864,13 +7910,13 @@
         <v>111</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C112" s="5" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D112" s="5" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E112" s="5">
         <v>0</v>
@@ -7882,7 +7928,7 @@
         <v>0</v>
       </c>
       <c r="I112" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="113" spans="1:9">
@@ -7890,13 +7936,13 @@
         <v>112</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C113" s="5" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D113" s="5" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E113" s="5">
         <v>0</v>
@@ -7908,7 +7954,7 @@
         <v>0</v>
       </c>
       <c r="I113" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="114" spans="1:9">
@@ -7916,13 +7962,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D114" s="5" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="E114" s="5">
         <v>0</v>
@@ -7934,7 +7980,7 @@
         <v>0</v>
       </c>
       <c r="I114" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:9">
@@ -7942,13 +7988,13 @@
         <v>114</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D115" s="5" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="E115" s="5">
         <v>0</v>
@@ -7960,7 +8006,7 @@
         <v>0</v>
       </c>
       <c r="I115" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="116" spans="1:9">
@@ -7968,13 +8014,13 @@
         <v>115</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C116" s="5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D116" s="5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="E116" s="5">
         <v>0</v>
@@ -7986,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="I116" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="117" spans="1:9">
@@ -7994,13 +8040,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C117" s="5" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="D117" s="5" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E117" s="5">
         <v>0</v>
@@ -8012,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="I117" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="118" spans="1:9">
@@ -8020,13 +8066,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C118" s="5" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="D118" s="5" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="E118" s="5">
         <v>0</v>
@@ -8038,7 +8084,7 @@
         <v>0</v>
       </c>
       <c r="I118" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="119" spans="1:9" s="2" customFormat="1">
@@ -8046,13 +8092,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="D119" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="E119" s="6">
         <v>1</v>
@@ -8063,8 +8109,8 @@
       <c r="G119" s="2">
         <v>1</v>
       </c>
-      <c r="I119" s="41" t="s">
-        <v>639</v>
+      <c r="I119" s="40" t="s">
+        <v>641</v>
       </c>
     </row>
     <row r="120" spans="1:9">
@@ -8072,13 +8118,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C120" s="5" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="D120" s="5" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="E120" s="5">
         <v>0</v>
@@ -8090,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="I120" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="121" spans="1:9">
@@ -8098,13 +8144,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C121" s="5" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D121" s="5" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="E121" s="5">
         <v>0</v>
@@ -8116,7 +8162,7 @@
         <v>0</v>
       </c>
       <c r="I121" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="122" spans="1:9">
@@ -8124,13 +8170,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="5" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C122" s="5" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D122" s="5" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="E122" s="5">
         <v>0</v>
@@ -8142,7 +8188,7 @@
         <v>0</v>
       </c>
       <c r="I122" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -8150,13 +8196,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="5" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C123" s="5" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="D123" s="5" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="E123" s="5">
         <v>0</v>
@@ -8168,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="I123" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -8176,13 +8222,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="5" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C124" s="5" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="D124" s="5" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="E124" s="5">
         <v>0</v>
@@ -8194,7 +8240,7 @@
         <v>0</v>
       </c>
       <c r="I124" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="125" spans="1:9">
@@ -8202,13 +8248,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C125" s="5" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D125" s="5" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E125" s="5">
         <v>0</v>
@@ -8220,7 +8266,7 @@
         <v>0</v>
       </c>
       <c r="I125" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="126" spans="1:9">
@@ -8228,13 +8274,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C126" s="5" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="D126" s="5" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="E126" s="5">
         <v>1</v>
@@ -8246,7 +8292,7 @@
         <v>1</v>
       </c>
       <c r="I126" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="127" spans="1:9">
@@ -8254,13 +8300,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="5" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C127" s="5" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="D127" s="5" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="E127" s="5">
         <v>0</v>
@@ -8272,7 +8318,7 @@
         <v>0</v>
       </c>
       <c r="I127" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="128" spans="1:9">
@@ -8280,13 +8326,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C128" s="5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D128" s="5" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="E128" s="5">
         <v>0</v>
@@ -8298,7 +8344,7 @@
         <v>0</v>
       </c>
       <c r="I128" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:9">
@@ -8306,13 +8352,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="5" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C129" s="5" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="D129" s="5" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="E129" s="5">
         <v>0</v>
@@ -8324,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="I129" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="130" spans="1:9">
@@ -8332,13 +8378,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="5" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C130" s="5" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D130" s="5" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E130" s="5">
         <v>0</v>
@@ -8350,7 +8396,7 @@
         <v>0</v>
       </c>
       <c r="I130" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="131" spans="1:9">
@@ -8358,13 +8404,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="5" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C131" s="5" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="D131" s="5" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="E131" s="5">
         <v>0</v>
@@ -8376,7 +8422,7 @@
         <v>0</v>
       </c>
       <c r="I131" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -8384,13 +8430,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="5" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C132" s="5" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="D132" s="5" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E132" s="5">
         <v>0</v>
@@ -8402,7 +8448,7 @@
         <v>0</v>
       </c>
       <c r="I132" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:9">
@@ -8410,13 +8456,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="5" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C133" s="5" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D133" s="5" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="E133" s="5">
         <v>0</v>
@@ -8428,7 +8474,7 @@
         <v>0</v>
       </c>
       <c r="I133" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="134" spans="1:9">
@@ -8436,13 +8482,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="5" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C134" s="5" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="D134" s="5" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="E134" s="5">
         <v>0</v>
@@ -8454,7 +8500,7 @@
         <v>0</v>
       </c>
       <c r="I134" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="135" spans="1:9">
@@ -8462,13 +8508,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="5" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C135" s="5" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D135" s="5" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="E135" s="5">
         <v>0</v>
@@ -8480,7 +8526,7 @@
         <v>0</v>
       </c>
       <c r="I135" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="136" spans="1:9">
@@ -8488,13 +8534,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="5" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C136" s="5" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="D136" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="E136" s="5">
         <v>0</v>
@@ -8506,7 +8552,7 @@
         <v>0</v>
       </c>
       <c r="I136" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:9">
@@ -8514,13 +8560,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="5" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C137" s="5" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="E137" s="5">
         <v>0</v>
@@ -8532,7 +8578,7 @@
         <v>0</v>
       </c>
       <c r="I137" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="138" spans="1:9">
@@ -8540,13 +8586,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="5" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C138" s="5" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="E138" s="5">
         <v>0</v>
@@ -8558,7 +8604,7 @@
         <v>0</v>
       </c>
       <c r="I138" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="139" spans="1:9">
@@ -8566,13 +8612,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="5" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C139" s="5" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E139" s="5">
         <v>0</v>
@@ -8584,7 +8630,7 @@
         <v>0</v>
       </c>
       <c r="I139" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="140" spans="1:9">
@@ -8592,13 +8638,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="5" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C140" s="5" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="E140" s="5">
         <v>0</v>
@@ -8610,7 +8656,7 @@
         <v>0</v>
       </c>
       <c r="I140" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -8618,13 +8664,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="5" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C141" s="5" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="E141" s="5">
         <v>0</v>
@@ -8636,7 +8682,7 @@
         <v>0</v>
       </c>
       <c r="I141" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -8644,13 +8690,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="5" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C142" s="5" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="E142" s="5">
         <v>1</v>
@@ -8662,7 +8708,7 @@
         <v>1</v>
       </c>
       <c r="I142" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -8670,13 +8716,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="5" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C143" s="5" t="s">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="D143" s="5" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="E143" s="5">
         <v>0</v>
@@ -8688,7 +8734,7 @@
         <v>0</v>
       </c>
       <c r="I143" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -8696,13 +8742,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="5" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C144" s="5" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E144" s="5">
         <v>1</v>
@@ -8714,7 +8760,7 @@
         <v>1</v>
       </c>
       <c r="I144" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -8722,13 +8768,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="5" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C145" s="13" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="E145" s="5">
         <v>0</v>
@@ -8740,7 +8786,7 @@
         <v>0</v>
       </c>
       <c r="I145" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -8748,13 +8794,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="5" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C146" s="5" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E146" s="5">
         <v>0</v>
@@ -8766,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="I146" s="11" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -8774,13 +8820,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="5" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C147" s="5" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="E147" s="5">
         <v>0</v>
@@ -8792,7 +8838,7 @@
         <v>0</v>
       </c>
       <c r="I147" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -8800,13 +8846,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="5" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C148" s="5" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="D148" s="5" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="E148" s="5">
         <v>0</v>
@@ -8818,7 +8864,7 @@
         <v>0</v>
       </c>
       <c r="I148" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -8826,13 +8872,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="5" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C149" s="5" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="E149" s="5">
         <v>0</v>
@@ -8844,7 +8890,7 @@
         <v>0</v>
       </c>
       <c r="I149" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -8852,13 +8898,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="5" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C150" s="5" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="E150" s="5">
         <v>0</v>
@@ -8870,7 +8916,7 @@
         <v>0</v>
       </c>
       <c r="I150" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -8878,13 +8924,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="5" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C151" s="5" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="E151" s="5">
         <v>0</v>
@@ -8896,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -8904,13 +8950,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="5" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C152" s="5" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="E152" s="5">
         <v>0</v>
@@ -8922,7 +8968,7 @@
         <v>0</v>
       </c>
       <c r="I152" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -8930,13 +8976,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="5" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C153" s="5" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="E153" s="5">
         <v>0</v>
@@ -8948,7 +8994,7 @@
         <v>0</v>
       </c>
       <c r="I153" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -8956,13 +9002,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="5" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C154" s="5" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D154" s="5" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="E154" s="5">
         <v>0</v>
@@ -8974,7 +9020,7 @@
         <v>0</v>
       </c>
       <c r="I154" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -8982,13 +9028,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="5" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D155" s="5" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="E155" s="5">
         <v>0</v>
@@ -9000,7 +9046,7 @@
         <v>0</v>
       </c>
       <c r="I155" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -9008,13 +9054,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="5" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C156" s="7" t="s">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="D156" s="5" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E156" s="5">
         <v>0</v>
@@ -9026,7 +9072,7 @@
         <v>0</v>
       </c>
       <c r="I156" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -9034,13 +9080,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="5" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C157" s="9" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="D157" s="5" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E157" s="5">
         <v>0</v>
@@ -9052,7 +9098,7 @@
         <v>0</v>
       </c>
       <c r="I157" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -9060,13 +9106,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="5" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C158" s="5" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="D158" s="5" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E158" s="5">
         <v>0</v>
@@ -9078,7 +9124,7 @@
         <v>0</v>
       </c>
       <c r="I158" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -9086,13 +9132,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="5" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C159" s="5" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D159" s="5" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E159" s="5">
         <v>0</v>
@@ -9104,7 +9150,7 @@
         <v>0</v>
       </c>
       <c r="I159" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -9112,13 +9158,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="5" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C160" s="5" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="D160" s="5" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E160" s="5">
         <v>0</v>
@@ -9130,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="I160" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -9138,13 +9184,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="5" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="C161" s="5" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="D161" s="5" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E161" s="5">
         <v>0</v>
@@ -9156,7 +9202,7 @@
         <v>0</v>
       </c>
       <c r="I161" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -9164,13 +9210,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="5" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C162" s="5" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="D162" s="5" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="E162" s="5">
         <v>1</v>
@@ -9182,7 +9228,7 @@
         <v>1</v>
       </c>
       <c r="I162" s="11" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -9190,13 +9236,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="5" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C163" s="5" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="D163" s="5" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E163" s="5">
         <v>0</v>
@@ -9208,7 +9254,7 @@
         <v>0</v>
       </c>
       <c r="I163" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -9216,13 +9262,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="5" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C164" s="5" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D164" s="5" t="s">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="E164" s="5">
         <v>1</v>
@@ -9234,7 +9280,7 @@
         <v>1</v>
       </c>
       <c r="I164" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -9242,13 +9288,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="5" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="C165" s="5" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D165" s="5" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="E165" s="5">
         <v>0</v>
@@ -9260,7 +9306,7 @@
         <v>0</v>
       </c>
       <c r="I165" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="166" spans="1:9">
@@ -9268,13 +9314,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="5" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="D166" s="5" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="E166" s="5">
         <v>1</v>
@@ -9286,7 +9332,7 @@
         <v>1</v>
       </c>
       <c r="I166" s="11" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="167" spans="1:9">
@@ -9294,13 +9340,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="5" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C167" s="5" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="D167" s="5" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="E167" s="5">
         <v>0</v>
@@ -9312,7 +9358,7 @@
         <v>0</v>
       </c>
       <c r="I167" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="168" spans="1:9">
@@ -9320,13 +9366,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="5" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C168" s="5" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D168" s="5" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="E168" s="5">
         <v>0</v>
@@ -9338,7 +9384,7 @@
         <v>0</v>
       </c>
       <c r="I168" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="169" spans="1:9">
@@ -9346,10 +9392,10 @@
         <v>168</v>
       </c>
       <c r="B169" s="5" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="C169" s="5" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="D169" s="5"/>
       <c r="E169" s="5">
@@ -9362,7 +9408,7 @@
         <v>0</v>
       </c>
       <c r="I169" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="170" spans="1:9">
@@ -9370,10 +9416,10 @@
         <v>169</v>
       </c>
       <c r="B170" s="5" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="C170" s="5" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="D170" s="5"/>
       <c r="E170" s="5">
@@ -9386,7 +9432,7 @@
         <v>1</v>
       </c>
       <c r="I170" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="171" spans="1:9">
@@ -9394,10 +9440,10 @@
         <v>170</v>
       </c>
       <c r="B171" s="5" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="C171" s="5" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="D171" s="5"/>
       <c r="E171" s="5">
@@ -9410,7 +9456,7 @@
         <v>1</v>
       </c>
       <c r="I171" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="172" spans="1:9">
@@ -9418,10 +9464,10 @@
         <v>171</v>
       </c>
       <c r="B172" s="5" t="s">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="C172" s="9" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="D172" s="5"/>
       <c r="E172" s="5">
@@ -9434,7 +9480,7 @@
         <v>1</v>
       </c>
       <c r="I172" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="173" spans="1:9">
@@ -9442,13 +9488,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="5" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="C173" s="5" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="D173" s="5" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="E173" s="5">
         <v>0</v>
@@ -9460,7 +9506,7 @@
         <v>0</v>
       </c>
       <c r="I173" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="174" spans="1:9">
@@ -9468,10 +9514,10 @@
         <v>173</v>
       </c>
       <c r="B174" s="5" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="C174" s="5" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D174" s="5"/>
       <c r="E174" s="5">
@@ -9484,7 +9530,7 @@
         <v>0</v>
       </c>
       <c r="I174" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="175" spans="1:9">
@@ -9492,10 +9538,10 @@
         <v>174</v>
       </c>
       <c r="B175" s="5" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="C175" s="5" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="D175" s="5"/>
       <c r="E175" s="5">
@@ -9508,7 +9554,7 @@
         <v>1</v>
       </c>
       <c r="I175" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="176" spans="1:9">
@@ -9516,10 +9562,10 @@
         <v>175</v>
       </c>
       <c r="B176" s="5" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="C176" s="5" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="D176" s="5"/>
       <c r="E176" s="5">
@@ -9532,7 +9578,7 @@
         <v>0</v>
       </c>
       <c r="I176" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="177" spans="1:9">
@@ -9540,13 +9586,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="5" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="C177" s="5" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="D177" s="5" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E177" s="5">
         <v>1</v>
@@ -9558,7 +9604,7 @@
         <v>1</v>
       </c>
       <c r="I177" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="178" spans="1:9">
@@ -9566,13 +9612,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="5" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="C178" s="5" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="D178" s="5" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E178" s="5">
         <v>1</v>
@@ -9584,7 +9630,7 @@
         <v>1</v>
       </c>
       <c r="I178" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="179" spans="1:9">
@@ -9592,10 +9638,10 @@
         <v>178</v>
       </c>
       <c r="B179" s="5" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="C179" s="5" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="D179" s="5"/>
       <c r="E179" s="5">
@@ -9608,7 +9654,7 @@
         <v>0</v>
       </c>
       <c r="I179" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="180" spans="1:9" s="2" customFormat="1">
@@ -9616,10 +9662,10 @@
         <v>179</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="D180" s="6"/>
       <c r="E180" s="6">
@@ -9632,7 +9678,7 @@
         <v>0</v>
       </c>
       <c r="I180" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="181" spans="1:9" s="2" customFormat="1">
@@ -9640,10 +9686,10 @@
         <v>180</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="D181" s="6"/>
       <c r="E181" s="6">
@@ -9656,7 +9702,7 @@
         <v>0</v>
       </c>
       <c r="I181" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="182" spans="1:9" s="2" customFormat="1">
@@ -9664,10 +9710,10 @@
         <v>181</v>
       </c>
       <c r="B182" s="6" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="D182" s="6"/>
       <c r="E182" s="6">
@@ -9680,18 +9726,18 @@
         <v>0</v>
       </c>
       <c r="I182" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" s="15">
         <v>182</v>
       </c>
-      <c r="B183" s="38" t="s">
-        <v>518</v>
+      <c r="B183" s="37" t="s">
+        <v>520</v>
       </c>
       <c r="C183" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E183">
         <v>0</v>
@@ -9703,18 +9749,18 @@
         <v>0</v>
       </c>
       <c r="I183" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" s="15">
         <v>183</v>
       </c>
-      <c r="B184" s="38" t="s">
-        <v>520</v>
+      <c r="B184" s="37" t="s">
+        <v>522</v>
       </c>
       <c r="C184" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="E184">
         <v>0</v>
@@ -9726,18 +9772,18 @@
         <v>0</v>
       </c>
       <c r="I184" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="185" spans="1:9">
       <c r="A185" s="15">
         <v>184</v>
       </c>
-      <c r="B185" s="38" t="s">
-        <v>522</v>
+      <c r="B185" s="37" t="s">
+        <v>524</v>
       </c>
       <c r="C185" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E185">
         <v>0</v>
@@ -9749,18 +9795,18 @@
         <v>0</v>
       </c>
       <c r="I185" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="186" spans="1:9">
       <c r="A186" s="15">
         <v>185</v>
       </c>
-      <c r="B186" s="38" t="s">
-        <v>524</v>
+      <c r="B186" s="37" t="s">
+        <v>526</v>
       </c>
       <c r="C186" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E186">
         <v>0</v>
@@ -9772,18 +9818,18 @@
         <v>0</v>
       </c>
       <c r="I186" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="187" spans="1:9">
       <c r="A187" s="15">
         <v>186</v>
       </c>
-      <c r="B187" s="38" t="s">
-        <v>526</v>
+      <c r="B187" s="37" t="s">
+        <v>528</v>
       </c>
       <c r="C187" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="E187">
         <v>0</v>
@@ -9795,18 +9841,18 @@
         <v>0</v>
       </c>
       <c r="I187" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" s="15">
         <v>187</v>
       </c>
-      <c r="B188" s="38" t="s">
-        <v>528</v>
+      <c r="B188" s="37" t="s">
+        <v>530</v>
       </c>
       <c r="C188" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="E188">
         <v>0</v>
@@ -9818,18 +9864,18 @@
         <v>0</v>
       </c>
       <c r="I188" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="189" spans="1:9">
       <c r="A189" s="15">
         <v>188</v>
       </c>
-      <c r="B189" s="38" t="s">
-        <v>530</v>
+      <c r="B189" s="37" t="s">
+        <v>532</v>
       </c>
       <c r="C189" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E189">
         <v>0</v>
@@ -9841,18 +9887,18 @@
         <v>0</v>
       </c>
       <c r="I189" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="190" spans="1:9">
       <c r="A190" s="15">
         <v>189</v>
       </c>
-      <c r="B190" s="38" t="s">
-        <v>532</v>
+      <c r="B190" s="37" t="s">
+        <v>534</v>
       </c>
       <c r="C190" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E190">
         <v>0</v>
@@ -9864,18 +9910,18 @@
         <v>0</v>
       </c>
       <c r="I190" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" s="15">
         <v>190</v>
       </c>
-      <c r="B191" s="38" t="s">
-        <v>534</v>
+      <c r="B191" s="37" t="s">
+        <v>536</v>
       </c>
       <c r="C191" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E191">
         <v>0</v>
@@ -9887,18 +9933,18 @@
         <v>0</v>
       </c>
       <c r="I191" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" s="15">
         <v>191</v>
       </c>
-      <c r="B192" s="38" t="s">
-        <v>536</v>
+      <c r="B192" s="37" t="s">
+        <v>538</v>
       </c>
       <c r="C192" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="E192">
         <v>0</v>
@@ -9910,18 +9956,18 @@
         <v>0</v>
       </c>
       <c r="I192" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" s="15">
         <v>192</v>
       </c>
-      <c r="B193" s="38" t="s">
-        <v>538</v>
+      <c r="B193" s="37" t="s">
+        <v>540</v>
       </c>
       <c r="C193" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="E193">
         <v>0</v>
@@ -9933,18 +9979,18 @@
         <v>0</v>
       </c>
       <c r="I193" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="194" spans="1:9">
       <c r="A194" s="15">
         <v>193</v>
       </c>
-      <c r="B194" s="38" t="s">
-        <v>540</v>
+      <c r="B194" s="37" t="s">
+        <v>542</v>
       </c>
       <c r="C194" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="E194">
         <v>0</v>
@@ -9956,18 +10002,18 @@
         <v>0</v>
       </c>
       <c r="I194" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="195" spans="1:9">
       <c r="A195" s="15">
         <v>194</v>
       </c>
-      <c r="B195" s="38" t="s">
-        <v>542</v>
+      <c r="B195" s="37" t="s">
+        <v>544</v>
       </c>
       <c r="C195" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="E195">
         <v>0</v>
@@ -9979,18 +10025,18 @@
         <v>0</v>
       </c>
       <c r="I195" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="196" spans="1:9">
       <c r="A196" s="15">
         <v>195</v>
       </c>
-      <c r="B196" s="38" t="s">
-        <v>544</v>
+      <c r="B196" s="37" t="s">
+        <v>546</v>
       </c>
       <c r="C196" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="E196">
         <v>0</v>
@@ -10002,18 +10048,18 @@
         <v>0</v>
       </c>
       <c r="I196" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="197" spans="1:9">
       <c r="A197" s="15">
         <v>196</v>
       </c>
-      <c r="B197" s="38" t="s">
-        <v>546</v>
+      <c r="B197" s="37" t="s">
+        <v>548</v>
       </c>
       <c r="C197" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -10025,18 +10071,18 @@
         <v>0</v>
       </c>
       <c r="I197" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="198" spans="1:9">
       <c r="A198" s="15">
         <v>197</v>
       </c>
-      <c r="B198" s="38" t="s">
-        <v>548</v>
+      <c r="B198" s="37" t="s">
+        <v>550</v>
       </c>
       <c r="C198" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="E198">
         <v>0</v>
@@ -10048,18 +10094,18 @@
         <v>0</v>
       </c>
       <c r="I198" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="199" spans="1:9">
       <c r="A199" s="15">
         <v>198</v>
       </c>
-      <c r="B199" s="38" t="s">
-        <v>550</v>
+      <c r="B199" s="37" t="s">
+        <v>552</v>
       </c>
       <c r="C199" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="E199">
         <v>0</v>
@@ -10071,18 +10117,18 @@
         <v>0</v>
       </c>
       <c r="I199" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="200" spans="1:9">
       <c r="A200" s="15">
         <v>199</v>
       </c>
-      <c r="B200" s="38" t="s">
-        <v>552</v>
+      <c r="B200" s="37" t="s">
+        <v>554</v>
       </c>
       <c r="C200" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="E200">
         <v>0</v>
@@ -10094,18 +10140,18 @@
         <v>0</v>
       </c>
       <c r="I200" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="201" spans="1:9">
       <c r="A201" s="15">
         <v>200</v>
       </c>
-      <c r="B201" s="38" t="s">
-        <v>554</v>
+      <c r="B201" s="37" t="s">
+        <v>556</v>
       </c>
       <c r="C201" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="E201">
         <v>0</v>
@@ -10117,18 +10163,18 @@
         <v>0</v>
       </c>
       <c r="I201" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="202" spans="1:9">
       <c r="A202" s="15">
         <v>201</v>
       </c>
-      <c r="B202" s="38" t="s">
-        <v>556</v>
+      <c r="B202" s="37" t="s">
+        <v>558</v>
       </c>
       <c r="C202" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="E202">
         <v>0</v>
@@ -10140,18 +10186,18 @@
         <v>0</v>
       </c>
       <c r="I202" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="203" spans="1:9">
       <c r="A203" s="15">
         <v>202</v>
       </c>
-      <c r="B203" s="38" t="s">
-        <v>558</v>
+      <c r="B203" s="37" t="s">
+        <v>560</v>
       </c>
       <c r="C203" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -10163,21 +10209,21 @@
         <v>0</v>
       </c>
       <c r="I203" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="204" spans="1:9">
       <c r="A204" s="15">
         <v>203</v>
       </c>
-      <c r="B204" s="38" t="s">
-        <v>602</v>
+      <c r="B204" s="37" t="s">
+        <v>604</v>
       </c>
       <c r="C204" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D204" s="8" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -10189,21 +10235,21 @@
         <v>1</v>
       </c>
       <c r="I204" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="205" spans="1:9">
       <c r="A205" s="15">
         <v>204</v>
       </c>
-      <c r="B205" s="38" t="s">
-        <v>604</v>
+      <c r="B205" s="37" t="s">
+        <v>606</v>
       </c>
       <c r="C205" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D205" s="8" t="s">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -10215,21 +10261,21 @@
         <v>1</v>
       </c>
       <c r="I205" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="206" spans="1:9">
       <c r="A206" s="15">
         <v>205</v>
       </c>
-      <c r="B206" s="38" t="s">
-        <v>606</v>
+      <c r="B206" s="37" t="s">
+        <v>608</v>
       </c>
       <c r="C206" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D206" s="8" t="s">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -10241,18 +10287,18 @@
         <v>1</v>
       </c>
       <c r="I206" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="207" spans="1:9">
       <c r="A207" s="15">
         <v>206</v>
       </c>
-      <c r="B207" s="38" t="s">
-        <v>563</v>
+      <c r="B207" s="37" t="s">
+        <v>565</v>
       </c>
       <c r="C207" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="E207">
         <v>0</v>
@@ -10264,18 +10310,18 @@
         <v>0</v>
       </c>
       <c r="I207" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="208" spans="1:9">
       <c r="A208" s="15">
         <v>207</v>
       </c>
-      <c r="B208" s="38" t="s">
-        <v>565</v>
+      <c r="B208" s="37" t="s">
+        <v>567</v>
       </c>
       <c r="C208" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="E208">
         <v>0</v>
@@ -10287,18 +10333,18 @@
         <v>0</v>
       </c>
       <c r="I208" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="209" spans="1:9">
       <c r="A209" s="15">
         <v>208</v>
       </c>
-      <c r="B209" s="38" t="s">
-        <v>567</v>
+      <c r="B209" s="37" t="s">
+        <v>569</v>
       </c>
       <c r="C209" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="E209">
         <v>0</v>
@@ -10310,18 +10356,18 @@
         <v>0</v>
       </c>
       <c r="I209" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="210" spans="1:9">
       <c r="A210" s="15">
         <v>209</v>
       </c>
-      <c r="B210" s="38" t="s">
-        <v>569</v>
+      <c r="B210" s="37" t="s">
+        <v>571</v>
       </c>
       <c r="C210" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
       <c r="E210">
         <v>0</v>
@@ -10333,18 +10379,18 @@
         <v>0</v>
       </c>
       <c r="I210" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="211" spans="1:9">
       <c r="A211" s="15">
         <v>210</v>
       </c>
-      <c r="B211" s="38" t="s">
-        <v>571</v>
+      <c r="B211" s="37" t="s">
+        <v>573</v>
       </c>
       <c r="C211" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -10356,18 +10402,18 @@
         <v>1</v>
       </c>
       <c r="I211" s="11" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="212" spans="1:9">
       <c r="A212" s="15">
         <v>211</v>
       </c>
-      <c r="B212" s="38" t="s">
-        <v>573</v>
+      <c r="B212" s="37" t="s">
+        <v>575</v>
       </c>
       <c r="C212" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -10379,18 +10425,18 @@
         <v>0</v>
       </c>
       <c r="I212" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="213" spans="1:9">
       <c r="A213" s="15">
         <v>212</v>
       </c>
-      <c r="B213" s="38" t="s">
-        <v>575</v>
+      <c r="B213" s="37" t="s">
+        <v>577</v>
       </c>
       <c r="C213" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="E213">
         <v>0</v>
@@ -10402,18 +10448,18 @@
         <v>0</v>
       </c>
       <c r="I213" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" s="15">
         <v>213</v>
       </c>
-      <c r="B214" s="38" t="s">
-        <v>577</v>
+      <c r="B214" s="37" t="s">
+        <v>579</v>
       </c>
       <c r="C214" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="E214">
         <v>0</v>
@@ -10425,18 +10471,18 @@
         <v>0</v>
       </c>
       <c r="I214" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="215" spans="1:9">
       <c r="A215" s="15">
         <v>214</v>
       </c>
-      <c r="B215" s="38" t="s">
-        <v>579</v>
+      <c r="B215" s="37" t="s">
+        <v>581</v>
       </c>
       <c r="C215" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="E215">
         <v>0</v>
@@ -10448,18 +10494,18 @@
         <v>0</v>
       </c>
       <c r="I215" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:9">
       <c r="A216" s="15">
         <v>215</v>
       </c>
-      <c r="B216" s="38" t="s">
-        <v>581</v>
+      <c r="B216" s="37" t="s">
+        <v>583</v>
       </c>
       <c r="C216" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="E216">
         <v>0</v>
@@ -10471,18 +10517,18 @@
         <v>0</v>
       </c>
       <c r="I216" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="217" spans="1:9">
       <c r="A217" s="15">
         <v>216</v>
       </c>
-      <c r="B217" s="38" t="s">
-        <v>583</v>
+      <c r="B217" s="37" t="s">
+        <v>585</v>
       </c>
       <c r="C217" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="E217">
         <v>0</v>
@@ -10494,18 +10540,18 @@
         <v>0</v>
       </c>
       <c r="I217" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="218" spans="1:9">
       <c r="A218" s="15">
         <v>217</v>
       </c>
-      <c r="B218" s="38" t="s">
-        <v>585</v>
+      <c r="B218" s="37" t="s">
+        <v>587</v>
       </c>
       <c r="C218" t="s">
-        <v>586</v>
+        <v>588</v>
       </c>
       <c r="E218">
         <v>0</v>
@@ -10517,18 +10563,18 @@
         <v>0</v>
       </c>
       <c r="I218" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="219" spans="1:9">
       <c r="A219" s="15">
         <v>218</v>
       </c>
-      <c r="B219" s="38" t="s">
-        <v>587</v>
+      <c r="B219" s="37" t="s">
+        <v>589</v>
       </c>
       <c r="C219" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="E219">
         <v>0</v>
@@ -10540,18 +10586,18 @@
         <v>0</v>
       </c>
       <c r="I219" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="220" spans="1:9">
       <c r="A220" s="15">
         <v>219</v>
       </c>
-      <c r="B220" s="38" t="s">
-        <v>589</v>
+      <c r="B220" s="37" t="s">
+        <v>591</v>
       </c>
       <c r="C220" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="E220">
         <v>0</v>
@@ -10563,18 +10609,18 @@
         <v>0</v>
       </c>
       <c r="I220" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="221" spans="1:9">
       <c r="A221" s="15">
         <v>220</v>
       </c>
-      <c r="B221" s="38" t="s">
-        <v>591</v>
+      <c r="B221" s="37" t="s">
+        <v>593</v>
       </c>
       <c r="C221" t="s">
-        <v>592</v>
+        <v>594</v>
       </c>
       <c r="E221">
         <v>0</v>
@@ -10586,18 +10632,18 @@
         <v>0</v>
       </c>
       <c r="I221" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="222" spans="1:9">
       <c r="A222" s="15">
         <v>221</v>
       </c>
-      <c r="B222" s="38" t="s">
-        <v>593</v>
+      <c r="B222" s="37" t="s">
+        <v>595</v>
       </c>
       <c r="C222" t="s">
-        <v>594</v>
+        <v>596</v>
       </c>
       <c r="E222">
         <v>0</v>
@@ -10609,18 +10655,18 @@
         <v>0</v>
       </c>
       <c r="I222" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="223" spans="1:9">
       <c r="A223" s="15">
         <v>222</v>
       </c>
-      <c r="B223" s="38" t="s">
-        <v>595</v>
+      <c r="B223" s="37" t="s">
+        <v>597</v>
       </c>
       <c r="C223" t="s">
-        <v>596</v>
+        <v>598</v>
       </c>
       <c r="E223">
         <v>0</v>
@@ -10632,18 +10678,18 @@
         <v>0</v>
       </c>
       <c r="I223" s="10" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="224" spans="1:9">
       <c r="A224" s="15">
         <v>223</v>
       </c>
-      <c r="B224" s="38" t="s">
-        <v>597</v>
+      <c r="B224" s="37" t="s">
+        <v>599</v>
       </c>
       <c r="C224" t="s">
-        <v>598</v>
+        <v>600</v>
       </c>
       <c r="E224">
         <v>0</v>
@@ -10655,18 +10701,18 @@
         <v>0</v>
       </c>
       <c r="I224" s="10" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="225" spans="1:9">
       <c r="A225" s="15">
         <v>224</v>
       </c>
-      <c r="B225" s="38" t="s">
-        <v>645</v>
+      <c r="B225" s="37" t="s">
+        <v>647</v>
       </c>
       <c r="C225" t="s">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="E225">
         <v>0</v>
@@ -10678,21 +10724,21 @@
         <v>0</v>
       </c>
       <c r="I225" s="10" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
     </row>
     <row r="226" spans="1:9">
       <c r="A226" s="15">
         <v>225</v>
       </c>
-      <c r="B226" s="38" t="s">
+      <c r="B226" s="37" t="s">
+        <v>613</v>
+      </c>
+      <c r="C226" s="8" t="s">
         <v>611</v>
       </c>
-      <c r="C226" s="8" t="s">
-        <v>609</v>
-      </c>
       <c r="D226" s="8" t="s">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10708,14 +10754,14 @@
       <c r="A227" s="15">
         <v>226</v>
       </c>
-      <c r="B227" s="38" t="s">
-        <v>612</v>
+      <c r="B227" s="37" t="s">
+        <v>614</v>
       </c>
       <c r="C227" s="8" t="s">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="D227" t="s">
-        <v>614</v>
+        <v>616</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10731,14 +10777,14 @@
       <c r="A228" s="15">
         <v>227</v>
       </c>
-      <c r="B228" s="38" t="s">
-        <v>615</v>
+      <c r="B228" s="37" t="s">
+        <v>617</v>
       </c>
       <c r="C228" s="8" t="s">
-        <v>616</v>
+        <v>618</v>
       </c>
       <c r="D228" s="8" t="s">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10754,14 +10800,14 @@
       <c r="A229" s="15">
         <v>228</v>
       </c>
-      <c r="B229" s="38" t="s">
-        <v>618</v>
+      <c r="B229" s="37" t="s">
+        <v>620</v>
       </c>
       <c r="C229" s="8" t="s">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="D229" s="8" t="s">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="E229">
         <v>1</v>
@@ -10777,14 +10823,14 @@
       <c r="A230" s="15">
         <v>229</v>
       </c>
-      <c r="B230" s="38" t="s">
-        <v>624</v>
+      <c r="B230" s="37" t="s">
+        <v>626</v>
       </c>
       <c r="C230" s="8" t="s">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="D230" s="8" t="s">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="E230">
         <v>1</v>
@@ -10800,14 +10846,14 @@
       <c r="A231" s="15">
         <v>230</v>
       </c>
-      <c r="B231" s="38" t="s">
-        <v>622</v>
+      <c r="B231" s="37" t="s">
+        <v>624</v>
       </c>
       <c r="C231" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="D231" s="8" t="s">
         <v>623</v>
-      </c>
-      <c r="D231" s="8" t="s">
-        <v>621</v>
       </c>
       <c r="E231">
         <v>1</v>
@@ -10823,14 +10869,14 @@
       <c r="A232" s="15">
         <v>231</v>
       </c>
-      <c r="B232" s="38" t="s">
-        <v>632</v>
+      <c r="B232" s="37" t="s">
+        <v>634</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="D232" s="8" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="E232">
         <v>0</v>
@@ -10846,14 +10892,14 @@
       <c r="A233" s="15">
         <v>232</v>
       </c>
-      <c r="B233" s="38" t="s">
-        <v>646</v>
+      <c r="B233" s="37" t="s">
+        <v>648</v>
       </c>
       <c r="C233" s="8" t="s">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="D233" s="8" t="s">
-        <v>648</v>
+        <v>650</v>
       </c>
       <c r="E233">
         <v>1</v>
@@ -10869,14 +10915,14 @@
       <c r="A234" s="15">
         <v>233</v>
       </c>
-      <c r="B234" s="38" t="s">
-        <v>653</v>
+      <c r="B234" s="37" t="s">
+        <v>655</v>
       </c>
       <c r="C234" s="8" t="s">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="D234" s="8" t="s">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="E234">
         <v>0</v>
@@ -10892,40 +10938,40 @@
       <c r="A235" s="15">
         <v>234</v>
       </c>
-      <c r="B235" s="38" t="s">
-        <v>657</v>
+      <c r="B235" s="37" t="s">
+        <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="D235" s="8" t="s">
+        <v>660</v>
+      </c>
+      <c r="E235">
+        <v>1</v>
+      </c>
+      <c r="F235">
+        <v>1</v>
+      </c>
+      <c r="G235">
+        <v>1</v>
+      </c>
+      <c r="I235" t="s">
         <v>658</v>
-      </c>
-      <c r="E235">
-        <v>0</v>
-      </c>
-      <c r="F235">
-        <v>0</v>
-      </c>
-      <c r="G235">
-        <v>0</v>
-      </c>
-      <c r="I235" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="236" spans="1:9">
       <c r="A236" s="15">
         <v>235</v>
       </c>
-      <c r="B236" s="38" t="s">
-        <v>659</v>
+      <c r="B236" s="37" t="s">
+        <v>661</v>
       </c>
       <c r="C236" s="8" t="s">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="D236" s="8" t="s">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="E236">
         <v>0</v>
@@ -10937,21 +10983,21 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>968</v>
+        <v>970</v>
       </c>
     </row>
     <row r="237" spans="1:9">
       <c r="A237" s="15">
         <v>236</v>
       </c>
-      <c r="B237" s="38" t="s">
-        <v>662</v>
+      <c r="B237" s="37" t="s">
+        <v>664</v>
       </c>
       <c r="C237" s="8" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="D237" s="8" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10963,22 +11009,22 @@
         <v>1</v>
       </c>
       <c r="I237" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="238" spans="1:9">
       <c r="A238" s="15">
         <v>237</v>
       </c>
-      <c r="B238" s="38" t="s">
-        <v>666</v>
+      <c r="B238" s="37" t="s">
+        <v>668</v>
       </c>
       <c r="C238" s="8" t="s">
+        <v>671</v>
+      </c>
+      <c r="D238" s="8" t="s">
         <v>669</v>
       </c>
-      <c r="D238" s="8" t="s">
-        <v>667</v>
-      </c>
       <c r="E238">
         <v>1</v>
       </c>
@@ -10989,22 +11035,22 @@
         <v>1</v>
       </c>
       <c r="I238" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
     </row>
     <row r="239" spans="1:9">
       <c r="A239" s="15">
         <v>238</v>
       </c>
-      <c r="B239" s="38" t="s">
+      <c r="B239" s="37" t="s">
+        <v>675</v>
+      </c>
+      <c r="C239" s="8" t="s">
+        <v>674</v>
+      </c>
+      <c r="D239" s="8" t="s">
         <v>673</v>
       </c>
-      <c r="C239" s="8" t="s">
-        <v>672</v>
-      </c>
-      <c r="D239" s="8" t="s">
-        <v>671</v>
-      </c>
       <c r="E239">
         <v>1</v>
       </c>
@@ -11015,21 +11061,21 @@
         <v>1</v>
       </c>
       <c r="I239" t="s">
-        <v>674</v>
+        <v>676</v>
       </c>
     </row>
     <row r="240" spans="1:9">
       <c r="A240" s="15">
         <v>239</v>
       </c>
-      <c r="B240" s="38" t="s">
-        <v>675</v>
+      <c r="B240" s="37" t="s">
+        <v>677</v>
       </c>
       <c r="C240" s="8" t="s">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="D240" s="8" t="s">
-        <v>677</v>
+        <v>679</v>
       </c>
       <c r="E240">
         <v>1</v>
@@ -11041,21 +11087,21 @@
         <v>1</v>
       </c>
       <c r="I240" s="8" t="s">
-        <v>678</v>
+        <v>680</v>
       </c>
     </row>
     <row r="241" spans="1:9">
       <c r="A241" s="15">
         <v>240</v>
       </c>
-      <c r="B241" s="38" t="s">
-        <v>679</v>
+      <c r="B241" s="37" t="s">
+        <v>681</v>
       </c>
       <c r="C241" s="8" t="s">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="D241" s="8" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="E241">
         <v>1</v>
@@ -11067,21 +11113,21 @@
         <v>1</v>
       </c>
       <c r="I241" s="8" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="242" spans="1:9">
       <c r="A242" s="15">
         <v>241</v>
       </c>
-      <c r="B242" s="38" t="s">
-        <v>687</v>
+      <c r="B242" s="37" t="s">
+        <v>689</v>
       </c>
       <c r="C242" s="8" t="s">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="D242" s="8" t="s">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -11093,21 +11139,21 @@
         <v>1</v>
       </c>
       <c r="I242" s="8" t="s">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="243" spans="1:9">
       <c r="A243" s="15">
         <v>242</v>
       </c>
-      <c r="B243" s="38" t="s">
-        <v>691</v>
+      <c r="B243" s="37" t="s">
+        <v>693</v>
       </c>
       <c r="C243" s="8" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D243" s="8" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="E243">
         <v>1</v>
@@ -11119,21 +11165,21 @@
         <v>1</v>
       </c>
       <c r="I243" s="8" t="s">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="244" spans="1:9">
       <c r="A244" s="15">
         <v>243</v>
       </c>
-      <c r="B244" s="38" t="s">
-        <v>695</v>
+      <c r="B244" s="37" t="s">
+        <v>697</v>
       </c>
       <c r="C244" s="8" t="s">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="D244" s="8" t="s">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="E244">
         <v>1</v>
@@ -11145,21 +11191,21 @@
         <v>1</v>
       </c>
       <c r="I244" s="8" t="s">
-        <v>704</v>
+        <v>706</v>
       </c>
     </row>
     <row r="245" spans="1:9">
       <c r="A245" s="15">
         <v>244</v>
       </c>
-      <c r="B245" s="38" t="s">
-        <v>696</v>
+      <c r="B245" s="37" t="s">
+        <v>698</v>
       </c>
       <c r="C245" s="8" t="s">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="D245" s="8" t="s">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -11171,21 +11217,21 @@
         <v>1</v>
       </c>
       <c r="I245" s="8" t="s">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="246" spans="1:9">
       <c r="A246" s="15">
         <v>245</v>
       </c>
-      <c r="B246" s="38" t="s">
-        <v>697</v>
+      <c r="B246" s="37" t="s">
+        <v>699</v>
       </c>
       <c r="C246" s="8" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="D246" s="8" t="s">
-        <v>703</v>
+        <v>705</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -11197,21 +11243,21 @@
         <v>1</v>
       </c>
       <c r="I246" s="8" t="s">
-        <v>706</v>
+        <v>708</v>
       </c>
     </row>
     <row r="247" spans="1:9">
       <c r="A247" s="15">
         <v>246</v>
       </c>
-      <c r="B247" s="38" t="s">
-        <v>708</v>
+      <c r="B247" s="37" t="s">
+        <v>710</v>
       </c>
       <c r="C247" s="8" t="s">
-        <v>707</v>
+        <v>709</v>
       </c>
       <c r="D247" s="8" t="s">
-        <v>709</v>
+        <v>711</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -11223,21 +11269,21 @@
         <v>1</v>
       </c>
       <c r="I247" s="8" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="248" spans="1:9">
       <c r="A248" s="15">
         <v>247</v>
       </c>
-      <c r="B248" s="38" t="s">
-        <v>712</v>
+      <c r="B248" s="37" t="s">
+        <v>714</v>
       </c>
       <c r="C248" s="8" t="s">
-        <v>711</v>
+        <v>713</v>
       </c>
       <c r="D248" s="8" t="s">
-        <v>713</v>
+        <v>715</v>
       </c>
       <c r="E248">
         <v>1</v>
@@ -11249,21 +11295,21 @@
         <v>1</v>
       </c>
       <c r="I248" s="8" t="s">
-        <v>714</v>
+        <v>716</v>
       </c>
     </row>
     <row r="249" spans="1:9">
       <c r="A249" s="15">
         <v>248</v>
       </c>
-      <c r="B249" s="38" t="s">
-        <v>715</v>
+      <c r="B249" s="37" t="s">
+        <v>717</v>
       </c>
       <c r="C249" s="8" t="s">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="D249" s="8" t="s">
-        <v>717</v>
+        <v>719</v>
       </c>
       <c r="E249">
         <v>1</v>
@@ -11275,22 +11321,22 @@
         <v>1</v>
       </c>
       <c r="I249" s="8" t="s">
-        <v>718</v>
+        <v>720</v>
       </c>
     </row>
     <row r="250" spans="1:9">
       <c r="A250" s="15">
         <v>249</v>
       </c>
-      <c r="B250" s="38" t="s">
-        <v>720</v>
+      <c r="B250" s="37" t="s">
+        <v>722</v>
       </c>
       <c r="C250" s="8" t="s">
+        <v>723</v>
+      </c>
+      <c r="D250" s="8" t="s">
         <v>721</v>
       </c>
-      <c r="D250" s="8" t="s">
-        <v>719</v>
-      </c>
       <c r="E250">
         <v>1</v>
       </c>
@@ -11301,21 +11347,21 @@
         <v>1</v>
       </c>
       <c r="I250" s="8" t="s">
-        <v>722</v>
+        <v>724</v>
       </c>
     </row>
     <row r="251" spans="1:9">
       <c r="A251" s="15">
         <v>250</v>
       </c>
-      <c r="B251" s="38" t="s">
-        <v>723</v>
+      <c r="B251" s="37" t="s">
+        <v>725</v>
       </c>
       <c r="C251" s="8" t="s">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="D251" s="8" t="s">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="E251">
         <v>1</v>
@@ -11327,47 +11373,47 @@
         <v>1</v>
       </c>
       <c r="I251" s="8" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="252" spans="1:9">
       <c r="A252" s="15">
         <v>251</v>
       </c>
-      <c r="B252" s="38" t="s">
+      <c r="B252" s="37" t="s">
+        <v>730</v>
+      </c>
+      <c r="C252" t="s">
+        <v>733</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>731</v>
+      </c>
+      <c r="E252">
+        <v>0</v>
+      </c>
+      <c r="F252">
+        <v>1</v>
+      </c>
+      <c r="G252">
+        <v>1</v>
+      </c>
+      <c r="I252" s="8" t="s">
         <v>728</v>
-      </c>
-      <c r="C252" t="s">
-        <v>731</v>
-      </c>
-      <c r="D252" s="8" t="s">
-        <v>729</v>
-      </c>
-      <c r="E252">
-        <v>0</v>
-      </c>
-      <c r="F252">
-        <v>1</v>
-      </c>
-      <c r="G252">
-        <v>1</v>
-      </c>
-      <c r="I252" s="8" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="253" spans="1:9">
       <c r="A253" s="15">
         <v>252</v>
       </c>
-      <c r="B253" s="39" t="s">
-        <v>945</v>
+      <c r="B253" s="38" t="s">
+        <v>947</v>
       </c>
       <c r="C253" s="22" t="s">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>946</v>
+        <v>948</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11380,21 +11426,21 @@
       </c>
       <c r="H253" s="22"/>
       <c r="I253" s="21" t="s">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="254" spans="1:9">
       <c r="A254" s="15">
         <v>253</v>
       </c>
-      <c r="B254" s="38" t="s">
-        <v>733</v>
+      <c r="B254" s="37" t="s">
+        <v>735</v>
       </c>
       <c r="C254" s="8" t="s">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="D254" s="8" t="s">
-        <v>735</v>
+        <v>737</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11406,21 +11452,21 @@
         <v>1</v>
       </c>
       <c r="I254" s="8" t="s">
-        <v>736</v>
+        <v>738</v>
       </c>
     </row>
     <row r="255" spans="1:9">
       <c r="A255" s="15">
         <v>254</v>
       </c>
-      <c r="B255" s="38" t="s">
-        <v>737</v>
+      <c r="B255" s="37" t="s">
+        <v>739</v>
       </c>
       <c r="C255" s="8" t="s">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="D255" s="8" t="s">
-        <v>739</v>
+        <v>741</v>
       </c>
       <c r="E255">
         <v>1</v>
@@ -11432,7 +11478,7 @@
         <v>1</v>
       </c>
       <c r="I255" s="8" t="s">
-        <v>740</v>
+        <v>742</v>
       </c>
     </row>
     <row r="256" spans="1:9" s="16" customFormat="1">
@@ -11440,13 +11486,13 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
       <c r="C256" s="14" t="s">
-        <v>1004</v>
+        <v>1006</v>
       </c>
       <c r="D256" s="14" t="s">
-        <v>1005</v>
+        <v>1007</v>
       </c>
       <c r="E256" s="16">
         <v>0</v>
@@ -11458,7 +11504,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>988</v>
+        <v>990</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11466,25 +11512,25 @@
         <v>256</v>
       </c>
       <c r="B257" s="23" t="s">
+        <v>746</v>
+      </c>
+      <c r="C257" s="14" t="s">
         <v>744</v>
       </c>
-      <c r="C257" s="14" t="s">
-        <v>742</v>
-      </c>
       <c r="D257" s="14" t="s">
+        <v>745</v>
+      </c>
+      <c r="E257" s="16">
+        <v>0</v>
+      </c>
+      <c r="F257" s="16">
+        <v>1</v>
+      </c>
+      <c r="G257" s="16">
+        <v>1</v>
+      </c>
+      <c r="I257" s="14" t="s">
         <v>743</v>
-      </c>
-      <c r="E257" s="16">
-        <v>0</v>
-      </c>
-      <c r="F257" s="16">
-        <v>1</v>
-      </c>
-      <c r="G257" s="16">
-        <v>1</v>
-      </c>
-      <c r="I257" s="14" t="s">
-        <v>741</v>
       </c>
     </row>
     <row r="258" spans="1:9" s="16" customFormat="1">
@@ -11492,13 +11538,13 @@
         <v>257</v>
       </c>
       <c r="B258" s="23" t="s">
-        <v>745</v>
+        <v>747</v>
       </c>
       <c r="C258" s="14" t="s">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>747</v>
+        <v>749</v>
       </c>
       <c r="E258" s="16">
         <v>0</v>
@@ -11510,7 +11556,7 @@
         <v>1</v>
       </c>
       <c r="I258" s="14" t="s">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="259" spans="1:9" s="16" customFormat="1">
@@ -11518,13 +11564,13 @@
         <v>258</v>
       </c>
       <c r="B259" s="23" t="s">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="C259" s="14" t="s">
-        <v>749</v>
+        <v>751</v>
       </c>
       <c r="D259" s="14" t="s">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="E259" s="16">
         <v>1</v>
@@ -11536,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="I259" s="14" t="s">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="260" spans="1:9" s="16" customFormat="1">
@@ -11544,13 +11590,13 @@
         <v>259</v>
       </c>
       <c r="B260" s="23" t="s">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="C260" s="14" t="s">
-        <v>753</v>
+        <v>755</v>
       </c>
       <c r="D260" s="14" t="s">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="E260" s="16">
         <v>0</v>
@@ -11562,22 +11608,22 @@
         <v>1</v>
       </c>
       <c r="I260" s="14" t="s">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="261" spans="1:9">
       <c r="A261" s="15">
         <v>260</v>
       </c>
-      <c r="B261" s="38" t="s">
-        <v>756</v>
+      <c r="B261" s="37" t="s">
+        <v>758</v>
       </c>
       <c r="C261" s="8" t="s">
+        <v>761</v>
+      </c>
+      <c r="D261" t="s">
         <v>759</v>
       </c>
-      <c r="D261" t="s">
-        <v>757</v>
-      </c>
       <c r="E261" s="5">
         <v>1</v>
       </c>
@@ -11588,7 +11634,7 @@
         <v>1</v>
       </c>
       <c r="I261" s="11" t="s">
-        <v>758</v>
+        <v>760</v>
       </c>
     </row>
     <row r="262" spans="1:9">
@@ -11596,13 +11642,13 @@
         <v>261</v>
       </c>
       <c r="B262" s="23" t="s">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="C262" s="8" t="s">
-        <v>761</v>
+        <v>763</v>
       </c>
       <c r="D262" s="14" t="s">
-        <v>762</v>
+        <v>764</v>
       </c>
       <c r="E262">
         <v>1</v>
@@ -11614,7 +11660,7 @@
         <v>1</v>
       </c>
       <c r="I262" s="11" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="263" spans="1:9" s="16" customFormat="1">
@@ -11622,13 +11668,13 @@
         <v>262</v>
       </c>
       <c r="B263" s="23" t="s">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="C263" s="14" t="s">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="D263" s="14" t="s">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="E263" s="16">
         <v>0</v>
@@ -11640,7 +11686,7 @@
         <v>0</v>
       </c>
       <c r="I263" s="14" t="s">
-        <v>766</v>
+        <v>768</v>
       </c>
     </row>
     <row r="264" spans="1:9" s="16" customFormat="1">
@@ -11648,13 +11694,13 @@
         <v>263</v>
       </c>
       <c r="B264" s="23" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="C264" s="14" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D264" s="14" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="E264" s="16">
         <v>0</v>
@@ -11666,7 +11712,7 @@
         <v>0</v>
       </c>
       <c r="I264" s="14" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="265" spans="1:9" s="16" customFormat="1">
@@ -11674,13 +11720,13 @@
         <v>264</v>
       </c>
       <c r="B265" s="23" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="C265" s="14" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D265" s="14" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="E265" s="16">
         <v>0</v>
@@ -11692,7 +11738,7 @@
         <v>0</v>
       </c>
       <c r="I265" s="16" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
     </row>
     <row r="266" spans="1:9" s="16" customFormat="1">
@@ -11700,13 +11746,13 @@
         <v>265</v>
       </c>
       <c r="B266" s="23" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="C266" s="14" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D266" s="17" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="E266" s="16">
         <v>0</v>
@@ -11718,7 +11764,7 @@
         <v>0</v>
       </c>
       <c r="I266" s="18" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
     </row>
     <row r="267" spans="1:9" s="16" customFormat="1">
@@ -11726,13 +11772,13 @@
         <v>266</v>
       </c>
       <c r="B267" s="23" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="C267" s="14" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D267" s="17" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="E267" s="16">
         <v>0</v>
@@ -11744,7 +11790,7 @@
         <v>0</v>
       </c>
       <c r="I267" s="18" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="268" spans="1:9" s="16" customFormat="1">
@@ -11752,13 +11798,13 @@
         <v>267</v>
       </c>
       <c r="B268" s="23" t="s">
+        <v>786</v>
+      </c>
+      <c r="C268" s="14" t="s">
         <v>784</v>
       </c>
-      <c r="C268" s="14" t="s">
-        <v>782</v>
-      </c>
       <c r="D268" s="17" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="E268" s="16">
         <v>1</v>
@@ -11770,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="I268" s="18" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="269" spans="1:9">
@@ -11778,13 +11824,13 @@
         <v>268</v>
       </c>
       <c r="B269" s="23" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="E269" s="16">
         <v>0</v>
@@ -11797,7 +11843,7 @@
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="270" spans="1:9">
@@ -11805,13 +11851,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="C270" s="14" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D270" s="17" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11824,7 +11870,7 @@
       </c>
       <c r="H270" s="16"/>
       <c r="I270" s="18" t="s">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="271" spans="1:9">
@@ -11832,13 +11878,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="C271" s="14" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11851,7 +11897,7 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11859,13 +11905,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="C272" s="14" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D272" s="17" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11878,7 +11924,7 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11886,13 +11932,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="C273" s="14" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D273" s="17" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11905,7 +11951,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>967</v>
+        <v>969</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11913,13 +11959,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="C274" s="14" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D274" s="17" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -11932,7 +11978,7 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="16" customFormat="1">
@@ -11940,13 +11986,13 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="C275" s="14" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="E275" s="16">
         <v>0</v>
@@ -11958,30 +12004,30 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>994</v>
-      </c>
-    </row>
-    <row r="276" spans="1:9" s="45" customFormat="1">
-      <c r="A276" s="42">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" s="44" customFormat="1">
+      <c r="A276" s="41">
         <v>275</v>
       </c>
-      <c r="B276" s="46" t="s">
-        <v>808</v>
-      </c>
-      <c r="C276" s="44" t="s">
-        <v>809</v>
-      </c>
-      <c r="E276" s="45">
-        <v>1</v>
-      </c>
-      <c r="F276" s="45">
-        <v>1</v>
-      </c>
-      <c r="G276" s="45">
-        <v>1</v>
-      </c>
-      <c r="I276" s="44" t="s">
-        <v>1007</v>
+      <c r="B276" s="45" t="s">
+        <v>810</v>
+      </c>
+      <c r="C276" s="43" t="s">
+        <v>811</v>
+      </c>
+      <c r="E276" s="44">
+        <v>1</v>
+      </c>
+      <c r="F276" s="44">
+        <v>1</v>
+      </c>
+      <c r="G276" s="44">
+        <v>1</v>
+      </c>
+      <c r="I276" s="43" t="s">
+        <v>1009</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -11989,13 +12035,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="C277" s="14" t="s">
-        <v>913</v>
+        <v>915</v>
       </c>
       <c r="D277" s="23" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12008,7 +12054,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>912</v>
+        <v>914</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12016,13 +12062,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>824</v>
+        <v>826</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12034,7 +12080,7 @@
         <v>1</v>
       </c>
       <c r="I278" s="18" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12042,10 +12088,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
-        <v>815</v>
+        <v>817</v>
       </c>
       <c r="C279" s="14" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -12057,7 +12103,7 @@
         <v>0</v>
       </c>
       <c r="I279" s="18" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12065,14 +12111,14 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
+        <v>821</v>
+      </c>
+      <c r="C280" s="14" t="s">
+        <v>824</v>
+      </c>
+      <c r="D280" s="17" t="s">
         <v>819</v>
       </c>
-      <c r="C280" s="14" t="s">
-        <v>822</v>
-      </c>
-      <c r="D280" s="17" t="s">
-        <v>817</v>
-      </c>
       <c r="E280">
         <v>0</v>
       </c>
@@ -12083,7 +12129,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12091,25 +12137,25 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D281" s="17" t="s">
+        <v>820</v>
+      </c>
+      <c r="E281">
+        <v>0</v>
+      </c>
+      <c r="F281">
+        <v>1</v>
+      </c>
+      <c r="G281">
+        <v>1</v>
+      </c>
+      <c r="I281" s="18" t="s">
         <v>818</v>
-      </c>
-      <c r="E281">
-        <v>0</v>
-      </c>
-      <c r="F281">
-        <v>1</v>
-      </c>
-      <c r="G281">
-        <v>1</v>
-      </c>
-      <c r="I281" s="18" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12117,13 +12163,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="C282" s="14" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D282" s="17" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12135,7 +12181,7 @@
         <v>0</v>
       </c>
       <c r="I282" s="18" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
@@ -12143,13 +12189,13 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="C283" s="24" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D283" s="25" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="E283" s="26">
         <v>1</v>
@@ -12161,7 +12207,7 @@
         <v>1</v>
       </c>
       <c r="I283" s="27" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="26" customFormat="1">
@@ -12169,14 +12215,14 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="C284" s="24" t="s">
+        <v>838</v>
+      </c>
+      <c r="D284" s="25" t="s">
         <v>836</v>
       </c>
-      <c r="D284" s="25" t="s">
-        <v>834</v>
-      </c>
       <c r="E284" s="26">
         <v>1</v>
       </c>
@@ -12187,7 +12233,7 @@
         <v>1</v>
       </c>
       <c r="I284" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="285" spans="1:9">
@@ -12195,13 +12241,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="C285" s="14" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="D285" s="17" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -12213,22 +12259,22 @@
         <v>0</v>
       </c>
       <c r="I285" s="18" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="26" customFormat="1">
       <c r="A286" s="15">
         <v>285</v>
       </c>
-      <c r="B286" s="40" t="s">
-        <v>843</v>
+      <c r="B286" s="39" t="s">
+        <v>845</v>
       </c>
       <c r="C286" s="24" t="s">
+        <v>846</v>
+      </c>
+      <c r="D286" s="25" t="s">
         <v>844</v>
       </c>
-      <c r="D286" s="25" t="s">
-        <v>842</v>
-      </c>
       <c r="E286" s="26">
         <v>1</v>
       </c>
@@ -12239,21 +12285,21 @@
         <v>1</v>
       </c>
       <c r="I286" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="287" spans="1:9" s="26" customFormat="1">
       <c r="A287" s="15">
         <v>286</v>
       </c>
-      <c r="B287" s="40" t="s">
-        <v>845</v>
+      <c r="B287" s="39" t="s">
+        <v>847</v>
       </c>
       <c r="C287" s="24" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="D287" s="25" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="E287" s="26">
         <v>1</v>
@@ -12265,47 +12311,47 @@
         <v>1</v>
       </c>
       <c r="I287" s="27" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="288" spans="1:9" s="16" customFormat="1">
-      <c r="A288" s="15">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" s="44" customFormat="1">
+      <c r="A288" s="41">
         <v>287</v>
       </c>
-      <c r="B288" s="23" t="s">
-        <v>849</v>
-      </c>
-      <c r="C288" s="14" t="s">
-        <v>850</v>
-      </c>
-      <c r="D288" s="14" t="s">
+      <c r="B288" s="45" t="s">
         <v>851</v>
       </c>
-      <c r="E288" s="16">
-        <v>0</v>
-      </c>
-      <c r="F288" s="16">
-        <v>0</v>
-      </c>
-      <c r="G288" s="16">
-        <v>0</v>
-      </c>
-      <c r="I288" s="14" t="s">
-        <v>944</v>
+      <c r="C288" s="43" t="s">
+        <v>852</v>
+      </c>
+      <c r="D288" s="43" t="s">
+        <v>853</v>
+      </c>
+      <c r="E288" s="44">
+        <v>1</v>
+      </c>
+      <c r="F288" s="44">
+        <v>1</v>
+      </c>
+      <c r="G288" s="44">
+        <v>1</v>
+      </c>
+      <c r="I288" s="43" t="s">
+        <v>946</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
       <c r="A289" s="15">
         <v>288</v>
       </c>
-      <c r="B289" s="40" t="s">
-        <v>852</v>
+      <c r="B289" s="39" t="s">
+        <v>854</v>
       </c>
       <c r="C289" s="24" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="D289" s="25" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="E289" s="26">
         <v>1</v>
@@ -12317,7 +12363,7 @@
         <v>1</v>
       </c>
       <c r="I289" s="27" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="26" customFormat="1">
@@ -12325,13 +12371,13 @@
         <v>289</v>
       </c>
       <c r="B290" s="25" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="C290" s="24" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="D290" s="25" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="E290" s="26">
         <v>1</v>
@@ -12343,7 +12389,7 @@
         <v>1</v>
       </c>
       <c r="I290" s="27" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="26" customFormat="1">
@@ -12351,13 +12397,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="C291" s="24" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="D291" s="25" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="E291" s="26">
         <v>1</v>
@@ -12369,7 +12415,7 @@
         <v>1</v>
       </c>
       <c r="I291" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="292" spans="1:9" s="26" customFormat="1">
@@ -12377,13 +12423,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="E292" s="26">
         <v>1</v>
@@ -12395,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="I292" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="293" spans="1:9" s="26" customFormat="1">
@@ -12403,25 +12449,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="C293" s="24" t="s">
+        <v>871</v>
+      </c>
+      <c r="D293" s="25" t="s">
+        <v>868</v>
+      </c>
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="26">
+        <v>1</v>
+      </c>
+      <c r="G293" s="26">
+        <v>1</v>
+      </c>
+      <c r="I293" s="27" t="s">
         <v>869</v>
-      </c>
-      <c r="D293" s="25" t="s">
-        <v>866</v>
-      </c>
-      <c r="E293" s="26">
-        <v>1</v>
-      </c>
-      <c r="F293" s="26">
-        <v>1</v>
-      </c>
-      <c r="G293" s="26">
-        <v>1</v>
-      </c>
-      <c r="I293" s="27" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="26" customFormat="1">
@@ -12429,13 +12475,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="C294" s="24" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="D294" s="25" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="E294" s="26">
         <v>1</v>
@@ -12447,7 +12493,7 @@
         <v>1</v>
       </c>
       <c r="I294" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="295" spans="1:9" s="26" customFormat="1">
@@ -12455,13 +12501,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="D295" s="25" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="E295" s="26">
         <v>1</v>
@@ -12473,7 +12519,7 @@
         <v>1</v>
       </c>
       <c r="I295" s="27" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="296" spans="1:9">
@@ -12481,13 +12527,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="C296" s="14" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="D296" s="19" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12499,7 +12545,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>889</v>
+        <v>891</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12507,13 +12553,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12525,7 +12571,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12533,13 +12579,13 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="C298" s="14" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="D298" s="19" t="s">
-        <v>884</v>
+        <v>886</v>
       </c>
       <c r="E298">
         <v>0</v>
@@ -12551,7 +12597,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>890</v>
+        <v>892</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12559,13 +12605,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
-        <v>885</v>
+        <v>887</v>
       </c>
       <c r="C299" s="14" t="s">
-        <v>886</v>
+        <v>888</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>887</v>
+        <v>889</v>
       </c>
       <c r="E299" s="16">
         <v>1</v>
@@ -12577,7 +12623,7 @@
         <v>1</v>
       </c>
       <c r="I299" s="18" t="s">
-        <v>888</v>
+        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12585,13 +12631,13 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
-        <v>891</v>
+        <v>893</v>
       </c>
       <c r="C300" s="14" t="s">
-        <v>892</v>
+        <v>894</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>893</v>
+        <v>895</v>
       </c>
       <c r="E300" s="16">
         <v>0</v>
@@ -12603,7 +12649,7 @@
         <v>0</v>
       </c>
       <c r="I300" s="18" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12611,25 +12657,25 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
+        <v>899</v>
+      </c>
+      <c r="C301" s="14" t="s">
         <v>897</v>
       </c>
-      <c r="C301" s="14" t="s">
-        <v>895</v>
-      </c>
       <c r="D301" s="17" t="s">
+        <v>898</v>
+      </c>
+      <c r="E301" s="16">
+        <v>0</v>
+      </c>
+      <c r="F301" s="16">
+        <v>0</v>
+      </c>
+      <c r="G301" s="16">
+        <v>0</v>
+      </c>
+      <c r="I301" s="18" t="s">
         <v>896</v>
-      </c>
-      <c r="E301" s="16">
-        <v>0</v>
-      </c>
-      <c r="F301" s="16">
-        <v>0</v>
-      </c>
-      <c r="G301" s="16">
-        <v>0</v>
-      </c>
-      <c r="I301" s="18" t="s">
-        <v>894</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12637,13 +12683,13 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
-        <v>899</v>
+        <v>901</v>
       </c>
       <c r="C302" s="14" t="s">
-        <v>898</v>
+        <v>900</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>900</v>
+        <v>902</v>
       </c>
       <c r="E302" s="16">
         <v>0</v>
@@ -12655,7 +12701,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>894</v>
+        <v>896</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12663,14 +12709,14 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
-        <v>901</v>
+        <v>903</v>
       </c>
       <c r="C303" s="14" t="s">
+        <v>906</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>904</v>
       </c>
-      <c r="D303" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="E303" s="16">
         <v>1</v>
       </c>
@@ -12681,7 +12727,7 @@
         <v>1</v>
       </c>
       <c r="I303" s="18" t="s">
-        <v>903</v>
+        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12689,13 +12735,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>963</v>
+        <v>965</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>923</v>
+        <v>925</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>950</v>
+        <v>952</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12707,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12715,13 +12761,13 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>949</v>
+        <v>951</v>
       </c>
       <c r="C305" s="14" t="s">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>951</v>
+        <v>953</v>
       </c>
       <c r="E305" s="16">
         <v>1</v>
@@ -12733,7 +12779,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="14" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12741,13 +12787,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
-        <v>947</v>
+        <v>949</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>930</v>
+        <v>932</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>948</v>
+        <v>950</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12759,7 +12805,7 @@
         <v>1</v>
       </c>
       <c r="I306" s="18" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="307" spans="1:9" s="16" customFormat="1">
@@ -12767,14 +12813,14 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
+        <v>909</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>908</v>
+      </c>
+      <c r="D307" s="16" t="s">
         <v>907</v>
       </c>
-      <c r="C307" s="16" t="s">
-        <v>906</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>905</v>
-      </c>
       <c r="E307" s="16">
         <v>1</v>
       </c>
@@ -12785,7 +12831,7 @@
         <v>1</v>
       </c>
       <c r="I307" s="18" t="s">
-        <v>908</v>
+        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12793,25 +12839,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
+        <v>913</v>
+      </c>
+      <c r="C308" s="14" t="s">
+        <v>954</v>
+      </c>
+      <c r="D308" s="17" t="s">
+        <v>912</v>
+      </c>
+      <c r="E308" s="16">
+        <v>1</v>
+      </c>
+      <c r="F308" s="16">
+        <v>1</v>
+      </c>
+      <c r="G308" s="16">
+        <v>1</v>
+      </c>
+      <c r="I308" s="14" t="s">
         <v>911</v>
-      </c>
-      <c r="C308" s="14" t="s">
-        <v>952</v>
-      </c>
-      <c r="D308" s="17" t="s">
-        <v>910</v>
-      </c>
-      <c r="E308" s="16">
-        <v>1</v>
-      </c>
-      <c r="F308" s="16">
-        <v>1</v>
-      </c>
-      <c r="G308" s="16">
-        <v>1</v>
-      </c>
-      <c r="I308" s="14" t="s">
-        <v>909</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12819,14 +12865,14 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
-        <v>915</v>
+        <v>917</v>
       </c>
       <c r="C309" s="14" t="s">
+        <v>918</v>
+      </c>
+      <c r="D309" s="17" t="s">
         <v>916</v>
       </c>
-      <c r="D309" s="17" t="s">
-        <v>914</v>
-      </c>
       <c r="E309" s="16">
         <v>1</v>
       </c>
@@ -12837,33 +12883,33 @@
         <v>1</v>
       </c>
       <c r="I309" s="14" t="s">
-        <v>917</v>
-      </c>
-    </row>
-    <row r="310" spans="1:9" s="45" customFormat="1">
-      <c r="A310" s="42">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" s="16" customFormat="1">
+      <c r="A310" s="15">
         <v>309</v>
       </c>
-      <c r="B310" s="43" t="s">
-        <v>918</v>
-      </c>
-      <c r="C310" s="44" t="s">
+      <c r="B310" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="D310" s="43" t="s">
-        <v>919</v>
-      </c>
-      <c r="E310" s="45">
-        <v>1</v>
-      </c>
-      <c r="F310" s="45">
-        <v>1</v>
-      </c>
-      <c r="G310" s="45">
-        <v>1</v>
-      </c>
-      <c r="I310" s="44" t="s">
-        <v>925</v>
+      <c r="C310" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D310" s="17" t="s">
+        <v>921</v>
+      </c>
+      <c r="E310" s="16">
+        <v>0</v>
+      </c>
+      <c r="F310" s="16">
+        <v>0</v>
+      </c>
+      <c r="G310" s="16">
+        <v>0</v>
+      </c>
+      <c r="I310" s="14" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12871,13 +12917,13 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>962</v>
+        <v>964</v>
       </c>
       <c r="C311" s="14" t="s">
-        <v>921</v>
+        <v>923</v>
       </c>
       <c r="D311" s="17" t="s">
-        <v>922</v>
+        <v>924</v>
       </c>
       <c r="E311" s="16">
         <v>0</v>
@@ -12889,7 +12935,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12897,13 +12943,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
-        <v>927</v>
+        <v>929</v>
       </c>
       <c r="C312" s="14" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="D312" s="17" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12919,14 +12965,14 @@
       <c r="A313" s="15">
         <v>312</v>
       </c>
-      <c r="B313" s="36" t="s">
-        <v>931</v>
+      <c r="B313" s="35" t="s">
+        <v>933</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>933</v>
+        <v>935</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -12938,21 +12984,21 @@
         <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>935</v>
+        <v>937</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A314" s="15">
         <v>313</v>
       </c>
-      <c r="B314" s="36" t="s">
-        <v>932</v>
+      <c r="B314" s="35" t="s">
+        <v>934</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>934</v>
-      </c>
-      <c r="D314" s="35" t="s">
-        <v>939</v>
+        <v>936</v>
+      </c>
+      <c r="D314" s="34" t="s">
+        <v>941</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -12964,7 +13010,7 @@
         <v>1</v>
       </c>
       <c r="I314" s="18" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="315" spans="1:9" s="16" customFormat="1">
@@ -12972,13 +13018,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>942</v>
+        <v>944</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>938</v>
+        <v>940</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -12990,21 +13036,21 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
       <c r="A316" s="15">
         <v>315</v>
       </c>
-      <c r="B316" s="36" t="s">
+      <c r="B316" s="35" t="s">
+        <v>945</v>
+      </c>
+      <c r="C316" s="14" t="s">
         <v>943</v>
       </c>
-      <c r="C316" s="14" t="s">
-        <v>941</v>
-      </c>
-      <c r="D316" s="35" t="s">
-        <v>940</v>
+      <c r="D316" s="34" t="s">
+        <v>942</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13016,159 +13062,159 @@
         <v>0</v>
       </c>
       <c r="I316" s="14" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="317" spans="1:9" s="45" customFormat="1">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" s="44" customFormat="1">
       <c r="A317" s="15">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C317" s="44" t="s">
-        <v>1015</v>
-      </c>
-      <c r="E317" s="45">
-        <v>0</v>
-      </c>
-      <c r="F317" s="45">
-        <v>1</v>
-      </c>
-      <c r="G317" s="45">
-        <v>1</v>
-      </c>
-      <c r="I317" s="44" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="318" spans="1:9" s="45" customFormat="1">
+      <c r="B317" s="42" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C317" s="43" t="s">
+        <v>1027</v>
+      </c>
+      <c r="E317" s="44">
+        <v>1</v>
+      </c>
+      <c r="F317" s="44">
+        <v>1</v>
+      </c>
+      <c r="G317" s="44">
+        <v>1</v>
+      </c>
+      <c r="I317" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" s="44" customFormat="1">
       <c r="A318" s="15">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
+      <c r="B318" s="42" t="s">
+        <v>1028</v>
+      </c>
+      <c r="C318" s="43" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E318" s="44">
+        <v>1</v>
+      </c>
+      <c r="F318" s="44">
+        <v>1</v>
+      </c>
+      <c r="G318" s="44">
+        <v>1</v>
+      </c>
+      <c r="I318" s="43" t="s">
         <v>1014</v>
       </c>
-      <c r="C318" s="44" t="s">
-        <v>1016</v>
-      </c>
-      <c r="E318" s="45">
-        <v>0</v>
-      </c>
-      <c r="F318" s="45">
-        <v>1</v>
-      </c>
-      <c r="G318" s="45">
-        <v>1</v>
-      </c>
-      <c r="I318" s="44" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9" s="45" customFormat="1">
+    </row>
+    <row r="319" spans="1:9" s="44" customFormat="1">
       <c r="A319" s="15">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
-        <v>1017</v>
-      </c>
-      <c r="C319" s="44" t="s">
-        <v>1008</v>
-      </c>
-      <c r="E319" s="45">
-        <v>0</v>
-      </c>
-      <c r="F319" s="45">
-        <v>1</v>
-      </c>
-      <c r="G319" s="45">
-        <v>1</v>
-      </c>
-      <c r="I319" s="44" t="s">
-        <v>1019</v>
-      </c>
-    </row>
-    <row r="320" spans="1:9" s="45" customFormat="1">
+      <c r="B319" s="42" t="s">
+        <v>1030</v>
+      </c>
+      <c r="C319" s="43" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E319" s="44">
+        <v>1</v>
+      </c>
+      <c r="F319" s="44">
+        <v>1</v>
+      </c>
+      <c r="G319" s="44">
+        <v>1</v>
+      </c>
+      <c r="I319" s="43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="44" customFormat="1">
       <c r="A320" s="15">
         <v>319</v>
       </c>
-      <c r="B320" s="47" t="s">
-        <v>1009</v>
-      </c>
-      <c r="C320" s="44" t="s">
-        <v>1010</v>
-      </c>
-      <c r="E320" s="45">
-        <v>1</v>
-      </c>
-      <c r="F320" s="45">
-        <v>1</v>
-      </c>
-      <c r="G320" s="45">
-        <v>1</v>
-      </c>
-      <c r="I320" s="48" t="s">
-        <v>976</v>
-      </c>
-    </row>
-    <row r="321" spans="1:9" s="45" customFormat="1">
+      <c r="B320" s="46" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C320" s="43" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E320" s="44">
+        <v>1</v>
+      </c>
+      <c r="F320" s="44">
+        <v>1</v>
+      </c>
+      <c r="G320" s="44">
+        <v>1</v>
+      </c>
+      <c r="I320" s="47" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" s="44" customFormat="1">
       <c r="A321" s="15">
         <v>320</v>
       </c>
-      <c r="B321" s="49" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C321" s="44" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E321" s="45">
-        <v>1</v>
-      </c>
-      <c r="F321" s="45">
-        <v>1</v>
-      </c>
-      <c r="G321" s="45">
-        <v>1</v>
-      </c>
-      <c r="I321" s="48" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="322" spans="1:9" s="45" customFormat="1">
+      <c r="B321" s="48" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C321" s="43" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E321" s="44">
+        <v>1</v>
+      </c>
+      <c r="F321" s="44">
+        <v>1</v>
+      </c>
+      <c r="G321" s="44">
+        <v>1</v>
+      </c>
+      <c r="I321" s="47" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" s="44" customFormat="1">
       <c r="A322" s="15">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
-        <v>954</v>
-      </c>
-      <c r="C322" s="44" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D322" s="43" t="s">
-        <v>955</v>
-      </c>
-      <c r="E322" s="45">
-        <v>0</v>
-      </c>
-      <c r="F322" s="45">
-        <v>1</v>
-      </c>
-      <c r="G322" s="45">
-        <v>1</v>
-      </c>
-      <c r="I322" s="44" t="s">
-        <v>994</v>
+      <c r="B322" s="42" t="s">
+        <v>956</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D322" s="42" t="s">
+        <v>957</v>
+      </c>
+      <c r="E322" s="44">
+        <v>1</v>
+      </c>
+      <c r="F322" s="44">
+        <v>1</v>
+      </c>
+      <c r="G322" s="44">
+        <v>1</v>
+      </c>
+      <c r="I322" s="43" t="s">
+        <v>996</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
       <c r="A323" s="15">
         <v>322</v>
       </c>
-      <c r="B323" s="50" t="s">
+      <c r="B323" s="49" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>1012</v>
-      </c>
-      <c r="C323" s="14" t="s">
-        <v>1013</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13181,7 +13227,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>994</v>
+        <v>996</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13189,25 +13235,25 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
-        <v>957</v>
+        <v>959</v>
       </c>
       <c r="C324" s="14" t="s">
+        <v>960</v>
+      </c>
+      <c r="D324" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="E324" s="16">
+        <v>0</v>
+      </c>
+      <c r="F324" s="16">
+        <v>0</v>
+      </c>
+      <c r="G324" s="16">
+        <v>0</v>
+      </c>
+      <c r="I324" s="14" t="s">
         <v>958</v>
-      </c>
-      <c r="D324" s="17" t="s">
-        <v>959</v>
-      </c>
-      <c r="E324" s="16">
-        <v>0</v>
-      </c>
-      <c r="F324" s="16">
-        <v>0</v>
-      </c>
-      <c r="G324" s="16">
-        <v>0</v>
-      </c>
-      <c r="I324" s="14" t="s">
-        <v>956</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13215,10 +13261,10 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
-        <v>960</v>
+        <v>962</v>
       </c>
       <c r="C325" s="14" t="s">
-        <v>961</v>
+        <v>963</v>
       </c>
       <c r="E325" s="16">
         <v>0</v>
@@ -13230,7 +13276,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13238,13 +13284,13 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
-        <v>965</v>
+        <v>967</v>
       </c>
       <c r="C326" s="17" t="s">
-        <v>964</v>
+        <v>966</v>
       </c>
       <c r="D326" s="17" t="s">
-        <v>966</v>
+        <v>968</v>
       </c>
       <c r="E326" s="16">
         <v>0</v>
@@ -13256,10 +13302,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>993</v>
+        <v>995</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>956</v>
+        <v>958</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13267,13 +13313,13 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
-        <v>981</v>
+        <v>983</v>
       </c>
       <c r="C327" s="18" t="s">
-        <v>983</v>
+        <v>985</v>
       </c>
       <c r="D327" s="17" t="s">
-        <v>982</v>
+        <v>984</v>
       </c>
       <c r="E327" s="16">
         <v>0</v>
@@ -13285,7 +13331,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>975</v>
+        <v>977</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13293,13 +13339,13 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
-        <v>978</v>
+        <v>980</v>
       </c>
       <c r="C328" s="18" t="s">
-        <v>977</v>
+        <v>979</v>
       </c>
       <c r="D328" s="17" t="s">
-        <v>979</v>
+        <v>981</v>
       </c>
       <c r="E328" s="16">
         <v>0</v>
@@ -13311,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="I328" s="14" t="s">
-        <v>980</v>
+        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13319,14 +13365,14 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C329" s="14" t="s">
+        <v>986</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>987</v>
       </c>
-      <c r="C329" s="14" t="s">
-        <v>984</v>
-      </c>
-      <c r="D329" s="14" t="s">
-        <v>985</v>
-      </c>
       <c r="E329" s="16">
         <v>0</v>
       </c>
@@ -13337,7 +13383,7 @@
         <v>1</v>
       </c>
       <c r="I329" s="14" t="s">
-        <v>986</v>
+        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13345,13 +13391,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
-        <v>989</v>
+        <v>991</v>
       </c>
       <c r="C330" s="18" t="s">
-        <v>990</v>
+        <v>992</v>
       </c>
       <c r="D330" s="16" t="s">
-        <v>991</v>
+        <v>993</v>
       </c>
       <c r="E330" s="16">
         <v>1</v>
@@ -13363,21 +13409,21 @@
         <v>1</v>
       </c>
       <c r="I330" s="14" t="s">
-        <v>992</v>
+        <v>994</v>
       </c>
     </row>
     <row r="331" spans="1:9">
       <c r="A331" s="15">
         <v>330</v>
       </c>
-      <c r="B331" s="38" t="s">
-        <v>995</v>
+      <c r="B331" s="37" t="s">
+        <v>997</v>
       </c>
       <c r="C331" s="18" t="s">
-        <v>996</v>
+        <v>998</v>
       </c>
       <c r="D331" t="s">
-        <v>997</v>
+        <v>999</v>
       </c>
       <c r="E331" s="16">
         <v>1</v>
@@ -13389,21 +13435,21 @@
         <v>1</v>
       </c>
       <c r="I331" s="14" t="s">
-        <v>998</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:9">
       <c r="A332" s="15">
         <v>331</v>
       </c>
-      <c r="B332" s="38" t="s">
-        <v>999</v>
+      <c r="B332" s="37" t="s">
+        <v>1001</v>
       </c>
       <c r="C332" s="18" t="s">
-        <v>1001</v>
+        <v>1003</v>
       </c>
       <c r="D332" t="s">
-        <v>1000</v>
+        <v>1002</v>
       </c>
       <c r="E332" s="16">
         <v>1</v>
@@ -13415,7 +13461,128 @@
         <v>1</v>
       </c>
       <c r="I332" s="14" t="s">
-        <v>1002</v>
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9">
+      <c r="A333" s="15">
+        <v>332</v>
+      </c>
+      <c r="B333" s="37" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1019</v>
+      </c>
+      <c r="D333" s="8" t="s">
+        <v>1018</v>
+      </c>
+      <c r="E333" s="16">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9">
+      <c r="A334" s="15">
+        <v>333</v>
+      </c>
+      <c r="B334" s="37" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C334" s="18" t="s">
+        <v>1022</v>
+      </c>
+      <c r="D334" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9">
+      <c r="A335" s="15">
+        <v>334</v>
+      </c>
+      <c r="B335" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C335" s="14" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E335" s="16">
+        <v>1</v>
+      </c>
+      <c r="F335" s="16">
+        <v>1</v>
+      </c>
+      <c r="G335" s="16">
+        <v>1</v>
+      </c>
+      <c r="I335" s="14" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
+      <c r="A336" s="15">
+        <v>335</v>
+      </c>
+      <c r="B336" s="37" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C336" s="14" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D336" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="E336" s="16">
+        <v>0</v>
+      </c>
+      <c r="F336" s="16">
+        <v>0</v>
+      </c>
+      <c r="G336" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="15">
+        <v>336</v>
+      </c>
+      <c r="B337" s="37" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C337" s="14" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D337" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E337" s="16">
+        <v>1</v>
+      </c>
+      <c r="F337" s="16">
+        <v>1</v>
+      </c>
+      <c r="G337" s="16">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -13442,7 +13609,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="1040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1043">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4368,6 +4368,18 @@
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_027_jqshl_style/act_027_style_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐豪礼</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板皮肤配置，永久</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -4996,13 +5008,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I337"/>
+  <dimension ref="A1:I338"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomRight" activeCell="B338" sqref="B338"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13562,7 +13574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="15">
         <v>336</v>
       </c>
@@ -13583,6 +13595,29 @@
       </c>
       <c r="G337" s="16">
         <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9">
+      <c r="A338" s="15">
+        <v>337</v>
+      </c>
+      <c r="B338" s="37" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C338" s="18" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
+        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3281,10 +3281,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>金秋送豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>act_027_mfflq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4380,6 +4376,10 @@
   </si>
   <si>
     <t>充值消耗模板皮肤配置，永久</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>充值消耗模板</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5014,7 +5014,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B338" sqref="B338"/>
+      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5035,7 +5035,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6286,7 +6286,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6440,7 +6440,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6544,7 +6544,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6573,7 +6573,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6588,7 +6588,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7004,7 +7004,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8954,7 +8954,7 @@
         <v>0</v>
       </c>
       <c r="I151" s="11" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10954,7 +10954,7 @@
         <v>659</v>
       </c>
       <c r="C235" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="D235" s="8" t="s">
         <v>660</v>
@@ -10995,7 +10995,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11419,13 +11419,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11498,14 +11498,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1006</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>1007</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11516,7 +11516,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11839,19 +11839,19 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>788</v>
+        <v>1042</v>
       </c>
       <c r="D269" s="17" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="E269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G269" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H269" s="16"/>
       <c r="I269" s="18" t="s">
@@ -11863,13 +11863,13 @@
         <v>269</v>
       </c>
       <c r="B270" s="23" t="s">
+        <v>788</v>
+      </c>
+      <c r="C270" s="14" t="s">
         <v>789</v>
       </c>
-      <c r="C270" s="14" t="s">
+      <c r="D270" s="17" t="s">
         <v>790</v>
-      </c>
-      <c r="D270" s="17" t="s">
-        <v>791</v>
       </c>
       <c r="E270" s="16">
         <v>0</v>
@@ -11890,13 +11890,13 @@
         <v>270</v>
       </c>
       <c r="B271" s="23" t="s">
+        <v>792</v>
+      </c>
+      <c r="C271" s="14" t="s">
+        <v>794</v>
+      </c>
+      <c r="D271" s="17" t="s">
         <v>793</v>
-      </c>
-      <c r="C271" s="14" t="s">
-        <v>795</v>
-      </c>
-      <c r="D271" s="17" t="s">
-        <v>794</v>
       </c>
       <c r="E271" s="16">
         <v>1</v>
@@ -11909,7 +11909,7 @@
       </c>
       <c r="H271" s="16"/>
       <c r="I271" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="272" spans="1:9">
@@ -11917,13 +11917,13 @@
         <v>271</v>
       </c>
       <c r="B272" s="23" t="s">
+        <v>796</v>
+      </c>
+      <c r="C272" s="14" t="s">
         <v>797</v>
       </c>
-      <c r="C272" s="14" t="s">
+      <c r="D272" s="17" t="s">
         <v>798</v>
-      </c>
-      <c r="D272" s="17" t="s">
-        <v>799</v>
       </c>
       <c r="E272" s="16">
         <v>1</v>
@@ -11936,7 +11936,7 @@
       </c>
       <c r="H272" s="16"/>
       <c r="I272" s="18" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="273" spans="1:9">
@@ -11944,13 +11944,13 @@
         <v>272</v>
       </c>
       <c r="B273" s="23" t="s">
+        <v>800</v>
+      </c>
+      <c r="C273" s="14" t="s">
+        <v>802</v>
+      </c>
+      <c r="D273" s="17" t="s">
         <v>801</v>
-      </c>
-      <c r="C273" s="14" t="s">
-        <v>803</v>
-      </c>
-      <c r="D273" s="17" t="s">
-        <v>802</v>
       </c>
       <c r="E273" s="16">
         <v>0</v>
@@ -11963,7 +11963,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -11971,13 +11971,13 @@
         <v>273</v>
       </c>
       <c r="B274" s="23" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C274" s="14" t="s">
+        <v>803</v>
+      </c>
+      <c r="D274" s="17" t="s">
         <v>804</v>
-      </c>
-      <c r="D274" s="17" t="s">
-        <v>805</v>
       </c>
       <c r="E274" s="16">
         <v>0</v>
@@ -11990,7 +11990,7 @@
       </c>
       <c r="H274" s="16"/>
       <c r="I274" s="18" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="275" spans="1:9" s="16" customFormat="1">
@@ -11998,14 +11998,14 @@
         <v>274</v>
       </c>
       <c r="B275" s="23" t="s">
+        <v>807</v>
+      </c>
+      <c r="C275" s="14" t="s">
+        <v>806</v>
+      </c>
+      <c r="D275" s="17" t="s">
         <v>808</v>
       </c>
-      <c r="C275" s="14" t="s">
-        <v>807</v>
-      </c>
-      <c r="D275" s="17" t="s">
-        <v>809</v>
-      </c>
       <c r="E275" s="16">
         <v>0</v>
       </c>
@@ -12016,7 +12016,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="44" customFormat="1">
@@ -12024,11 +12024,11 @@
         <v>275</v>
       </c>
       <c r="B276" s="45" t="s">
+        <v>809</v>
+      </c>
+      <c r="C276" s="43" t="s">
         <v>810</v>
       </c>
-      <c r="C276" s="43" t="s">
-        <v>811</v>
-      </c>
       <c r="E276" s="44">
         <v>1</v>
       </c>
@@ -12039,7 +12039,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12047,13 +12047,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="23" t="s">
+        <v>811</v>
+      </c>
+      <c r="C277" s="14" t="s">
+        <v>914</v>
+      </c>
+      <c r="D277" s="23" t="s">
         <v>812</v>
-      </c>
-      <c r="C277" s="14" t="s">
-        <v>915</v>
-      </c>
-      <c r="D277" s="23" t="s">
-        <v>813</v>
       </c>
       <c r="E277" s="14">
         <v>0</v>
@@ -12066,7 +12066,7 @@
       </c>
       <c r="H277" s="14"/>
       <c r="I277" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12074,25 +12074,25 @@
         <v>277</v>
       </c>
       <c r="B278" s="23" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C278" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="D278" s="17" t="s">
+        <v>813</v>
+      </c>
+      <c r="E278">
+        <v>0</v>
+      </c>
+      <c r="F278">
+        <v>1</v>
+      </c>
+      <c r="G278">
+        <v>1</v>
+      </c>
+      <c r="I278" s="18" t="s">
         <v>814</v>
-      </c>
-      <c r="E278">
-        <v>0</v>
-      </c>
-      <c r="F278">
-        <v>1</v>
-      </c>
-      <c r="G278">
-        <v>1</v>
-      </c>
-      <c r="I278" s="18" t="s">
-        <v>815</v>
       </c>
     </row>
     <row r="279" spans="1:9">
@@ -12100,22 +12100,22 @@
         <v>278</v>
       </c>
       <c r="B279" s="23" t="s">
+        <v>816</v>
+      </c>
+      <c r="C279" s="14" t="s">
+        <v>815</v>
+      </c>
+      <c r="E279">
+        <v>0</v>
+      </c>
+      <c r="F279">
+        <v>0</v>
+      </c>
+      <c r="G279">
+        <v>0</v>
+      </c>
+      <c r="I279" s="18" t="s">
         <v>817</v>
-      </c>
-      <c r="C279" s="14" t="s">
-        <v>816</v>
-      </c>
-      <c r="E279">
-        <v>0</v>
-      </c>
-      <c r="F279">
-        <v>0</v>
-      </c>
-      <c r="G279">
-        <v>0</v>
-      </c>
-      <c r="I279" s="18" t="s">
-        <v>818</v>
       </c>
     </row>
     <row r="280" spans="1:9">
@@ -12123,13 +12123,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="23" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C280" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12141,7 +12141,7 @@
         <v>0</v>
       </c>
       <c r="I280" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="281" spans="1:9">
@@ -12149,13 +12149,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="23" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C281" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12167,7 +12167,7 @@
         <v>1</v>
       </c>
       <c r="I281" s="18" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="282" spans="1:9">
@@ -12175,25 +12175,25 @@
         <v>281</v>
       </c>
       <c r="B282" s="23" t="s">
+        <v>832</v>
+      </c>
+      <c r="C282" s="14" t="s">
+        <v>826</v>
+      </c>
+      <c r="D282" s="17" t="s">
         <v>833</v>
       </c>
-      <c r="C282" s="14" t="s">
+      <c r="E282">
+        <v>0</v>
+      </c>
+      <c r="F282">
+        <v>0</v>
+      </c>
+      <c r="G282">
+        <v>0</v>
+      </c>
+      <c r="I282" s="18" t="s">
         <v>827</v>
-      </c>
-      <c r="D282" s="17" t="s">
-        <v>834</v>
-      </c>
-      <c r="E282">
-        <v>0</v>
-      </c>
-      <c r="F282">
-        <v>0</v>
-      </c>
-      <c r="G282">
-        <v>0</v>
-      </c>
-      <c r="I282" s="18" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="283" spans="1:9" s="26" customFormat="1" ht="17.25" customHeight="1">
@@ -12201,25 +12201,25 @@
         <v>282</v>
       </c>
       <c r="B283" s="25" t="s">
+        <v>828</v>
+      </c>
+      <c r="C283" s="24" t="s">
         <v>829</v>
       </c>
-      <c r="C283" s="24" t="s">
+      <c r="D283" s="25" t="s">
         <v>830</v>
       </c>
-      <c r="D283" s="25" t="s">
+      <c r="E283" s="26">
+        <v>1</v>
+      </c>
+      <c r="F283" s="26">
+        <v>1</v>
+      </c>
+      <c r="G283" s="26">
+        <v>1</v>
+      </c>
+      <c r="I283" s="27" t="s">
         <v>831</v>
-      </c>
-      <c r="E283" s="26">
-        <v>1</v>
-      </c>
-      <c r="F283" s="26">
-        <v>1</v>
-      </c>
-      <c r="G283" s="26">
-        <v>1</v>
-      </c>
-      <c r="I283" s="27" t="s">
-        <v>832</v>
       </c>
     </row>
     <row r="284" spans="1:9" s="26" customFormat="1">
@@ -12227,13 +12227,13 @@
         <v>283</v>
       </c>
       <c r="B284" s="25" t="s">
+        <v>836</v>
+      </c>
+      <c r="C284" s="24" t="s">
         <v>837</v>
       </c>
-      <c r="C284" s="24" t="s">
-        <v>838</v>
-      </c>
       <c r="D284" s="25" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E284" s="26">
         <v>1</v>
@@ -12253,25 +12253,25 @@
         <v>284</v>
       </c>
       <c r="B285" s="23" t="s">
+        <v>839</v>
+      </c>
+      <c r="C285" s="14" t="s">
         <v>840</v>
       </c>
-      <c r="C285" s="14" t="s">
+      <c r="D285" s="17" t="s">
         <v>841</v>
       </c>
-      <c r="D285" s="17" t="s">
+      <c r="E285">
+        <v>0</v>
+      </c>
+      <c r="F285">
+        <v>0</v>
+      </c>
+      <c r="G285">
+        <v>0</v>
+      </c>
+      <c r="I285" s="18" t="s">
         <v>842</v>
-      </c>
-      <c r="E285">
-        <v>0</v>
-      </c>
-      <c r="F285">
-        <v>0</v>
-      </c>
-      <c r="G285">
-        <v>0</v>
-      </c>
-      <c r="I285" s="18" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="286" spans="1:9" s="26" customFormat="1">
@@ -12279,13 +12279,13 @@
         <v>285</v>
       </c>
       <c r="B286" s="39" t="s">
+        <v>844</v>
+      </c>
+      <c r="C286" s="24" t="s">
         <v>845</v>
       </c>
-      <c r="C286" s="24" t="s">
-        <v>846</v>
-      </c>
       <c r="D286" s="25" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="E286" s="26">
         <v>1</v>
@@ -12305,25 +12305,25 @@
         <v>286</v>
       </c>
       <c r="B287" s="39" t="s">
+        <v>846</v>
+      </c>
+      <c r="C287" s="24" t="s">
         <v>847</v>
       </c>
-      <c r="C287" s="24" t="s">
+      <c r="D287" s="25" t="s">
         <v>848</v>
       </c>
-      <c r="D287" s="25" t="s">
+      <c r="E287" s="26">
+        <v>1</v>
+      </c>
+      <c r="F287" s="26">
+        <v>1</v>
+      </c>
+      <c r="G287" s="26">
+        <v>1</v>
+      </c>
+      <c r="I287" s="27" t="s">
         <v>849</v>
-      </c>
-      <c r="E287" s="26">
-        <v>1</v>
-      </c>
-      <c r="F287" s="26">
-        <v>1</v>
-      </c>
-      <c r="G287" s="26">
-        <v>1</v>
-      </c>
-      <c r="I287" s="27" t="s">
-        <v>850</v>
       </c>
     </row>
     <row r="288" spans="1:9" s="44" customFormat="1">
@@ -12331,14 +12331,14 @@
         <v>287</v>
       </c>
       <c r="B288" s="45" t="s">
+        <v>850</v>
+      </c>
+      <c r="C288" s="43" t="s">
         <v>851</v>
       </c>
-      <c r="C288" s="43" t="s">
+      <c r="D288" s="43" t="s">
         <v>852</v>
       </c>
-      <c r="D288" s="43" t="s">
-        <v>853</v>
-      </c>
       <c r="E288" s="44">
         <v>1</v>
       </c>
@@ -12349,7 +12349,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="43" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12357,25 +12357,25 @@
         <v>288</v>
       </c>
       <c r="B289" s="39" t="s">
+        <v>853</v>
+      </c>
+      <c r="C289" s="24" t="s">
         <v>854</v>
       </c>
-      <c r="C289" s="24" t="s">
+      <c r="D289" s="25" t="s">
         <v>855</v>
       </c>
-      <c r="D289" s="25" t="s">
+      <c r="E289" s="26">
+        <v>1</v>
+      </c>
+      <c r="F289" s="26">
+        <v>1</v>
+      </c>
+      <c r="G289" s="26">
+        <v>1</v>
+      </c>
+      <c r="I289" s="27" t="s">
         <v>856</v>
-      </c>
-      <c r="E289" s="26">
-        <v>1</v>
-      </c>
-      <c r="F289" s="26">
-        <v>1</v>
-      </c>
-      <c r="G289" s="26">
-        <v>1</v>
-      </c>
-      <c r="I289" s="27" t="s">
-        <v>857</v>
       </c>
     </row>
     <row r="290" spans="1:9" s="26" customFormat="1">
@@ -12383,25 +12383,25 @@
         <v>289</v>
       </c>
       <c r="B290" s="25" t="s">
+        <v>857</v>
+      </c>
+      <c r="C290" s="24" t="s">
         <v>858</v>
       </c>
-      <c r="C290" s="24" t="s">
+      <c r="D290" s="25" t="s">
         <v>859</v>
       </c>
-      <c r="D290" s="25" t="s">
+      <c r="E290" s="26">
+        <v>1</v>
+      </c>
+      <c r="F290" s="26">
+        <v>1</v>
+      </c>
+      <c r="G290" s="26">
+        <v>1</v>
+      </c>
+      <c r="I290" s="27" t="s">
         <v>860</v>
-      </c>
-      <c r="E290" s="26">
-        <v>1</v>
-      </c>
-      <c r="F290" s="26">
-        <v>1</v>
-      </c>
-      <c r="G290" s="26">
-        <v>1</v>
-      </c>
-      <c r="I290" s="27" t="s">
-        <v>861</v>
       </c>
     </row>
     <row r="291" spans="1:9" s="26" customFormat="1">
@@ -12409,13 +12409,13 @@
         <v>290</v>
       </c>
       <c r="B291" s="25" t="s">
+        <v>861</v>
+      </c>
+      <c r="C291" s="24" t="s">
         <v>862</v>
       </c>
-      <c r="C291" s="24" t="s">
+      <c r="D291" s="25" t="s">
         <v>863</v>
-      </c>
-      <c r="D291" s="25" t="s">
-        <v>864</v>
       </c>
       <c r="E291" s="26">
         <v>1</v>
@@ -12435,13 +12435,13 @@
         <v>291</v>
       </c>
       <c r="B292" s="25" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C292" s="24" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="D292" s="25" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E292" s="26">
         <v>1</v>
@@ -12461,25 +12461,25 @@
         <v>292</v>
       </c>
       <c r="B293" s="25" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C293" s="24" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="D293" s="25" t="s">
+        <v>867</v>
+      </c>
+      <c r="E293" s="26">
+        <v>1</v>
+      </c>
+      <c r="F293" s="26">
+        <v>1</v>
+      </c>
+      <c r="G293" s="26">
+        <v>1</v>
+      </c>
+      <c r="I293" s="27" t="s">
         <v>868</v>
-      </c>
-      <c r="E293" s="26">
-        <v>1</v>
-      </c>
-      <c r="F293" s="26">
-        <v>1</v>
-      </c>
-      <c r="G293" s="26">
-        <v>1</v>
-      </c>
-      <c r="I293" s="27" t="s">
-        <v>869</v>
       </c>
     </row>
     <row r="294" spans="1:9" s="26" customFormat="1">
@@ -12487,13 +12487,13 @@
         <v>293</v>
       </c>
       <c r="B294" s="25" t="s">
+        <v>871</v>
+      </c>
+      <c r="C294" s="24" t="s">
         <v>872</v>
       </c>
-      <c r="C294" s="24" t="s">
+      <c r="D294" s="25" t="s">
         <v>873</v>
-      </c>
-      <c r="D294" s="25" t="s">
-        <v>874</v>
       </c>
       <c r="E294" s="26">
         <v>1</v>
@@ -12513,13 +12513,13 @@
         <v>294</v>
       </c>
       <c r="B295" s="25" t="s">
+        <v>874</v>
+      </c>
+      <c r="C295" s="24" t="s">
         <v>875</v>
       </c>
-      <c r="C295" s="24" t="s">
+      <c r="D295" s="25" t="s">
         <v>876</v>
-      </c>
-      <c r="D295" s="25" t="s">
-        <v>877</v>
       </c>
       <c r="E295" s="26">
         <v>1</v>
@@ -12539,13 +12539,13 @@
         <v>295</v>
       </c>
       <c r="B296" s="19" t="s">
+        <v>877</v>
+      </c>
+      <c r="C296" s="14" t="s">
         <v>878</v>
       </c>
-      <c r="C296" s="14" t="s">
-        <v>879</v>
-      </c>
       <c r="D296" s="19" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E296">
         <v>0</v>
@@ -12557,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="I296" s="14" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="297" spans="1:9">
@@ -12565,13 +12565,13 @@
         <v>296</v>
       </c>
       <c r="B297" s="19" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="C297" s="14" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="D297" s="19" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E297">
         <v>0</v>
@@ -12583,7 +12583,7 @@
         <v>0</v>
       </c>
       <c r="I297" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="298" spans="1:9">
@@ -12591,14 +12591,14 @@
         <v>297</v>
       </c>
       <c r="B298" s="19" t="s">
+        <v>883</v>
+      </c>
+      <c r="C298" s="14" t="s">
         <v>884</v>
       </c>
-      <c r="C298" s="14" t="s">
+      <c r="D298" s="19" t="s">
         <v>885</v>
       </c>
-      <c r="D298" s="19" t="s">
-        <v>886</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12609,7 +12609,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="14" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="299" spans="1:9" s="16" customFormat="1">
@@ -12617,25 +12617,25 @@
         <v>298</v>
       </c>
       <c r="B299" s="17" t="s">
+        <v>886</v>
+      </c>
+      <c r="C299" s="14" t="s">
         <v>887</v>
       </c>
-      <c r="C299" s="14" t="s">
+      <c r="D299" s="17" t="s">
         <v>888</v>
       </c>
-      <c r="D299" s="17" t="s">
+      <c r="E299" s="16">
+        <v>1</v>
+      </c>
+      <c r="F299" s="16">
+        <v>1</v>
+      </c>
+      <c r="G299" s="16">
+        <v>1</v>
+      </c>
+      <c r="I299" s="18" t="s">
         <v>889</v>
-      </c>
-      <c r="E299" s="16">
-        <v>1</v>
-      </c>
-      <c r="F299" s="16">
-        <v>1</v>
-      </c>
-      <c r="G299" s="16">
-        <v>1</v>
-      </c>
-      <c r="I299" s="18" t="s">
-        <v>890</v>
       </c>
     </row>
     <row r="300" spans="1:9" s="16" customFormat="1">
@@ -12643,25 +12643,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="17" t="s">
+        <v>892</v>
+      </c>
+      <c r="C300" s="14" t="s">
         <v>893</v>
       </c>
-      <c r="C300" s="14" t="s">
+      <c r="D300" s="17" t="s">
         <v>894</v>
       </c>
-      <c r="D300" s="17" t="s">
+      <c r="E300" s="16">
+        <v>0</v>
+      </c>
+      <c r="F300" s="16">
+        <v>0</v>
+      </c>
+      <c r="G300" s="16">
+        <v>0</v>
+      </c>
+      <c r="I300" s="18" t="s">
         <v>895</v>
-      </c>
-      <c r="E300" s="16">
-        <v>0</v>
-      </c>
-      <c r="F300" s="16">
-        <v>0</v>
-      </c>
-      <c r="G300" s="16">
-        <v>0</v>
-      </c>
-      <c r="I300" s="18" t="s">
-        <v>896</v>
       </c>
     </row>
     <row r="301" spans="1:9" s="16" customFormat="1">
@@ -12669,14 +12669,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="17" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C301" s="14" t="s">
+        <v>896</v>
+      </c>
+      <c r="D301" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="D301" s="17" t="s">
-        <v>898</v>
-      </c>
       <c r="E301" s="16">
         <v>0</v>
       </c>
@@ -12687,7 +12687,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="302" spans="1:9" s="16" customFormat="1">
@@ -12695,14 +12695,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="17" t="s">
+        <v>900</v>
+      </c>
+      <c r="C302" s="14" t="s">
+        <v>899</v>
+      </c>
+      <c r="D302" s="17" t="s">
         <v>901</v>
       </c>
-      <c r="C302" s="14" t="s">
-        <v>900</v>
-      </c>
-      <c r="D302" s="17" t="s">
-        <v>902</v>
-      </c>
       <c r="E302" s="16">
         <v>0</v>
       </c>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="18" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="303" spans="1:9" s="16" customFormat="1">
@@ -12721,25 +12721,25 @@
         <v>302</v>
       </c>
       <c r="B303" s="17" t="s">
+        <v>902</v>
+      </c>
+      <c r="C303" s="14" t="s">
+        <v>905</v>
+      </c>
+      <c r="D303" s="17" t="s">
         <v>903</v>
       </c>
-      <c r="C303" s="14" t="s">
-        <v>906</v>
-      </c>
-      <c r="D303" s="17" t="s">
+      <c r="E303" s="16">
+        <v>1</v>
+      </c>
+      <c r="F303" s="16">
+        <v>1</v>
+      </c>
+      <c r="G303" s="16">
+        <v>1</v>
+      </c>
+      <c r="I303" s="18" t="s">
         <v>904</v>
-      </c>
-      <c r="E303" s="16">
-        <v>1</v>
-      </c>
-      <c r="F303" s="16">
-        <v>1</v>
-      </c>
-      <c r="G303" s="16">
-        <v>1</v>
-      </c>
-      <c r="I303" s="18" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="304" spans="1:9" s="16" customFormat="1">
@@ -12747,13 +12747,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12765,7 +12765,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12773,25 +12773,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>925</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>952</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>926</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>953</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>927</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12799,13 +12799,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>948</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>931</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>949</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>932</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>950</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12825,25 +12825,25 @@
         <v>306</v>
       </c>
       <c r="B307" s="23" t="s">
+        <v>908</v>
+      </c>
+      <c r="C307" s="16" t="s">
+        <v>907</v>
+      </c>
+      <c r="D307" s="16" t="s">
+        <v>906</v>
+      </c>
+      <c r="E307" s="16">
+        <v>1</v>
+      </c>
+      <c r="F307" s="16">
+        <v>1</v>
+      </c>
+      <c r="G307" s="16">
+        <v>1</v>
+      </c>
+      <c r="I307" s="18" t="s">
         <v>909</v>
-      </c>
-      <c r="C307" s="16" t="s">
-        <v>908</v>
-      </c>
-      <c r="D307" s="16" t="s">
-        <v>907</v>
-      </c>
-      <c r="E307" s="16">
-        <v>1</v>
-      </c>
-      <c r="F307" s="16">
-        <v>1</v>
-      </c>
-      <c r="G307" s="16">
-        <v>1</v>
-      </c>
-      <c r="I307" s="18" t="s">
-        <v>910</v>
       </c>
     </row>
     <row r="308" spans="1:9" s="16" customFormat="1">
@@ -12851,13 +12851,13 @@
         <v>307</v>
       </c>
       <c r="B308" s="17" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="D308" s="17" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="E308" s="16">
         <v>1</v>
@@ -12869,7 +12869,7 @@
         <v>1</v>
       </c>
       <c r="I308" s="14" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="309" spans="1:9" s="16" customFormat="1">
@@ -12877,25 +12877,25 @@
         <v>308</v>
       </c>
       <c r="B309" s="17" t="s">
+        <v>916</v>
+      </c>
+      <c r="C309" s="14" t="s">
         <v>917</v>
       </c>
-      <c r="C309" s="14" t="s">
+      <c r="D309" s="17" t="s">
+        <v>915</v>
+      </c>
+      <c r="E309" s="16">
+        <v>1</v>
+      </c>
+      <c r="F309" s="16">
+        <v>1</v>
+      </c>
+      <c r="G309" s="16">
+        <v>1</v>
+      </c>
+      <c r="I309" s="14" t="s">
         <v>918</v>
-      </c>
-      <c r="D309" s="17" t="s">
-        <v>916</v>
-      </c>
-      <c r="E309" s="16">
-        <v>1</v>
-      </c>
-      <c r="F309" s="16">
-        <v>1</v>
-      </c>
-      <c r="G309" s="16">
-        <v>1</v>
-      </c>
-      <c r="I309" s="14" t="s">
-        <v>919</v>
       </c>
     </row>
     <row r="310" spans="1:9" s="16" customFormat="1">
@@ -12903,14 +12903,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="17" t="s">
+        <v>919</v>
+      </c>
+      <c r="C310" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D310" s="17" t="s">
         <v>920</v>
       </c>
-      <c r="C310" s="14" t="s">
-        <v>922</v>
-      </c>
-      <c r="D310" s="17" t="s">
-        <v>921</v>
-      </c>
       <c r="E310" s="16">
         <v>0</v>
       </c>
@@ -12921,7 +12921,7 @@
         <v>0</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12929,14 +12929,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C311" s="14" t="s">
+        <v>922</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>923</v>
       </c>
-      <c r="D311" s="17" t="s">
-        <v>924</v>
-      </c>
       <c r="E311" s="16">
         <v>0</v>
       </c>
@@ -12947,7 +12947,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12955,13 +12955,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>928</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>929</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>930</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>931</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12978,13 +12978,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -12996,7 +12996,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13004,13 +13004,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -13030,13 +13030,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13048,7 +13048,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13056,13 +13056,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13082,11 +13082,11 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C317" s="43" t="s">
         <v>1026</v>
       </c>
-      <c r="C317" s="43" t="s">
-        <v>1027</v>
-      </c>
       <c r="E317" s="44">
         <v>1</v>
       </c>
@@ -13097,7 +13097,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="44" customFormat="1">
@@ -13105,11 +13105,11 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C318" s="43" t="s">
         <v>1028</v>
       </c>
-      <c r="C318" s="43" t="s">
-        <v>1029</v>
-      </c>
       <c r="E318" s="44">
         <v>1</v>
       </c>
@@ -13120,7 +13120,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="44" customFormat="1">
@@ -13128,10 +13128,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E319" s="44">
         <v>1</v>
@@ -13143,7 +13143,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="43" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="44" customFormat="1">
@@ -13151,10 +13151,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="E320" s="44">
         <v>1</v>
@@ -13166,7 +13166,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="44" customFormat="1">
@@ -13174,10 +13174,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E321" s="44">
         <v>1</v>
@@ -13197,14 +13197,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
+        <v>955</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D322" s="42" t="s">
         <v>956</v>
       </c>
-      <c r="C322" s="43" t="s">
-        <v>1008</v>
-      </c>
-      <c r="D322" s="42" t="s">
-        <v>957</v>
-      </c>
       <c r="E322" s="44">
         <v>1</v>
       </c>
@@ -13215,7 +13215,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="43" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13223,10 +13223,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13239,7 +13239,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13247,14 +13247,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>958</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>959</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>960</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>961</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13265,7 +13265,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13273,11 +13273,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>961</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>962</v>
       </c>
-      <c r="C325" s="14" t="s">
-        <v>963</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13288,7 +13288,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13296,14 +13296,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>966</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>967</v>
       </c>
-      <c r="C326" s="17" t="s">
-        <v>966</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>968</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13314,10 +13314,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13325,14 +13325,14 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>982</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>984</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>983</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>985</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>984</v>
-      </c>
       <c r="E327" s="16">
         <v>0</v>
       </c>
@@ -13343,7 +13343,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13351,25 +13351,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>979</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>978</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>980</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>979</v>
-      </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>981</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13377,25 +13377,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>985</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>986</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>987</v>
-      </c>
-      <c r="E329" s="16">
-        <v>0</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>988</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13403,25 +13403,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>990</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>991</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="D330" s="16" t="s">
         <v>992</v>
       </c>
-      <c r="D330" s="16" t="s">
+      <c r="E330" s="16">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>993</v>
-      </c>
-      <c r="E330" s="16">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>994</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13429,25 +13429,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>996</v>
+      </c>
+      <c r="C331" s="18" t="s">
         <v>997</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="D331" t="s">
         <v>998</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" s="16">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>999</v>
-      </c>
-      <c r="E331" s="16">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>1000</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13455,25 +13455,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D332" t="s">
         <v>1001</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="E332" s="16">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1003</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1002</v>
-      </c>
-      <c r="E332" s="16">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16">
-        <v>1</v>
-      </c>
-      <c r="G332" s="16">
-        <v>1</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1004</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13481,25 +13481,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1018</v>
+      </c>
+      <c r="D333" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="E333" s="16">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1019</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E333" s="16">
-        <v>1</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13507,25 +13507,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C334" s="18" t="s">
         <v>1021</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="D334" t="s">
         <v>1022</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>1023</v>
-      </c>
-      <c r="E334" s="16">
-        <v>1</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13533,11 +13533,11 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1032</v>
       </c>
-      <c r="C335" s="14" t="s">
-        <v>1033</v>
-      </c>
       <c r="E335" s="16">
         <v>1</v>
       </c>
@@ -13548,7 +13548,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13556,13 +13556,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>1034</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="D336" s="8" t="s">
         <v>1035</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>1036</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13579,13 +13579,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1037</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="D337" s="8" t="s">
         <v>1038</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1039</v>
       </c>
       <c r="E337" s="16">
         <v>1</v>
@@ -13602,22 +13602,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C338" s="18" t="s">
         <v>1040</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1041</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1042</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4335,10 +4335,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_ltlb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4380,6 +4376,10 @@
   </si>
   <si>
     <t>充值消耗模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_002_hllb</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -5014,7 +5014,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C343" sqref="C343"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11839,7 +11839,7 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>791</v>
@@ -13533,10 +13533,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
+        <v>1042</v>
+      </c>
+      <c r="C335" s="14" t="s">
         <v>1031</v>
-      </c>
-      <c r="C335" s="14" t="s">
-        <v>1032</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
@@ -13556,13 +13556,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C336" s="14" t="s">
         <v>1033</v>
       </c>
-      <c r="C336" s="14" t="s">
+      <c r="D336" s="8" t="s">
         <v>1034</v>
-      </c>
-      <c r="D336" s="8" t="s">
-        <v>1035</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13579,13 +13579,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C337" s="14" t="s">
         <v>1036</v>
       </c>
-      <c r="C337" s="14" t="s">
+      <c r="D337" s="8" t="s">
         <v>1037</v>
-      </c>
-      <c r="D337" s="8" t="s">
-        <v>1038</v>
       </c>
       <c r="E337" s="16">
         <v>1</v>
@@ -13602,22 +13602,22 @@
         <v>337</v>
       </c>
       <c r="B338" s="37" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C338" s="18" t="s">
         <v>1039</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="E338" s="16">
+        <v>1</v>
+      </c>
+      <c r="F338" s="16">
+        <v>1</v>
+      </c>
+      <c r="G338" s="16">
+        <v>1</v>
+      </c>
+      <c r="I338" s="14" t="s">
         <v>1040</v>
-      </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
-        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_4.27\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1283" uniqueCount="1043">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1287" uniqueCount="1046">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3819,10 +3819,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>通用活动--转盘模板（畅玩礼包）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>通用活动--礼包模板（感恩礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4311,30 +4307,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_012_dlphb</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（彩球）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_014_caiqiu</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>活动boss皮肤（彩球）</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_009_hhl</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_013</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐礼包</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -4363,19 +4335,55 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>act_027_jqshl_style/act_027_style_002</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>欢乐豪礼</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>充值消耗模板皮肤配置，永久</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>充值消耗模板</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（铁锤）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_015_gongju</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动boss皮肤（铁锤）</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_013_dlphb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_014</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用转盘皮肤</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>5月10日23:59:59</t>
+  </si>
+  <si>
+    <t>act_040_mslb</t>
+  </si>
+  <si>
+    <t>秒杀礼包</t>
+  </si>
+  <si>
+    <t>Act_040_MSLBManager</t>
+  </si>
+  <si>
+    <t>通用活动--转盘模板（超值礼包）</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -4387,7 +4395,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -4501,6 +4509,12 @@
       <name val="Segoe UI"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF171A1D"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -4577,7 +4591,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4730,6 +4744,12 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -5008,13 +5028,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I338"/>
+  <dimension ref="A1:I339"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C310" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5035,7 +5055,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="36" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -6286,7 +6306,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>631</v>
@@ -6440,7 +6460,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="37" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>160</v>
@@ -6544,7 +6564,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>171</v>
@@ -6573,7 +6593,7 @@
         <v>173</v>
       </c>
       <c r="C60" s="33" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D60" s="6" t="s">
         <v>174</v>
@@ -6588,7 +6608,7 @@
         <v>0</v>
       </c>
       <c r="I60" s="32" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -7004,7 +7024,7 @@
         <v>1</v>
       </c>
       <c r="I76" s="31" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -10995,7 +11015,7 @@
         <v>0</v>
       </c>
       <c r="I236" s="8" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -11419,13 +11439,13 @@
         <v>252</v>
       </c>
       <c r="B253" s="38" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="C253" s="22" t="s">
         <v>732</v>
       </c>
       <c r="D253" s="21" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
       <c r="E253" s="22">
         <v>1</v>
@@ -11498,14 +11518,14 @@
         <v>255</v>
       </c>
       <c r="B256" s="23" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C256" s="14" t="s">
         <v>1004</v>
       </c>
-      <c r="C256" s="14" t="s">
+      <c r="D256" s="14" t="s">
         <v>1005</v>
       </c>
-      <c r="D256" s="14" t="s">
-        <v>1006</v>
-      </c>
       <c r="E256" s="16">
         <v>0</v>
       </c>
@@ -11516,7 +11536,7 @@
         <v>0</v>
       </c>
       <c r="I256" s="14" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="257" spans="1:9" s="16" customFormat="1">
@@ -11839,7 +11859,7 @@
         <v>787</v>
       </c>
       <c r="C269" s="14" t="s">
-        <v>1041</v>
+        <v>1031</v>
       </c>
       <c r="D269" s="17" t="s">
         <v>791</v>
@@ -11963,7 +11983,7 @@
       </c>
       <c r="H273" s="16"/>
       <c r="I273" s="14" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="274" spans="1:9">
@@ -12016,7 +12036,7 @@
         <v>0</v>
       </c>
       <c r="I275" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="44" customFormat="1">
@@ -12039,7 +12059,7 @@
         <v>1</v>
       </c>
       <c r="I276" s="43" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="277" spans="1:9" s="16" customFormat="1" ht="15.75" customHeight="1">
@@ -12349,7 +12369,7 @@
         <v>1</v>
       </c>
       <c r="I288" s="43" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="289" spans="1:9" s="26" customFormat="1">
@@ -12747,13 +12767,13 @@
         <v>303</v>
       </c>
       <c r="B304" s="17" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C304" s="14" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
       <c r="E304" s="16">
         <v>1</v>
@@ -12765,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="I304" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="305" spans="1:9" s="16" customFormat="1">
@@ -12773,25 +12793,25 @@
         <v>304</v>
       </c>
       <c r="B305" s="17" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C305" s="14" t="s">
+        <v>924</v>
+      </c>
+      <c r="D305" s="17" t="s">
+        <v>951</v>
+      </c>
+      <c r="E305" s="16">
+        <v>1</v>
+      </c>
+      <c r="F305" s="16">
+        <v>1</v>
+      </c>
+      <c r="G305" s="16">
+        <v>1</v>
+      </c>
+      <c r="I305" s="14" t="s">
         <v>925</v>
-      </c>
-      <c r="D305" s="17" t="s">
-        <v>952</v>
-      </c>
-      <c r="E305" s="16">
-        <v>1</v>
-      </c>
-      <c r="F305" s="16">
-        <v>1</v>
-      </c>
-      <c r="G305" s="16">
-        <v>1</v>
-      </c>
-      <c r="I305" s="14" t="s">
-        <v>926</v>
       </c>
     </row>
     <row r="306" spans="1:9" s="16" customFormat="1">
@@ -12799,13 +12819,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="17" t="s">
+        <v>947</v>
+      </c>
+      <c r="C306" s="17" t="s">
+        <v>930</v>
+      </c>
+      <c r="D306" s="17" t="s">
         <v>948</v>
-      </c>
-      <c r="C306" s="17" t="s">
-        <v>931</v>
-      </c>
-      <c r="D306" s="17" t="s">
-        <v>949</v>
       </c>
       <c r="E306" s="16">
         <v>1</v>
@@ -12854,7 +12874,7 @@
         <v>912</v>
       </c>
       <c r="C308" s="14" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="D308" s="17" t="s">
         <v>911</v>
@@ -12906,22 +12926,22 @@
         <v>919</v>
       </c>
       <c r="C310" s="14" t="s">
-        <v>921</v>
+        <v>1044</v>
       </c>
       <c r="D310" s="17" t="s">
         <v>920</v>
       </c>
       <c r="E310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G310" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I310" s="14" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="311" spans="1:9" s="16" customFormat="1">
@@ -12929,14 +12949,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="17" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C311" s="14" t="s">
+        <v>921</v>
+      </c>
+      <c r="D311" s="17" t="s">
         <v>922</v>
       </c>
-      <c r="D311" s="17" t="s">
-        <v>923</v>
-      </c>
       <c r="E311" s="16">
         <v>0</v>
       </c>
@@ -12947,7 +12967,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="14" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="312" spans="1:9" s="16" customFormat="1">
@@ -12955,13 +12975,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="17" t="s">
+        <v>927</v>
+      </c>
+      <c r="C312" s="14" t="s">
         <v>928</v>
       </c>
-      <c r="C312" s="14" t="s">
+      <c r="D312" s="17" t="s">
         <v>929</v>
-      </c>
-      <c r="D312" s="17" t="s">
-        <v>930</v>
       </c>
       <c r="E312" s="16">
         <v>0</v>
@@ -12978,13 +12998,13 @@
         <v>312</v>
       </c>
       <c r="B313" s="35" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
       <c r="C313" s="14" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="D313" s="17" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="E313" s="16">
         <v>0</v>
@@ -12996,7 +13016,7 @@
         <v>0</v>
       </c>
       <c r="I313" s="14" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="314" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13004,13 +13024,13 @@
         <v>313</v>
       </c>
       <c r="B314" s="35" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="C314" s="14" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
       <c r="D314" s="34" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="E314" s="16">
         <v>1</v>
@@ -13030,13 +13050,13 @@
         <v>314</v>
       </c>
       <c r="B315" s="17" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
       <c r="C315" s="14" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
       <c r="D315" s="17" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="E315" s="16">
         <v>0</v>
@@ -13048,7 +13068,7 @@
         <v>0</v>
       </c>
       <c r="I315" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="316" spans="1:9" s="16" customFormat="1" ht="17.25">
@@ -13056,13 +13076,13 @@
         <v>315</v>
       </c>
       <c r="B316" s="35" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C316" s="14" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
       <c r="D316" s="34" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="E316" s="16">
         <v>0</v>
@@ -13082,10 +13102,10 @@
         <v>316</v>
       </c>
       <c r="B317" s="42" t="s">
-        <v>1025</v>
+        <v>1036</v>
       </c>
       <c r="C317" s="43" t="s">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="E317" s="44">
         <v>1</v>
@@ -13097,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="I317" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="318" spans="1:9" s="44" customFormat="1">
@@ -13105,10 +13125,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="42" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="C318" s="43" t="s">
-        <v>1028</v>
+        <v>1035</v>
       </c>
       <c r="E318" s="44">
         <v>1</v>
@@ -13120,7 +13140,7 @@
         <v>1</v>
       </c>
       <c r="I318" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="319" spans="1:9" s="44" customFormat="1">
@@ -13128,10 +13148,10 @@
         <v>318</v>
       </c>
       <c r="B319" s="42" t="s">
-        <v>1029</v>
+        <v>1033</v>
       </c>
       <c r="C319" s="43" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="E319" s="44">
         <v>1</v>
@@ -13143,7 +13163,7 @@
         <v>1</v>
       </c>
       <c r="I319" s="43" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="320" spans="1:9" s="44" customFormat="1">
@@ -13151,10 +13171,10 @@
         <v>319</v>
       </c>
       <c r="B320" s="46" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C320" s="43" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="E320" s="44">
         <v>1</v>
@@ -13166,7 +13186,7 @@
         <v>1</v>
       </c>
       <c r="I320" s="47" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
     </row>
     <row r="321" spans="1:9" s="44" customFormat="1">
@@ -13174,10 +13194,10 @@
         <v>320</v>
       </c>
       <c r="B321" s="48" t="s">
-        <v>1030</v>
+        <v>1037</v>
       </c>
       <c r="C321" s="43" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E321" s="44">
         <v>1</v>
@@ -13197,14 +13217,14 @@
         <v>321</v>
       </c>
       <c r="B322" s="42" t="s">
+        <v>954</v>
+      </c>
+      <c r="C322" s="43" t="s">
+        <v>1006</v>
+      </c>
+      <c r="D322" s="42" t="s">
         <v>955</v>
       </c>
-      <c r="C322" s="43" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D322" s="42" t="s">
-        <v>956</v>
-      </c>
       <c r="E322" s="44">
         <v>1</v>
       </c>
@@ -13215,7 +13235,7 @@
         <v>1</v>
       </c>
       <c r="I322" s="43" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="323" spans="1:9" s="16" customFormat="1">
@@ -13223,10 +13243,10 @@
         <v>322</v>
       </c>
       <c r="B323" s="49" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C323" s="14" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="D323" s="17"/>
       <c r="E323" s="16">
@@ -13239,7 +13259,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="14" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
     </row>
     <row r="324" spans="1:9" s="16" customFormat="1">
@@ -13247,14 +13267,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="17" t="s">
+        <v>957</v>
+      </c>
+      <c r="C324" s="14" t="s">
         <v>958</v>
       </c>
-      <c r="C324" s="14" t="s">
+      <c r="D324" s="17" t="s">
         <v>959</v>
       </c>
-      <c r="D324" s="17" t="s">
-        <v>960</v>
-      </c>
       <c r="E324" s="16">
         <v>0</v>
       </c>
@@ -13265,7 +13285,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="325" spans="1:9" s="16" customFormat="1">
@@ -13273,11 +13293,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="17" t="s">
+        <v>960</v>
+      </c>
+      <c r="C325" s="14" t="s">
         <v>961</v>
       </c>
-      <c r="C325" s="14" t="s">
-        <v>962</v>
-      </c>
       <c r="E325" s="16">
         <v>0</v>
       </c>
@@ -13288,7 +13308,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="326" spans="1:9" s="16" customFormat="1">
@@ -13296,14 +13316,14 @@
         <v>325</v>
       </c>
       <c r="B326" s="17" t="s">
+        <v>965</v>
+      </c>
+      <c r="C326" s="17" t="s">
+        <v>964</v>
+      </c>
+      <c r="D326" s="17" t="s">
         <v>966</v>
       </c>
-      <c r="C326" s="17" t="s">
-        <v>965</v>
-      </c>
-      <c r="D326" s="17" t="s">
-        <v>967</v>
-      </c>
       <c r="E326" s="16">
         <v>0</v>
       </c>
@@ -13314,10 +13334,10 @@
         <v>0</v>
       </c>
       <c r="H326" s="16" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="I326" s="14" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="327" spans="1:9" s="16" customFormat="1">
@@ -13325,14 +13345,14 @@
         <v>326</v>
       </c>
       <c r="B327" s="17" t="s">
+        <v>981</v>
+      </c>
+      <c r="C327" s="18" t="s">
+        <v>983</v>
+      </c>
+      <c r="D327" s="17" t="s">
         <v>982</v>
       </c>
-      <c r="C327" s="18" t="s">
-        <v>984</v>
-      </c>
-      <c r="D327" s="17" t="s">
-        <v>983</v>
-      </c>
       <c r="E327" s="16">
         <v>0</v>
       </c>
@@ -13343,7 +13363,7 @@
         <v>0</v>
       </c>
       <c r="I327" s="14" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
     </row>
     <row r="328" spans="1:9" s="16" customFormat="1">
@@ -13351,25 +13371,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="17" t="s">
+        <v>978</v>
+      </c>
+      <c r="C328" s="18" t="s">
+        <v>977</v>
+      </c>
+      <c r="D328" s="17" t="s">
         <v>979</v>
       </c>
-      <c r="C328" s="18" t="s">
-        <v>978</v>
-      </c>
-      <c r="D328" s="17" t="s">
+      <c r="E328" s="16">
+        <v>0</v>
+      </c>
+      <c r="F328" s="16">
+        <v>0</v>
+      </c>
+      <c r="G328" s="16">
+        <v>0</v>
+      </c>
+      <c r="I328" s="14" t="s">
         <v>980</v>
-      </c>
-      <c r="E328" s="16">
-        <v>0</v>
-      </c>
-      <c r="F328" s="16">
-        <v>0</v>
-      </c>
-      <c r="G328" s="16">
-        <v>0</v>
-      </c>
-      <c r="I328" s="14" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="329" spans="1:9" s="16" customFormat="1">
@@ -13377,25 +13397,25 @@
         <v>328</v>
       </c>
       <c r="B329" s="23" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="C329" s="14" t="s">
+        <v>984</v>
+      </c>
+      <c r="D329" s="14" t="s">
         <v>985</v>
       </c>
-      <c r="D329" s="14" t="s">
+      <c r="E329" s="16">
+        <v>0</v>
+      </c>
+      <c r="F329" s="16">
+        <v>1</v>
+      </c>
+      <c r="G329" s="16">
+        <v>1</v>
+      </c>
+      <c r="I329" s="14" t="s">
         <v>986</v>
-      </c>
-      <c r="E329" s="16">
-        <v>0</v>
-      </c>
-      <c r="F329" s="16">
-        <v>1</v>
-      </c>
-      <c r="G329" s="16">
-        <v>1</v>
-      </c>
-      <c r="I329" s="14" t="s">
-        <v>987</v>
       </c>
     </row>
     <row r="330" spans="1:9" s="16" customFormat="1">
@@ -13403,25 +13423,25 @@
         <v>329</v>
       </c>
       <c r="B330" s="23" t="s">
+        <v>989</v>
+      </c>
+      <c r="C330" s="18" t="s">
         <v>990</v>
       </c>
-      <c r="C330" s="18" t="s">
+      <c r="D330" s="16" t="s">
         <v>991</v>
       </c>
-      <c r="D330" s="16" t="s">
+      <c r="E330" s="16">
+        <v>1</v>
+      </c>
+      <c r="F330" s="16">
+        <v>1</v>
+      </c>
+      <c r="G330" s="16">
+        <v>1</v>
+      </c>
+      <c r="I330" s="14" t="s">
         <v>992</v>
-      </c>
-      <c r="E330" s="16">
-        <v>1</v>
-      </c>
-      <c r="F330" s="16">
-        <v>1</v>
-      </c>
-      <c r="G330" s="16">
-        <v>1</v>
-      </c>
-      <c r="I330" s="14" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="331" spans="1:9">
@@ -13429,25 +13449,25 @@
         <v>330</v>
       </c>
       <c r="B331" s="37" t="s">
+        <v>995</v>
+      </c>
+      <c r="C331" s="18" t="s">
         <v>996</v>
       </c>
-      <c r="C331" s="18" t="s">
+      <c r="D331" t="s">
         <v>997</v>
       </c>
-      <c r="D331" t="s">
+      <c r="E331" s="16">
+        <v>1</v>
+      </c>
+      <c r="F331" s="16">
+        <v>1</v>
+      </c>
+      <c r="G331" s="16">
+        <v>1</v>
+      </c>
+      <c r="I331" s="14" t="s">
         <v>998</v>
-      </c>
-      <c r="E331" s="16">
-        <v>1</v>
-      </c>
-      <c r="F331" s="16">
-        <v>1</v>
-      </c>
-      <c r="G331" s="16">
-        <v>1</v>
-      </c>
-      <c r="I331" s="14" t="s">
-        <v>999</v>
       </c>
     </row>
     <row r="332" spans="1:9">
@@ -13455,25 +13475,25 @@
         <v>331</v>
       </c>
       <c r="B332" s="37" t="s">
+        <v>999</v>
+      </c>
+      <c r="C332" s="18" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D332" t="s">
         <v>1000</v>
       </c>
-      <c r="C332" s="18" t="s">
+      <c r="E332" s="16">
+        <v>1</v>
+      </c>
+      <c r="F332" s="16">
+        <v>1</v>
+      </c>
+      <c r="G332" s="16">
+        <v>1</v>
+      </c>
+      <c r="I332" s="14" t="s">
         <v>1002</v>
-      </c>
-      <c r="D332" t="s">
-        <v>1001</v>
-      </c>
-      <c r="E332" s="16">
-        <v>1</v>
-      </c>
-      <c r="F332" s="16">
-        <v>1</v>
-      </c>
-      <c r="G332" s="16">
-        <v>1</v>
-      </c>
-      <c r="I332" s="14" t="s">
-        <v>1003</v>
       </c>
     </row>
     <row r="333" spans="1:9">
@@ -13481,25 +13501,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="37" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C333" s="18" t="s">
+        <v>1017</v>
+      </c>
+      <c r="D333" s="8" t="s">
         <v>1016</v>
       </c>
-      <c r="C333" s="18" t="s">
+      <c r="E333" s="16">
+        <v>1</v>
+      </c>
+      <c r="F333" s="16">
+        <v>1</v>
+      </c>
+      <c r="G333" s="16">
+        <v>1</v>
+      </c>
+      <c r="I333" s="14" t="s">
         <v>1018</v>
-      </c>
-      <c r="D333" s="8" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E333" s="16">
-        <v>1</v>
-      </c>
-      <c r="F333" s="16">
-        <v>1</v>
-      </c>
-      <c r="G333" s="16">
-        <v>1</v>
-      </c>
-      <c r="I333" s="14" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13507,25 +13527,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="37" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C334" s="18" t="s">
         <v>1020</v>
       </c>
-      <c r="C334" s="18" t="s">
+      <c r="D334" t="s">
         <v>1021</v>
       </c>
-      <c r="D334" t="s">
+      <c r="E334" s="16">
+        <v>1</v>
+      </c>
+      <c r="F334" s="16">
+        <v>1</v>
+      </c>
+      <c r="G334" s="16">
+        <v>1</v>
+      </c>
+      <c r="I334" s="14" t="s">
         <v>1022</v>
-      </c>
-      <c r="E334" s="16">
-        <v>1</v>
-      </c>
-      <c r="F334" s="16">
-        <v>1</v>
-      </c>
-      <c r="G334" s="16">
-        <v>1</v>
-      </c>
-      <c r="I334" s="14" t="s">
-        <v>1023</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13533,10 +13553,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="37" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C335" s="14" t="s">
-        <v>1031</v>
+        <v>1024</v>
       </c>
       <c r="E335" s="16">
         <v>1</v>
@@ -13548,7 +13568,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="14" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13556,13 +13576,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="37" t="s">
-        <v>1032</v>
+        <v>1025</v>
       </c>
       <c r="C336" s="14" t="s">
-        <v>1033</v>
+        <v>1026</v>
       </c>
       <c r="D336" s="8" t="s">
-        <v>1034</v>
+        <v>1027</v>
       </c>
       <c r="E336" s="16">
         <v>0</v>
@@ -13579,13 +13599,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="37" t="s">
-        <v>1035</v>
+        <v>1028</v>
       </c>
       <c r="C337" s="14" t="s">
-        <v>1036</v>
+        <v>1029</v>
       </c>
       <c r="D337" s="8" t="s">
-        <v>1037</v>
+        <v>1030</v>
       </c>
       <c r="E337" s="16">
         <v>1</v>
@@ -13604,19 +13624,45 @@
       <c r="B338" s="37" t="s">
         <v>1038</v>
       </c>
-      <c r="C338" s="18" t="s">
+      <c r="C338" t="s">
         <v>1039</v>
       </c>
-      <c r="E338" s="16">
-        <v>1</v>
-      </c>
-      <c r="F338" s="16">
-        <v>1</v>
-      </c>
-      <c r="G338" s="16">
-        <v>1</v>
-      </c>
-      <c r="I338" s="14" t="s">
+      <c r="E338">
+        <v>1</v>
+      </c>
+      <c r="F338">
+        <v>1</v>
+      </c>
+      <c r="G338">
+        <v>1</v>
+      </c>
+      <c r="I338" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9">
+      <c r="A339" s="15">
+        <v>338</v>
+      </c>
+      <c r="B339" s="51" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C339" t="s">
+        <v>1042</v>
+      </c>
+      <c r="D339" s="52" t="s">
+        <v>1043</v>
+      </c>
+      <c r="E339">
+        <v>1</v>
+      </c>
+      <c r="F339">
+        <v>1</v>
+      </c>
+      <c r="G339">
+        <v>1</v>
+      </c>
+      <c r="I339" t="s">
         <v>1040</v>
       </c>
     </row>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi_5.25\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -37,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -501,7 +507,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +518,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -521,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -530,7 +537,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -539,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -548,7 +556,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -557,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -566,7 +575,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +673,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -750,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -767,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -784,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -846,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -863,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1132,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1142,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1152,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1248,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1257,7 +1275,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1266,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1292,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1309,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1326,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1343,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1352,7 +1375,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1361,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1378,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1387,7 +1412,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1396,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1413,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1422,7 +1449,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1431,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1440,7 +1468,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1457,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1466,7 +1495,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1475,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1492,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1501,7 +1532,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1510,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1527,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1536,7 +1569,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1545,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1562,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1579,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1596,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1613,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1630,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1639,7 +1678,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1648,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1665,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1674,7 +1715,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1683,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1700,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1709,7 +1752,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1718,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1735,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1744,7 +1789,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1753,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1770,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1779,7 +1826,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1788,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1805,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1814,7 +1863,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1823,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1840,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1849,7 +1900,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1858,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1884,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1901,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1918,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1935,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1952,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1978,7 +2035,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -1987,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2004,7 +2062,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2013,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2039,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2065,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2082,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2114,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2124,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2799,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2809,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3127,6 +3193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3137,6 +3204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3455,6 +3523,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3464,7 +3533,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3473,6 +3542,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3553,6 +3623,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3563,6 +3634,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3600,25 +3672,25 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_015_dlphb</t>
-  </si>
-  <si>
-    <t>掉落排行榜皮肤（铁锤）</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
+  </si>
+  <si>
+    <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_011_boss</t>
-  </si>
-  <si>
-    <t>五星掉落</t>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_010_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3630,7 +3702,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_016</t>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3692,6 +3764,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3702,6 +3775,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3760,13 +3834,13 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>祈福好礼</t>
+    <t>龙腾祈福</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年5月24日 23:59:59</t>
+    <t>2021年4月16日 23:59:59</t>
   </si>
   <si>
     <t>act_ty_gifts</t>
@@ -3778,10 +3852,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_002_hllb</t>
-  </si>
-  <si>
-    <t>欢乐礼包</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
+  </si>
+  <si>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3849,14 +3923,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3868,49 +3936,52 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3922,171 +3993,52 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="37">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4101,13 +4053,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4129,182 +4081,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4327,255 +4105,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -4605,16 +4141,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4726,63 +4262,19 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5040,20 +4532,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D316" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="J339" sqref="J339"/>
+      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5069,7 +4560,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -5098,7 +4589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -6422,7 +5913,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6604,7 +6095,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6968,7 +6459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -7020,7 +6511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -8138,7 +7629,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9708,7 +9199,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9732,7 +9223,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9756,7 +9247,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10778,7 +10269,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10801,7 +10292,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10824,7 +10315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10847,7 +10338,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10870,7 +10361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10893,7 +10384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10916,7 +10407,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10939,7 +10430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10962,7 +10453,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11389,7 +10880,7 @@
         <v>719</v>
       </c>
       <c r="E250">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F250">
         <v>1</v>
@@ -11520,7 +11011,7 @@
         <v>735</v>
       </c>
       <c r="E255">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F255">
         <v>1</v>
@@ -11532,7 +11023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11558,7 +11049,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11584,7 +11075,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11610,7 +11101,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11636,7 +11127,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11714,7 +11205,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11740,7 +11231,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11766,7 +11257,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11792,7 +11283,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11818,7 +11309,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11844,7 +11335,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -12032,7 +11523,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="5" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="5" customFormat="1">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -12046,19 +11537,19 @@
         <v>797</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="32" t="s">
         <v>798</v>
       </c>
     </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="6" customFormat="1">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -12081,7 +11572,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -12235,7 +11726,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -12261,7 +11752,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="7" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="7" customFormat="1">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -12313,7 +11804,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="7" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="7" customFormat="1">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -12339,7 +11830,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="7" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="7" customFormat="1">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -12365,7 +11856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="6" customFormat="1">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -12379,19 +11870,19 @@
         <v>837</v>
       </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="7" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="7" customFormat="1">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -12417,7 +11908,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="7" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="7" customFormat="1">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -12443,7 +11934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="7" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="7" customFormat="1">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -12469,7 +11960,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="7" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="7" customFormat="1">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -12495,7 +11986,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="7" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="7" customFormat="1">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12521,7 +12012,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="7" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="7" customFormat="1">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12547,7 +12038,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="7" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="7" customFormat="1">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12651,7 +12142,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12677,7 +12168,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12703,7 +12194,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12729,7 +12220,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12755,7 +12246,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12781,7 +12272,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12807,7 +12298,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12833,7 +12324,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12859,7 +12350,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12885,7 +12376,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12911,7 +12402,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12937,7 +12428,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12963,7 +12454,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12989,7 +12480,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -13012,7 +12503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -13038,7 +12529,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -13064,7 +12555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -13090,7 +12581,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -13116,7 +12607,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="6" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="6" customFormat="1">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -13139,7 +12630,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="318" s="6" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="6" customFormat="1">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -13162,7 +12653,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" s="6" customFormat="1" spans="1:9">
+    <row r="319" spans="1:9" s="6" customFormat="1">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -13173,19 +12664,19 @@
         <v>936</v>
       </c>
       <c r="E319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" s="36" t="s">
         <v>931</v>
       </c>
     </row>
-    <row r="320" s="6" customFormat="1" spans="1:9">
+    <row r="320" spans="1:9" s="6" customFormat="1">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -13208,7 +12699,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="6" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="6" customFormat="1">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -13231,7 +12722,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="6" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="6" customFormat="1">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -13257,7 +12748,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -13281,7 +12772,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -13307,7 +12798,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -13330,7 +12821,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -13359,7 +12850,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -13385,7 +12876,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="13">
         <v>327</v>
       </c>
@@ -13411,7 +12902,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="13">
         <v>328</v>
       </c>
@@ -13437,7 +12928,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="13">
         <v>329</v>
       </c>
@@ -13529,13 +13020,13 @@
         <v>977</v>
       </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I333" s="32" t="s">
         <v>978</v>
@@ -13590,7 +13081,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="336" spans="1:7">
+    <row r="336" spans="1:9">
       <c r="A336" s="13">
         <v>335</v>
       </c>
@@ -13613,7 +13104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="13">
         <v>336</v>
       </c>
@@ -13685,7 +13176,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
@@ -13712,39 +13203,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H340"/>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -1,29 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_aomi_5.25\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$340</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1291" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -33,7 +28,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -42,7 +37,6 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -507,7 +501,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -518,7 +512,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -527,7 +521,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -537,7 +530,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>(</t>
     </r>
@@ -546,7 +539,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -556,7 +548,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -565,7 +557,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -575,7 +566,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>)</t>
     </r>
@@ -673,7 +664,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -759,7 +750,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -777,7 +767,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -795,7 +784,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -858,7 +846,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -876,7 +863,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1146,7 +1132,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,7 +1142,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1168,7 +1152,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1265,7 +1248,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1275,7 +1257,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1284,7 +1266,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1311,7 +1292,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1329,7 +1309,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1347,7 +1326,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1365,7 +1343,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1375,7 +1352,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1384,7 +1361,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1402,7 +1378,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1412,7 +1387,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1421,7 +1396,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1439,7 +1413,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1449,7 +1422,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1458,7 +1431,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1468,7 +1440,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1485,7 +1457,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1495,7 +1466,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1504,7 +1475,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1522,7 +1492,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1532,7 +1501,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1541,7 +1510,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1559,7 +1527,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1569,7 +1536,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1578,7 +1545,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1596,7 +1562,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1614,7 +1579,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1632,7 +1596,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1650,7 +1613,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1668,7 +1630,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1678,7 +1639,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1687,7 +1648,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1705,7 +1665,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1715,7 +1674,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1724,7 +1683,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1742,7 +1700,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1752,7 +1709,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1761,7 +1718,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1779,7 +1735,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1789,7 +1744,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1798,7 +1753,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1816,7 +1770,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1826,7 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1835,7 +1788,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1853,7 +1805,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1863,7 +1814,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1872,7 +1823,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1890,7 +1840,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1900,7 +1849,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1909,7 +1858,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1936,7 +1884,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1954,7 +1901,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1972,7 +1918,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1990,7 +1935,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -2008,7 +1952,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -2035,7 +1978,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2044,7 +1987,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2062,7 +2004,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -2071,7 +2013,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2098,7 +2039,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2125,7 +2065,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2143,7 +2082,6 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2176,7 +2114,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2187,7 +2124,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2863,7 +2799,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2874,7 +2809,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3193,7 +3127,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3204,7 +3137,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3523,7 +3455,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3533,7 +3464,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <family val="2"/>
+        <charset val="134"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3542,7 +3473,6 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
-        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3623,7 +3553,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3634,7 +3563,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
-        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3672,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_016_dlphb</t>
+    <t>act_ty_sjb_style/act_017_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
@@ -3681,16 +3609,16 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_016_huanle</t>
-  </si>
-  <si>
-    <t>欢乐券掉落</t>
+    <t>act_ty_by_drop_style/act_017_tgboos</t>
+  </si>
+  <si>
+    <t>棒棒糖掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_011_hhl</t>
+    <t>act_ty_by_hhl_style/act_012_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3702,7 +3630,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <t>sys_act_base_style/sys_act_base_weekly_018</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3759,30 +3687,6 @@
     <t>Act_049_XYHLManager</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2月</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>23</t>
-    </r>
-  </si>
-  <si>
     <t>act_ty_prize_quiz</t>
   </si>
   <si>
@@ -3852,10 +3756,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hflb</t>
-  </si>
-  <si>
-    <t>话费礼包</t>
+    <t>act_ty_gifts_style/act_004_hllb</t>
+  </si>
+  <si>
+    <t>欢乐礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3879,15 +3783,12 @@
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_002</t>
+    <t>act_ty_zp1_style/act_ty_zp1_003</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
   </si>
   <si>
-    <t>5月10日23:59:59</t>
-  </si>
-  <si>
     <t>act_040_mslb</t>
   </si>
   <si>
@@ -3897,9 +3798,6 @@
     <t>Act_040_MSLBManager</t>
   </si>
   <si>
-    <t>（180天领取）5月10日23:59:59</t>
-  </si>
-  <si>
     <t>act_054_byns</t>
   </si>
   <si>
@@ -3910,6 +3808,18 @@
   </si>
   <si>
     <t>2021年5月17日 23:59:59</t>
+  </si>
+  <si>
+    <t>sys_txz</t>
+  </si>
+  <si>
+    <t>通行证</t>
+  </si>
+  <si>
+    <t>SYS_TXZ_Manager</t>
+  </si>
+  <si>
+    <t>长期</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3923,8 +3833,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="17">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3936,52 +3852,49 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3993,52 +3906,171 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="8">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4053,13 +4085,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4081,8 +4113,182 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -4105,15 +4311,257 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4141,16 +4589,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4261,20 +4709,70 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 4" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 4" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -4532,19 +5030,20 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I340"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I341"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C236" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
+      <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E255" sqref="E255"/>
+      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4560,7 +5059,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="78" customHeight="1">
+    <row r="1" ht="78" customHeight="1" spans="1:9">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4589,7 +5088,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
+    <row r="2" ht="17.1" customHeight="1" spans="1:9">
       <c r="A2" s="13">
         <v>1</v>
       </c>
@@ -5913,7 +6412,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="24.75" customHeight="1">
+    <row r="53" ht="24.75" customHeight="1" spans="1:9">
       <c r="A53" s="13">
         <v>52</v>
       </c>
@@ -6095,7 +6594,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" spans="1:9" s="2" customFormat="1">
+    <row r="60" s="2" customFormat="1" spans="1:9">
       <c r="A60" s="16">
         <v>59</v>
       </c>
@@ -6459,7 +6958,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="1:9" s="3" customFormat="1">
+    <row r="74" s="3" customFormat="1" spans="1:9">
       <c r="A74" s="13">
         <v>73</v>
       </c>
@@ -6511,7 +7010,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" spans="1:9" s="4" customFormat="1">
+    <row r="76" s="4" customFormat="1" spans="1:9">
       <c r="A76" s="13">
         <v>75</v>
       </c>
@@ -7629,7 +8128,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:9" s="2" customFormat="1">
+    <row r="119" s="2" customFormat="1" spans="1:9">
       <c r="A119" s="16">
         <v>118</v>
       </c>
@@ -9199,7 +9698,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" spans="1:9" s="2" customFormat="1">
+    <row r="180" s="2" customFormat="1" spans="1:9">
       <c r="A180" s="13">
         <v>179</v>
       </c>
@@ -9223,7 +9722,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" spans="1:9" s="2" customFormat="1">
+    <row r="181" s="2" customFormat="1" spans="1:9">
       <c r="A181" s="13">
         <v>180</v>
       </c>
@@ -9247,7 +9746,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" spans="1:9" s="2" customFormat="1">
+    <row r="182" s="2" customFormat="1" spans="1:9">
       <c r="A182" s="13">
         <v>181</v>
       </c>
@@ -10269,7 +10768,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:7">
       <c r="A226" s="13">
         <v>225</v>
       </c>
@@ -10292,7 +10791,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:7">
       <c r="A227" s="13">
         <v>226</v>
       </c>
@@ -10315,7 +10814,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:7">
       <c r="A228" s="13">
         <v>227</v>
       </c>
@@ -10338,7 +10837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:7">
       <c r="A229" s="13">
         <v>228</v>
       </c>
@@ -10361,7 +10860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:7">
       <c r="A230" s="13">
         <v>229</v>
       </c>
@@ -10384,7 +10883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:7">
       <c r="A231" s="13">
         <v>230</v>
       </c>
@@ -10407,7 +10906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:7">
       <c r="A232" s="13">
         <v>231</v>
       </c>
@@ -10430,7 +10929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:7">
       <c r="A233" s="13">
         <v>232</v>
       </c>
@@ -10453,7 +10952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:7">
       <c r="A234" s="13">
         <v>233</v>
       </c>
@@ -11023,7 +11522,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" spans="1:9" s="5" customFormat="1">
+    <row r="256" s="5" customFormat="1" spans="1:9">
       <c r="A256" s="13">
         <v>255</v>
       </c>
@@ -11049,7 +11548,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" spans="1:9" s="5" customFormat="1">
+    <row r="257" s="5" customFormat="1" spans="1:9">
       <c r="A257" s="13">
         <v>256</v>
       </c>
@@ -11075,7 +11574,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" spans="1:9" s="5" customFormat="1">
+    <row r="258" s="5" customFormat="1" spans="1:9">
       <c r="A258" s="13">
         <v>257</v>
       </c>
@@ -11101,7 +11600,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" spans="1:9" s="5" customFormat="1">
+    <row r="259" s="5" customFormat="1" spans="1:9">
       <c r="A259" s="13">
         <v>258</v>
       </c>
@@ -11127,7 +11626,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" spans="1:9" s="5" customFormat="1">
+    <row r="260" s="5" customFormat="1" spans="1:9">
       <c r="A260" s="13">
         <v>259</v>
       </c>
@@ -11205,7 +11704,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" spans="1:9" s="5" customFormat="1">
+    <row r="263" s="5" customFormat="1" spans="1:9">
       <c r="A263" s="13">
         <v>262</v>
       </c>
@@ -11231,7 +11730,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" spans="1:9" s="5" customFormat="1">
+    <row r="264" s="5" customFormat="1" spans="1:9">
       <c r="A264" s="13">
         <v>263</v>
       </c>
@@ -11257,7 +11756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" spans="1:9" s="5" customFormat="1">
+    <row r="265" s="5" customFormat="1" spans="1:9">
       <c r="A265" s="13">
         <v>264</v>
       </c>
@@ -11283,7 +11782,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" spans="1:9" s="5" customFormat="1">
+    <row r="266" s="5" customFormat="1" spans="1:9">
       <c r="A266" s="13">
         <v>265</v>
       </c>
@@ -11309,7 +11808,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" spans="1:9" s="5" customFormat="1">
+    <row r="267" s="5" customFormat="1" spans="1:9">
       <c r="A267" s="13">
         <v>266</v>
       </c>
@@ -11335,7 +11834,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" spans="1:9" s="5" customFormat="1">
+    <row r="268" s="5" customFormat="1" spans="1:9">
       <c r="A268" s="13">
         <v>267</v>
       </c>
@@ -11523,7 +12022,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" spans="1:9" s="5" customFormat="1">
+    <row r="275" s="5" customFormat="1" spans="1:9">
       <c r="A275" s="13">
         <v>274</v>
       </c>
@@ -11549,7 +12048,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="276" spans="1:9" s="6" customFormat="1">
+    <row r="276" s="6" customFormat="1" spans="1:9">
       <c r="A276" s="34">
         <v>275</v>
       </c>
@@ -11572,7 +12071,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
+    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
       <c r="A277" s="13">
         <v>276</v>
       </c>
@@ -11726,7 +12225,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" spans="1:9" s="7" customFormat="1" ht="17.25" customHeight="1">
+    <row r="283" s="7" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
       <c r="A283" s="13">
         <v>282</v>
       </c>
@@ -11752,7 +12251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" spans="1:9" s="7" customFormat="1">
+    <row r="284" s="7" customFormat="1" spans="1:9">
       <c r="A284" s="13">
         <v>283</v>
       </c>
@@ -11804,7 +12303,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" spans="1:9" s="7" customFormat="1">
+    <row r="286" s="7" customFormat="1" spans="1:9">
       <c r="A286" s="13">
         <v>285</v>
       </c>
@@ -11830,7 +12329,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" spans="1:9" s="7" customFormat="1">
+    <row r="287" s="7" customFormat="1" spans="1:9">
       <c r="A287" s="13">
         <v>286</v>
       </c>
@@ -11856,7 +12355,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" spans="1:9" s="6" customFormat="1">
+    <row r="288" s="6" customFormat="1" spans="1:9">
       <c r="A288" s="34">
         <v>287</v>
       </c>
@@ -11882,7 +12381,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" spans="1:9" s="7" customFormat="1">
+    <row r="289" s="7" customFormat="1" spans="1:9">
       <c r="A289" s="13">
         <v>288</v>
       </c>
@@ -11908,7 +12407,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" spans="1:9" s="7" customFormat="1">
+    <row r="290" s="7" customFormat="1" spans="1:9">
       <c r="A290" s="13">
         <v>289</v>
       </c>
@@ -11934,7 +12433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" spans="1:9" s="7" customFormat="1">
+    <row r="291" s="7" customFormat="1" spans="1:9">
       <c r="A291" s="13">
         <v>290</v>
       </c>
@@ -11960,7 +12459,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" spans="1:9" s="7" customFormat="1">
+    <row r="292" s="7" customFormat="1" spans="1:9">
       <c r="A292" s="13">
         <v>291</v>
       </c>
@@ -11986,7 +12485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" spans="1:9" s="7" customFormat="1">
+    <row r="293" s="7" customFormat="1" spans="1:9">
       <c r="A293" s="13">
         <v>292</v>
       </c>
@@ -12012,7 +12511,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" spans="1:9" s="7" customFormat="1">
+    <row r="294" s="7" customFormat="1" spans="1:9">
       <c r="A294" s="13">
         <v>293</v>
       </c>
@@ -12038,7 +12537,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" spans="1:9" s="7" customFormat="1">
+    <row r="295" s="7" customFormat="1" spans="1:9">
       <c r="A295" s="13">
         <v>294</v>
       </c>
@@ -12142,7 +12641,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="299" spans="1:9" s="5" customFormat="1">
+    <row r="299" s="5" customFormat="1" spans="1:9">
       <c r="A299" s="13">
         <v>298</v>
       </c>
@@ -12168,7 +12667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" spans="1:9" s="5" customFormat="1">
+    <row r="300" s="5" customFormat="1" spans="1:9">
       <c r="A300" s="13">
         <v>299</v>
       </c>
@@ -12194,7 +12693,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="301" spans="1:9" s="5" customFormat="1">
+    <row r="301" s="5" customFormat="1" spans="1:9">
       <c r="A301" s="13">
         <v>300</v>
       </c>
@@ -12220,7 +12719,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="302" spans="1:9" s="5" customFormat="1">
+    <row r="302" s="5" customFormat="1" spans="1:9">
       <c r="A302" s="13">
         <v>301</v>
       </c>
@@ -12246,7 +12745,7 @@
         <v>876</v>
       </c>
     </row>
-    <row r="303" spans="1:9" s="5" customFormat="1">
+    <row r="303" s="5" customFormat="1" spans="1:9">
       <c r="A303" s="13">
         <v>302</v>
       </c>
@@ -12272,7 +12771,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" spans="1:9" s="5" customFormat="1">
+    <row r="304" s="5" customFormat="1" spans="1:9">
       <c r="A304" s="13">
         <v>303</v>
       </c>
@@ -12298,7 +12797,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="305" spans="1:9" s="5" customFormat="1">
+    <row r="305" s="5" customFormat="1" spans="1:9">
       <c r="A305" s="13">
         <v>304</v>
       </c>
@@ -12324,7 +12823,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="306" spans="1:9" s="5" customFormat="1">
+    <row r="306" s="5" customFormat="1" spans="1:9">
       <c r="A306" s="13">
         <v>305</v>
       </c>
@@ -12350,7 +12849,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" spans="1:9" s="5" customFormat="1">
+    <row r="307" s="5" customFormat="1" spans="1:9">
       <c r="A307" s="13">
         <v>306</v>
       </c>
@@ -12376,7 +12875,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" spans="1:9" s="5" customFormat="1">
+    <row r="308" s="5" customFormat="1" spans="1:9">
       <c r="A308" s="13">
         <v>307</v>
       </c>
@@ -12402,7 +12901,7 @@
         <v>902</v>
       </c>
     </row>
-    <row r="309" spans="1:9" s="5" customFormat="1">
+    <row r="309" s="5" customFormat="1" spans="1:9">
       <c r="A309" s="13">
         <v>308</v>
       </c>
@@ -12428,7 +12927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" spans="1:9" s="5" customFormat="1">
+    <row r="310" s="5" customFormat="1" spans="1:9">
       <c r="A310" s="13">
         <v>309</v>
       </c>
@@ -12454,7 +12953,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="311" spans="1:9" s="5" customFormat="1">
+    <row r="311" s="5" customFormat="1" spans="1:9">
       <c r="A311" s="13">
         <v>310</v>
       </c>
@@ -12480,7 +12979,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="312" spans="1:9" s="5" customFormat="1">
+    <row r="312" s="5" customFormat="1" spans="1:7">
       <c r="A312" s="13">
         <v>311</v>
       </c>
@@ -12503,7 +13002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A313" s="13">
         <v>312</v>
       </c>
@@ -12529,7 +13028,7 @@
         <v>918</v>
       </c>
     </row>
-    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
@@ -12555,7 +13054,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" spans="1:9" s="5" customFormat="1">
+    <row r="315" s="5" customFormat="1" spans="1:9">
       <c r="A315" s="13">
         <v>314</v>
       </c>
@@ -12581,7 +13080,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
+    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
@@ -12607,7 +13106,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" spans="1:9" s="6" customFormat="1">
+    <row r="317" s="6" customFormat="1" spans="1:9">
       <c r="A317" s="13">
         <v>316</v>
       </c>
@@ -12630,7 +13129,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="318" spans="1:9" s="6" customFormat="1">
+    <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
@@ -12653,7 +13152,7 @@
         <v>934</v>
       </c>
     </row>
-    <row r="319" spans="1:9" s="6" customFormat="1">
+    <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
@@ -12676,7 +13175,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="320" spans="1:9" s="6" customFormat="1">
+    <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
@@ -12699,7 +13198,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" spans="1:9" s="6" customFormat="1">
+    <row r="321" s="6" customFormat="1" spans="1:9">
       <c r="A321" s="13">
         <v>320</v>
       </c>
@@ -12722,7 +13221,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" spans="1:9" s="6" customFormat="1">
+    <row r="322" s="6" customFormat="1" spans="1:9">
       <c r="A322" s="13">
         <v>321</v>
       </c>
@@ -12748,7 +13247,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="323" spans="1:9" s="5" customFormat="1">
+    <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
@@ -12772,7 +13271,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="324" spans="1:9" s="5" customFormat="1">
+    <row r="324" s="5" customFormat="1" spans="1:9">
       <c r="A324" s="13">
         <v>323</v>
       </c>
@@ -12798,7 +13297,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="325" spans="1:9" s="5" customFormat="1">
+    <row r="325" s="5" customFormat="1" spans="1:9">
       <c r="A325" s="13">
         <v>324</v>
       </c>
@@ -12821,7 +13320,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="326" spans="1:9" s="5" customFormat="1">
+    <row r="326" s="5" customFormat="1" spans="1:9">
       <c r="A326" s="13">
         <v>325</v>
       </c>
@@ -12850,7 +13349,7 @@
         <v>925</v>
       </c>
     </row>
-    <row r="327" spans="1:9" s="5" customFormat="1">
+    <row r="327" s="5" customFormat="1" spans="1:9">
       <c r="A327" s="13">
         <v>326</v>
       </c>
@@ -12864,56 +13363,56 @@
         <v>957</v>
       </c>
       <c r="E327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="5">
-        <v>0</v>
-      </c>
-      <c r="I327" s="32" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="328" spans="1:9" s="5" customFormat="1">
+        <v>1</v>
+      </c>
+      <c r="I327" s="49">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="328" s="5" customFormat="1" spans="1:9">
       <c r="A328" s="13">
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
+        <v>958</v>
+      </c>
+      <c r="C328" s="32" t="s">
         <v>959</v>
       </c>
-      <c r="C328" s="32" t="s">
+      <c r="D328" s="33" t="s">
         <v>960</v>
       </c>
-      <c r="D328" s="33" t="s">
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>0</v>
+      </c>
+      <c r="I328" s="32" t="s">
         <v>961</v>
       </c>
-      <c r="E328" s="5">
-        <v>0</v>
-      </c>
-      <c r="F328" s="5">
-        <v>0</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="I328" s="32" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="329" spans="1:9" s="5" customFormat="1">
+    </row>
+    <row r="329" s="5" customFormat="1" spans="1:9">
       <c r="A329" s="13">
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
+        <v>962</v>
+      </c>
+      <c r="C329" s="32" t="s">
         <v>963</v>
       </c>
-      <c r="C329" s="32" t="s">
+      <c r="D329" s="32" t="s">
         <v>964</v>
-      </c>
-      <c r="D329" s="32" t="s">
-        <v>965</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -12928,18 +13427,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" spans="1:9" s="5" customFormat="1">
+    <row r="330" s="5" customFormat="1" spans="1:9">
       <c r="A330" s="13">
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
+        <v>965</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>966</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="D330" s="5" t="s">
         <v>967</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>968</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -12959,13 +13458,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
+        <v>968</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>969</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" t="s">
         <v>970</v>
-      </c>
-      <c r="D331" t="s">
-        <v>971</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -12985,13 +13484,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
+        <v>971</v>
+      </c>
+      <c r="C332" s="32" t="s">
         <v>972</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="D332" t="s">
         <v>973</v>
-      </c>
-      <c r="D332" t="s">
-        <v>974</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13011,25 +13510,25 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
+        <v>974</v>
+      </c>
+      <c r="C333" s="32" t="s">
         <v>975</v>
       </c>
-      <c r="C333" s="32" t="s">
+      <c r="D333" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="D333" s="28" t="s">
+      <c r="E333" s="5">
+        <v>0</v>
+      </c>
+      <c r="F333" s="5">
+        <v>0</v>
+      </c>
+      <c r="G333" s="5">
+        <v>0</v>
+      </c>
+      <c r="I333" s="32" t="s">
         <v>977</v>
-      </c>
-      <c r="E333" s="5">
-        <v>0</v>
-      </c>
-      <c r="F333" s="5">
-        <v>0</v>
-      </c>
-      <c r="G333" s="5">
-        <v>0</v>
-      </c>
-      <c r="I333" s="32" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13037,25 +13536,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>979</v>
+      </c>
+      <c r="E334" s="5">
+        <v>1</v>
+      </c>
+      <c r="F334" s="5">
+        <v>1</v>
+      </c>
+      <c r="G334" s="5">
+        <v>1</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>980</v>
-      </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>981</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13063,37 +13562,37 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>982</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>984</v>
-      </c>
-    </row>
-    <row r="336" spans="1:9">
+    </row>
+    <row r="336" spans="1:7">
       <c r="A336" s="13">
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>985</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>986</v>
       </c>
-      <c r="D336" s="28" t="s">
-        <v>987</v>
-      </c>
       <c r="E336" s="5">
         <v>0</v>
       </c>
@@ -13104,18 +13603,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:9">
+    <row r="337" spans="1:7">
       <c r="A337" s="13">
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>987</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>988</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>989</v>
-      </c>
-      <c r="D337" s="28" t="s">
-        <v>990</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13132,37 +13631,37 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>990</v>
+      </c>
+      <c r="C338" t="s">
         <v>991</v>
       </c>
-      <c r="C338" t="s">
-        <v>992</v>
-      </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
-      </c>
-      <c r="I338" t="s">
-        <v>993</v>
-      </c>
-    </row>
-    <row r="339" spans="1:9">
+        <v>1</v>
+      </c>
+      <c r="I338" s="50">
+        <v>44354</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
       <c r="A339" s="13">
         <v>338</v>
       </c>
       <c r="B339" s="47" t="s">
+        <v>992</v>
+      </c>
+      <c r="C339" t="s">
+        <v>993</v>
+      </c>
+      <c r="D339" s="48" t="s">
         <v>994</v>
       </c>
-      <c r="C339" t="s">
-        <v>995</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>996</v>
-      </c>
       <c r="E339">
         <v>1</v>
       </c>
@@ -13172,67 +13671,93 @@
       <c r="G339">
         <v>1</v>
       </c>
-      <c r="I339" t="s">
-        <v>997</v>
-      </c>
-    </row>
-    <row r="340" spans="1:9" ht="15.75">
+    </row>
+    <row r="340" ht="15.75" spans="1:9">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
+        <v>995</v>
+      </c>
+      <c r="C340" t="s">
+        <v>996</v>
+      </c>
+      <c r="D340" s="47" t="s">
+        <v>997</v>
+      </c>
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>998</v>
       </c>
-      <c r="C340" t="s">
+    </row>
+    <row r="341" customFormat="1" ht="15.75" spans="1:9">
+      <c r="A341" s="5">
+        <v>340</v>
+      </c>
+      <c r="B341" s="47" t="s">
         <v>999</v>
       </c>
-      <c r="D340" s="47" t="s">
+      <c r="C341" t="s">
         <v>1000</v>
       </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
+      <c r="D341" s="47" t="s">
         <v>1001</v>
       </c>
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
+        <v>1002</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H340"/>
-  <phoneticPr fontId="16" type="noConversion"/>
+  <autoFilter ref="A1:H341">
+    <extLst/>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="153" customHeight="1">
+    <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1002</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
-    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="2" ht="51.75" customHeight="1"/>
+    <row r="3" ht="52.5" customHeight="1"/>
   </sheetData>
-  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$341</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1006">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3276,7 +3276,7 @@
     <t>act_ty_ldfd</t>
   </si>
   <si>
-    <t>幸运福袋</t>
+    <t>端午福袋</t>
   </si>
   <si>
     <t>Act_ty_LDFDManager</t>
@@ -3600,7 +3600,7 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_017_dlphb</t>
+    <t>act_ty_sjb_style/act_018_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
@@ -3609,10 +3609,10 @@
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_017_tgboos</t>
-  </si>
-  <si>
-    <t>棒棒糖掉落</t>
+    <t>act_ty_by_drop_style/act_018_zongzi</t>
+  </si>
+  <si>
+    <t>粽子掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
@@ -3630,7 +3630,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_018</t>
+    <t>sys_act_base_style/sys_act_base_weekly_019</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3738,15 +3738,12 @@
     <t>act_052_qfhl</t>
   </si>
   <si>
-    <t>龙腾祈福</t>
+    <t>祈福有礼</t>
   </si>
   <si>
     <t>Act_052_QFHLManager</t>
   </si>
   <si>
-    <t>2021年4月16日 23:59:59</t>
-  </si>
-  <si>
     <t>act_ty_gifts</t>
   </si>
   <si>
@@ -3756,7 +3753,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_hllb</t>
+    <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
     <t>欢乐礼包</t>
@@ -3820,6 +3817,15 @@
   </si>
   <si>
     <t>长期</t>
+  </si>
+  <si>
+    <t>act_042_xshb</t>
+  </si>
+  <si>
+    <t>限时红包</t>
+  </si>
+  <si>
+    <t>Act_042_XSHBManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3835,8 +3841,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -3916,14 +3922,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3937,11 +3943,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3952,11 +3965,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3964,6 +3976,22 @@
       <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3983,12 +4011,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <i/>
@@ -4000,7 +4040,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -4022,46 +4062,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4115,7 +4121,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4127,19 +4145,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4151,49 +4163,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4211,7 +4193,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4223,31 +4271,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4259,31 +4283,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4321,6 +4327,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -4332,6 +4353,39 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4361,54 +4415,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4417,10 +4423,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4429,137 +4435,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5036,14 +5042,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I341"/>
+  <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C317" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G335" sqref="G335"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12369,13 +12375,13 @@
         <v>837</v>
       </c>
       <c r="E288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="36" t="s">
         <v>723</v>
@@ -13163,13 +13169,13 @@
         <v>936</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="36" t="s">
         <v>931</v>
@@ -13519,16 +13525,16 @@
         <v>976</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
-      </c>
-      <c r="I333" s="32" t="s">
-        <v>977</v>
+        <v>1</v>
+      </c>
+      <c r="I333" s="49">
+        <v>44355</v>
       </c>
     </row>
     <row r="334" spans="1:9">
@@ -13536,25 +13542,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>978</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>0</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>979</v>
-      </c>
-      <c r="E334" s="5">
-        <v>1</v>
-      </c>
-      <c r="F334" s="5">
-        <v>1</v>
-      </c>
-      <c r="G334" s="5">
-        <v>1</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>980</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13562,22 +13568,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>981</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>982</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>983</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13585,13 +13591,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>984</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>985</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>986</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13608,13 +13614,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>987</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>988</v>
-      </c>
-      <c r="D337" s="28" t="s">
-        <v>989</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13631,19 +13637,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>989</v>
+      </c>
+      <c r="C338" t="s">
         <v>990</v>
       </c>
-      <c r="C338" t="s">
-        <v>991</v>
-      </c>
       <c r="E338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" s="50">
         <v>44354</v>
@@ -13654,13 +13660,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="47" t="s">
+        <v>991</v>
+      </c>
+      <c r="C339" t="s">
         <v>992</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="48" t="s">
         <v>993</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>994</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13677,25 +13683,25 @@
         <v>339</v>
       </c>
       <c r="B340" s="47" t="s">
+        <v>994</v>
+      </c>
+      <c r="C340" t="s">
         <v>995</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="47" t="s">
         <v>996</v>
       </c>
-      <c r="D340" s="47" t="s">
+      <c r="E340" s="5">
+        <v>0</v>
+      </c>
+      <c r="F340" s="5">
+        <v>0</v>
+      </c>
+      <c r="G340" s="5">
+        <v>0</v>
+      </c>
+      <c r="I340" s="32" t="s">
         <v>997</v>
-      </c>
-      <c r="E340" s="5">
-        <v>0</v>
-      </c>
-      <c r="F340" s="5">
-        <v>0</v>
-      </c>
-      <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>998</v>
       </c>
     </row>
     <row r="341" customFormat="1" ht="15.75" spans="1:9">
@@ -13703,29 +13709,55 @@
         <v>340</v>
       </c>
       <c r="B341" s="47" t="s">
+        <v>998</v>
+      </c>
+      <c r="C341" t="s">
         <v>999</v>
       </c>
-      <c r="C341" t="s">
+      <c r="D341" s="47" t="s">
         <v>1000</v>
       </c>
-      <c r="D341" s="47" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>1001</v>
       </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
+    </row>
+    <row r="342" spans="1:9">
+      <c r="A342" s="5">
+        <v>341</v>
+      </c>
+      <c r="B342" s="8" t="s">
         <v>1002</v>
       </c>
+      <c r="C342" t="s">
+        <v>1003</v>
+      </c>
+      <c r="D342" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E342">
+        <v>1</v>
+      </c>
+      <c r="F342">
+        <v>1</v>
+      </c>
+      <c r="G342">
+        <v>1</v>
+      </c>
+      <c r="I342" t="s">
+        <v>1001</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H341">
+  <autoFilter ref="A1:H342">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13751,7 +13783,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1295" uniqueCount="1006">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3162,9 +3162,6 @@
     <t>Act_ty_HLQJDManager</t>
   </si>
   <si>
-    <t>5月17日23:59:59</t>
-  </si>
-  <si>
     <t>act_030_hd_zjm</t>
   </si>
   <si>
@@ -3600,37 +3597,37 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_018_dlphb</t>
+    <t>act_ty_sjb_style/act_019_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
+    <t>act_ty_by_drop_style/act_018_zongzi</t>
+  </si>
+  <si>
+    <t>粽子掉落</t>
+  </si>
+  <si>
+    <t>5月24日23:59:59</t>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_012_hhl</t>
+  </si>
+  <si>
+    <t>换好礼皮肤</t>
+  </si>
+  <si>
     <t>3月29日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_018_zongzi</t>
-  </si>
-  <si>
-    <t>粽子掉落</t>
-  </si>
-  <si>
-    <t>5月24日23:59:59</t>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_012_hhl</t>
-  </si>
-  <si>
-    <t>换好礼皮肤</t>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_normal_001</t>
   </si>
   <si>
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_019</t>
+    <t>sys_act_base_style/sys_act_base_weekly_020</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3802,9 +3799,6 @@
   </si>
   <si>
     <t>Act_054_BYNSManager</t>
-  </si>
-  <si>
-    <t>2021年5月17日 23:59:59</t>
   </si>
   <si>
     <t>sys_txz</t>
@@ -3841,12 +3835,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="33">
+  <fonts count="34">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3897,6 +3891,13 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
@@ -3921,6 +3922,26 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -3929,7 +3950,52 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3943,8 +4009,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3952,28 +4027,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3989,74 +4050,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4065,6 +4059,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4121,7 +4122,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4133,7 +4158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4145,7 +4176,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4157,73 +4272,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4235,61 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4321,23 +4322,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4360,32 +4346,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4415,6 +4377,45 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -4423,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4435,139 +4436,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4670,6 +4671,9 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -4691,10 +4695,10 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4703,16 +4707,19 @@
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -5045,11 +5052,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C319" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12035,46 +12042,46 @@
       <c r="B275" s="31" t="s">
         <v>795</v>
       </c>
-      <c r="C275" s="32" t="s">
+      <c r="C275" s="34" t="s">
         <v>796</v>
       </c>
       <c r="D275" s="33" t="s">
         <v>797</v>
       </c>
       <c r="E275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="5">
-        <v>0</v>
-      </c>
-      <c r="I275" s="32" t="s">
+        <v>1</v>
+      </c>
+      <c r="I275" s="46">
+        <v>44368</v>
+      </c>
+    </row>
+    <row r="276" s="6" customFormat="1" spans="1:9">
+      <c r="A276" s="35">
+        <v>275</v>
+      </c>
+      <c r="B276" s="36" t="s">
         <v>798</v>
       </c>
-    </row>
-    <row r="276" s="6" customFormat="1" spans="1:9">
-      <c r="A276" s="34">
-        <v>275</v>
-      </c>
-      <c r="B276" s="35" t="s">
+      <c r="C276" s="37" t="s">
         <v>799</v>
       </c>
-      <c r="C276" s="36" t="s">
+      <c r="E276" s="6">
+        <v>1</v>
+      </c>
+      <c r="F276" s="6">
+        <v>1</v>
+      </c>
+      <c r="G276" s="6">
+        <v>1</v>
+      </c>
+      <c r="I276" s="37" t="s">
         <v>800</v>
-      </c>
-      <c r="E276" s="6">
-        <v>1</v>
-      </c>
-      <c r="F276" s="6">
-        <v>1</v>
-      </c>
-      <c r="G276" s="6">
-        <v>1</v>
-      </c>
-      <c r="I276" s="36" t="s">
-        <v>801</v>
       </c>
     </row>
     <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
@@ -12082,13 +12089,13 @@
         <v>276</v>
       </c>
       <c r="B277" s="31" t="s">
+        <v>801</v>
+      </c>
+      <c r="C277" s="32" t="s">
         <v>802</v>
       </c>
-      <c r="C277" s="32" t="s">
+      <c r="D277" s="31" t="s">
         <v>803</v>
-      </c>
-      <c r="D277" s="31" t="s">
-        <v>804</v>
       </c>
       <c r="E277" s="32">
         <v>0</v>
@@ -12101,7 +12108,7 @@
       </c>
       <c r="H277" s="32"/>
       <c r="I277" s="32" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="278" spans="1:9">
@@ -12109,13 +12116,13 @@
         <v>277</v>
       </c>
       <c r="B278" s="31" t="s">
+        <v>805</v>
+      </c>
+      <c r="C278" s="32" t="s">
         <v>806</v>
       </c>
-      <c r="C278" s="32" t="s">
+      <c r="D278" s="33" t="s">
         <v>807</v>
-      </c>
-      <c r="D278" s="33" t="s">
-        <v>808</v>
       </c>
       <c r="E278">
         <v>0</v>
@@ -12135,10 +12142,10 @@
         <v>278</v>
       </c>
       <c r="B279" s="31" t="s">
+        <v>808</v>
+      </c>
+      <c r="C279" s="32" t="s">
         <v>809</v>
-      </c>
-      <c r="C279" s="32" t="s">
-        <v>810</v>
       </c>
       <c r="E279">
         <v>0</v>
@@ -12158,13 +12165,13 @@
         <v>279</v>
       </c>
       <c r="B280" s="31" t="s">
+        <v>810</v>
+      </c>
+      <c r="C280" s="32" t="s">
         <v>811</v>
       </c>
-      <c r="C280" s="32" t="s">
+      <c r="D280" s="33" t="s">
         <v>812</v>
-      </c>
-      <c r="D280" s="33" t="s">
-        <v>813</v>
       </c>
       <c r="E280">
         <v>0</v>
@@ -12184,13 +12191,13 @@
         <v>280</v>
       </c>
       <c r="B281" s="31" t="s">
+        <v>813</v>
+      </c>
+      <c r="C281" s="32" t="s">
         <v>814</v>
       </c>
-      <c r="C281" s="32" t="s">
+      <c r="D281" s="33" t="s">
         <v>815</v>
-      </c>
-      <c r="D281" s="33" t="s">
-        <v>816</v>
       </c>
       <c r="E281">
         <v>0</v>
@@ -12210,13 +12217,13 @@
         <v>281</v>
       </c>
       <c r="B282" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="C282" s="32" t="s">
         <v>817</v>
       </c>
-      <c r="C282" s="32" t="s">
+      <c r="D282" s="33" t="s">
         <v>818</v>
-      </c>
-      <c r="D282" s="33" t="s">
-        <v>819</v>
       </c>
       <c r="E282">
         <v>0</v>
@@ -12235,15 +12242,15 @@
       <c r="A283" s="13">
         <v>282</v>
       </c>
-      <c r="B283" s="37" t="s">
+      <c r="B283" s="38" t="s">
+        <v>819</v>
+      </c>
+      <c r="C283" s="39" t="s">
         <v>820</v>
       </c>
-      <c r="C283" s="38" t="s">
+      <c r="D283" s="38" t="s">
         <v>821</v>
       </c>
-      <c r="D283" s="37" t="s">
-        <v>822</v>
-      </c>
       <c r="E283" s="7">
         <v>1</v>
       </c>
@@ -12253,7 +12260,7 @@
       <c r="G283" s="7">
         <v>1</v>
       </c>
-      <c r="I283" s="38" t="s">
+      <c r="I283" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12261,15 +12268,15 @@
       <c r="A284" s="13">
         <v>283</v>
       </c>
-      <c r="B284" s="37" t="s">
+      <c r="B284" s="38" t="s">
+        <v>822</v>
+      </c>
+      <c r="C284" s="39" t="s">
         <v>823</v>
       </c>
-      <c r="C284" s="38" t="s">
+      <c r="D284" s="38" t="s">
         <v>824</v>
       </c>
-      <c r="D284" s="37" t="s">
-        <v>825</v>
-      </c>
       <c r="E284" s="7">
         <v>1</v>
       </c>
@@ -12279,7 +12286,7 @@
       <c r="G284" s="7">
         <v>1</v>
       </c>
-      <c r="I284" s="38" t="s">
+      <c r="I284" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12288,13 +12295,13 @@
         <v>284</v>
       </c>
       <c r="B285" s="31" t="s">
+        <v>825</v>
+      </c>
+      <c r="C285" s="32" t="s">
         <v>826</v>
       </c>
-      <c r="C285" s="32" t="s">
+      <c r="D285" s="33" t="s">
         <v>827</v>
-      </c>
-      <c r="D285" s="33" t="s">
-        <v>828</v>
       </c>
       <c r="E285">
         <v>0</v>
@@ -12313,15 +12320,15 @@
       <c r="A286" s="13">
         <v>285</v>
       </c>
-      <c r="B286" s="39" t="s">
+      <c r="B286" s="40" t="s">
+        <v>828</v>
+      </c>
+      <c r="C286" s="39" t="s">
         <v>829</v>
       </c>
-      <c r="C286" s="38" t="s">
+      <c r="D286" s="38" t="s">
         <v>830</v>
       </c>
-      <c r="D286" s="37" t="s">
-        <v>831</v>
-      </c>
       <c r="E286" s="7">
         <v>1</v>
       </c>
@@ -12331,7 +12338,7 @@
       <c r="G286" s="7">
         <v>1</v>
       </c>
-      <c r="I286" s="38" t="s">
+      <c r="I286" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12339,51 +12346,51 @@
       <c r="A287" s="13">
         <v>286</v>
       </c>
-      <c r="B287" s="39" t="s">
+      <c r="B287" s="40" t="s">
+        <v>831</v>
+      </c>
+      <c r="C287" s="39" t="s">
         <v>832</v>
       </c>
-      <c r="C287" s="38" t="s">
+      <c r="D287" s="38" t="s">
         <v>833</v>
       </c>
-      <c r="D287" s="37" t="s">
+      <c r="E287" s="7">
+        <v>1</v>
+      </c>
+      <c r="F287" s="7">
+        <v>1</v>
+      </c>
+      <c r="G287" s="7">
+        <v>1</v>
+      </c>
+      <c r="I287" s="39" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="288" s="6" customFormat="1" spans="1:9">
+      <c r="A288" s="35">
+        <v>287</v>
+      </c>
+      <c r="B288" s="36" t="s">
         <v>834</v>
       </c>
-      <c r="E287" s="7">
-        <v>1</v>
-      </c>
-      <c r="F287" s="7">
-        <v>1</v>
-      </c>
-      <c r="G287" s="7">
-        <v>1</v>
-      </c>
-      <c r="I287" s="38" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="288" s="6" customFormat="1" spans="1:9">
-      <c r="A288" s="34">
-        <v>287</v>
-      </c>
-      <c r="B288" s="35" t="s">
+      <c r="C288" s="37" t="s">
         <v>835</v>
       </c>
-      <c r="C288" s="36" t="s">
+      <c r="D288" s="37" t="s">
         <v>836</v>
       </c>
-      <c r="D288" s="36" t="s">
-        <v>837</v>
-      </c>
       <c r="E288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F288" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G288" s="6">
-        <v>1</v>
-      </c>
-      <c r="I288" s="36" t="s">
+        <v>0</v>
+      </c>
+      <c r="I288" s="37" t="s">
         <v>723</v>
       </c>
     </row>
@@ -12391,15 +12398,15 @@
       <c r="A289" s="13">
         <v>288</v>
       </c>
-      <c r="B289" s="39" t="s">
+      <c r="B289" s="40" t="s">
+        <v>837</v>
+      </c>
+      <c r="C289" s="39" t="s">
         <v>838</v>
       </c>
-      <c r="C289" s="38" t="s">
+      <c r="D289" s="38" t="s">
         <v>839</v>
       </c>
-      <c r="D289" s="37" t="s">
-        <v>840</v>
-      </c>
       <c r="E289" s="7">
         <v>1</v>
       </c>
@@ -12409,7 +12416,7 @@
       <c r="G289" s="7">
         <v>1</v>
       </c>
-      <c r="I289" s="38" t="s">
+      <c r="I289" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12417,15 +12424,15 @@
       <c r="A290" s="13">
         <v>289</v>
       </c>
-      <c r="B290" s="37" t="s">
+      <c r="B290" s="38" t="s">
+        <v>840</v>
+      </c>
+      <c r="C290" s="39" t="s">
         <v>841</v>
       </c>
-      <c r="C290" s="38" t="s">
+      <c r="D290" s="38" t="s">
         <v>842</v>
       </c>
-      <c r="D290" s="37" t="s">
-        <v>843</v>
-      </c>
       <c r="E290" s="7">
         <v>1</v>
       </c>
@@ -12435,7 +12442,7 @@
       <c r="G290" s="7">
         <v>1</v>
       </c>
-      <c r="I290" s="38" t="s">
+      <c r="I290" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12443,15 +12450,15 @@
       <c r="A291" s="13">
         <v>290</v>
       </c>
-      <c r="B291" s="37" t="s">
+      <c r="B291" s="38" t="s">
+        <v>843</v>
+      </c>
+      <c r="C291" s="39" t="s">
         <v>844</v>
       </c>
-      <c r="C291" s="38" t="s">
+      <c r="D291" s="38" t="s">
         <v>845</v>
       </c>
-      <c r="D291" s="37" t="s">
-        <v>846</v>
-      </c>
       <c r="E291" s="7">
         <v>1</v>
       </c>
@@ -12461,7 +12468,7 @@
       <c r="G291" s="7">
         <v>1</v>
       </c>
-      <c r="I291" s="38" t="s">
+      <c r="I291" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12469,15 +12476,15 @@
       <c r="A292" s="13">
         <v>291</v>
       </c>
-      <c r="B292" s="37" t="s">
+      <c r="B292" s="38" t="s">
+        <v>846</v>
+      </c>
+      <c r="C292" s="39" t="s">
         <v>847</v>
       </c>
-      <c r="C292" s="38" t="s">
+      <c r="D292" s="38" t="s">
         <v>848</v>
       </c>
-      <c r="D292" s="37" t="s">
-        <v>849</v>
-      </c>
       <c r="E292" s="7">
         <v>1</v>
       </c>
@@ -12487,7 +12494,7 @@
       <c r="G292" s="7">
         <v>1</v>
       </c>
-      <c r="I292" s="38" t="s">
+      <c r="I292" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12495,15 +12502,15 @@
       <c r="A293" s="13">
         <v>292</v>
       </c>
-      <c r="B293" s="37" t="s">
+      <c r="B293" s="38" t="s">
+        <v>849</v>
+      </c>
+      <c r="C293" s="39" t="s">
         <v>850</v>
       </c>
-      <c r="C293" s="38" t="s">
+      <c r="D293" s="38" t="s">
         <v>851</v>
       </c>
-      <c r="D293" s="37" t="s">
-        <v>852</v>
-      </c>
       <c r="E293" s="7">
         <v>1</v>
       </c>
@@ -12513,7 +12520,7 @@
       <c r="G293" s="7">
         <v>1</v>
       </c>
-      <c r="I293" s="38" t="s">
+      <c r="I293" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12521,15 +12528,15 @@
       <c r="A294" s="13">
         <v>293</v>
       </c>
-      <c r="B294" s="37" t="s">
+      <c r="B294" s="38" t="s">
+        <v>852</v>
+      </c>
+      <c r="C294" s="39" t="s">
         <v>853</v>
       </c>
-      <c r="C294" s="38" t="s">
+      <c r="D294" s="38" t="s">
         <v>854</v>
       </c>
-      <c r="D294" s="37" t="s">
-        <v>855</v>
-      </c>
       <c r="E294" s="7">
         <v>1</v>
       </c>
@@ -12539,7 +12546,7 @@
       <c r="G294" s="7">
         <v>1</v>
       </c>
-      <c r="I294" s="38" t="s">
+      <c r="I294" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12547,15 +12554,15 @@
       <c r="A295" s="13">
         <v>294</v>
       </c>
-      <c r="B295" s="37" t="s">
+      <c r="B295" s="38" t="s">
+        <v>855</v>
+      </c>
+      <c r="C295" s="39" t="s">
         <v>856</v>
       </c>
-      <c r="C295" s="38" t="s">
+      <c r="D295" s="38" t="s">
         <v>857</v>
       </c>
-      <c r="D295" s="37" t="s">
-        <v>858</v>
-      </c>
       <c r="E295" s="7">
         <v>1</v>
       </c>
@@ -12565,7 +12572,7 @@
       <c r="G295" s="7">
         <v>1</v>
       </c>
-      <c r="I295" s="38" t="s">
+      <c r="I295" s="39" t="s">
         <v>12</v>
       </c>
     </row>
@@ -12573,67 +12580,67 @@
       <c r="A296" s="13">
         <v>295</v>
       </c>
-      <c r="B296" s="40" t="s">
+      <c r="B296" s="41" t="s">
+        <v>858</v>
+      </c>
+      <c r="C296" s="32" t="s">
         <v>859</v>
       </c>
-      <c r="C296" s="32" t="s">
+      <c r="D296" s="41" t="s">
         <v>860</v>
       </c>
-      <c r="D296" s="40" t="s">
+      <c r="E296">
+        <v>0</v>
+      </c>
+      <c r="F296">
+        <v>0</v>
+      </c>
+      <c r="G296">
+        <v>0</v>
+      </c>
+      <c r="I296" s="32" t="s">
         <v>861</v>
-      </c>
-      <c r="E296">
-        <v>0</v>
-      </c>
-      <c r="F296">
-        <v>0</v>
-      </c>
-      <c r="G296">
-        <v>0</v>
-      </c>
-      <c r="I296" s="32" t="s">
-        <v>862</v>
       </c>
     </row>
     <row r="297" spans="1:9">
       <c r="A297" s="13">
         <v>296</v>
       </c>
-      <c r="B297" s="40" t="s">
+      <c r="B297" s="41" t="s">
+        <v>862</v>
+      </c>
+      <c r="C297" s="32" t="s">
         <v>863</v>
       </c>
-      <c r="C297" s="32" t="s">
+      <c r="D297" s="41" t="s">
         <v>864</v>
       </c>
-      <c r="D297" s="40" t="s">
+      <c r="E297">
+        <v>0</v>
+      </c>
+      <c r="F297">
+        <v>0</v>
+      </c>
+      <c r="G297">
+        <v>0</v>
+      </c>
+      <c r="I297" s="32" t="s">
         <v>865</v>
-      </c>
-      <c r="E297">
-        <v>0</v>
-      </c>
-      <c r="F297">
-        <v>0</v>
-      </c>
-      <c r="G297">
-        <v>0</v>
-      </c>
-      <c r="I297" s="32" t="s">
-        <v>866</v>
       </c>
     </row>
     <row r="298" spans="1:9">
       <c r="A298" s="13">
         <v>297</v>
       </c>
-      <c r="B298" s="40" t="s">
+      <c r="B298" s="41" t="s">
+        <v>866</v>
+      </c>
+      <c r="C298" s="32" t="s">
         <v>867</v>
       </c>
-      <c r="C298" s="32" t="s">
+      <c r="D298" s="41" t="s">
         <v>868</v>
       </c>
-      <c r="D298" s="40" t="s">
-        <v>869</v>
-      </c>
       <c r="E298">
         <v>0</v>
       </c>
@@ -12644,7 +12651,7 @@
         <v>0</v>
       </c>
       <c r="I298" s="32" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="299" s="5" customFormat="1" spans="1:9">
@@ -12652,13 +12659,13 @@
         <v>298</v>
       </c>
       <c r="B299" s="33" t="s">
+        <v>869</v>
+      </c>
+      <c r="C299" s="32" t="s">
         <v>870</v>
       </c>
-      <c r="C299" s="32" t="s">
+      <c r="D299" s="33" t="s">
         <v>871</v>
-      </c>
-      <c r="D299" s="33" t="s">
-        <v>872</v>
       </c>
       <c r="E299" s="5">
         <v>1</v>
@@ -12678,25 +12685,25 @@
         <v>299</v>
       </c>
       <c r="B300" s="33" t="s">
+        <v>872</v>
+      </c>
+      <c r="C300" s="32" t="s">
         <v>873</v>
       </c>
-      <c r="C300" s="32" t="s">
+      <c r="D300" s="33" t="s">
         <v>874</v>
       </c>
-      <c r="D300" s="33" t="s">
+      <c r="E300" s="5">
+        <v>0</v>
+      </c>
+      <c r="F300" s="5">
+        <v>0</v>
+      </c>
+      <c r="G300" s="5">
+        <v>0</v>
+      </c>
+      <c r="I300" s="32" t="s">
         <v>875</v>
-      </c>
-      <c r="E300" s="5">
-        <v>0</v>
-      </c>
-      <c r="F300" s="5">
-        <v>0</v>
-      </c>
-      <c r="G300" s="5">
-        <v>0</v>
-      </c>
-      <c r="I300" s="32" t="s">
-        <v>876</v>
       </c>
     </row>
     <row r="301" s="5" customFormat="1" spans="1:9">
@@ -12704,14 +12711,14 @@
         <v>300</v>
       </c>
       <c r="B301" s="33" t="s">
+        <v>876</v>
+      </c>
+      <c r="C301" s="32" t="s">
         <v>877</v>
       </c>
-      <c r="C301" s="32" t="s">
+      <c r="D301" s="33" t="s">
         <v>878</v>
       </c>
-      <c r="D301" s="33" t="s">
-        <v>879</v>
-      </c>
       <c r="E301" s="5">
         <v>0</v>
       </c>
@@ -12722,7 +12729,7 @@
         <v>0</v>
       </c>
       <c r="I301" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="302" s="5" customFormat="1" spans="1:9">
@@ -12730,14 +12737,14 @@
         <v>301</v>
       </c>
       <c r="B302" s="33" t="s">
+        <v>879</v>
+      </c>
+      <c r="C302" s="32" t="s">
         <v>880</v>
       </c>
-      <c r="C302" s="32" t="s">
+      <c r="D302" s="33" t="s">
         <v>881</v>
       </c>
-      <c r="D302" s="33" t="s">
-        <v>882</v>
-      </c>
       <c r="E302" s="5">
         <v>0</v>
       </c>
@@ -12748,7 +12755,7 @@
         <v>0</v>
       </c>
       <c r="I302" s="32" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="303" s="5" customFormat="1" spans="1:9">
@@ -12756,13 +12763,13 @@
         <v>302</v>
       </c>
       <c r="B303" s="33" t="s">
+        <v>882</v>
+      </c>
+      <c r="C303" s="32" t="s">
         <v>883</v>
       </c>
-      <c r="C303" s="32" t="s">
+      <c r="D303" s="33" t="s">
         <v>884</v>
-      </c>
-      <c r="D303" s="33" t="s">
-        <v>885</v>
       </c>
       <c r="E303" s="5">
         <v>1</v>
@@ -12782,25 +12789,25 @@
         <v>303</v>
       </c>
       <c r="B304" s="33" t="s">
+        <v>885</v>
+      </c>
+      <c r="C304" s="32" t="s">
         <v>886</v>
       </c>
-      <c r="C304" s="32" t="s">
+      <c r="D304" s="33" t="s">
         <v>887</v>
       </c>
-      <c r="D304" s="33" t="s">
+      <c r="E304" s="5">
+        <v>1</v>
+      </c>
+      <c r="F304" s="5">
+        <v>1</v>
+      </c>
+      <c r="G304" s="5">
+        <v>1</v>
+      </c>
+      <c r="I304" s="32" t="s">
         <v>888</v>
-      </c>
-      <c r="E304" s="5">
-        <v>1</v>
-      </c>
-      <c r="F304" s="5">
-        <v>1</v>
-      </c>
-      <c r="G304" s="5">
-        <v>1</v>
-      </c>
-      <c r="I304" s="32" t="s">
-        <v>889</v>
       </c>
     </row>
     <row r="305" s="5" customFormat="1" spans="1:9">
@@ -12808,14 +12815,14 @@
         <v>304</v>
       </c>
       <c r="B305" s="33" t="s">
+        <v>889</v>
+      </c>
+      <c r="C305" s="32" t="s">
         <v>890</v>
       </c>
-      <c r="C305" s="32" t="s">
+      <c r="D305" s="33" t="s">
         <v>891</v>
       </c>
-      <c r="D305" s="33" t="s">
-        <v>892</v>
-      </c>
       <c r="E305" s="5">
         <v>1</v>
       </c>
@@ -12826,7 +12833,7 @@
         <v>1</v>
       </c>
       <c r="I305" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="306" s="5" customFormat="1" spans="1:9">
@@ -12834,13 +12841,13 @@
         <v>305</v>
       </c>
       <c r="B306" s="33" t="s">
+        <v>892</v>
+      </c>
+      <c r="C306" s="33" t="s">
         <v>893</v>
       </c>
-      <c r="C306" s="33" t="s">
+      <c r="D306" s="33" t="s">
         <v>894</v>
-      </c>
-      <c r="D306" s="33" t="s">
-        <v>895</v>
       </c>
       <c r="E306" s="5">
         <v>1</v>
@@ -12860,13 +12867,13 @@
         <v>306</v>
       </c>
       <c r="B307" s="31" t="s">
+        <v>895</v>
+      </c>
+      <c r="C307" s="5" t="s">
         <v>896</v>
       </c>
-      <c r="C307" s="5" t="s">
+      <c r="D307" s="5" t="s">
         <v>897</v>
-      </c>
-      <c r="D307" s="5" t="s">
-        <v>898</v>
       </c>
       <c r="E307" s="5">
         <v>1</v>
@@ -12886,25 +12893,25 @@
         <v>307</v>
       </c>
       <c r="B308" s="33" t="s">
+        <v>898</v>
+      </c>
+      <c r="C308" s="32" t="s">
         <v>899</v>
       </c>
-      <c r="C308" s="32" t="s">
+      <c r="D308" s="33" t="s">
         <v>900</v>
       </c>
-      <c r="D308" s="33" t="s">
+      <c r="E308" s="5">
+        <v>1</v>
+      </c>
+      <c r="F308" s="5">
+        <v>1</v>
+      </c>
+      <c r="G308" s="5">
+        <v>1</v>
+      </c>
+      <c r="I308" s="32" t="s">
         <v>901</v>
-      </c>
-      <c r="E308" s="5">
-        <v>1</v>
-      </c>
-      <c r="F308" s="5">
-        <v>1</v>
-      </c>
-      <c r="G308" s="5">
-        <v>1</v>
-      </c>
-      <c r="I308" s="32" t="s">
-        <v>902</v>
       </c>
     </row>
     <row r="309" s="5" customFormat="1" spans="1:9">
@@ -12912,13 +12919,13 @@
         <v>308</v>
       </c>
       <c r="B309" s="33" t="s">
+        <v>902</v>
+      </c>
+      <c r="C309" s="32" t="s">
         <v>903</v>
       </c>
-      <c r="C309" s="32" t="s">
+      <c r="D309" s="33" t="s">
         <v>904</v>
-      </c>
-      <c r="D309" s="33" t="s">
-        <v>905</v>
       </c>
       <c r="E309" s="5">
         <v>1</v>
@@ -12938,14 +12945,14 @@
         <v>309</v>
       </c>
       <c r="B310" s="33" t="s">
+        <v>905</v>
+      </c>
+      <c r="C310" s="32" t="s">
         <v>906</v>
       </c>
-      <c r="C310" s="32" t="s">
+      <c r="D310" s="33" t="s">
         <v>907</v>
       </c>
-      <c r="D310" s="33" t="s">
-        <v>908</v>
-      </c>
       <c r="E310" s="5">
         <v>1</v>
       </c>
@@ -12956,7 +12963,7 @@
         <v>1</v>
       </c>
       <c r="I310" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="311" s="5" customFormat="1" spans="1:9">
@@ -12964,14 +12971,14 @@
         <v>310</v>
       </c>
       <c r="B311" s="33" t="s">
+        <v>908</v>
+      </c>
+      <c r="C311" s="32" t="s">
         <v>909</v>
       </c>
-      <c r="C311" s="32" t="s">
+      <c r="D311" s="33" t="s">
         <v>910</v>
       </c>
-      <c r="D311" s="33" t="s">
-        <v>911</v>
-      </c>
       <c r="E311" s="5">
         <v>0</v>
       </c>
@@ -12982,7 +12989,7 @@
         <v>0</v>
       </c>
       <c r="I311" s="32" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="312" s="5" customFormat="1" spans="1:7">
@@ -12990,13 +12997,13 @@
         <v>311</v>
       </c>
       <c r="B312" s="33" t="s">
+        <v>911</v>
+      </c>
+      <c r="C312" s="32" t="s">
         <v>912</v>
       </c>
-      <c r="C312" s="32" t="s">
+      <c r="D312" s="33" t="s">
         <v>913</v>
-      </c>
-      <c r="D312" s="33" t="s">
-        <v>914</v>
       </c>
       <c r="E312" s="5">
         <v>0</v>
@@ -13012,40 +13019,40 @@
       <c r="A313" s="13">
         <v>312</v>
       </c>
-      <c r="B313" s="41" t="s">
+      <c r="B313" s="42" t="s">
+        <v>914</v>
+      </c>
+      <c r="C313" s="32" t="s">
         <v>915</v>
       </c>
-      <c r="C313" s="32" t="s">
+      <c r="D313" s="33" t="s">
         <v>916</v>
       </c>
-      <c r="D313" s="33" t="s">
+      <c r="E313" s="5">
+        <v>0</v>
+      </c>
+      <c r="F313" s="5">
+        <v>0</v>
+      </c>
+      <c r="G313" s="5">
+        <v>0</v>
+      </c>
+      <c r="I313" s="32" t="s">
         <v>917</v>
-      </c>
-      <c r="E313" s="5">
-        <v>0</v>
-      </c>
-      <c r="F313" s="5">
-        <v>0</v>
-      </c>
-      <c r="G313" s="5">
-        <v>0</v>
-      </c>
-      <c r="I313" s="32" t="s">
-        <v>918</v>
       </c>
     </row>
     <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A314" s="13">
         <v>313</v>
       </c>
-      <c r="B314" s="41" t="s">
+      <c r="B314" s="42" t="s">
+        <v>918</v>
+      </c>
+      <c r="C314" s="32" t="s">
         <v>919</v>
       </c>
-      <c r="C314" s="32" t="s">
+      <c r="D314" s="43" t="s">
         <v>920</v>
-      </c>
-      <c r="D314" s="42" t="s">
-        <v>921</v>
       </c>
       <c r="E314" s="5">
         <v>1</v>
@@ -13065,39 +13072,39 @@
         <v>314</v>
       </c>
       <c r="B315" s="33" t="s">
+        <v>921</v>
+      </c>
+      <c r="C315" s="32" t="s">
         <v>922</v>
       </c>
-      <c r="C315" s="32" t="s">
+      <c r="D315" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="D315" s="33" t="s">
+      <c r="E315" s="5">
+        <v>0</v>
+      </c>
+      <c r="F315" s="5">
+        <v>0</v>
+      </c>
+      <c r="G315" s="5">
+        <v>0</v>
+      </c>
+      <c r="I315" s="32" t="s">
         <v>924</v>
-      </c>
-      <c r="E315" s="5">
-        <v>0</v>
-      </c>
-      <c r="F315" s="5">
-        <v>0</v>
-      </c>
-      <c r="G315" s="5">
-        <v>0</v>
-      </c>
-      <c r="I315" s="32" t="s">
-        <v>925</v>
       </c>
     </row>
     <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
       <c r="A316" s="13">
         <v>315</v>
       </c>
-      <c r="B316" s="41" t="s">
+      <c r="B316" s="42" t="s">
+        <v>925</v>
+      </c>
+      <c r="C316" s="32" t="s">
         <v>926</v>
       </c>
-      <c r="C316" s="32" t="s">
+      <c r="D316" s="43" t="s">
         <v>927</v>
-      </c>
-      <c r="D316" s="42" t="s">
-        <v>928</v>
       </c>
       <c r="E316" s="5">
         <v>0</v>
@@ -13116,12 +13123,12 @@
       <c r="A317" s="13">
         <v>316</v>
       </c>
-      <c r="B317" s="43" t="s">
+      <c r="B317" s="44" t="s">
+        <v>928</v>
+      </c>
+      <c r="C317" s="37" t="s">
         <v>929</v>
       </c>
-      <c r="C317" s="36" t="s">
-        <v>930</v>
-      </c>
       <c r="E317" s="6">
         <v>1</v>
       </c>
@@ -13131,66 +13138,66 @@
       <c r="G317" s="6">
         <v>1</v>
       </c>
-      <c r="I317" s="36" t="s">
-        <v>931</v>
+      <c r="I317" s="46">
+        <v>44368</v>
       </c>
     </row>
     <row r="318" s="6" customFormat="1" spans="1:9">
       <c r="A318" s="13">
         <v>317</v>
       </c>
-      <c r="B318" s="43" t="s">
+      <c r="B318" s="44" t="s">
+        <v>930</v>
+      </c>
+      <c r="C318" s="37" t="s">
+        <v>931</v>
+      </c>
+      <c r="E318" s="6">
+        <v>0</v>
+      </c>
+      <c r="F318" s="6">
+        <v>0</v>
+      </c>
+      <c r="G318" s="6">
+        <v>0</v>
+      </c>
+      <c r="I318" s="37" t="s">
         <v>932</v>
-      </c>
-      <c r="C318" s="36" t="s">
-        <v>933</v>
-      </c>
-      <c r="E318" s="6">
-        <v>1</v>
-      </c>
-      <c r="F318" s="6">
-        <v>1</v>
-      </c>
-      <c r="G318" s="6">
-        <v>1</v>
-      </c>
-      <c r="I318" s="36" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="319" s="6" customFormat="1" spans="1:9">
       <c r="A319" s="13">
         <v>318</v>
       </c>
-      <c r="B319" s="43" t="s">
+      <c r="B319" s="44" t="s">
+        <v>933</v>
+      </c>
+      <c r="C319" s="37" t="s">
+        <v>934</v>
+      </c>
+      <c r="E319" s="6">
+        <v>0</v>
+      </c>
+      <c r="F319" s="6">
+        <v>0</v>
+      </c>
+      <c r="G319" s="6">
+        <v>0</v>
+      </c>
+      <c r="I319" s="37" t="s">
         <v>935</v>
-      </c>
-      <c r="C319" s="36" t="s">
-        <v>936</v>
-      </c>
-      <c r="E319" s="6">
-        <v>0</v>
-      </c>
-      <c r="F319" s="6">
-        <v>0</v>
-      </c>
-      <c r="G319" s="6">
-        <v>0</v>
-      </c>
-      <c r="I319" s="36" t="s">
-        <v>931</v>
       </c>
     </row>
     <row r="320" s="6" customFormat="1" spans="1:9">
       <c r="A320" s="13">
         <v>319</v>
       </c>
-      <c r="B320" s="44" t="s">
+      <c r="B320" s="45" t="s">
+        <v>936</v>
+      </c>
+      <c r="C320" s="37" t="s">
         <v>937</v>
       </c>
-      <c r="C320" s="36" t="s">
-        <v>938</v>
-      </c>
       <c r="E320" s="6">
         <v>1</v>
       </c>
@@ -13200,7 +13207,7 @@
       <c r="G320" s="6">
         <v>1</v>
       </c>
-      <c r="I320" s="36" t="s">
+      <c r="I320" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13208,12 +13215,12 @@
       <c r="A321" s="13">
         <v>320</v>
       </c>
-      <c r="B321" s="45" t="s">
+      <c r="B321" s="47" t="s">
+        <v>938</v>
+      </c>
+      <c r="C321" s="37" t="s">
         <v>939</v>
       </c>
-      <c r="C321" s="36" t="s">
-        <v>940</v>
-      </c>
       <c r="E321" s="6">
         <v>1</v>
       </c>
@@ -13223,7 +13230,7 @@
       <c r="G321" s="6">
         <v>1</v>
       </c>
-      <c r="I321" s="36" t="s">
+      <c r="I321" s="37" t="s">
         <v>12</v>
       </c>
     </row>
@@ -13231,37 +13238,37 @@
       <c r="A322" s="13">
         <v>321</v>
       </c>
-      <c r="B322" s="43" t="s">
+      <c r="B322" s="44" t="s">
+        <v>940</v>
+      </c>
+      <c r="C322" s="37" t="s">
         <v>941</v>
       </c>
-      <c r="C322" s="36" t="s">
+      <c r="D322" s="44" t="s">
         <v>942</v>
       </c>
-      <c r="D322" s="43" t="s">
+      <c r="E322" s="6">
+        <v>1</v>
+      </c>
+      <c r="F322" s="6">
+        <v>1</v>
+      </c>
+      <c r="G322" s="6">
+        <v>1</v>
+      </c>
+      <c r="I322" s="37" t="s">
         <v>943</v>
-      </c>
-      <c r="E322" s="6">
-        <v>1</v>
-      </c>
-      <c r="F322" s="6">
-        <v>1</v>
-      </c>
-      <c r="G322" s="6">
-        <v>1</v>
-      </c>
-      <c r="I322" s="36" t="s">
-        <v>944</v>
       </c>
     </row>
     <row r="323" s="5" customFormat="1" spans="1:9">
       <c r="A323" s="13">
         <v>322</v>
       </c>
-      <c r="B323" s="46" t="s">
+      <c r="B323" s="48" t="s">
+        <v>944</v>
+      </c>
+      <c r="C323" s="32" t="s">
         <v>945</v>
-      </c>
-      <c r="C323" s="32" t="s">
-        <v>946</v>
       </c>
       <c r="D323" s="33"/>
       <c r="E323" s="5">
@@ -13274,7 +13281,7 @@
         <v>0</v>
       </c>
       <c r="I323" s="32" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="324" s="5" customFormat="1" spans="1:9">
@@ -13282,14 +13289,14 @@
         <v>323</v>
       </c>
       <c r="B324" s="33" t="s">
+        <v>946</v>
+      </c>
+      <c r="C324" s="32" t="s">
         <v>947</v>
       </c>
-      <c r="C324" s="32" t="s">
+      <c r="D324" s="33" t="s">
         <v>948</v>
       </c>
-      <c r="D324" s="33" t="s">
-        <v>949</v>
-      </c>
       <c r="E324" s="5">
         <v>0</v>
       </c>
@@ -13300,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="I324" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="325" s="5" customFormat="1" spans="1:9">
@@ -13308,11 +13315,11 @@
         <v>324</v>
       </c>
       <c r="B325" s="33" t="s">
+        <v>949</v>
+      </c>
+      <c r="C325" s="32" t="s">
         <v>950</v>
       </c>
-      <c r="C325" s="32" t="s">
-        <v>951</v>
-      </c>
       <c r="E325" s="5">
         <v>0</v>
       </c>
@@ -13323,7 +13330,7 @@
         <v>0</v>
       </c>
       <c r="I325" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="326" s="5" customFormat="1" spans="1:9">
@@ -13331,28 +13338,28 @@
         <v>325</v>
       </c>
       <c r="B326" s="33" t="s">
+        <v>951</v>
+      </c>
+      <c r="C326" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="C326" s="33" t="s">
+      <c r="D326" s="33" t="s">
         <v>953</v>
       </c>
-      <c r="D326" s="33" t="s">
+      <c r="E326" s="5">
+        <v>0</v>
+      </c>
+      <c r="F326" s="5">
+        <v>0</v>
+      </c>
+      <c r="G326" s="5">
+        <v>0</v>
+      </c>
+      <c r="H326" s="5" t="s">
         <v>954</v>
       </c>
-      <c r="E326" s="5">
-        <v>0</v>
-      </c>
-      <c r="F326" s="5">
-        <v>0</v>
-      </c>
-      <c r="G326" s="5">
-        <v>0</v>
-      </c>
-      <c r="H326" s="5" t="s">
-        <v>955</v>
-      </c>
       <c r="I326" s="32" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="327" s="5" customFormat="1" spans="1:9">
@@ -13360,24 +13367,24 @@
         <v>326</v>
       </c>
       <c r="B327" s="33" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C327" s="32" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="33" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
       <c r="E327" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F327" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G327" s="5">
-        <v>1</v>
-      </c>
-      <c r="I327" s="49">
+        <v>0</v>
+      </c>
+      <c r="I327" s="51">
         <v>44354</v>
       </c>
     </row>
@@ -13386,25 +13393,25 @@
         <v>327</v>
       </c>
       <c r="B328" s="33" t="s">
+        <v>957</v>
+      </c>
+      <c r="C328" s="32" t="s">
         <v>958</v>
       </c>
-      <c r="C328" s="32" t="s">
+      <c r="D328" s="33" t="s">
         <v>959</v>
       </c>
-      <c r="D328" s="33" t="s">
+      <c r="E328" s="5">
+        <v>0</v>
+      </c>
+      <c r="F328" s="5">
+        <v>0</v>
+      </c>
+      <c r="G328" s="5">
+        <v>0</v>
+      </c>
+      <c r="I328" s="32" t="s">
         <v>960</v>
-      </c>
-      <c r="E328" s="5">
-        <v>0</v>
-      </c>
-      <c r="F328" s="5">
-        <v>0</v>
-      </c>
-      <c r="G328" s="5">
-        <v>0</v>
-      </c>
-      <c r="I328" s="32" t="s">
-        <v>961</v>
       </c>
     </row>
     <row r="329" s="5" customFormat="1" spans="1:9">
@@ -13412,13 +13419,13 @@
         <v>328</v>
       </c>
       <c r="B329" s="31" t="s">
+        <v>961</v>
+      </c>
+      <c r="C329" s="32" t="s">
         <v>962</v>
       </c>
-      <c r="C329" s="32" t="s">
+      <c r="D329" s="32" t="s">
         <v>963</v>
-      </c>
-      <c r="D329" s="32" t="s">
-        <v>964</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -13438,13 +13445,13 @@
         <v>329</v>
       </c>
       <c r="B330" s="31" t="s">
+        <v>964</v>
+      </c>
+      <c r="C330" s="32" t="s">
         <v>965</v>
       </c>
-      <c r="C330" s="32" t="s">
+      <c r="D330" s="5" t="s">
         <v>966</v>
-      </c>
-      <c r="D330" s="5" t="s">
-        <v>967</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13464,13 +13471,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="8" t="s">
+        <v>967</v>
+      </c>
+      <c r="C331" s="32" t="s">
         <v>968</v>
       </c>
-      <c r="C331" s="32" t="s">
+      <c r="D331" t="s">
         <v>969</v>
-      </c>
-      <c r="D331" t="s">
-        <v>970</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13490,13 +13497,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="8" t="s">
+        <v>970</v>
+      </c>
+      <c r="C332" s="32" t="s">
         <v>971</v>
       </c>
-      <c r="C332" s="32" t="s">
+      <c r="D332" t="s">
         <v>972</v>
-      </c>
-      <c r="D332" t="s">
-        <v>973</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13516,24 +13523,24 @@
         <v>332</v>
       </c>
       <c r="B333" s="8" t="s">
+        <v>973</v>
+      </c>
+      <c r="C333" s="32" t="s">
         <v>974</v>
       </c>
-      <c r="C333" s="32" t="s">
+      <c r="D333" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="D333" s="28" t="s">
-        <v>976</v>
-      </c>
       <c r="E333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F333" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G333" s="5">
-        <v>1</v>
-      </c>
-      <c r="I333" s="49">
+        <v>0</v>
+      </c>
+      <c r="I333" s="51">
         <v>44355</v>
       </c>
     </row>
@@ -13542,25 +13549,25 @@
         <v>333</v>
       </c>
       <c r="B334" s="8" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C334" s="32" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
+        <v>977</v>
+      </c>
+      <c r="E334" s="5">
+        <v>0</v>
+      </c>
+      <c r="F334" s="5">
+        <v>0</v>
+      </c>
+      <c r="G334" s="5">
+        <v>0</v>
+      </c>
+      <c r="I334" s="32" t="s">
         <v>978</v>
-      </c>
-      <c r="E334" s="5">
-        <v>0</v>
-      </c>
-      <c r="F334" s="5">
-        <v>0</v>
-      </c>
-      <c r="G334" s="5">
-        <v>0</v>
-      </c>
-      <c r="I334" s="32" t="s">
-        <v>979</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13568,22 +13575,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="8" t="s">
+        <v>979</v>
+      </c>
+      <c r="C335" s="32" t="s">
         <v>980</v>
       </c>
-      <c r="C335" s="32" t="s">
+      <c r="E335" s="5">
+        <v>0</v>
+      </c>
+      <c r="F335" s="5">
+        <v>0</v>
+      </c>
+      <c r="G335" s="5">
+        <v>0</v>
+      </c>
+      <c r="I335" s="32" t="s">
         <v>981</v>
-      </c>
-      <c r="E335" s="5">
-        <v>0</v>
-      </c>
-      <c r="F335" s="5">
-        <v>0</v>
-      </c>
-      <c r="G335" s="5">
-        <v>0</v>
-      </c>
-      <c r="I335" s="32" t="s">
-        <v>982</v>
       </c>
     </row>
     <row r="336" spans="1:7">
@@ -13591,13 +13598,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="C336" s="32" t="s">
         <v>983</v>
       </c>
-      <c r="C336" s="32" t="s">
+      <c r="D336" s="28" t="s">
         <v>984</v>
-      </c>
-      <c r="D336" s="28" t="s">
-        <v>985</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13614,13 +13621,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="8" t="s">
+        <v>985</v>
+      </c>
+      <c r="C337" s="32" t="s">
         <v>986</v>
       </c>
-      <c r="C337" s="32" t="s">
+      <c r="D337" s="28" t="s">
         <v>987</v>
-      </c>
-      <c r="D337" s="28" t="s">
-        <v>988</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13637,11 +13644,11 @@
         <v>337</v>
       </c>
       <c r="B338" s="8" t="s">
+        <v>988</v>
+      </c>
+      <c r="C338" t="s">
         <v>989</v>
       </c>
-      <c r="C338" t="s">
-        <v>990</v>
-      </c>
       <c r="E338">
         <v>0</v>
       </c>
@@ -13651,7 +13658,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="50">
+      <c r="I338" s="52">
         <v>44354</v>
       </c>
     </row>
@@ -13659,14 +13666,14 @@
       <c r="A339" s="13">
         <v>338</v>
       </c>
-      <c r="B339" s="47" t="s">
+      <c r="B339" s="49" t="s">
+        <v>990</v>
+      </c>
+      <c r="C339" t="s">
         <v>991</v>
       </c>
-      <c r="C339" t="s">
+      <c r="D339" s="50" t="s">
         <v>992</v>
-      </c>
-      <c r="D339" s="48" t="s">
-        <v>993</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13682,52 +13689,52 @@
       <c r="A340" s="5">
         <v>339</v>
       </c>
-      <c r="B340" s="47" t="s">
+      <c r="B340" s="49" t="s">
+        <v>993</v>
+      </c>
+      <c r="C340" t="s">
         <v>994</v>
       </c>
-      <c r="C340" t="s">
+      <c r="D340" s="49" t="s">
         <v>995</v>
       </c>
-      <c r="D340" s="47" t="s">
-        <v>996</v>
-      </c>
       <c r="E340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F340" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G340" s="5">
-        <v>0</v>
-      </c>
-      <c r="I340" s="32" t="s">
-        <v>997</v>
+        <v>1</v>
+      </c>
+      <c r="I340" s="46">
+        <v>44368</v>
       </c>
     </row>
     <row r="341" customFormat="1" ht="15.75" spans="1:9">
       <c r="A341" s="5">
         <v>340</v>
       </c>
-      <c r="B341" s="47" t="s">
+      <c r="B341" s="49" t="s">
+        <v>996</v>
+      </c>
+      <c r="C341" t="s">
+        <v>997</v>
+      </c>
+      <c r="D341" s="49" t="s">
         <v>998</v>
       </c>
-      <c r="C341" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>999</v>
-      </c>
-      <c r="D341" s="47" t="s">
-        <v>1000</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>1001</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13735,14 +13742,14 @@
         <v>341</v>
       </c>
       <c r="B342" s="8" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C342" t="s">
+        <v>1001</v>
+      </c>
+      <c r="D342" t="s">
         <v>1002</v>
       </c>
-      <c r="C342" t="s">
-        <v>1003</v>
-      </c>
-      <c r="D342" t="s">
-        <v>1004</v>
-      </c>
       <c r="E342">
         <v>1</v>
       </c>
@@ -13753,7 +13760,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
     </row>
   </sheetData>
@@ -13783,7 +13790,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -3597,22 +3597,22 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_019_dlphb</t>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_018_zongzi</t>
-  </si>
-  <si>
-    <t>粽子掉落</t>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_012_hhl</t>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_020</t>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3753,7 +3753,7 @@
     <t>act_ty_gifts_style/act_003_hflb</t>
   </si>
   <si>
-    <t>欢乐礼包</t>
+    <t>话费礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3836,8 +3836,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
@@ -3922,42 +3922,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3978,71 +3952,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4057,6 +3968,95 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4065,7 +4065,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4122,13 +4122,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4140,25 +4152,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4176,7 +4176,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4188,109 +4290,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,11 +4319,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4352,17 +4358,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4374,15 +4380,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,17 +4399,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4424,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,139 +4436,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4721,9 +4721,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -5052,11 +5049,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C270" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C275" sqref="C275"/>
+      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12049,13 +12046,13 @@
         <v>797</v>
       </c>
       <c r="E275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="46">
         <v>44368</v>
@@ -13153,13 +13150,13 @@
         <v>931</v>
       </c>
       <c r="E318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="37" t="s">
         <v>932</v>
@@ -13176,13 +13173,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>935</v>
@@ -13384,7 +13381,7 @@
       <c r="G327" s="5">
         <v>0</v>
       </c>
-      <c r="I327" s="51">
+      <c r="I327" s="46">
         <v>44354</v>
       </c>
     </row>
@@ -13540,7 +13537,7 @@
       <c r="G333" s="5">
         <v>0</v>
       </c>
-      <c r="I333" s="51">
+      <c r="I333" s="46">
         <v>44355</v>
       </c>
     </row>
@@ -13558,13 +13555,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" s="32" t="s">
         <v>978</v>
@@ -13581,13 +13578,13 @@
         <v>980</v>
       </c>
       <c r="E335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" s="32" t="s">
         <v>981</v>
@@ -13658,7 +13655,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="52">
+      <c r="I338" s="51">
         <v>44354</v>
       </c>
     </row>
@@ -13699,13 +13696,13 @@
         <v>995</v>
       </c>
       <c r="E340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I340" s="46">
         <v>44368</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -3597,22 +3597,22 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_016_dlphb</t>
+    <t>act_ty_sjb_style/act_020_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_016_huanle</t>
-  </si>
-  <si>
-    <t>欢乐券掉落</t>
+    <t>act_ty_by_drop_style/act_019_xigua</t>
+  </si>
+  <si>
+    <t>西瓜掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_011_hhl</t>
+    <t>act_ty_by_hhl_style/act_009_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <t>sys_act_base_style/sys_act_base_weekly_021</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,10 +3750,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hflb</t>
-  </si>
-  <si>
-    <t>话费礼包</t>
+    <t>act_ty_gifts_style/act_004_sxlb</t>
+  </si>
+  <si>
+    <t>盛夏礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3835,10 +3835,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="34">
     <font>
@@ -3922,9 +3922,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3934,44 +3934,6 @@
       <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -3986,6 +3948,22 @@
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4005,10 +3983,25 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4020,7 +4013,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4036,11 +4035,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -4049,26 +4043,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -4122,6 +4122,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -4134,7 +4164,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4146,55 +4236,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4206,7 +4272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4218,79 +4284,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,21 +4320,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -4358,21 +4343,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -4380,6 +4350,39 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4399,20 +4402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4424,10 +4424,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,19 +4436,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4457,116 +4457,116 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -5049,11 +5049,11 @@
   <dimension ref="A1:I342"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C290" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D303" sqref="D303"/>
+      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$342</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$346</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1292" uniqueCount="1004">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1016">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3597,16 +3597,16 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_020_dlphb</t>
+    <t>act_ty_sjb_style/act_021_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_019_xigua</t>
-  </si>
-  <si>
-    <t>西瓜掉落</t>
+    <t>act_ty_by_drop_style/act_020_pjq</t>
+  </si>
+  <si>
+    <t>啤酒券掉落</t>
   </si>
   <si>
     <t>5月24日23:59:59</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_021</t>
+    <t>sys_act_base_style/sys_act_base_weekly_023</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,10 +3750,10 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_004_sxlb</t>
-  </si>
-  <si>
-    <t>盛夏礼包</t>
+    <t>act_ty_gifts_style/act_005_cjlb</t>
+  </si>
+  <si>
+    <t>抽奖礼包</t>
   </si>
   <si>
     <t>通用礼包皮肤配置</t>
@@ -3777,7 +3777,7 @@
     <t>Act_053_XCNSManager</t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_003</t>
+    <t>act_ty_zp1_style/act_ty_zp1_005</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
@@ -3820,6 +3820,42 @@
   </si>
   <si>
     <t>Act_042_XSHBManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_bzzy</t>
+  </si>
+  <si>
+    <t>宝藏章鱼</t>
+  </si>
+  <si>
+    <t>FishFarmBZZYManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_daytask</t>
+  </si>
+  <si>
+    <t>水族馆每日任务</t>
+  </si>
+  <si>
+    <t>FishFarmDailyTaskManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_jlspring</t>
+  </si>
+  <si>
+    <t>精灵泉水</t>
+  </si>
+  <si>
+    <t>FishFarmJlSpringManager</t>
+  </si>
+  <si>
+    <t>sys_fishfarm_simplicity</t>
+  </si>
+  <si>
+    <t>水族馆</t>
+  </si>
+  <si>
+    <t>SYSFishFarmSimplicityManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3835,8 +3871,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
@@ -3924,14 +3960,44 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3951,93 +4017,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4052,8 +4033,63 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4122,7 +4158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4134,13 +4176,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4158,67 +4212,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4236,7 +4230,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4248,13 +4260,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4266,7 +4308,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4278,19 +4320,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4319,17 +4355,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4343,13 +4373,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4369,20 +4403,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,17 +4433,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4424,10 +4460,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4436,133 +4472,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -5046,21 +5082,21 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I342"/>
+  <dimension ref="A1:I346"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C315" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C321" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C345" sqref="C345"/>
+      <selection pane="bottomRight" activeCell="D335" sqref="D335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="5" customWidth="1"/>
     <col min="2" max="2" width="39.5" style="8" customWidth="1"/>
-    <col min="3" max="3" width="57" customWidth="1"/>
+    <col min="3" max="3" width="47.125" customWidth="1"/>
     <col min="4" max="4" width="42" customWidth="1"/>
     <col min="5" max="5" width="19.75" customWidth="1"/>
     <col min="6" max="6" width="17.125" customWidth="1"/>
@@ -13173,13 +13209,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G319" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I319" s="37" t="s">
         <v>935</v>
@@ -13529,13 +13565,13 @@
         <v>975</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="46">
         <v>44355</v>
@@ -13555,13 +13591,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G334" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I334" s="32" t="s">
         <v>978</v>
@@ -13578,13 +13614,13 @@
         <v>980</v>
       </c>
       <c r="E335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G335" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I335" s="32" t="s">
         <v>981</v>
@@ -13647,13 +13683,13 @@
         <v>989</v>
       </c>
       <c r="E338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="51">
         <v>44354</v>
@@ -13760,8 +13796,112 @@
         <v>999</v>
       </c>
     </row>
+    <row r="343" spans="1:9">
+      <c r="A343" s="5">
+        <v>342</v>
+      </c>
+      <c r="B343" s="8" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C343" t="s">
+        <v>1004</v>
+      </c>
+      <c r="D343" t="s">
+        <v>1005</v>
+      </c>
+      <c r="E343">
+        <v>1</v>
+      </c>
+      <c r="F343">
+        <v>1</v>
+      </c>
+      <c r="G343">
+        <v>1</v>
+      </c>
+      <c r="I343" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9">
+      <c r="A344" s="5">
+        <v>343</v>
+      </c>
+      <c r="B344" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C344" t="s">
+        <v>1007</v>
+      </c>
+      <c r="D344" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E344">
+        <v>1</v>
+      </c>
+      <c r="F344">
+        <v>1</v>
+      </c>
+      <c r="G344">
+        <v>1</v>
+      </c>
+      <c r="I344" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9">
+      <c r="A345" s="5">
+        <v>344</v>
+      </c>
+      <c r="B345" s="8" t="s">
+        <v>1009</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1010</v>
+      </c>
+      <c r="D345" t="s">
+        <v>1011</v>
+      </c>
+      <c r="E345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <v>1</v>
+      </c>
+      <c r="G345">
+        <v>1</v>
+      </c>
+      <c r="I345" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9">
+      <c r="A346" s="5">
+        <v>345</v>
+      </c>
+      <c r="B346" s="8" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D346" t="s">
+        <v>1014</v>
+      </c>
+      <c r="E346">
+        <v>1</v>
+      </c>
+      <c r="F346">
+        <v>1</v>
+      </c>
+      <c r="G346">
+        <v>1</v>
+      </c>
+      <c r="I346" t="s">
+        <v>999</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H342">
+  <autoFilter ref="A1:H346">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13787,7 +13927,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1003</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -11,14 +11,14 @@
     <sheet name="|lua说明" sheetId="8" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$346</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'config|游戏的所有模块'!$A$1:$H$347</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1308" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3597,13 +3597,13 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_022_dlphb</t>
+    <t>act_ty_sjb_style/act_023_dlphb</t>
   </si>
   <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_020_pjq</t>
+    <t>act_ty_by_drop_style/act_021_lxq</t>
   </si>
   <si>
     <t>啤酒券掉落</t>
@@ -3612,7 +3612,7 @@
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_009_hhl</t>
+    <t>act_ty_by_hhl_style/act_013_hhl</t>
   </si>
   <si>
     <t>换好礼皮肤</t>
@@ -3627,7 +3627,7 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_024</t>
+    <t>sys_act_base_style/sys_act_base_weekly_025</t>
   </si>
   <si>
     <t>扩展活动皮肤</t>
@@ -3750,7 +3750,7 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_005_cjlb</t>
+    <t>act_ty_gifts_style/act_005_khlb</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -3856,6 +3856,15 @@
   </si>
   <si>
     <t>SYSFishFarmSimplicityManager</t>
+  </si>
+  <si>
+    <t>act_060_yxcard</t>
+  </si>
+  <si>
+    <t>消消乐游戏卡</t>
+  </si>
+  <si>
+    <t>Act_060_YXCardManager</t>
   </si>
   <si>
     <t xml:space="preserve">配置里的lua脚本是活动的启动脚本，可能是Logic也可能是一个活动的界面脚本
@@ -3952,14 +3961,95 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3974,24 +4064,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -4003,59 +4078,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -4071,30 +4101,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -4157,7 +4166,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4169,7 +4202,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4181,7 +4214,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4193,31 +4244,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4229,61 +4286,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4301,13 +4304,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4320,12 +4335,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4355,16 +4364,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4384,11 +4402,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4402,17 +4426,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4428,15 +4446,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -4459,10 +4468,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -4471,139 +4480,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4772,6 +4781,7 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -5096,14 +5106,14 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I346"/>
+  <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E335" sqref="E335:G335"/>
+      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12096,13 +12106,13 @@
         <v>797</v>
       </c>
       <c r="E275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G275" s="6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" s="50">
         <v>44368</v>
@@ -13200,13 +13210,13 @@
         <v>931</v>
       </c>
       <c r="E318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G318" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I318" s="41" t="s">
         <v>932</v>
@@ -13223,13 +13233,13 @@
         <v>934</v>
       </c>
       <c r="E319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G319" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I319" s="41" t="s">
         <v>935</v>
@@ -13605,13 +13615,13 @@
         <v>977</v>
       </c>
       <c r="E334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I334" s="33" t="s">
         <v>978</v>
@@ -13628,13 +13638,13 @@
         <v>980</v>
       </c>
       <c r="E335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I335" s="33" t="s">
         <v>981</v>
@@ -13705,7 +13715,7 @@
       <c r="G338">
         <v>0</v>
       </c>
-      <c r="I338" s="56">
+      <c r="I338" s="57">
         <v>44354</v>
       </c>
     </row>
@@ -13914,8 +13924,34 @@
         <v>999</v>
       </c>
     </row>
+    <row r="347" customFormat="1" spans="1:9">
+      <c r="A347" s="14">
+        <v>346</v>
+      </c>
+      <c r="B347" s="33" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C347" s="56" t="s">
+        <v>1016</v>
+      </c>
+      <c r="D347" s="29" t="s">
+        <v>1017</v>
+      </c>
+      <c r="E347" s="5">
+        <v>1</v>
+      </c>
+      <c r="F347" s="5">
+        <v>1</v>
+      </c>
+      <c r="G347" s="5">
+        <v>1</v>
+      </c>
+      <c r="I347" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:H346">
+  <autoFilter ref="A1:H347">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -13941,7 +13977,7 @@
   <sheetData>
     <row r="1" ht="153" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="2" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_7.27\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="config|游戏的所有模块" sheetId="7" r:id="rId1"/>
@@ -18,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1020">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -28,7 +33,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>key|key</t>
     </r>
@@ -501,7 +506,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>vip</t>
     </r>
@@ -512,7 +517,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -530,7 +535,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>(</t>
     </r>
@@ -548,7 +553,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>VIP</t>
     </r>
@@ -566,7 +571,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>)</t>
     </r>
@@ -664,7 +669,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>jyfl</t>
     </r>
@@ -1257,7 +1262,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1352,7 +1357,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1387,7 +1392,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1422,7 +1427,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1440,7 +1445,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
@@ -1466,7 +1471,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1501,7 +1506,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1536,7 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>_</t>
     </r>
@@ -1639,7 +1644,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1674,7 +1679,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1709,7 +1714,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1744,7 +1749,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1779,7 +1784,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1814,7 +1819,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1849,7 +1854,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>-</t>
     </r>
@@ -1978,7 +1983,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>0</t>
     </r>
@@ -2004,7 +2009,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>3D</t>
     </r>
@@ -3461,7 +3466,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="Segoe UI"/>
-        <charset val="134"/>
+        <family val="2"/>
       </rPr>
       <t>--</t>
     </r>
@@ -3597,24 +3602,12 @@
     <t>Act_Ty_QJD1Manager</t>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_023_dlphb</t>
-  </si>
-  <si>
     <t>掉落排行榜皮肤（消耗）</t>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_021_lxq</t>
-  </si>
-  <si>
-    <t>啤酒券掉落</t>
-  </si>
-  <si>
     <t>5月24日23:59:59</t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_013_hhl</t>
-  </si>
-  <si>
     <t>换好礼皮肤</t>
   </si>
   <si>
@@ -3627,9 +3620,6 @@
     <t>周常活动皮肤</t>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_025</t>
-  </si>
-  <si>
     <t>扩展活动皮肤</t>
   </si>
   <si>
@@ -3748,9 +3738,6 @@
   </si>
   <si>
     <t>通用礼包模板，永久</t>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_005_khlb</t>
   </si>
   <si>
     <t>抽奖礼包</t>
@@ -3874,18 +3861,40 @@
 GotoUI 根据参数显示活动的界面
 </t>
   </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_011_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_016_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_017</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_016_huanle</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>欢乐券掉落</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_003_hflb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>话费礼包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="33">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3897,7 +3906,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3909,13 +3918,13 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -3933,13 +3942,13 @@
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -3951,93 +3960,17 @@
       <sz val="11"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10.5"/>
       <color rgb="FF171A1D"/>
       <name val="Segoe UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -4049,73 +3982,33 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF111F2C"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="9"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF111F2C"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="38">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4130,19 +4023,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -4164,182 +4057,8 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -4362,257 +4081,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4643,16 +4120,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="50" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -4785,64 +4262,26 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 4" xfId="50"/>
+    <cellStyle name="常规 2" xfId="1"/>
+    <cellStyle name="常规 4" xfId="2"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5100,20 +4539,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C320" activePane="bottomRight" state="frozen"/>
-      <selection/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E332" sqref="E332"/>
+      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -5129,7 +4567,7 @@
     <col min="9" max="9" width="30.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="78" customHeight="1" spans="1:9">
+    <row r="1" spans="1:9" ht="78" customHeight="1">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5158,7 +4596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="17.1" customHeight="1" spans="1:9">
+    <row r="2" spans="1:9" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="14">
         <v>1</v>
       </c>
@@ -6482,7 +5920,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" ht="24.75" customHeight="1" spans="1:9">
+    <row r="53" spans="1:9" ht="24.75" customHeight="1">
       <c r="A53" s="14">
         <v>52</v>
       </c>
@@ -6664,7 +6102,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="60" s="2" customFormat="1" spans="1:9">
+    <row r="60" spans="1:9" s="2" customFormat="1">
       <c r="A60" s="17">
         <v>59</v>
       </c>
@@ -7028,7 +6466,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" s="3" customFormat="1" spans="1:9">
+    <row r="74" spans="1:9" s="3" customFormat="1">
       <c r="A74" s="14">
         <v>73</v>
       </c>
@@ -7080,7 +6518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="76" s="4" customFormat="1" spans="1:9">
+    <row r="76" spans="1:9" s="4" customFormat="1">
       <c r="A76" s="14">
         <v>75</v>
       </c>
@@ -8198,7 +7636,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="119" s="2" customFormat="1" spans="1:9">
+    <row r="119" spans="1:9" s="2" customFormat="1">
       <c r="A119" s="17">
         <v>118</v>
       </c>
@@ -9768,7 +9206,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="180" s="2" customFormat="1" spans="1:9">
+    <row r="180" spans="1:9" s="2" customFormat="1">
       <c r="A180" s="14">
         <v>179</v>
       </c>
@@ -9792,7 +9230,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="181" s="2" customFormat="1" spans="1:9">
+    <row r="181" spans="1:9" s="2" customFormat="1">
       <c r="A181" s="14">
         <v>180</v>
       </c>
@@ -9816,7 +9254,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="182" s="2" customFormat="1" spans="1:9">
+    <row r="182" spans="1:9" s="2" customFormat="1">
       <c r="A182" s="14">
         <v>181</v>
       </c>
@@ -10838,7 +10276,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="226" spans="1:7">
+    <row r="226" spans="1:9">
       <c r="A226" s="14">
         <v>225</v>
       </c>
@@ -10861,7 +10299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="227" spans="1:7">
+    <row r="227" spans="1:9">
       <c r="A227" s="14">
         <v>226</v>
       </c>
@@ -10884,7 +10322,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="228" spans="1:7">
+    <row r="228" spans="1:9">
       <c r="A228" s="14">
         <v>227</v>
       </c>
@@ -10907,7 +10345,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:7">
+    <row r="229" spans="1:9">
       <c r="A229" s="14">
         <v>228</v>
       </c>
@@ -10930,7 +10368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="230" spans="1:7">
+    <row r="230" spans="1:9">
       <c r="A230" s="14">
         <v>229</v>
       </c>
@@ -10953,7 +10391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="231" spans="1:7">
+    <row r="231" spans="1:9">
       <c r="A231" s="14">
         <v>230</v>
       </c>
@@ -10976,7 +10414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:7">
+    <row r="232" spans="1:9">
       <c r="A232" s="14">
         <v>231</v>
       </c>
@@ -10999,7 +10437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:7">
+    <row r="233" spans="1:9">
       <c r="A233" s="14">
         <v>232</v>
       </c>
@@ -11022,7 +10460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="234" spans="1:7">
+    <row r="234" spans="1:9">
       <c r="A234" s="14">
         <v>233</v>
       </c>
@@ -11592,7 +11030,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="256" s="5" customFormat="1" spans="1:9">
+    <row r="256" spans="1:9" s="5" customFormat="1">
       <c r="A256" s="14">
         <v>255</v>
       </c>
@@ -11618,7 +11056,7 @@
         <v>739</v>
       </c>
     </row>
-    <row r="257" s="5" customFormat="1" spans="1:9">
+    <row r="257" spans="1:9" s="5" customFormat="1">
       <c r="A257" s="14">
         <v>256</v>
       </c>
@@ -11644,7 +11082,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="258" s="5" customFormat="1" spans="1:9">
+    <row r="258" spans="1:9" s="5" customFormat="1">
       <c r="A258" s="14">
         <v>257</v>
       </c>
@@ -11670,7 +11108,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="259" s="5" customFormat="1" spans="1:9">
+    <row r="259" spans="1:9" s="5" customFormat="1">
       <c r="A259" s="14">
         <v>258</v>
       </c>
@@ -11696,7 +11134,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="260" s="5" customFormat="1" spans="1:9">
+    <row r="260" spans="1:9" s="5" customFormat="1">
       <c r="A260" s="14">
         <v>259</v>
       </c>
@@ -11774,7 +11212,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="263" s="5" customFormat="1" spans="1:9">
+    <row r="263" spans="1:9" s="5" customFormat="1">
       <c r="A263" s="14">
         <v>262</v>
       </c>
@@ -11800,7 +11238,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="264" s="5" customFormat="1" spans="1:9">
+    <row r="264" spans="1:9" s="5" customFormat="1">
       <c r="A264" s="14">
         <v>263</v>
       </c>
@@ -11826,7 +11264,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="265" s="5" customFormat="1" spans="1:9">
+    <row r="265" spans="1:9" s="5" customFormat="1">
       <c r="A265" s="14">
         <v>264</v>
       </c>
@@ -11852,7 +11290,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="266" s="5" customFormat="1" spans="1:9">
+    <row r="266" spans="1:9" s="5" customFormat="1">
       <c r="A266" s="14">
         <v>265</v>
       </c>
@@ -11878,7 +11316,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="267" s="5" customFormat="1" spans="1:9">
+    <row r="267" spans="1:9" s="5" customFormat="1">
       <c r="A267" s="14">
         <v>266</v>
       </c>
@@ -11904,7 +11342,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="268" s="5" customFormat="1" spans="1:9">
+    <row r="268" spans="1:9" s="5" customFormat="1">
       <c r="A268" s="14">
         <v>267</v>
       </c>
@@ -12092,7 +11530,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="275" s="6" customFormat="1" spans="1:9">
+    <row r="275" spans="1:9" s="6" customFormat="1">
       <c r="A275" s="35">
         <v>274</v>
       </c>
@@ -12118,7 +11556,7 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="276" s="7" customFormat="1" spans="1:9">
+    <row r="276" spans="1:9" s="7" customFormat="1">
       <c r="A276" s="39">
         <v>275</v>
       </c>
@@ -12141,7 +11579,7 @@
         <v>800</v>
       </c>
     </row>
-    <row r="277" s="5" customFormat="1" ht="15.75" customHeight="1" spans="1:9">
+    <row r="277" spans="1:9" s="5" customFormat="1" ht="15.75" customHeight="1">
       <c r="A277" s="14">
         <v>276</v>
       </c>
@@ -12295,7 +11733,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="283" s="8" customFormat="1" ht="17.25" customHeight="1" spans="1:9">
+    <row r="283" spans="1:9" s="8" customFormat="1" ht="17.25" customHeight="1">
       <c r="A283" s="14">
         <v>282</v>
       </c>
@@ -12321,7 +11759,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="284" s="8" customFormat="1" spans="1:9">
+    <row r="284" spans="1:9" s="8" customFormat="1">
       <c r="A284" s="14">
         <v>283</v>
       </c>
@@ -12373,7 +11811,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="286" s="8" customFormat="1" spans="1:9">
+    <row r="286" spans="1:9" s="8" customFormat="1">
       <c r="A286" s="14">
         <v>285</v>
       </c>
@@ -12399,7 +11837,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="287" s="8" customFormat="1" spans="1:9">
+    <row r="287" spans="1:9" s="8" customFormat="1">
       <c r="A287" s="14">
         <v>286</v>
       </c>
@@ -12425,7 +11863,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="288" s="7" customFormat="1" spans="1:9">
+    <row r="288" spans="1:9" s="7" customFormat="1">
       <c r="A288" s="39">
         <v>287</v>
       </c>
@@ -12451,7 +11889,7 @@
         <v>723</v>
       </c>
     </row>
-    <row r="289" s="8" customFormat="1" spans="1:9">
+    <row r="289" spans="1:9" s="8" customFormat="1">
       <c r="A289" s="14">
         <v>288</v>
       </c>
@@ -12477,7 +11915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="290" s="8" customFormat="1" spans="1:9">
+    <row r="290" spans="1:9" s="8" customFormat="1">
       <c r="A290" s="14">
         <v>289</v>
       </c>
@@ -12503,7 +11941,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="291" s="8" customFormat="1" spans="1:9">
+    <row r="291" spans="1:9" s="8" customFormat="1">
       <c r="A291" s="14">
         <v>290</v>
       </c>
@@ -12529,7 +11967,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="292" s="8" customFormat="1" spans="1:9">
+    <row r="292" spans="1:9" s="8" customFormat="1">
       <c r="A292" s="14">
         <v>291</v>
       </c>
@@ -12555,7 +11993,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="293" s="8" customFormat="1" spans="1:9">
+    <row r="293" spans="1:9" s="8" customFormat="1">
       <c r="A293" s="14">
         <v>292</v>
       </c>
@@ -12581,7 +12019,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="294" s="8" customFormat="1" spans="1:9">
+    <row r="294" spans="1:9" s="8" customFormat="1">
       <c r="A294" s="14">
         <v>293</v>
       </c>
@@ -12607,7 +12045,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="295" s="8" customFormat="1" spans="1:9">
+    <row r="295" spans="1:9" s="8" customFormat="1">
       <c r="A295" s="14">
         <v>294</v>
       </c>
@@ -12711,7 +12149,7 @@
         <v>865</v>
       </c>
     </row>
-    <row r="299" s="5" customFormat="1" spans="1:9">
+    <row r="299" spans="1:9" s="5" customFormat="1">
       <c r="A299" s="14">
         <v>298</v>
       </c>
@@ -12737,7 +12175,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="300" s="5" customFormat="1" spans="1:9">
+    <row r="300" spans="1:9" s="5" customFormat="1">
       <c r="A300" s="14">
         <v>299</v>
       </c>
@@ -12763,7 +12201,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="301" s="5" customFormat="1" spans="1:9">
+    <row r="301" spans="1:9" s="5" customFormat="1">
       <c r="A301" s="14">
         <v>300</v>
       </c>
@@ -12789,7 +12227,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="302" s="5" customFormat="1" spans="1:9">
+    <row r="302" spans="1:9" s="5" customFormat="1">
       <c r="A302" s="14">
         <v>301</v>
       </c>
@@ -12815,7 +12253,7 @@
         <v>875</v>
       </c>
     </row>
-    <row r="303" s="5" customFormat="1" spans="1:9">
+    <row r="303" spans="1:9" s="5" customFormat="1">
       <c r="A303" s="14">
         <v>302</v>
       </c>
@@ -12841,7 +12279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="304" s="5" customFormat="1" spans="1:9">
+    <row r="304" spans="1:9" s="5" customFormat="1">
       <c r="A304" s="14">
         <v>303</v>
       </c>
@@ -12867,7 +12305,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="305" s="5" customFormat="1" spans="1:9">
+    <row r="305" spans="1:9" s="5" customFormat="1">
       <c r="A305" s="14">
         <v>304</v>
       </c>
@@ -12893,7 +12331,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="306" s="5" customFormat="1" spans="1:9">
+    <row r="306" spans="1:9" s="5" customFormat="1">
       <c r="A306" s="14">
         <v>305</v>
       </c>
@@ -12919,7 +12357,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="307" s="5" customFormat="1" spans="1:9">
+    <row r="307" spans="1:9" s="5" customFormat="1">
       <c r="A307" s="14">
         <v>306</v>
       </c>
@@ -12945,7 +12383,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="308" s="5" customFormat="1" spans="1:9">
+    <row r="308" spans="1:9" s="5" customFormat="1">
       <c r="A308" s="14">
         <v>307</v>
       </c>
@@ -12971,7 +12409,7 @@
         <v>901</v>
       </c>
     </row>
-    <row r="309" s="5" customFormat="1" spans="1:9">
+    <row r="309" spans="1:9" s="5" customFormat="1">
       <c r="A309" s="14">
         <v>308</v>
       </c>
@@ -12997,7 +12435,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="310" s="5" customFormat="1" spans="1:9">
+    <row r="310" spans="1:9" s="5" customFormat="1">
       <c r="A310" s="14">
         <v>309</v>
       </c>
@@ -13023,7 +12461,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="311" s="5" customFormat="1" spans="1:9">
+    <row r="311" spans="1:9" s="5" customFormat="1">
       <c r="A311" s="14">
         <v>310</v>
       </c>
@@ -13049,7 +12487,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="312" s="5" customFormat="1" spans="1:7">
+    <row r="312" spans="1:9" s="5" customFormat="1">
       <c r="A312" s="14">
         <v>311</v>
       </c>
@@ -13072,7 +12510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="313" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="313" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A313" s="14">
         <v>312</v>
       </c>
@@ -13098,7 +12536,7 @@
         <v>917</v>
       </c>
     </row>
-    <row r="314" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="314" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A314" s="14">
         <v>313</v>
       </c>
@@ -13124,7 +12562,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="315" s="5" customFormat="1" spans="1:9">
+    <row r="315" spans="1:9" s="5" customFormat="1">
       <c r="A315" s="14">
         <v>314</v>
       </c>
@@ -13150,7 +12588,7 @@
         <v>924</v>
       </c>
     </row>
-    <row r="316" s="5" customFormat="1" ht="17.25" spans="1:9">
+    <row r="316" spans="1:9" s="5" customFormat="1" ht="17.25">
       <c r="A316" s="14">
         <v>315</v>
       </c>
@@ -13176,15 +12614,15 @@
         <v>315</v>
       </c>
     </row>
-    <row r="317" s="7" customFormat="1" spans="1:9">
+    <row r="317" spans="1:9" s="7" customFormat="1">
       <c r="A317" s="14">
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C317" s="41" t="s">
         <v>928</v>
-      </c>
-      <c r="C317" s="41" t="s">
-        <v>929</v>
       </c>
       <c r="E317" s="7">
         <v>1</v>
@@ -13199,15 +12637,15 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="318" s="7" customFormat="1" spans="1:9">
+    <row r="318" spans="1:9" s="7" customFormat="1">
       <c r="A318" s="14">
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>930</v>
-      </c>
-      <c r="C318" s="41" t="s">
-        <v>931</v>
+        <v>1016</v>
+      </c>
+      <c r="C318" s="58" t="s">
+        <v>1017</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -13219,18 +12657,18 @@
         <v>1</v>
       </c>
       <c r="I318" s="41" t="s">
-        <v>932</v>
-      </c>
-    </row>
-    <row r="319" s="7" customFormat="1" spans="1:9">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" s="7" customFormat="1">
       <c r="A319" s="14">
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>933</v>
+        <v>1013</v>
       </c>
       <c r="C319" s="41" t="s">
-        <v>934</v>
+        <v>930</v>
       </c>
       <c r="E319" s="7">
         <v>1</v>
@@ -13242,18 +12680,18 @@
         <v>1</v>
       </c>
       <c r="I319" s="41" t="s">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="320" s="7" customFormat="1" spans="1:9">
+        <v>931</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" s="7" customFormat="1">
       <c r="A320" s="14">
         <v>319</v>
       </c>
       <c r="B320" s="49" t="s">
-        <v>936</v>
+        <v>932</v>
       </c>
       <c r="C320" s="41" t="s">
-        <v>937</v>
+        <v>933</v>
       </c>
       <c r="E320" s="7">
         <v>1</v>
@@ -13268,15 +12706,15 @@
         <v>12</v>
       </c>
     </row>
-    <row r="321" s="7" customFormat="1" spans="1:9">
+    <row r="321" spans="1:9" s="7" customFormat="1">
       <c r="A321" s="14">
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>938</v>
+        <v>1015</v>
       </c>
       <c r="C321" s="41" t="s">
-        <v>939</v>
+        <v>934</v>
       </c>
       <c r="E321" s="7">
         <v>1</v>
@@ -13291,18 +12729,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="322" s="7" customFormat="1" spans="1:9">
+    <row r="322" spans="1:9" s="7" customFormat="1">
       <c r="A322" s="14">
         <v>321</v>
       </c>
       <c r="B322" s="48" t="s">
-        <v>940</v>
+        <v>935</v>
       </c>
       <c r="C322" s="41" t="s">
-        <v>941</v>
+        <v>936</v>
       </c>
       <c r="D322" s="48" t="s">
-        <v>942</v>
+        <v>937</v>
       </c>
       <c r="E322" s="7">
         <v>1</v>
@@ -13314,18 +12752,18 @@
         <v>1</v>
       </c>
       <c r="I322" s="41" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="323" s="5" customFormat="1" spans="1:9">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" s="5" customFormat="1">
       <c r="A323" s="14">
         <v>322</v>
       </c>
       <c r="B323" s="53" t="s">
-        <v>944</v>
+        <v>939</v>
       </c>
       <c r="C323" s="33" t="s">
-        <v>945</v>
+        <v>940</v>
       </c>
       <c r="D323" s="34"/>
       <c r="E323" s="5">
@@ -13338,21 +12776,21 @@
         <v>0</v>
       </c>
       <c r="I323" s="33" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="324" s="5" customFormat="1" spans="1:9">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" s="5" customFormat="1">
       <c r="A324" s="14">
         <v>323</v>
       </c>
       <c r="B324" s="34" t="s">
-        <v>946</v>
+        <v>941</v>
       </c>
       <c r="C324" s="33" t="s">
-        <v>947</v>
+        <v>942</v>
       </c>
       <c r="D324" s="34" t="s">
-        <v>948</v>
+        <v>943</v>
       </c>
       <c r="E324" s="5">
         <v>0</v>
@@ -13367,15 +12805,15 @@
         <v>924</v>
       </c>
     </row>
-    <row r="325" s="5" customFormat="1" spans="1:9">
+    <row r="325" spans="1:9" s="5" customFormat="1">
       <c r="A325" s="14">
         <v>324</v>
       </c>
       <c r="B325" s="34" t="s">
-        <v>949</v>
+        <v>944</v>
       </c>
       <c r="C325" s="33" t="s">
-        <v>950</v>
+        <v>945</v>
       </c>
       <c r="E325" s="5">
         <v>0</v>
@@ -13390,18 +12828,18 @@
         <v>924</v>
       </c>
     </row>
-    <row r="326" s="5" customFormat="1" spans="1:9">
+    <row r="326" spans="1:9" s="5" customFormat="1">
       <c r="A326" s="14">
         <v>325</v>
       </c>
       <c r="B326" s="34" t="s">
-        <v>951</v>
+        <v>946</v>
       </c>
       <c r="C326" s="34" t="s">
-        <v>952</v>
+        <v>947</v>
       </c>
       <c r="D326" s="34" t="s">
-        <v>953</v>
+        <v>948</v>
       </c>
       <c r="E326" s="5">
         <v>0</v>
@@ -13413,50 +12851,50 @@
         <v>0</v>
       </c>
       <c r="H326" s="5" t="s">
-        <v>954</v>
+        <v>949</v>
       </c>
       <c r="I326" s="33" t="s">
         <v>924</v>
       </c>
     </row>
-    <row r="327" s="5" customFormat="1" spans="1:9">
+    <row r="327" spans="1:9" s="5" customFormat="1">
       <c r="A327" s="14">
         <v>326</v>
       </c>
       <c r="B327" s="34" t="s">
-        <v>955</v>
+        <v>950</v>
       </c>
       <c r="C327" s="33" t="s">
         <v>477</v>
       </c>
       <c r="D327" s="34" t="s">
-        <v>956</v>
+        <v>951</v>
       </c>
       <c r="E327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G327" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I327" s="51">
         <v>44354</v>
       </c>
     </row>
-    <row r="328" s="5" customFormat="1" spans="1:9">
+    <row r="328" spans="1:9" s="5" customFormat="1">
       <c r="A328" s="14">
         <v>327</v>
       </c>
       <c r="B328" s="34" t="s">
-        <v>957</v>
+        <v>952</v>
       </c>
       <c r="C328" s="33" t="s">
-        <v>958</v>
+        <v>953</v>
       </c>
       <c r="D328" s="34" t="s">
-        <v>959</v>
+        <v>954</v>
       </c>
       <c r="E328" s="5">
         <v>0</v>
@@ -13468,21 +12906,21 @@
         <v>0</v>
       </c>
       <c r="I328" s="33" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="329" s="5" customFormat="1" spans="1:9">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" s="5" customFormat="1">
       <c r="A329" s="14">
         <v>328</v>
       </c>
       <c r="B329" s="32" t="s">
-        <v>961</v>
+        <v>956</v>
       </c>
       <c r="C329" s="33" t="s">
-        <v>962</v>
+        <v>957</v>
       </c>
       <c r="D329" s="33" t="s">
-        <v>963</v>
+        <v>958</v>
       </c>
       <c r="E329" s="5">
         <v>0</v>
@@ -13497,18 +12935,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="330" s="5" customFormat="1" spans="1:9">
+    <row r="330" spans="1:9" s="5" customFormat="1">
       <c r="A330" s="14">
         <v>329</v>
       </c>
       <c r="B330" s="32" t="s">
-        <v>964</v>
+        <v>959</v>
       </c>
       <c r="C330" s="33" t="s">
-        <v>965</v>
+        <v>960</v>
       </c>
       <c r="D330" s="5" t="s">
-        <v>966</v>
+        <v>961</v>
       </c>
       <c r="E330" s="5">
         <v>1</v>
@@ -13528,13 +12966,13 @@
         <v>330</v>
       </c>
       <c r="B331" s="9" t="s">
-        <v>967</v>
+        <v>962</v>
       </c>
       <c r="C331" s="33" t="s">
-        <v>968</v>
+        <v>963</v>
       </c>
       <c r="D331" t="s">
-        <v>969</v>
+        <v>964</v>
       </c>
       <c r="E331" s="5">
         <v>1</v>
@@ -13554,13 +12992,13 @@
         <v>331</v>
       </c>
       <c r="B332" s="9" t="s">
-        <v>970</v>
+        <v>965</v>
       </c>
       <c r="C332" s="33" t="s">
-        <v>971</v>
+        <v>966</v>
       </c>
       <c r="D332" t="s">
-        <v>972</v>
+        <v>967</v>
       </c>
       <c r="E332" s="5">
         <v>1</v>
@@ -13580,13 +13018,13 @@
         <v>332</v>
       </c>
       <c r="B333" s="9" t="s">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C333" s="33" t="s">
-        <v>974</v>
+        <v>969</v>
       </c>
       <c r="D333" s="29" t="s">
-        <v>975</v>
+        <v>970</v>
       </c>
       <c r="E333" s="5">
         <v>0</v>
@@ -13606,13 +13044,13 @@
         <v>333</v>
       </c>
       <c r="B334" s="9" t="s">
-        <v>976</v>
+        <v>971</v>
       </c>
       <c r="C334" s="33" t="s">
         <v>166</v>
       </c>
       <c r="D334" t="s">
-        <v>977</v>
+        <v>972</v>
       </c>
       <c r="E334" s="5">
         <v>1</v>
@@ -13624,7 +13062,7 @@
         <v>1</v>
       </c>
       <c r="I334" s="33" t="s">
-        <v>978</v>
+        <v>973</v>
       </c>
     </row>
     <row r="335" spans="1:9">
@@ -13632,10 +13070,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>979</v>
-      </c>
-      <c r="C335" s="33" t="s">
-        <v>980</v>
+        <v>1018</v>
+      </c>
+      <c r="C335" s="59" t="s">
+        <v>1019</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13647,21 +13085,21 @@
         <v>1</v>
       </c>
       <c r="I335" s="33" t="s">
-        <v>981</v>
-      </c>
-    </row>
-    <row r="336" spans="1:7">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9">
       <c r="A336" s="14">
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="D336" s="29" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13673,18 +13111,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="337" spans="1:7">
+    <row r="337" spans="1:9">
       <c r="A337" s="14">
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13701,10 +13139,10 @@
         <v>337</v>
       </c>
       <c r="B338" s="9" t="s">
-        <v>988</v>
+        <v>982</v>
       </c>
       <c r="C338" t="s">
-        <v>989</v>
+        <v>983</v>
       </c>
       <c r="E338">
         <v>0</v>
@@ -13719,18 +13157,18 @@
         <v>44354</v>
       </c>
     </row>
-    <row r="339" spans="1:7">
+    <row r="339" spans="1:9">
       <c r="A339" s="14">
         <v>338</v>
       </c>
       <c r="B339" s="54" t="s">
-        <v>990</v>
+        <v>984</v>
       </c>
       <c r="C339" t="s">
-        <v>991</v>
+        <v>985</v>
       </c>
       <c r="D339" s="55" t="s">
-        <v>992</v>
+        <v>986</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13742,18 +13180,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="340" ht="15.75" spans="1:9">
+    <row r="340" spans="1:9" ht="15.75">
       <c r="A340" s="5">
         <v>339</v>
       </c>
       <c r="B340" s="54" t="s">
-        <v>993</v>
+        <v>987</v>
       </c>
       <c r="C340" t="s">
-        <v>994</v>
+        <v>988</v>
       </c>
       <c r="D340" s="54" t="s">
-        <v>995</v>
+        <v>989</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
@@ -13768,18 +13206,18 @@
         <v>44368</v>
       </c>
     </row>
-    <row r="341" customFormat="1" ht="15.75" spans="1:9">
+    <row r="341" spans="1:9" ht="15.75">
       <c r="A341" s="5">
         <v>340</v>
       </c>
       <c r="B341" s="54" t="s">
-        <v>996</v>
+        <v>990</v>
       </c>
       <c r="C341" t="s">
-        <v>997</v>
+        <v>991</v>
       </c>
       <c r="D341" s="54" t="s">
-        <v>998</v>
+        <v>992</v>
       </c>
       <c r="E341">
         <v>1</v>
@@ -13791,7 +13229,7 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13799,13 +13237,13 @@
         <v>341</v>
       </c>
       <c r="B342" s="9" t="s">
-        <v>1000</v>
+        <v>994</v>
       </c>
       <c r="C342" t="s">
-        <v>1001</v>
+        <v>995</v>
       </c>
       <c r="D342" t="s">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="E342">
         <v>1</v>
@@ -13817,7 +13255,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -13825,13 +13263,13 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
-        <v>1003</v>
+        <v>997</v>
       </c>
       <c r="C343" t="s">
-        <v>1004</v>
+        <v>998</v>
       </c>
       <c r="D343" t="s">
-        <v>1005</v>
+        <v>999</v>
       </c>
       <c r="E343">
         <v>1</v>
@@ -13843,7 +13281,7 @@
         <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13851,13 +13289,13 @@
         <v>343</v>
       </c>
       <c r="B344" s="9" t="s">
-        <v>1006</v>
+        <v>1000</v>
       </c>
       <c r="C344" t="s">
-        <v>1007</v>
+        <v>1001</v>
       </c>
       <c r="D344" t="s">
-        <v>1008</v>
+        <v>1002</v>
       </c>
       <c r="E344">
         <v>1</v>
@@ -13869,7 +13307,7 @@
         <v>1</v>
       </c>
       <c r="I344" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13877,13 +13315,13 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
-        <v>1009</v>
+        <v>1003</v>
       </c>
       <c r="C345" t="s">
-        <v>1010</v>
+        <v>1004</v>
       </c>
       <c r="D345" t="s">
-        <v>1011</v>
+        <v>1005</v>
       </c>
       <c r="E345">
         <v>1</v>
@@ -13895,7 +13333,7 @@
         <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>999</v>
+        <v>993</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -13903,13 +13341,13 @@
         <v>345</v>
       </c>
       <c r="B346" s="9" t="s">
-        <v>1012</v>
+        <v>1006</v>
       </c>
       <c r="C346" t="s">
-        <v>1013</v>
+        <v>1007</v>
       </c>
       <c r="D346" t="s">
-        <v>1014</v>
+        <v>1008</v>
       </c>
       <c r="E346">
         <v>1</v>
@@ -13921,21 +13359,21 @@
         <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>999</v>
-      </c>
-    </row>
-    <row r="347" customFormat="1" spans="1:9">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9">
       <c r="A347" s="14">
         <v>346</v>
       </c>
       <c r="B347" s="33" t="s">
-        <v>1015</v>
+        <v>1009</v>
       </c>
       <c r="C347" s="56" t="s">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="D347" s="29" t="s">
-        <v>1017</v>
+        <v>1011</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
@@ -13951,39 +13389,36 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H347">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A1:H347"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="97.5" customWidth="1"/>
     <col min="2" max="2" width="82" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="153" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1018</v>
-      </c>
-    </row>
-    <row r="2" ht="51.75" customHeight="1"/>
-    <row r="3" ht="52.5" customHeight="1"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="51.75" customHeight="1"/>
+    <row r="3" spans="1:1" ht="52.5" customHeight="1"/>
   </sheetData>
+  <phoneticPr fontId="16" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_7.27\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2623" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3740,6 +3740,9 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
+    <t>act_ty_gifts_style/act_005_khlb</t>
+  </si>
+  <si>
     <t>抽奖礼包</t>
   </si>
   <si>
@@ -3762,9 +3765,6 @@
   </si>
   <si>
     <t>Act_053_XCNSManager</t>
-  </si>
-  <si>
-    <t>act_ty_zp1_style/act_ty_zp1_003</t>
   </si>
   <si>
     <t>通用转盘皮肤</t>
@@ -3862,31 +3862,27 @@
 </t>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_011_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_016_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_017</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_016_huanle</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>欢乐券掉落</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_003_hflb</t>
+    <t>act_ty_zp1_style/act_ty_zp1_006</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>话费礼包</t>
+    <t>sys_act_base_style/sys_act_base_weekly_026</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_022_fengye</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_024_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_014_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4008,7 +4004,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4057,6 +4053,12 @@
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4089,7 +4091,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4259,14 +4261,20 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4548,10 +4556,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C335" sqref="C335"/>
+      <selection pane="bottomRight" activeCell="D328" sqref="D328"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12619,7 +12627,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1014</v>
+        <v>1017</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12644,8 +12652,8 @@
       <c r="B318" s="48" t="s">
         <v>1016</v>
       </c>
-      <c r="C318" s="58" t="s">
-        <v>1017</v>
+      <c r="C318" s="57" t="s">
+        <v>1013</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12665,7 +12673,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1013</v>
+        <v>1018</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13070,10 +13078,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1018</v>
-      </c>
-      <c r="C335" s="59" t="s">
-        <v>1019</v>
+        <v>974</v>
+      </c>
+      <c r="C335" s="33" t="s">
+        <v>975</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13085,7 +13093,7 @@
         <v>1</v>
       </c>
       <c r="I335" s="33" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13093,13 +13101,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="C336" s="33" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D336" s="29" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13116,13 +13124,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="C337" s="33" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="D337" s="29" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13134,26 +13142,26 @@
         <v>0</v>
       </c>
     </row>
-    <row r="338" spans="1:9">
-      <c r="A338" s="14">
+    <row r="338" spans="1:9" s="60" customFormat="1">
+      <c r="A338" s="58">
         <v>337</v>
       </c>
-      <c r="B338" s="9" t="s">
-        <v>982</v>
-      </c>
-      <c r="C338" t="s">
+      <c r="B338" s="59" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C338" s="60" t="s">
         <v>983</v>
       </c>
-      <c r="E338">
-        <v>0</v>
-      </c>
-      <c r="F338">
-        <v>0</v>
-      </c>
-      <c r="G338">
-        <v>0</v>
-      </c>
-      <c r="I338" s="57">
+      <c r="E338" s="60">
+        <v>1</v>
+      </c>
+      <c r="F338" s="60">
+        <v>1</v>
+      </c>
+      <c r="G338" s="60">
+        <v>1</v>
+      </c>
+      <c r="I338" s="61">
         <v>44354</v>
       </c>
     </row>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.10\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3740,12 +3740,6 @@
     <t>通用礼包模板，永久</t>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_005_khlb</t>
-  </si>
-  <si>
-    <t>抽奖礼包</t>
-  </si>
-  <si>
     <t>通用礼包皮肤配置</t>
   </si>
   <si>
@@ -3862,27 +3856,35 @@
 </t>
   </si>
   <si>
-    <t>欢乐券掉落</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_zp1_style/act_ty_zp1_006</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_026</t>
+    <t>act_ty_gifts_style/act_006_axlb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_022_fengye</t>
+    <t>爱心礼包</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_024_dlphb</t>
+    <t>act_ty_by_hhl_style/act_015_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_014_hhl</t>
+    <t>act_ty_by_drop_style/act_023_aixin</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>爱心掉落</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_025_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_028</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4091,7 +4093,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4275,6 +4277,9 @@
     </xf>
     <xf numFmtId="58" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -4556,10 +4561,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D328" sqref="D328"/>
+      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11885,13 +11890,13 @@
         <v>836</v>
       </c>
       <c r="E288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G288" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I288" s="41" t="s">
         <v>723</v>
@@ -12650,10 +12655,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
+        <v>1015</v>
+      </c>
+      <c r="C318" s="57" t="s">
         <v>1016</v>
-      </c>
-      <c r="C318" s="57" t="s">
-        <v>1013</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12673,7 +12678,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1018</v>
+        <v>1014</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12719,7 +12724,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1015</v>
+        <v>1018</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13078,22 +13083,22 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C335" s="62" t="s">
+        <v>1013</v>
+      </c>
+      <c r="E335" s="5">
+        <v>1</v>
+      </c>
+      <c r="F335" s="5">
+        <v>1</v>
+      </c>
+      <c r="G335" s="5">
+        <v>1</v>
+      </c>
+      <c r="I335" s="33" t="s">
         <v>974</v>
-      </c>
-      <c r="C335" s="33" t="s">
-        <v>975</v>
-      </c>
-      <c r="E335" s="5">
-        <v>1</v>
-      </c>
-      <c r="F335" s="5">
-        <v>1</v>
-      </c>
-      <c r="G335" s="5">
-        <v>1</v>
-      </c>
-      <c r="I335" s="33" t="s">
-        <v>976</v>
       </c>
     </row>
     <row r="336" spans="1:9">
@@ -13101,13 +13106,13 @@
         <v>335</v>
       </c>
       <c r="B336" s="9" t="s">
+        <v>975</v>
+      </c>
+      <c r="C336" s="33" t="s">
+        <v>976</v>
+      </c>
+      <c r="D336" s="29" t="s">
         <v>977</v>
-      </c>
-      <c r="C336" s="33" t="s">
-        <v>978</v>
-      </c>
-      <c r="D336" s="29" t="s">
-        <v>979</v>
       </c>
       <c r="E336" s="5">
         <v>0</v>
@@ -13124,13 +13129,13 @@
         <v>336</v>
       </c>
       <c r="B337" s="9" t="s">
+        <v>978</v>
+      </c>
+      <c r="C337" s="33" t="s">
+        <v>979</v>
+      </c>
+      <c r="D337" s="29" t="s">
         <v>980</v>
-      </c>
-      <c r="C337" s="33" t="s">
-        <v>981</v>
-      </c>
-      <c r="D337" s="29" t="s">
-        <v>982</v>
       </c>
       <c r="E337" s="5">
         <v>0</v>
@@ -13147,19 +13152,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1014</v>
+        <v>1011</v>
       </c>
       <c r="C338" s="60" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="E338" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F338" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G338" s="60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I338" s="61">
         <v>44354</v>
@@ -13170,13 +13175,13 @@
         <v>338</v>
       </c>
       <c r="B339" s="54" t="s">
+        <v>982</v>
+      </c>
+      <c r="C339" t="s">
+        <v>983</v>
+      </c>
+      <c r="D339" s="55" t="s">
         <v>984</v>
-      </c>
-      <c r="C339" t="s">
-        <v>985</v>
-      </c>
-      <c r="D339" s="55" t="s">
-        <v>986</v>
       </c>
       <c r="E339">
         <v>1</v>
@@ -13193,13 +13198,13 @@
         <v>339</v>
       </c>
       <c r="B340" s="54" t="s">
+        <v>985</v>
+      </c>
+      <c r="C340" t="s">
+        <v>986</v>
+      </c>
+      <c r="D340" s="54" t="s">
         <v>987</v>
-      </c>
-      <c r="C340" t="s">
-        <v>988</v>
-      </c>
-      <c r="D340" s="54" t="s">
-        <v>989</v>
       </c>
       <c r="E340" s="5">
         <v>1</v>
@@ -13219,25 +13224,25 @@
         <v>340</v>
       </c>
       <c r="B341" s="54" t="s">
+        <v>988</v>
+      </c>
+      <c r="C341" t="s">
+        <v>989</v>
+      </c>
+      <c r="D341" s="54" t="s">
         <v>990</v>
       </c>
-      <c r="C341" t="s">
+      <c r="E341">
+        <v>1</v>
+      </c>
+      <c r="F341">
+        <v>1</v>
+      </c>
+      <c r="G341">
+        <v>1</v>
+      </c>
+      <c r="I341" t="s">
         <v>991</v>
-      </c>
-      <c r="D341" s="54" t="s">
-        <v>992</v>
-      </c>
-      <c r="E341">
-        <v>1</v>
-      </c>
-      <c r="F341">
-        <v>1</v>
-      </c>
-      <c r="G341">
-        <v>1</v>
-      </c>
-      <c r="I341" t="s">
-        <v>993</v>
       </c>
     </row>
     <row r="342" spans="1:9">
@@ -13245,14 +13250,14 @@
         <v>341</v>
       </c>
       <c r="B342" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="C342" t="s">
+        <v>993</v>
+      </c>
+      <c r="D342" t="s">
         <v>994</v>
       </c>
-      <c r="C342" t="s">
-        <v>995</v>
-      </c>
-      <c r="D342" t="s">
-        <v>996</v>
-      </c>
       <c r="E342">
         <v>1</v>
       </c>
@@ -13263,7 +13268,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="343" spans="1:9">
@@ -13271,14 +13276,14 @@
         <v>342</v>
       </c>
       <c r="B343" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="C343" t="s">
+        <v>996</v>
+      </c>
+      <c r="D343" t="s">
         <v>997</v>
       </c>
-      <c r="C343" t="s">
-        <v>998</v>
-      </c>
-      <c r="D343" t="s">
-        <v>999</v>
-      </c>
       <c r="E343">
         <v>1</v>
       </c>
@@ -13289,7 +13294,7 @@
         <v>1</v>
       </c>
       <c r="I343" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="344" spans="1:9">
@@ -13297,14 +13302,14 @@
         <v>343</v>
       </c>
       <c r="B344" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="C344" t="s">
+        <v>999</v>
+      </c>
+      <c r="D344" t="s">
         <v>1000</v>
       </c>
-      <c r="C344" t="s">
-        <v>1001</v>
-      </c>
-      <c r="D344" t="s">
-        <v>1002</v>
-      </c>
       <c r="E344">
         <v>1</v>
       </c>
@@ -13315,7 +13320,7 @@
         <v>1</v>
       </c>
       <c r="I344" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="345" spans="1:9">
@@ -13323,14 +13328,14 @@
         <v>344</v>
       </c>
       <c r="B345" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="C345" t="s">
+        <v>1002</v>
+      </c>
+      <c r="D345" t="s">
         <v>1003</v>
       </c>
-      <c r="C345" t="s">
-        <v>1004</v>
-      </c>
-      <c r="D345" t="s">
-        <v>1005</v>
-      </c>
       <c r="E345">
         <v>1</v>
       </c>
@@ -13341,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="I345" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="346" spans="1:9">
@@ -13349,14 +13354,14 @@
         <v>345</v>
       </c>
       <c r="B346" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1005</v>
+      </c>
+      <c r="D346" t="s">
         <v>1006</v>
       </c>
-      <c r="C346" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D346" t="s">
-        <v>1008</v>
-      </c>
       <c r="E346">
         <v>1</v>
       </c>
@@ -13367,7 +13372,7 @@
         <v>1</v>
       </c>
       <c r="I346" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
     </row>
     <row r="347" spans="1:9">
@@ -13375,13 +13380,13 @@
         <v>346</v>
       </c>
       <c r="B347" s="33" t="s">
+        <v>1007</v>
+      </c>
+      <c r="C347" s="56" t="s">
+        <v>1008</v>
+      </c>
+      <c r="D347" s="29" t="s">
         <v>1009</v>
-      </c>
-      <c r="C347" s="56" t="s">
-        <v>1010</v>
-      </c>
-      <c r="D347" s="29" t="s">
-        <v>1011</v>
       </c>
       <c r="E347" s="5">
         <v>1</v>
@@ -13420,7 +13425,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="153" customHeight="1">
       <c r="A1" s="1" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="51.75" customHeight="1"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.10\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1312" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="1022">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3880,11 +3880,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_025_dlphb</t>
+    <t>act_ty_sjb_style/act_026_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_028</t>
+    <t>sys_act_base_style/sys_act_base_weekly_029</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_016_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_024_xuegao</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_007_qllb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4561,10 +4573,10 @@
   <dimension ref="A1:I347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C278" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D297" sqref="D297"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12655,7 +12667,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1015</v>
+        <v>1020</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1016</v>
@@ -12678,7 +12690,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1014</v>
+        <v>1019</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13083,7 +13095,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1012</v>
+        <v>1021</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1013</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.24\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1023">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3860,43 +3860,47 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_006_axlb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>爱心礼包</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_015_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_023_aixin</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>爱心掉落</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_026_dlphb</t>
+    <t>act_ty_by_hhl_style/act_017_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_029</t>
+    <t>act_ty_gifts_style/act_008_hflb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_016_hhl</t>
+    <t>act_ty_by_drop_style/act_025_huanlequan</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_024_xuegao</t>
+    <t>act_ty_sjb_style/act_027_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_007_qllb</t>
+    <t>sys_act_base_style/sys_act_base_weekly_030</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_exit_ask</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出询问弹窗</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYS_Exit_AskManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4570,13 +4574,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I347"/>
+  <dimension ref="A1:I348"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C314" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="I348" sqref="I348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12667,10 +12671,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1020</v>
+        <v>1016</v>
       </c>
       <c r="C318" s="57" t="s">
-        <v>1016</v>
+        <v>1013</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12690,7 +12694,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1019</v>
+        <v>1014</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13095,10 +13099,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1021</v>
+        <v>1015</v>
       </c>
       <c r="C335" s="62" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13411,6 +13415,32 @@
       </c>
       <c r="I347" s="19" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9">
+      <c r="A348" s="5">
+        <v>347</v>
+      </c>
+      <c r="B348" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1020</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>1021</v>
+      </c>
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
+        <v>1022</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.24\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.31\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1316" uniqueCount="1023">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1026">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3884,10 +3884,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_030</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_exit_ask</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3901,6 +3897,22 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_055_xhns</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>积分赠礼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_055_XHNSManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_031</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4109,7 +4121,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4295,6 +4307,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4574,13 +4589,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I348"/>
+  <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I348" sqref="I348"/>
+      <selection pane="bottomRight" activeCell="F318" sqref="F318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11573,16 +11588,16 @@
         <v>797</v>
       </c>
       <c r="E275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G275" s="6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I275" s="50">
-        <v>44368</v>
+        <v>44445</v>
       </c>
     </row>
     <row r="276" spans="1:9" s="7" customFormat="1">
@@ -12740,7 +12755,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1018</v>
+        <v>1025</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13391,8 +13406,8 @@
         <v>991</v>
       </c>
     </row>
-    <row r="347" spans="1:9">
-      <c r="A347" s="14">
+    <row r="347" spans="1:9" ht="14.25">
+      <c r="A347" s="5">
         <v>346</v>
       </c>
       <c r="B347" s="33" t="s">
@@ -13422,25 +13437,51 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="C348" t="s">
         <v>1019</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" s="29" t="s">
         <v>1020</v>
       </c>
-      <c r="D348" s="29" t="s">
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
         <v>1021</v>
       </c>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
-      <c r="F348" s="5">
-        <v>1</v>
-      </c>
-      <c r="G348" s="5">
-        <v>1</v>
-      </c>
-      <c r="I348" t="s">
+    </row>
+    <row r="349" spans="1:9">
+      <c r="A349" s="5">
+        <v>348</v>
+      </c>
+      <c r="B349" s="9" t="s">
         <v>1022</v>
+      </c>
+      <c r="C349" t="s">
+        <v>1023</v>
+      </c>
+      <c r="D349" s="29" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E349" s="5">
+        <v>1</v>
+      </c>
+      <c r="F349" s="5">
+        <v>1</v>
+      </c>
+      <c r="G349" s="5">
+        <v>1</v>
+      </c>
+      <c r="I349" s="63">
+        <v>44445</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_8.31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3856,10 +3856,6 @@
 </t>
   </si>
   <si>
-    <t>act_ty_zp1_style/act_ty_zp1_006</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>爱心礼包</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3912,7 +3908,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_031</t>
+    <t>act_ty_zp1_style/act_ty_zp1_007</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_032</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D299" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F318" sqref="F318"/>
+      <selection pane="bottomRight" activeCell="D339" sqref="D339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12663,7 +12663,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12686,10 +12686,10 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="C318" s="57" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="E318" s="7">
         <v>1</v>
@@ -12709,7 +12709,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13114,10 +13114,10 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="C335" s="62" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="E335" s="5">
         <v>1</v>
@@ -13183,19 +13183,19 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1011</v>
+        <v>1024</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>981</v>
       </c>
       <c r="E338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G338" s="60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I338" s="61">
         <v>44354</v>
@@ -13437,25 +13437,25 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="C348" t="s">
         <v>1018</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" s="29" t="s">
         <v>1019</v>
       </c>
-      <c r="D348" s="29" t="s">
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
         <v>1020</v>
-      </c>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
-      <c r="F348" s="5">
-        <v>1</v>
-      </c>
-      <c r="G348" s="5">
-        <v>1</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1021</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13463,13 +13463,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C349" t="s">
         <v>1022</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" s="29" t="s">
         <v>1023</v>
-      </c>
-      <c r="D349" s="29" t="s">
-        <v>1024</v>
       </c>
       <c r="E349" s="5">
         <v>1</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
+      <selection pane="bottomRight" activeCell="E260" sqref="E260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -11192,7 +11192,7 @@
         <v>751</v>
       </c>
       <c r="E260" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F260" s="5">
         <v>1</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3876,10 +3876,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_027_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_exit_ask</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3912,7 +3908,11 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_032</t>
+    <t>act_ty_sjb_style/act_028_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_033</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C311" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D339" sqref="D339"/>
+      <selection pane="bottomRight" activeCell="C322" sqref="C322"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12663,7 +12663,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1016</v>
+        <v>1024</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -13183,7 +13183,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>981</v>
@@ -13437,25 +13437,25 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C348" t="s">
         <v>1017</v>
       </c>
-      <c r="C348" t="s">
+      <c r="D348" s="29" t="s">
         <v>1018</v>
       </c>
-      <c r="D348" s="29" t="s">
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
         <v>1019</v>
-      </c>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
-      <c r="F348" s="5">
-        <v>1</v>
-      </c>
-      <c r="G348" s="5">
-        <v>1</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1020</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13463,13 +13463,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="C349" t="s">
         <v>1021</v>
       </c>
-      <c r="C349" t="s">
+      <c r="D349" s="29" t="s">
         <v>1022</v>
-      </c>
-      <c r="D349" s="29" t="s">
-        <v>1023</v>
       </c>
       <c r="E349" s="5">
         <v>1</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1026">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3864,18 +3864,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_017_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_008_hflb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_025_huanlequan</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_exit_ask</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3908,11 +3896,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_028_dlphb</t>
+    <t>act_ty_by_drop_style/act_026_yuebing</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_033</t>
+    <t>act_ty_by_hhl_style/act_018_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_009_zqlb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_029_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_034</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C260" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E260" sqref="E260"/>
+      <selection pane="bottomRight" activeCell="H260" sqref="H260"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12686,7 +12686,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12709,7 +12709,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1013</v>
+        <v>1022</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13114,7 +13114,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1014</v>
+        <v>1023</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13183,7 +13183,7 @@
         <v>337</v>
       </c>
       <c r="B338" s="59" t="s">
-        <v>1023</v>
+        <v>1020</v>
       </c>
       <c r="C338" s="60" t="s">
         <v>981</v>
@@ -13437,25 +13437,25 @@
         <v>347</v>
       </c>
       <c r="B348" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="C348" t="s">
+        <v>1014</v>
+      </c>
+      <c r="D348" s="29" t="s">
+        <v>1015</v>
+      </c>
+      <c r="E348" s="5">
+        <v>1</v>
+      </c>
+      <c r="F348" s="5">
+        <v>1</v>
+      </c>
+      <c r="G348" s="5">
+        <v>1</v>
+      </c>
+      <c r="I348" t="s">
         <v>1016</v>
-      </c>
-      <c r="C348" t="s">
-        <v>1017</v>
-      </c>
-      <c r="D348" s="29" t="s">
-        <v>1018</v>
-      </c>
-      <c r="E348" s="5">
-        <v>1</v>
-      </c>
-      <c r="F348" s="5">
-        <v>1</v>
-      </c>
-      <c r="G348" s="5">
-        <v>1</v>
-      </c>
-      <c r="I348" t="s">
-        <v>1019</v>
       </c>
     </row>
     <row r="349" spans="1:9">
@@ -13463,13 +13463,13 @@
         <v>348</v>
       </c>
       <c r="B349" s="9" t="s">
-        <v>1020</v>
+        <v>1017</v>
       </c>
       <c r="C349" t="s">
-        <v>1021</v>
+        <v>1018</v>
       </c>
       <c r="D349" s="29" t="s">
-        <v>1022</v>
+        <v>1019</v>
       </c>
       <c r="E349" s="5">
         <v>1</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2637" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1026">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3912,7 +3912,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_034</t>
+    <t>sys_act_base_style/sys_act_base_weekly_035</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4592,10 +4592,10 @@
   <dimension ref="A1:I349"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C245" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H260" sqref="H260"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_9.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.12\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="1026">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1032">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3896,10 +3896,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_026_yuebing</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_018_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3908,11 +3904,39 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_029_dlphb</t>
+    <t>sys_act_base_style/sys_act_base_fkfl_001</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_035</t>
+    <t>疯狂返利</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_058_cylb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>重阳礼包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_058_JRLBManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_036</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_027_guihuagao</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_030_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4121,7 +4145,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4310,6 +4334,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4589,13 +4616,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I349"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="F329" sqref="F329"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12663,7 +12690,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1024</v>
+        <v>1031</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12686,7 +12713,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12709,7 +12736,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12755,7 +12782,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1025</v>
+        <v>1029</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13071,13 +13098,13 @@
         <v>970</v>
       </c>
       <c r="E333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I333" s="51">
         <v>44355</v>
@@ -13114,7 +13141,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13482,6 +13509,57 @@
       </c>
       <c r="I349" s="63">
         <v>44445</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9">
+      <c r="A350" s="5">
+        <v>349</v>
+      </c>
+      <c r="B350" s="9" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C350" s="64" t="s">
+        <v>1024</v>
+      </c>
+      <c r="E350" s="5">
+        <v>1</v>
+      </c>
+      <c r="F350" s="5">
+        <v>1</v>
+      </c>
+      <c r="G350" s="5">
+        <v>1</v>
+      </c>
+      <c r="H350" s="5"/>
+      <c r="I350" s="64" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9">
+      <c r="A351" s="5">
+        <v>350</v>
+      </c>
+      <c r="B351" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="C351" s="64" t="s">
+        <v>1027</v>
+      </c>
+      <c r="D351" s="64" t="s">
+        <v>1028</v>
+      </c>
+      <c r="E351" s="5">
+        <v>1</v>
+      </c>
+      <c r="F351" s="5">
+        <v>1</v>
+      </c>
+      <c r="G351" s="5">
+        <v>1</v>
+      </c>
+      <c r="H351" s="5"/>
+      <c r="I351" s="63">
+        <v>44487</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1325" uniqueCount="1032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1035">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3896,14 +3896,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_018_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_009_zqlb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_fkfl_001</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3928,15 +3920,35 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_036</t>
+    <t>sys_act_base_style/sys_act_base_weekly_037</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_027_guihuagao</t>
+    <t>act_ty_sjb_style/act_031_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_030_dlphb</t>
+    <t>act_ty_by_drop_style/act_025_huanlequan</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_008_hflb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_017_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_061_xyhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新游豪礼</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_061_XYHLManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4616,13 +4628,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:I352"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C308" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F329" sqref="F329"/>
+      <selection pane="bottomRight" activeCell="C356" sqref="C355:C356"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12690,7 +12702,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1031</v>
+        <v>1028</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12713,7 +12725,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12736,7 +12748,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1021</v>
+        <v>1031</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12782,7 +12794,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13141,7 +13153,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1022</v>
+        <v>1030</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13516,10 +13528,10 @@
         <v>349</v>
       </c>
       <c r="B350" s="9" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="C350" s="64" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E350" s="5">
         <v>1</v>
@@ -13532,7 +13544,7 @@
       </c>
       <c r="H350" s="5"/>
       <c r="I350" s="64" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="351" spans="1:9">
@@ -13540,13 +13552,13 @@
         <v>350</v>
       </c>
       <c r="B351" s="9" t="s">
+        <v>1024</v>
+      </c>
+      <c r="C351" s="64" t="s">
+        <v>1025</v>
+      </c>
+      <c r="D351" s="64" t="s">
         <v>1026</v>
-      </c>
-      <c r="C351" s="64" t="s">
-        <v>1027</v>
-      </c>
-      <c r="D351" s="64" t="s">
-        <v>1028</v>
       </c>
       <c r="E351" s="5">
         <v>1</v>
@@ -13560,6 +13572,32 @@
       <c r="H351" s="5"/>
       <c r="I351" s="63">
         <v>44487</v>
+      </c>
+    </row>
+    <row r="352" spans="1:9">
+      <c r="A352" s="5">
+        <v>351</v>
+      </c>
+      <c r="B352" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="C352" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D352" s="64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E352" s="5">
+        <v>1</v>
+      </c>
+      <c r="F352" s="5">
+        <v>1</v>
+      </c>
+      <c r="G352" s="5">
+        <v>1</v>
+      </c>
+      <c r="I352" s="63">
+        <v>44501</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.19\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.26\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1328" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1042">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3920,26 +3920,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_037</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_sjb_style/act_031_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_025_huanlequan</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_008_hflb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_017_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_061_xyhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3949,6 +3929,54 @@
   </si>
   <si>
     <t>Act_061_XYHLManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_010_khlb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_028_nangua</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_019_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_032_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_038</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_062_HGHDManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_062_hghd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_hghd_001</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>回归活动皮肤</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4628,13 +4656,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I352"/>
+  <dimension ref="A1:I354"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C329" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C356" sqref="C355:C356"/>
+      <selection pane="bottomRight" activeCell="I354" sqref="I354"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12702,7 +12730,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1028</v>
+        <v>1033</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12725,7 +12753,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1029</v>
+        <v>1031</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12748,7 +12776,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12794,7 +12822,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1027</v>
+        <v>1034</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13570,8 +13598,8 @@
         <v>1</v>
       </c>
       <c r="H351" s="5"/>
-      <c r="I351" s="63">
-        <v>44487</v>
+      <c r="I351" s="63" t="s">
+        <v>1038</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13579,13 +13607,13 @@
         <v>351</v>
       </c>
       <c r="B352" s="9" t="s">
-        <v>1032</v>
+        <v>1027</v>
       </c>
       <c r="C352" s="64" t="s">
-        <v>1033</v>
+        <v>1028</v>
       </c>
       <c r="D352" s="64" t="s">
-        <v>1034</v>
+        <v>1029</v>
       </c>
       <c r="E352" s="5">
         <v>1</v>
@@ -13598,6 +13626,55 @@
       </c>
       <c r="I352" s="63">
         <v>44501</v>
+      </c>
+    </row>
+    <row r="353" spans="1:9">
+      <c r="A353" s="5">
+        <v>352</v>
+      </c>
+      <c r="B353" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C353" s="64" t="s">
+        <v>1036</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="354" spans="1:9">
+      <c r="A354" s="5">
+        <v>353</v>
+      </c>
+      <c r="B354" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C354" s="64" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E354" s="5">
+        <v>1</v>
+      </c>
+      <c r="F354" s="5">
+        <v>1</v>
+      </c>
+      <c r="G354" s="5">
+        <v>1</v>
+      </c>
+      <c r="I354" s="63" t="s">
+        <v>1041</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.9\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1049">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3932,10 +3932,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_010_khlb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_drop_style/act_028_nangua</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3980,10 +3976,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_039</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_hghd_001</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3993,6 +3985,26 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_011_ssylb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_040</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_zzpw</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>至尊排位</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACTZZPWManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4672,13 +4684,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I355"/>
+  <dimension ref="A1:I356"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
+      <selection pane="bottomRight" activeCell="C358" sqref="C358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12746,7 +12758,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12769,7 +12781,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12792,7 +12804,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12838,7 +12850,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1042</v>
+        <v>1045</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13197,7 +13209,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1030</v>
+        <v>1044</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13615,7 +13627,7 @@
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="63" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13649,25 +13661,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C353" s="64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
         <v>1036</v>
-      </c>
-      <c r="C353" s="64" t="s">
-        <v>1035</v>
-      </c>
-      <c r="D353" s="64" t="s">
-        <v>1034</v>
-      </c>
-      <c r="E353" s="5">
-        <v>1</v>
-      </c>
-      <c r="F353" s="5">
-        <v>1</v>
-      </c>
-      <c r="G353" s="5">
-        <v>1</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1037</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13675,10 +13687,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="C354" s="64" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
       <c r="D354" s="64"/>
       <c r="E354" s="5">
@@ -13691,7 +13703,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="63" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13699,25 +13711,51 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C355" s="64" t="s">
         <v>1038</v>
       </c>
-      <c r="C355" s="64" t="s">
+      <c r="D355" s="64" t="s">
         <v>1039</v>
       </c>
-      <c r="D355" s="64" t="s">
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F355" s="5">
+        <v>1</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1</v>
+      </c>
+      <c r="I355" s="63" t="s">
         <v>1040</v>
       </c>
-      <c r="E355" s="5">
-        <v>1</v>
-      </c>
-      <c r="F355" s="5">
-        <v>1</v>
-      </c>
-      <c r="G355" s="5">
-        <v>1</v>
-      </c>
-      <c r="I355" s="63" t="s">
-        <v>1041</v>
+    </row>
+    <row r="356" spans="1:9">
+      <c r="A356" s="5">
+        <v>355</v>
+      </c>
+      <c r="B356" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C356" s="64" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D356" s="64" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E356" s="5">
+        <v>1</v>
+      </c>
+      <c r="F356" s="5">
+        <v>1</v>
+      </c>
+      <c r="G356" s="5">
+        <v>1</v>
+      </c>
+      <c r="I356" s="63">
+        <v>44522</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_10.26\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1336" uniqueCount="1042">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="1046">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3948,10 +3948,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_038</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_062_HGHDManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3965,6 +3961,26 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_063_xrhb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>新人红包</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_063_XRHBManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_039</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -4656,13 +4672,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I354"/>
+  <dimension ref="A1:I355"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D338" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C341" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I354" sqref="I354"/>
+      <selection pane="bottomRight" activeCell="D361" sqref="D361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12822,7 +12838,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1034</v>
+        <v>1042</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13599,7 +13615,7 @@
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="63" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13633,25 +13649,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C353" s="64" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
         <v>1037</v>
-      </c>
-      <c r="C353" s="64" t="s">
-        <v>1036</v>
-      </c>
-      <c r="D353" s="64" t="s">
-        <v>1035</v>
-      </c>
-      <c r="E353" s="5">
-        <v>1</v>
-      </c>
-      <c r="F353" s="5">
-        <v>1</v>
-      </c>
-      <c r="G353" s="5">
-        <v>1</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1038</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13659,21 +13675,48 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C354" s="64" t="s">
+        <v>1044</v>
+      </c>
+      <c r="D354" s="64"/>
+      <c r="E354" s="5">
+        <v>1</v>
+      </c>
+      <c r="F354" s="5">
+        <v>1</v>
+      </c>
+      <c r="G354" s="5">
+        <v>1</v>
+      </c>
+      <c r="I354" s="63" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="355" spans="1:9">
+      <c r="A355" s="5">
+        <v>354</v>
+      </c>
+      <c r="B355" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C355" s="64" t="s">
         <v>1039</v>
       </c>
-      <c r="C354" s="64" t="s">
+      <c r="D355" s="64" t="s">
         <v>1040</v>
       </c>
-      <c r="E354" s="5">
-        <v>1</v>
-      </c>
-      <c r="F354" s="5">
-        <v>1</v>
-      </c>
-      <c r="G354" s="5">
-        <v>1</v>
-      </c>
-      <c r="I354" s="63" t="s">
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F355" s="5">
+        <v>1</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1</v>
+      </c>
+      <c r="I355" s="63" t="s">
         <v>1041</v>
       </c>
     </row>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4005,6 +4005,38 @@
   </si>
   <si>
     <t>ACTZZPWManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_064_xyfd</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_064_slyz</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>幸运福袋</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>时来运转</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_064_XYFDManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Act_064_SLYZManager</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>永久</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4684,13 +4716,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I356"/>
+  <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="C358" sqref="C358"/>
+      <selection pane="bottomRight" activeCell="I358" sqref="I358"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13756,6 +13788,58 @@
       </c>
       <c r="I356" s="63">
         <v>44522</v>
+      </c>
+    </row>
+    <row r="357" spans="1:9">
+      <c r="A357" s="5">
+        <v>356</v>
+      </c>
+      <c r="B357" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="C357" s="64" t="s">
+        <v>1051</v>
+      </c>
+      <c r="D357" s="64" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E357" s="5">
+        <v>1</v>
+      </c>
+      <c r="F357" s="5">
+        <v>1</v>
+      </c>
+      <c r="G357" s="5">
+        <v>1</v>
+      </c>
+      <c r="I357" s="63" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="358" spans="1:9">
+      <c r="A358" s="5">
+        <v>357</v>
+      </c>
+      <c r="B358" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C358" s="64" t="s">
+        <v>1052</v>
+      </c>
+      <c r="D358" s="64" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E358" s="5">
+        <v>1</v>
+      </c>
+      <c r="F358" s="5">
+        <v>1</v>
+      </c>
+      <c r="G358" s="5">
+        <v>1</v>
+      </c>
+      <c r="I358" s="63" t="s">
+        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.23\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="1060">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3940,10 +3940,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_032_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_062_HGHDManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3988,10 +3984,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_011_ssylb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>sys_act_base_style/sys_act_base_weekly_040</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -4037,6 +4029,26 @@
   </si>
   <si>
     <t>永久</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_033_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_012_gelb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_029_huoji</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_020_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_041</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4719,10 +4731,10 @@
   <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="D335" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I358" sqref="I358"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12790,7 +12802,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1032</v>
+        <v>1055</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12813,7 +12825,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1030</v>
+        <v>1057</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12836,7 +12848,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1031</v>
+        <v>1058</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12882,7 +12894,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1045</v>
+        <v>1059</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13241,7 +13253,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1044</v>
+        <v>1056</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13659,7 +13671,7 @@
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="63" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13693,25 +13705,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C353" s="64" t="s">
+        <v>1033</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1032</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
         <v>1035</v>
-      </c>
-      <c r="C353" s="64" t="s">
-        <v>1034</v>
-      </c>
-      <c r="D353" s="64" t="s">
-        <v>1033</v>
-      </c>
-      <c r="E353" s="5">
-        <v>1</v>
-      </c>
-      <c r="F353" s="5">
-        <v>1</v>
-      </c>
-      <c r="G353" s="5">
-        <v>1</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1036</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13719,10 +13731,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="C354" s="64" t="s">
         <v>1041</v>
-      </c>
-      <c r="C354" s="64" t="s">
-        <v>1042</v>
       </c>
       <c r="D354" s="64"/>
       <c r="E354" s="5">
@@ -13735,7 +13747,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="63" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13743,25 +13755,25 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C355" s="64" t="s">
         <v>1037</v>
       </c>
-      <c r="C355" s="64" t="s">
+      <c r="D355" s="64" t="s">
         <v>1038</v>
       </c>
-      <c r="D355" s="64" t="s">
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F355" s="5">
+        <v>1</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1</v>
+      </c>
+      <c r="I355" s="63" t="s">
         <v>1039</v>
-      </c>
-      <c r="E355" s="5">
-        <v>1</v>
-      </c>
-      <c r="F355" s="5">
-        <v>1</v>
-      </c>
-      <c r="G355" s="5">
-        <v>1</v>
-      </c>
-      <c r="I355" s="63" t="s">
-        <v>1040</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13769,13 +13781,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C356" s="64" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D356" s="64" t="s">
         <v>1046</v>
-      </c>
-      <c r="C356" s="64" t="s">
-        <v>1047</v>
-      </c>
-      <c r="D356" s="64" t="s">
-        <v>1048</v>
       </c>
       <c r="E356" s="5">
         <v>1</v>
@@ -13795,25 +13807,25 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C357" s="64" t="s">
         <v>1049</v>
       </c>
-      <c r="C357" s="64" t="s">
+      <c r="D357" s="64" t="s">
         <v>1051</v>
       </c>
-      <c r="D357" s="64" t="s">
+      <c r="E357" s="5">
+        <v>1</v>
+      </c>
+      <c r="F357" s="5">
+        <v>1</v>
+      </c>
+      <c r="G357" s="5">
+        <v>1</v>
+      </c>
+      <c r="I357" s="63" t="s">
         <v>1053</v>
-      </c>
-      <c r="E357" s="5">
-        <v>1</v>
-      </c>
-      <c r="F357" s="5">
-        <v>1</v>
-      </c>
-      <c r="G357" s="5">
-        <v>1</v>
-      </c>
-      <c r="I357" s="63" t="s">
-        <v>1055</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -13821,25 +13833,25 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C358" s="64" t="s">
         <v>1050</v>
       </c>
-      <c r="C358" s="64" t="s">
+      <c r="D358" s="64" t="s">
         <v>1052</v>
       </c>
-      <c r="D358" s="64" t="s">
+      <c r="E358" s="5">
+        <v>1</v>
+      </c>
+      <c r="F358" s="5">
+        <v>1</v>
+      </c>
+      <c r="G358" s="5">
+        <v>1</v>
+      </c>
+      <c r="I358" s="63" t="s">
         <v>1054</v>
-      </c>
-      <c r="E358" s="5">
-        <v>1</v>
-      </c>
-      <c r="F358" s="5">
-        <v>1</v>
-      </c>
-      <c r="G358" s="5">
-        <v>1</v>
-      </c>
-      <c r="I358" s="63" t="s">
-        <v>1056</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.23\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.16\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="1060">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -3932,14 +3932,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_028_nangua</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_019_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>Act_062_HGHDManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -3984,10 +3976,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_040</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_zzpw</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -4048,7 +4036,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_041</t>
+    <t>sys_act_base_style/sys_act_base_weekly_042</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -12802,7 +12790,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12825,7 +12813,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1057</v>
+        <v>1054</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12848,7 +12836,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1058</v>
+        <v>1055</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12894,7 +12882,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1059</v>
+        <v>1056</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13253,7 +13241,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13671,7 +13659,7 @@
       </c>
       <c r="H351" s="5"/>
       <c r="I351" s="63" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="352" spans="1:9">
@@ -13705,25 +13693,25 @@
         <v>352</v>
       </c>
       <c r="B353" s="9" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="C353" s="64" t="s">
+        <v>1031</v>
+      </c>
+      <c r="D353" s="64" t="s">
+        <v>1030</v>
+      </c>
+      <c r="E353" s="5">
+        <v>1</v>
+      </c>
+      <c r="F353" s="5">
+        <v>1</v>
+      </c>
+      <c r="G353" s="5">
+        <v>1</v>
+      </c>
+      <c r="I353" t="s">
         <v>1033</v>
-      </c>
-      <c r="D353" s="64" t="s">
-        <v>1032</v>
-      </c>
-      <c r="E353" s="5">
-        <v>1</v>
-      </c>
-      <c r="F353" s="5">
-        <v>1</v>
-      </c>
-      <c r="G353" s="5">
-        <v>1</v>
-      </c>
-      <c r="I353" t="s">
-        <v>1035</v>
       </c>
     </row>
     <row r="354" spans="1:9">
@@ -13731,10 +13719,10 @@
         <v>353</v>
       </c>
       <c r="B354" s="9" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="C354" s="64" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D354" s="64"/>
       <c r="E354" s="5">
@@ -13747,7 +13735,7 @@
         <v>1</v>
       </c>
       <c r="I354" s="63" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="355" spans="1:9">
@@ -13755,25 +13743,25 @@
         <v>354</v>
       </c>
       <c r="B355" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="C355" s="64" t="s">
+        <v>1035</v>
+      </c>
+      <c r="D355" s="64" t="s">
         <v>1036</v>
       </c>
-      <c r="C355" s="64" t="s">
+      <c r="E355" s="5">
+        <v>1</v>
+      </c>
+      <c r="F355" s="5">
+        <v>1</v>
+      </c>
+      <c r="G355" s="5">
+        <v>1</v>
+      </c>
+      <c r="I355" s="63" t="s">
         <v>1037</v>
-      </c>
-      <c r="D355" s="64" t="s">
-        <v>1038</v>
-      </c>
-      <c r="E355" s="5">
-        <v>1</v>
-      </c>
-      <c r="F355" s="5">
-        <v>1</v>
-      </c>
-      <c r="G355" s="5">
-        <v>1</v>
-      </c>
-      <c r="I355" s="63" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="356" spans="1:9">
@@ -13781,13 +13769,13 @@
         <v>355</v>
       </c>
       <c r="B356" s="9" t="s">
-        <v>1044</v>
+        <v>1041</v>
       </c>
       <c r="C356" s="64" t="s">
-        <v>1045</v>
+        <v>1042</v>
       </c>
       <c r="D356" s="64" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
       <c r="E356" s="5">
         <v>1</v>
@@ -13807,13 +13795,13 @@
         <v>356</v>
       </c>
       <c r="B357" s="9" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="C357" s="64" t="s">
-        <v>1049</v>
+        <v>1046</v>
       </c>
       <c r="D357" s="64" t="s">
-        <v>1051</v>
+        <v>1048</v>
       </c>
       <c r="E357" s="5">
         <v>1</v>
@@ -13825,7 +13813,7 @@
         <v>1</v>
       </c>
       <c r="I357" s="63" t="s">
-        <v>1053</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="358" spans="1:9">
@@ -13833,13 +13821,13 @@
         <v>357</v>
       </c>
       <c r="B358" s="9" t="s">
-        <v>1048</v>
+        <v>1045</v>
       </c>
       <c r="C358" s="64" t="s">
-        <v>1050</v>
+        <v>1047</v>
       </c>
       <c r="D358" s="64" t="s">
-        <v>1052</v>
+        <v>1049</v>
       </c>
       <c r="E358" s="5">
         <v>1</v>
@@ -13851,7 +13839,7 @@
         <v>1</v>
       </c>
       <c r="I358" s="63" t="s">
-        <v>1054</v>
+        <v>1051</v>
       </c>
     </row>
   </sheetData>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_11.16\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="1061">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4036,7 +4036,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_042</t>
+    <t>sys_act_base_style/sys_act_base_weekly_043</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_034_dlphb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_hhl_style/act_021_hhl</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_030_xueqiu</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_gifts_style/act_013_xqlb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4722,7 +4738,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12790,7 +12806,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1052</v>
+        <v>1057</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12813,7 +12829,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1054</v>
+        <v>1059</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12836,7 +12852,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1055</v>
+        <v>1058</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13241,7 +13257,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1053</v>
+        <v>1060</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.14\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6293" uniqueCount="1061">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4020,26 +4020,6 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_033_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_gifts_style/act_012_gelb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_drop_style/act_029_huoji</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>act_ty_by_hhl_style/act_020_hhl</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
-    <t>sys_act_base_style/sys_act_base_weekly_043</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_034_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
@@ -4053,6 +4033,10 @@
   </si>
   <si>
     <t>act_ty_gifts_style/act_013_xqlb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_044</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4738,7 +4722,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12806,7 +12790,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1057</v>
+        <v>1052</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12829,7 +12813,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1059</v>
+        <v>1054</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12852,7 +12836,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1058</v>
+        <v>1053</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -13257,7 +13241,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1060</v>
+        <v>1055</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.14\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.21\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4036,7 +4036,7 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_044</t>
+    <t>sys_act_base_style/sys_act_base_weekly_045</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.21\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.28\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,6 +42,7 @@
         <sz val="11"/>
         <color rgb="FF0B0B0B"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>值和活动是对应的</t>
@@ -526,6 +527,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>专享</t>
@@ -544,6 +546,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>和游戏中的</t>
@@ -562,6 +565,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>系统有牵连</t>
@@ -755,6 +759,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>免费领红包</t>
@@ -772,6 +777,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>随机金币领取</t>
@@ -789,6 +795,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>大厅推荐游戏位</t>
@@ -851,6 +858,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>实名认证</t>
@@ -868,6 +876,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抢红包</t>
@@ -1137,6 +1146,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1147,6 +1157,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1157,6 +1168,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -1253,6 +1265,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>鼠年</t>
@@ -1271,6 +1284,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>赢金抽大奖</t>
@@ -1297,6 +1311,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>点赞有礼</t>
@@ -1314,6 +1329,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>爆竹送礼</t>
@@ -1331,6 +1347,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>红包雨</t>
@@ -1348,6 +1365,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1366,6 +1384,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神送礼</t>
@@ -1383,6 +1402,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1401,6 +1421,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1418,6 +1439,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1436,6 +1458,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>猜灯谜</t>
@@ -1462,6 +1485,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元宵</t>
@@ -1480,6 +1504,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>累计赢金</t>
@@ -1497,6 +1522,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>辞旧岁</t>
@@ -1515,6 +1541,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>炸弹福利</t>
@@ -1532,6 +1559,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>迎财神</t>
@@ -1550,6 +1578,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1567,6 +1596,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>浪漫情人节</t>
@@ -1584,6 +1614,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>新人七天乐</t>
@@ -1601,6 +1632,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>分享拉新</t>
@@ -1618,6 +1650,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>龙腾祈福</t>
@@ -1635,6 +1668,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1653,6 +1687,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>比赛预约</t>
@@ -1670,6 +1705,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1688,6 +1724,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归有礼</t>
@@ -1705,6 +1742,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1723,6 +1761,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼福利</t>
@@ -1740,6 +1779,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -1758,6 +1798,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>有奖问答</t>
@@ -1775,6 +1816,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1793,6 +1835,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>抽奖</t>
@@ -1810,6 +1853,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1828,6 +1872,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>礼物</t>
@@ -1845,6 +1890,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>女神节</t>
@@ -1863,6 +1909,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>财神模式</t>
@@ -1889,6 +1936,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树护苗</t>
@@ -1906,6 +1954,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>植树礼物</t>
@@ -1923,6 +1972,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹充值</t>
@@ -1940,6 +1990,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹收集</t>
@@ -1957,6 +2008,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>疯狂原子弹购买</t>
@@ -1992,6 +2044,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>元礼包</t>
@@ -2018,6 +2071,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>捕鱼-幸运彩贝</t>
@@ -2044,6 +2098,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>回归惊喜</t>
@@ -2070,6 +2125,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>天女散花</t>
@@ -2087,6 +2143,7 @@
         <sz val="11"/>
         <color rgb="FF191F25"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>月末福利</t>
@@ -2119,6 +2176,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2129,6 +2187,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2804,6 +2863,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -2814,6 +2874,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3132,6 +3193,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3142,6 +3204,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3457,6 +3520,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>通用活动</t>
@@ -3475,6 +3539,7 @@
         <sz val="11"/>
         <color rgb="FF111F2C"/>
         <rFont val="宋体"/>
+        <family val="3"/>
         <charset val="134"/>
       </rPr>
       <t>掉落活动</t>
@@ -3555,6 +3620,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -3565,6 +3631,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
@@ -4020,23 +4087,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_034_dlphb</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_by_hhl_style/act_021_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_030_xueqiu</t>
+    <t>sys_act_base_style/sys_act_base_weekly_046</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_013_xqlb</t>
+    <t>act_ty_gifts_style/act_015_jclb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_045</t>
+    <t>act_ty_by_drop_style/act_031_denglong</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_sjb_style/act_035_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4062,6 +4129,7 @@
       <sz val="11"/>
       <color rgb="FF0B0B0B"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4080,12 +4148,14 @@
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF191F25"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4122,23 +4192,27 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF111F2C"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -4719,10 +4793,10 @@
   <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B321" sqref="B321"/>
+      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12790,7 +12864,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1052</v>
+        <v>1056</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12813,7 +12887,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12836,7 +12910,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12882,7 +12956,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13241,7 +13315,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13342,13 +13416,13 @@
         <v>984</v>
       </c>
       <c r="E339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F339">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G339">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15.75">

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_12.28\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.4\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4091,15 +4091,15 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_046</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_gifts_style/act_015_jclb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
     <t>act_ty_by_drop_style/act_031_denglong</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_act_base_style/sys_act_base_weekly_047</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
@@ -4793,10 +4793,10 @@
   <dimension ref="A1:I358"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C318" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H339" sqref="H339"/>
+      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12887,7 +12887,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12956,7 +12956,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13315,7 +13315,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>
@@ -13416,13 +13416,13 @@
         <v>984</v>
       </c>
       <c r="E339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G339">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="15.75">

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.11\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4087,23 +4087,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_021_hhl</t>
+    <t>sys_act_base_style/sys_act_base_weekly_048</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_015_jclb</t>
+    <t>act_ty_sjb_style/act_036_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_031_denglong</t>
+    <t>act_ty_by_drop_style/act_032_huanlequan</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_047</t>
+    <t>act_ty_by_hhl_style/act_022_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_sjb_style/act_035_dlphb</t>
+    <t>act_ty_gifts_style/act_016_hflb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4796,7 +4796,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B317" sqref="B317"/>
+      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12864,7 +12864,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1056</v>
+        <v>1053</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12910,7 +12910,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1052</v>
+        <v>1055</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12956,7 +12956,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1055</v>
+        <v>1052</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13315,7 +13315,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1053</v>
+        <v>1056</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.11\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.25\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -4087,23 +4087,23 @@
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>sys_act_base_style/sys_act_base_weekly_048</t>
-    <phoneticPr fontId="15" type="noConversion"/>
-  </si>
-  <si>
     <t>act_ty_sjb_style/act_036_dlphb</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_drop_style/act_032_huanlequan</t>
+    <t>sys_act_base_style/sys_act_base_weekly_049</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_by_hhl_style/act_022_hhl</t>
+    <t>act_ty_by_hhl_style/act_023_hhl</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
   <si>
-    <t>act_ty_gifts_style/act_016_hflb</t>
+    <t>act_ty_gifts_style/act_017_xclb</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>act_ty_by_drop_style/act_033_yuanbao</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4796,7 +4796,7 @@
       <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B335" sqref="B335"/>
+      <selection pane="bottomRight" activeCell="B318" sqref="B318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -12864,7 +12864,7 @@
         <v>316</v>
       </c>
       <c r="B317" s="48" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C317" s="41" t="s">
         <v>928</v>
@@ -12887,7 +12887,7 @@
         <v>317</v>
       </c>
       <c r="B318" s="48" t="s">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="C318" s="57" t="s">
         <v>1012</v>
@@ -12910,7 +12910,7 @@
         <v>318</v>
       </c>
       <c r="B319" s="48" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="C319" s="41" t="s">
         <v>930</v>
@@ -12956,7 +12956,7 @@
         <v>320</v>
       </c>
       <c r="B321" s="52" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C321" s="41" t="s">
         <v>934</v>
@@ -13315,7 +13315,7 @@
         <v>334</v>
       </c>
       <c r="B335" s="9" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="C335" s="62" t="s">
         <v>1011</v>

--- a/config_aomi/game_module_config.xlsx
+++ b/config_aomi/game_module_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_aomi_1.25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_ aomi_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1351" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1355" uniqueCount="1060">
   <si>
     <t>id|按钮的ID</t>
   </si>
@@ -4104,6 +4104,18 @@
   </si>
   <si>
     <t>act_ty_by_drop_style/act_033_yuanbao</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>sys_goto_ddz</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户转入斗地主</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sys_Goto_DDZManager</t>
     <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
@@ -4319,7 +4331,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4511,6 +4523,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4790,13 +4805,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I358"/>
+  <dimension ref="A1:I359"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C309" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="1" topLeftCell="C327" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B318" sqref="B318"/>
+      <selection pane="bottomRight" activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -13491,7 +13506,7 @@
         <v>994</v>
       </c>
       <c r="E342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F342">
         <v>1</v>
@@ -13914,6 +13929,32 @@
       </c>
       <c r="I358" s="63" t="s">
         <v>1051</v>
+      </c>
+    </row>
+    <row r="359" spans="1:9">
+      <c r="A359" s="5">
+        <v>358</v>
+      </c>
+      <c r="B359" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="C359" s="65" t="s">
+        <v>1058</v>
+      </c>
+      <c r="D359" s="65" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E359" s="5">
+        <v>1</v>
+      </c>
+      <c r="F359" s="5">
+        <v>1</v>
+      </c>
+      <c r="G359" s="5">
+        <v>1</v>
+      </c>
+      <c r="I359" s="63" t="s">
+        <v>1016</v>
       </c>
     </row>
   </sheetData>
